--- a/inputs/fr/demo_region2_input.xlsx
+++ b/inputs/fr/demo_region2_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68DD4E63-1108-4C3D-889B-09401538D372}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F33028A9-746B-4D25-B530-B8004D584D57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1665" windowWidth="29895" windowHeight="19935" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="29895" windowHeight="16770" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -489,9 +489,6 @@
     <t>Neonatal congenital anomalies</t>
   </si>
   <si>
-    <t>Vitamin A supplementation</t>
-  </si>
-  <si>
     <t>Balanced energy-protein supplementation</t>
   </si>
   <si>
@@ -594,9 +591,6 @@
     <t>IFA fortification of wheat flour</t>
   </si>
   <si>
-    <t>IFA fortification of maize</t>
-  </si>
-  <si>
     <t>IFA fortification of rice</t>
   </si>
   <si>
@@ -1225,6 +1219,12 @@
   </si>
   <si>
     <t>12-23 mois</t>
+  </si>
+  <si>
+    <t>Supplémentation en vitamine A</t>
+  </si>
+  <si>
+    <t>Enrichissement du maïs en AGI</t>
   </si>
 </sst>
 </file>
@@ -4765,18 +4765,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4784,7 +4784,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4793,7 +4793,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4806,12 +4806,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4870,14 +4870,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4921,12 +4921,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4962,14 +4962,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5011,19 +5011,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" s="17"/>
     </row>
@@ -5126,13 +5126,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5173,12 +5173,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5212,7 +5212,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/cz3pOhSM/PX3+ZIw66MsRpGz0mtEAwvKWqt1qo2aFHDLnMC354CUd1y6wQ8NzUxxJcb7gJUQW7xWR39BJTTYQ==" saltValue="M7/PveBvDEzV8sh6Y9pH6A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8fTppeLz1teILVVRD3ssmsdAiq2/RO7nrE+rbn4LJw9rSl5DISybVXGoA98HZrQg1aL/6tTWbRehhYa8C4xD7Q==" saltValue="TFOY+d3lxUQvmuFyMUs99Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5239,48 +5239,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -5360,7 +5360,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ysf1MjB6A4ywWNX2R/AXpcsoX6VrToFzq1G1NTAKUsKnfdSiSR1NtHm6Y4bAmtZa1nT1hMb8h5Tz6JioKD19sw==" saltValue="9ciRJBETCL3DTipggTMNng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rX1gqMwRdoAlKpf3QWDDIgySrUQ8M+qoO/2f2wt8lMaf5GWuIOYyU4DB1Ovrgg4o9yhs5+BcKzU1l85Eq2FBHg==" saltValue="VUbWSqvOlY6RH02fISzUpA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5386,47 +5386,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5460,7 +5460,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4hEdoWGWkBdkWv3Qw6ZAWBkMNB0MPX/dj21Ypki5wMp5+F6Zd8dj1zGsINQVXLqC9vN9Umvo8chXGBdbSt+6Jg==" saltValue="n4ZKjQfBD1yoa6SdMhC/QQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="i8YexQ5W/sUjmBUWMxtwtUhwe/3RYXgLGnf3gV7CDnD5g4P3k9FKTXHdH/0FN/3nupeeLuFvelSrPEt02eCsHQ==" saltValue="LMzTGxXbHU2tCFj0/f9KSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5493,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -5575,7 +5575,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GpG9QN9nOU0kAoI/LmESAgWXZY9xo4Fx78RwVPHxFnlMSz4XWVgzmmu9LpbfiNvWNgoUkwJe1RAOgk72f+a2WA==" saltValue="Fq8FRXTY8irbkUQHGbt64w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xHGrVc+m9wIJxaILNjne5oBa6N2RxAYKHmLYcw6Mk5YHiU1okXNl54sWBDeWQgWeAL9L2oknL2J+RSFuvJg7+A==" saltValue="zjcrxwnTNSSe7RuHkK9sxg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5606,10 +5606,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -5621,42 +5621,42 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -5792,7 +5792,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo</f>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -6072,7 +6072,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo</f>
@@ -6121,7 +6121,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="87">
         <v>0</v>
@@ -6168,10 +6168,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -6220,7 +6220,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -6265,7 +6265,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -6314,7 +6314,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -6410,7 +6410,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="88">
         <v>0</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="88">
         <v>0</v>
@@ -6549,10 +6549,10 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -6600,7 +6600,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -6648,7 +6648,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -6696,7 +6696,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -6744,7 +6744,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -6799,10 +6799,10 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C29" s="87">
         <v>0</v>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -6912,7 +6912,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -6967,7 +6967,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -7011,7 +7011,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
@@ -7068,7 +7068,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="87">
         <v>1</v>
@@ -7113,7 +7113,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="87">
         <v>1</v>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="87">
         <v>1</v>
@@ -7201,7 +7201,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="87">
         <v>1</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="87">
         <v>1</v>
@@ -7291,7 +7291,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="N62Q58IUcnOlItqAyl6kPS5x9IEVEy8+5CYR4uXO0UlptBfq7w6aMYhU4feqTRgmupYJlfZ//Iw0oqVGBVxS2g==" saltValue="cMw1XXSWL67e4jUMIYdnEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uFcNnO7NyxAq6zrcPYHqYGS2V0KlbhwY7APhp1PCoAR0wgzuwIfhejb2OId8N5725Z4YhIUK2zcdWAH96P0aEQ==" saltValue="Ao/yW6frpWnA1yhAhmr1fQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7310,26 +7310,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EfzoDusJyD+px/qX9aaaQhOVOGGFBRcrxuOyu0PDuogoI+UXzKjENS91HVArRzi+rLRndAihvVgu18g4jcjsNw==" saltValue="JpXZYRp+Uub0T4qtC//7Fg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9gGPK5kWD/Z8pIgxHuDBzoCi8hD3dQygZZo0ss5H48Gwqh6Vnj+pJsyfH0Ln3WOKuQnQ+CGUk1V2ujeaBo9JUg==" saltValue="YimvUuUCkgtlVM1GkpUb6w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7356,24 +7356,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="38">
         <v>0.9</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="38">
         <v>1</v>
@@ -7409,7 +7409,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="38">
         <v>1</v>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" s="38">
         <v>1</v>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="38">
         <v>0.93</v>
@@ -7481,7 +7481,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="38">
         <v>0.5</v>
@@ -7499,7 +7499,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" s="38">
         <v>0.5</v>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B10" s="38">
         <v>0.98</v>
@@ -7537,7 +7537,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="p1TjfDkpOdqoNe/2RmfDHExolOEq3miD7gp6zNSyF+FVfwo+KbPcScmecEzB7B8viYr4p7adlusu9NI4YRWd6Q==" saltValue="Ux8NkxkUIJlc3+xtJ1sKAA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AmoQ9YqTApUWOY7SMFhsfOjYlrYTRJoxfWSTTTHtPYbYdEOtTnPjdpI6BqBNEMeC7frBtm/fI9r8/6F8f9//bw==" saltValue="SljOlAK6aIjhRFripCZpZw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7570,10 +7570,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="56" t="s">
         <v>1</v>
@@ -7585,42 +7585,42 @@
         <v>3</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="56" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="J1" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="K1" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="56" t="s">
-        <v>54</v>
-      </c>
       <c r="L1" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="N1" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="O1" s="56" t="s">
         <v>49</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="90">
         <v>0</v>
@@ -7664,7 +7664,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="90">
         <v>1</v>
@@ -7708,7 +7708,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="90">
         <v>1</v>
@@ -7752,7 +7752,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="90">
         <v>1</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" s="90">
         <v>1</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="90">
         <v>1</v>
@@ -7884,7 +7884,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="90">
         <v>0</v>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C9" s="90">
         <v>0</v>
@@ -7972,7 +7972,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="90">
         <v>1</v>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="90">
         <v>0</v>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="90">
         <v>0</v>
@@ -8104,7 +8104,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="C13" s="90">
         <v>0</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="90">
         <v>1</v>
@@ -8192,7 +8192,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="90">
         <v>0</v>
@@ -8252,10 +8252,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="90">
         <v>0</v>
@@ -8300,7 +8300,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="90">
         <v>0</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C19" s="90">
         <v>0</v>
@@ -8388,7 +8388,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C20" s="90">
         <v>0</v>
@@ -8432,7 +8432,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="90">
         <v>0</v>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="90">
         <v>0</v>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="90">
         <v>0</v>
@@ -8564,7 +8564,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="90">
         <v>0</v>
@@ -8624,10 +8624,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C26" s="90">
         <v>0</v>
@@ -8672,7 +8672,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C27" s="90">
         <v>0</v>
@@ -8717,7 +8717,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C28" s="90">
         <v>0</v>
@@ -8761,7 +8761,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C29" s="90">
         <v>0</v>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C30" s="90">
         <v>0</v>
@@ -8865,10 +8865,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C32" s="90">
         <v>1</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="90">
         <v>1</v>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="90">
         <v>1</v>
@@ -9000,7 +9000,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="90">
         <v>1</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="90">
         <v>1</v>
@@ -9089,7 +9089,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C37" s="90">
         <v>1</v>
@@ -9133,7 +9133,7 @@
     </row>
     <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" s="90">
         <v>1</v>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="90">
         <v>1</v>
@@ -9221,7 +9221,7 @@
     </row>
     <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="90">
         <v>1</v>
@@ -9265,7 +9265,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="90">
         <v>1</v>
@@ -9308,7 +9308,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qhEiArfDK+h8PMriUp6VbRo/f16Avs4pB+G1X6B0oSboBBZSO06DiPz82uC2zzaaG9M2juXu5yVnS8g8vSchOA==" saltValue="eGKKefKaxsRf4IGIdhoqMg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="42k1Sqt3YBCsua5uXvCwdJYO05Y86KnFp92XafyE5Y348LDz4v2Kk84VRjgibFfA01dLY+LYUgkXGtXiFP6c9A==" saltValue="JoHvSlrUokInSOhAY1q+tg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9341,42 +9341,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>208</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -9386,14 +9386,14 @@
       <c r="G2" s="90"/>
       <c r="H2" s="90"/>
       <c r="I2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="90"/>
@@ -9402,7 +9402,7 @@
       <c r="F3" s="90"/>
       <c r="G3" s="90"/>
       <c r="H3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -9410,12 +9410,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
       <c r="D4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
@@ -9427,11 +9427,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
@@ -9444,7 +9444,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="90"/>
       <c r="C6" s="90"/>
@@ -9455,26 +9455,26 @@
       <c r="H6" s="90"/>
       <c r="I6" s="90"/>
       <c r="J6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
@@ -9482,18 +9482,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I8" s="90"/>
       <c r="J8" s="90"/>
@@ -9501,18 +9501,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="90"/>
       <c r="H9" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
@@ -9520,11 +9520,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
@@ -9537,11 +9537,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -9554,11 +9554,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -9571,11 +9571,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -9588,11 +9588,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -9600,18 +9600,18 @@
       <c r="G14" s="90"/>
       <c r="H14" s="90"/>
       <c r="I14" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D15" s="90"/>
       <c r="E15" s="90"/>
@@ -9619,39 +9619,39 @@
       <c r="G15" s="90"/>
       <c r="H15" s="90"/>
       <c r="I15" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="90"/>
       <c r="H16" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="90"/>
       <c r="C17" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D17" s="90"/>
       <c r="E17" s="90"/>
@@ -9664,16 +9664,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C18" s="90"/>
       <c r="D18" s="90"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G18" s="90"/>
       <c r="H18" s="90"/>
@@ -9683,16 +9683,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="90"/>
       <c r="D19" s="90"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -9702,16 +9702,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C20" s="90"/>
       <c r="D20" s="90"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G20" s="90"/>
       <c r="H20" s="90"/>
@@ -9721,7 +9721,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" s="90"/>
       <c r="C21" s="90"/>
@@ -9730,26 +9730,26 @@
       <c r="F21" s="90"/>
       <c r="G21" s="90"/>
       <c r="H21" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I21" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D22" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
@@ -9761,11 +9761,11 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="90"/>
       <c r="C23" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
@@ -9773,14 +9773,14 @@
       <c r="G23" s="90"/>
       <c r="H23" s="90"/>
       <c r="I23" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" s="90"/>
       <c r="C24" s="90"/>
@@ -9789,7 +9789,7 @@
       <c r="F24" s="90"/>
       <c r="G24" s="90"/>
       <c r="H24" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I24" s="90"/>
       <c r="J24" s="90"/>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
@@ -9806,7 +9806,7 @@
       <c r="F25" s="90"/>
       <c r="G25" s="90"/>
       <c r="H25" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I25" s="90"/>
       <c r="J25" s="90"/>
@@ -9814,11 +9814,11 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D26" s="90"/>
       <c r="E26" s="90"/>
@@ -9831,11 +9831,11 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="90"/>
       <c r="C27" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D27" s="90"/>
       <c r="E27" s="90"/>
@@ -9843,14 +9843,14 @@
       <c r="G27" s="90"/>
       <c r="H27" s="90"/>
       <c r="I27" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
@@ -9859,7 +9859,7 @@
       <c r="F28" s="90"/>
       <c r="G28" s="90"/>
       <c r="H28" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I28" s="90"/>
       <c r="J28" s="90"/>
@@ -9867,14 +9867,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C29" s="90"/>
       <c r="D29" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
@@ -9886,13 +9886,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="90"/>
       <c r="C30" s="90"/>
       <c r="D30" s="90"/>
       <c r="E30" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F30" s="90"/>
       <c r="G30" s="90"/>
@@ -9903,7 +9903,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
@@ -9911,10 +9911,10 @@
       <c r="E31" s="90"/>
       <c r="F31" s="90"/>
       <c r="G31" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H31" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I31" s="90"/>
       <c r="J31" s="90"/>
@@ -9922,7 +9922,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="90"/>
       <c r="C32" s="90"/>
@@ -9930,10 +9930,10 @@
       <c r="E32" s="90"/>
       <c r="F32" s="90"/>
       <c r="G32" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H32" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I32" s="90"/>
       <c r="J32" s="90"/>
@@ -9941,7 +9941,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="90"/>
       <c r="C33" s="90"/>
@@ -9949,10 +9949,10 @@
       <c r="E33" s="90"/>
       <c r="F33" s="90"/>
       <c r="G33" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H33" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I33" s="90"/>
       <c r="J33" s="90"/>
@@ -9960,7 +9960,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="90"/>
       <c r="C34" s="90"/>
@@ -9968,10 +9968,10 @@
       <c r="E34" s="90"/>
       <c r="F34" s="90"/>
       <c r="G34" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H34" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I34" s="90"/>
       <c r="J34" s="90"/>
@@ -9979,7 +9979,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="90"/>
       <c r="C35" s="90"/>
@@ -9987,10 +9987,10 @@
       <c r="E35" s="90"/>
       <c r="F35" s="90"/>
       <c r="G35" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H35" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
@@ -9998,7 +9998,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="90"/>
       <c r="C36" s="90"/>
@@ -10006,10 +10006,10 @@
       <c r="E36" s="90"/>
       <c r="F36" s="90"/>
       <c r="G36" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H36" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I36" s="90"/>
       <c r="J36" s="90"/>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
@@ -10026,7 +10026,7 @@
       <c r="F37" s="90"/>
       <c r="G37" s="90"/>
       <c r="H37" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I37" s="90"/>
       <c r="J37" s="90"/>
@@ -10034,27 +10034,27 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C38" s="90"/>
       <c r="D38" s="90"/>
       <c r="E38" s="90"/>
       <c r="F38" s="90"/>
       <c r="G38" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H38" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I38" s="90"/>
       <c r="J38" s="90"/>
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EY9H1dT5I7D0muRIzlZMf+j1Dlo69iu/SsM6Xih5RF/Kr+NbrQnGwndIRHdPLneTrvxBOxkWRjwWfMcczePwVQ==" saltValue="eRA0IeOBf4HtGyiVOHgG0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mS1TyjAY1VuXPCum9ThgzhyBBdTe4RbGk5GGZ8nAo7Up2yigxhPhYO3BXPolqIXqvqiIm+CJ1O/gNJwYb/TJGw==" saltValue="niW3TVn0nVF5DcpWHBYXbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10087,37 +10087,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>208</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -10125,25 +10125,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
@@ -10154,25 +10154,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -10183,25 +10183,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I4" s="90"/>
       <c r="J4" s="90"/>
@@ -10209,28 +10209,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I5" s="90"/>
       <c r="J5" s="90"/>
@@ -10241,25 +10241,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I6" s="90"/>
       <c r="J6" s="90"/>
@@ -10267,95 +10267,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I7" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="90"/>
       <c r="H9" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I9" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
       <c r="F10" s="90"/>
       <c r="G10" s="90"/>
       <c r="H10" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I10" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -10364,19 +10364,19 @@
       <c r="H11" s="90"/>
       <c r="I11" s="90"/>
       <c r="J11" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K11" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -10386,16 +10386,16 @@
       <c r="I12" s="90"/>
       <c r="J12" s="90"/>
       <c r="K12" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -10405,16 +10405,16 @@
       <c r="I13" s="90"/>
       <c r="J13" s="90"/>
       <c r="K13" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -10424,11 +10424,11 @@
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hBIYv/rFEBEehgS8UPENvG0jl6mljp/MUesz1Y82zhOhtFffOO+9vaf6JEBaZN5+YrW0+a+WFpvOJYNm4HvG7Q==" saltValue="0F1D3VSdTyonvrMP9ji4eg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="R/qA4fUOlTJKKEG6rjb4z4jaZ+GNnCy7Vzhi0EIvWQa14KCH4yYXwMDdMwjzkeTwgEyXuO6Xw155Ve6VP4VblQ==" saltValue="hplfPeSyJN9KjY53FfAxtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10454,13 +10454,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -10472,7 +10472,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H1" s="98" t="s">
         <v>4</v>
@@ -10480,13 +10480,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D2" s="99">
         <v>1</v>
@@ -10507,7 +10507,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" s="99">
         <v>1</v>
@@ -10529,7 +10529,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D4" s="99">
         <v>1</v>
@@ -10553,7 +10553,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D5" s="99">
         <f>5.16</f>
@@ -10575,7 +10575,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D6" s="99">
         <v>5.16</v>
@@ -10596,7 +10596,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D7" s="99">
         <v>1</v>
@@ -10619,7 +10619,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D8" s="99">
         <v>1</v>
@@ -10640,7 +10640,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" s="99">
         <v>1</v>
@@ -10661,7 +10661,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D10" s="99">
         <v>1</v>
@@ -10684,7 +10684,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D11" s="99">
         <v>1</v>
@@ -10705,7 +10705,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D12" s="99">
         <v>1</v>
@@ -10726,7 +10726,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D13" s="99">
         <v>1</v>
@@ -10746,10 +10746,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D14" s="99">
         <v>1</v>
@@ -10770,7 +10770,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D15" s="99">
         <v>1</v>
@@ -10791,7 +10791,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D16" s="99">
         <v>1</v>
@@ -10811,10 +10811,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D17" s="99">
         <v>1.05</v>
@@ -10841,13 +10841,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D19" s="99">
         <v>1</v>
@@ -10868,7 +10868,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D20" s="99">
         <v>1</v>
@@ -10889,7 +10889,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D21" s="99">
         <v>1</v>
@@ -10912,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D22" s="99">
         <v>1</v>
@@ -10933,7 +10933,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D23" s="99">
         <v>1</v>
@@ -10954,7 +10954,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D24" s="99">
         <v>1</v>
@@ -10977,7 +10977,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D25" s="99">
         <v>1</v>
@@ -10998,7 +10998,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D26" s="99">
         <v>1</v>
@@ -11019,7 +11019,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D27" s="99">
         <v>1</v>
@@ -11042,7 +11042,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D28" s="99">
         <v>1</v>
@@ -11063,7 +11063,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D29" s="99">
         <v>1</v>
@@ -11084,7 +11084,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D30" s="99">
         <v>1</v>
@@ -11104,10 +11104,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D31" s="99">
         <v>1</v>
@@ -11128,7 +11128,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D32" s="99">
         <v>1</v>
@@ -11149,7 +11149,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D33" s="99">
         <v>1</v>
@@ -11169,10 +11169,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D34" s="99">
         <v>1</v>
@@ -11199,13 +11199,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="103" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D36" s="99">
         <v>1</v>
@@ -11226,7 +11226,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D37" s="99">
         <v>1</v>
@@ -11247,7 +11247,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D38" s="99">
         <v>1</v>
@@ -11270,7 +11270,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D39" s="99">
         <v>1</v>
@@ -11291,7 +11291,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D40" s="99">
         <v>1</v>
@@ -11312,7 +11312,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D41" s="99">
         <v>1</v>
@@ -11335,7 +11335,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D42" s="99">
         <v>1</v>
@@ -11356,7 +11356,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D43" s="99">
         <v>1</v>
@@ -11377,7 +11377,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D44" s="99">
         <v>1</v>
@@ -11400,7 +11400,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D45" s="99">
         <v>1</v>
@@ -11421,7 +11421,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D46" s="99">
         <v>1</v>
@@ -11442,7 +11442,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D47" s="99">
         <v>1</v>
@@ -11462,10 +11462,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D48" s="99">
         <v>1</v>
@@ -11486,7 +11486,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D49" s="99">
         <v>1</v>
@@ -11507,7 +11507,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D50" s="99">
         <v>1</v>
@@ -11527,10 +11527,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D51" s="99">
         <v>1.05</v>
@@ -11549,7 +11549,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z05l0S/RrA43LIiv43qdaCqjZUDkuR5Y81+zm1DPMv77rx6XaGWPl7D+D0soY49Ml6iX6V6FFq8MkERmQeFZzw==" saltValue="YUbCLfPGT6/sH+f15lr7VA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kwrTI39iKisMITi2Q6cyL8sfQbM0Hch8mma6FDdGZ7IURniTVNmBZoruCjW83QdNhRRm0kX+g+8txrzTrh2hBg==" saltValue="dCk8NFR7WtqBpMr6DzZcSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11595,28 +11595,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>50</v>
-      </c>
       <c r="G1" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12657,7 +12657,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/58gvQ588E0iYQQaqt4lUAAeUVy3o3wqq70P1bY4hBx8kZ72S5Q+wiIx/pL3Kp5ddnF2s6tSohtUNkdlDIxL+A==" saltValue="rhPpsJs1dFqgCA7EAhIrkg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pvJ4P90YCZERXBl6i411SNSibTuFu+5EVCUUxHWOB63lMFtIXYRxl/SJovMsdHfsXw/4Zotpd8Uam1dBsBKGrg==" saltValue="ks+R7oKChtK2jmTZ0Y6bQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12691,7 +12691,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12711,7 +12711,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B3" s="110"/>
       <c r="C3" s="111"/>
@@ -12721,7 +12721,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="114">
         <v>1</v>
@@ -12738,7 +12738,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="114">
         <v>1</v>
@@ -12755,7 +12755,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="114">
         <v>1</v>
@@ -12772,7 +12772,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="114">
         <v>1</v>
@@ -12795,7 +12795,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C9" s="114">
         <v>1</v>
@@ -12820,7 +12820,7 @@
     </row>
     <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="105" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C11" s="118"/>
       <c r="D11" s="119"/>
@@ -12830,7 +12830,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C12" s="116"/>
       <c r="D12" s="100"/>
@@ -12840,7 +12840,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="121" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C13" s="114">
         <v>1</v>
@@ -12858,7 +12858,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="121" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C14" s="114">
         <v>1</v>
@@ -12876,7 +12876,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="121" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C15" s="114">
         <v>1</v>
@@ -12903,7 +12903,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B17" s="110"/>
       <c r="C17" s="123"/>
@@ -12914,7 +12914,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -13003,7 +13003,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -13059,7 +13059,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wK2Iln6E/kR6T/kjG3YjvghvrIFGHvOlo/CcXkfUEepvLQCGzk3a7/QoHYcpqpv2MGwu1XRydlKSAWBO5So9ig==" saltValue="h/wxc5wXd5x2bojA+ufQvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LywaxaZkhIdrOekr9WaGY7k24KvgxMBnqXLpKfzF49RfOutCcHBfH9ZuugRLmxru9euEmHZRlmkkkiozrifM3Q==" saltValue="RKvbf4wgAy4CnxysBPGemg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13089,18 +13089,18 @@
   <sheetData>
     <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="126" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B2" s="127" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C2" s="127" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D2" s="109" t="s">
         <v>1</v>
@@ -13112,7 +13112,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H2" s="109" t="s">
         <v>4</v>
@@ -13129,10 +13129,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D3" s="114">
         <v>1</v>
@@ -13160,7 +13160,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -13188,7 +13188,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" s="115">
         <v>1</v>
@@ -13216,7 +13216,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -13247,7 +13247,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D7" s="114">
         <v>1</v>
@@ -13275,7 +13275,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" s="115">
         <v>1</v>
@@ -13303,7 +13303,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D9" s="115">
         <v>1</v>
@@ -13331,7 +13331,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D10" s="115">
         <v>1</v>
@@ -13362,7 +13362,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D11" s="114">
         <v>1</v>
@@ -13390,7 +13390,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D12" s="115">
         <v>1</v>
@@ -13418,7 +13418,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" s="115">
         <v>1</v>
@@ -13446,7 +13446,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D14" s="115">
         <v>1</v>
@@ -13477,7 +13477,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D15" s="114">
         <v>1</v>
@@ -13505,7 +13505,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D16" s="115">
         <v>1</v>
@@ -13533,7 +13533,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D17" s="115">
         <v>1</v>
@@ -13561,7 +13561,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D18" s="115">
         <v>1</v>
@@ -13592,7 +13592,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D19" s="114">
         <v>1</v>
@@ -13620,7 +13620,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D20" s="115">
         <v>1</v>
@@ -13648,7 +13648,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D21" s="115">
         <v>1</v>
@@ -13676,7 +13676,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D22" s="115">
         <v>1</v>
@@ -13707,7 +13707,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D23" s="114">
         <v>1</v>
@@ -13735,7 +13735,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D24" s="115">
         <v>1</v>
@@ -13763,7 +13763,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D25" s="115">
         <v>1</v>
@@ -13791,7 +13791,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -13819,18 +13819,18 @@
     </row>
     <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="105" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="129" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D29" s="109" t="s">
         <v>1</v>
@@ -13842,7 +13842,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H29" s="109" t="s">
         <v>4</v>
@@ -13859,10 +13859,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D30" s="114">
         <v>1</v>
@@ -13890,7 +13890,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D31" s="115">
         <v>1</v>
@@ -13918,7 +13918,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -13946,7 +13946,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D33" s="115">
         <v>1</v>
@@ -13977,7 +13977,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D34" s="114">
         <v>1</v>
@@ -14005,7 +14005,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -14033,7 +14033,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D36" s="115">
         <v>1</v>
@@ -14061,7 +14061,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D37" s="115">
         <v>1</v>
@@ -14092,7 +14092,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D38" s="114">
         <v>1</v>
@@ -14120,7 +14120,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D39" s="115">
         <v>1</v>
@@ -14148,7 +14148,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" s="115">
         <v>1</v>
@@ -14176,7 +14176,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D41" s="115">
         <v>1</v>
@@ -14207,7 +14207,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D42" s="114">
         <v>1</v>
@@ -14235,7 +14235,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D43" s="115">
         <v>1</v>
@@ -14263,7 +14263,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44" s="115">
         <v>1</v>
@@ -14291,7 +14291,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D45" s="115">
         <v>1</v>
@@ -14322,7 +14322,7 @@
         <v>15</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D46" s="114">
         <v>1</v>
@@ -14350,7 +14350,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D47" s="115">
         <v>1</v>
@@ -14378,7 +14378,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48" s="115">
         <v>1</v>
@@ -14406,7 +14406,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D49" s="115">
         <v>1</v>
@@ -14437,7 +14437,7 @@
         <v>21</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D50" s="114">
         <v>1</v>
@@ -14465,7 +14465,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D51" s="115">
         <v>1</v>
@@ -14493,7 +14493,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D52" s="115">
         <v>1</v>
@@ -14521,7 +14521,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D53" s="115">
         <v>1</v>
@@ -14553,30 +14553,30 @@
     </row>
     <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="105" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="129" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B56" s="98" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C56" s="131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D56" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="E56" s="109" t="s">
+      <c r="F56" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="F56" s="109" t="s">
+      <c r="G56" s="109" t="s">
         <v>53</v>
-      </c>
-      <c r="G56" s="109" t="s">
-        <v>54</v>
       </c>
       <c r="H56" s="128"/>
       <c r="M56" s="128"/>
@@ -14587,10 +14587,10 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D57" s="114">
         <v>1</v>
@@ -14612,7 +14612,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D58" s="115">
         <v>10.675000000000001</v>
@@ -14634,10 +14634,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D59" s="114">
         <v>1</v>
@@ -14659,7 +14659,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D60" s="115">
         <v>10.675000000000001</v>
@@ -14681,10 +14681,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D61" s="114">
         <v>1</v>
@@ -14706,7 +14706,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D62" s="115">
         <v>10.675000000000001</v>
@@ -14732,7 +14732,7 @@
     </row>
     <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="105" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -14740,10 +14740,10 @@
         <v>22</v>
       </c>
       <c r="B65" s="98" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C65" s="131" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D65" s="109" t="s">
         <v>1</v>
@@ -14755,7 +14755,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H65" s="132" t="s">
         <v>4</v>
@@ -14772,10 +14772,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D66" s="114">
         <v>1</v>
@@ -14803,7 +14803,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D67" s="115">
         <v>1.35</v>
@@ -14831,7 +14831,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D68" s="115">
         <v>1.35</v>
@@ -14859,7 +14859,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D69" s="115">
         <v>5.4</v>
@@ -14890,7 +14890,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D70" s="114">
         <v>1</v>
@@ -14918,7 +14918,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D71" s="115">
         <v>1.35</v>
@@ -14946,7 +14946,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D72" s="115">
         <v>1.35</v>
@@ -14974,7 +14974,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D73" s="115">
         <v>5.4</v>
@@ -15005,7 +15005,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D74" s="114">
         <v>1</v>
@@ -15033,7 +15033,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D75" s="115">
         <v>1.35</v>
@@ -15061,7 +15061,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D76" s="115">
         <v>1.35</v>
@@ -15089,7 +15089,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D77" s="115">
         <v>5.4</v>
@@ -15120,7 +15120,7 @@
         <v>12</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D78" s="114">
         <v>1</v>
@@ -15148,7 +15148,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D79" s="115">
         <v>1</v>
@@ -15176,7 +15176,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D80" s="115">
         <v>1</v>
@@ -15204,7 +15204,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D81" s="115">
         <v>1</v>
@@ -15232,10 +15232,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D82" s="114">
         <v>1</v>
@@ -15263,7 +15263,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D83" s="115">
         <v>1</v>
@@ -15291,7 +15291,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D84" s="115">
         <v>1</v>
@@ -15319,7 +15319,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D85" s="115">
         <v>1</v>
@@ -15350,7 +15350,7 @@
         <v>14</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D86" s="114">
         <v>1</v>
@@ -15378,7 +15378,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D87" s="115">
         <v>1</v>
@@ -15406,7 +15406,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D88" s="115">
         <v>1</v>
@@ -15434,7 +15434,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D89" s="115">
         <v>1</v>
@@ -15465,7 +15465,7 @@
         <v>16</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D90" s="114">
         <v>1</v>
@@ -15493,7 +15493,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D91" s="115">
         <v>1</v>
@@ -15521,7 +15521,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D92" s="115">
         <v>1</v>
@@ -15549,7 +15549,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D93" s="115">
         <v>1</v>
@@ -15580,7 +15580,7 @@
         <v>15</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D94" s="114">
         <v>1</v>
@@ -15608,7 +15608,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D95" s="115">
         <v>1</v>
@@ -15636,7 +15636,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D96" s="115">
         <v>1</v>
@@ -15664,7 +15664,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D97" s="115">
         <v>1</v>
@@ -15695,7 +15695,7 @@
         <v>18</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D98" s="114">
         <v>1</v>
@@ -15723,7 +15723,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D99" s="115">
         <v>1</v>
@@ -15751,7 +15751,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D100" s="115">
         <v>1</v>
@@ -15779,7 +15779,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D101" s="115">
         <v>1</v>
@@ -15807,18 +15807,18 @@
     </row>
     <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="105" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="129" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B104" s="134" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C104" s="131" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D104" s="109" t="s">
         <v>1</v>
@@ -15830,7 +15830,7 @@
         <v>3</v>
       </c>
       <c r="G104" s="109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H104" s="132" t="s">
         <v>4</v>
@@ -15848,7 +15848,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D105" s="114">
         <v>1</v>
@@ -15876,7 +15876,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D106" s="115">
         <v>1.26</v>
@@ -15904,7 +15904,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D107" s="115">
         <v>1.68</v>
@@ -15932,7 +15932,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D108" s="115">
         <v>2.65</v>
@@ -15962,7 +15962,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X1oZwMwx+TV7WuHB3FtBzc6F5SY6riWfAKuhVZz1S9xh+O7xzBy+NsINv8IsfBusHMkWyqvQRiW8uhf18QbdjQ==" saltValue="g2qIfWtR0ffy8y7KM+Gj6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="X+D5C+aqRinH3H8aOaY5sRMYa24lZudkkgZSqM2fEMG/Z6fN87rviyKIwORXNhb4AI555eTmlbRcrSCVj6y4AQ==" saltValue="tturqNggNvRgDCl1ALVRtw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15993,7 +15993,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16011,7 +16011,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>4</v>
@@ -16019,10 +16019,10 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="121" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D3" s="115">
         <v>45</v>
@@ -16040,7 +16040,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" s="115">
         <v>1.0249999999999999</v>
@@ -16060,12 +16060,12 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="110" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="115">
         <v>1</v>
@@ -16085,7 +16085,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="125" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16105,7 +16105,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="125" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="115">
         <v>1</v>
@@ -16133,13 +16133,13 @@
     </row>
     <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="105" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" s="115">
         <v>1.5</v>
@@ -16163,15 +16163,15 @@
     </row>
     <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="105" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="133" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B14" s="125" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C14" s="115">
         <v>1.0249999999999999</v>
@@ -16192,7 +16192,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C15" s="115">
         <v>1.0249999999999999</v>
@@ -16212,10 +16212,10 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="133" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C16" s="115">
         <v>1</v>
@@ -16236,26 +16236,26 @@
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="105" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="E19" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="F19" s="56" t="s">
         <v>49</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="121" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C20" s="115">
         <v>1.52</v>
@@ -16271,7 +16271,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="y+XNpwaYZe/J4wUa+0ilfD48whgxp3YEFcHeCJmaO1qGB8WP+j2lKF2dP/V6ZrWigpwAxjgKWccysB8XmxSUeQ==" saltValue="39QqgXiFHa7FSAW9a3z04Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pEu7lmVMWnMrCjBh1JSnYoOSK/4bjXCPg8GaTMUM8jkvSR8/u2/IvpTHazd2Btep5n3XXVmTXqN6J6vpQWRXOg==" saltValue="Yf5AbtS82NcCoadw43yb0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16300,7 +16300,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
@@ -16318,10 +16318,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C2" s="115">
         <v>0.21</v>
@@ -16339,7 +16339,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -16356,10 +16356,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C4" s="115">
         <v>0</v>
@@ -16377,7 +16377,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16394,10 +16394,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" s="115">
         <v>0</v>
@@ -16415,7 +16415,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16432,10 +16432,10 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C8" s="115">
         <v>0.35</v>
@@ -16453,7 +16453,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16470,10 +16470,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C10" s="115">
         <v>0.35</v>
@@ -16491,7 +16491,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -16508,10 +16508,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" s="115">
         <v>0.08</v>
@@ -16529,7 +16529,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -16551,7 +16551,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WBItIS1wIAek0n+3T/f4ms3oJ5cVyQVzw/jDtDSMO+dCb4Y2REU71Bmf27o7eyBTc3wfZ92OmhLNkAndN3IRpw==" saltValue="7qjdeDixZaNcGdyP8miJ2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qAooT/Z2xQW5lfUWnVwPYfWQULwGAiL3r7IsDwlJ5HacT36k0DAGGBEqTQeHk35toiIZqIRdhr2rgjVhXpSWEg==" saltValue="X2rnS3O578kRip7/BueNvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16589,44 +16589,44 @@
         <v>3</v>
       </c>
       <c r="F1" s="109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="109" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="J1" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="K1" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="109" t="s">
+      <c r="L1" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="M1" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="109" t="s">
+      <c r="N1" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="109" t="s">
+      <c r="O1" s="109" t="s">
         <v>53</v>
-      </c>
-      <c r="O1" s="109" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="115">
         <v>0.53</v>
@@ -16670,7 +16670,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" s="115">
         <v>1</v>
@@ -16714,7 +16714,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16758,7 +16758,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="115">
         <v>1</v>
@@ -16802,7 +16802,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16846,7 +16846,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="115">
         <v>1</v>
@@ -16890,7 +16890,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16934,7 +16934,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="115">
         <v>1</v>
@@ -16978,7 +16978,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -17022,7 +17022,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="115">
         <v>0.83</v>
@@ -17066,7 +17066,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -17110,7 +17110,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="115">
         <v>1</v>
@@ -17154,13 +17154,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B16" s="59"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="92" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C17" s="115">
         <v>1</v>
@@ -17204,7 +17204,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="92" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="115">
         <v>1</v>
@@ -17248,7 +17248,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="115">
         <v>1</v>
@@ -17292,7 +17292,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="115">
         <v>1</v>
@@ -17347,7 +17347,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nAoZ4CLbNeNeq9zeTX6DkDFQLEwip7OYg3Bx7h7ZVDulg4FAFByIZK47somHzTahCAajOFYxj1lALwlbVtiYIQ==" saltValue="0qZDQ7+mOjuE28UZw2vYJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rpA79y2b1uIkxPm/5QQS79wqbpoZngDhVCJ+bBquMh4XfC+IwSo7frr9oIqVdtQmf77KP2ktnDPE4OPtud7Pqg==" saltValue="wOhFDVK3vTYLAhH9lN/9zA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17385,7 +17385,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>4</v>
@@ -17393,12 +17393,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -17418,7 +17418,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="135"/>
@@ -17429,7 +17429,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -17448,7 +17448,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NtLOT7W9WQMhjL4FVCx6M3JRiybj/3w7f5HUV0Emsi2AuEnkwcIQWP3YBuXIDnLJJvFHx+Sx/s7uAvFqKgfGJw==" saltValue="EsiBH/muMQJwZp+Tw3R0Bg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DorqcD5pZzm2TTPkZdUkxG31PRV1s9dWUhdw4lSkOaSetcMsKe84SIzV4U/H7Ed5gmXZ49QGmaci9UX9oteZ5Q==" saltValue="fTWUXl2o93+FBJmceiFGqw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17480,13 +17480,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C1" s="133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -17498,7 +17498,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>4</v>
@@ -17506,13 +17506,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="115">
         <v>0</v>
@@ -17532,7 +17532,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D3" s="115">
         <v>0</v>
@@ -17552,7 +17552,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D4" s="115">
         <v>0</v>
@@ -17572,13 +17572,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D5" s="115">
         <v>0</v>
@@ -17598,7 +17598,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D6" s="115">
         <v>0</v>
@@ -17618,10 +17618,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D7" s="115">
         <v>0</v>
@@ -17641,7 +17641,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D8" s="115">
         <v>0</v>
@@ -17661,13 +17661,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D9" s="115">
         <v>0</v>
@@ -17687,7 +17687,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D10" s="115">
         <v>0</v>
@@ -17707,10 +17707,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D11" s="115">
         <v>0</v>
@@ -17730,7 +17730,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D12" s="115">
         <v>0</v>
@@ -17750,13 +17750,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D13" s="115">
         <v>0</v>
@@ -17776,7 +17776,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D14" s="115">
         <v>0</v>
@@ -17797,10 +17797,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D15" s="115">
         <v>0</v>
@@ -17821,7 +17821,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D16" s="115">
         <v>0</v>
@@ -17842,13 +17842,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D17" s="115">
         <v>0.7</v>
@@ -17869,7 +17869,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D18" s="115">
         <v>0.19</v>
@@ -17890,13 +17890,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D19" s="115">
         <v>0.7</v>
@@ -17916,7 +17916,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D20" s="115">
         <v>0.19</v>
@@ -17936,13 +17936,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D21" s="115">
         <v>0.7</v>
@@ -17962,7 +17962,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D22" s="115">
         <v>0.19</v>
@@ -17982,13 +17982,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D23" s="115">
         <v>1</v>
@@ -18008,7 +18008,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D24" s="115">
         <v>0</v>
@@ -18028,7 +18028,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D25" s="115">
         <v>0</v>
@@ -18048,13 +18048,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -18074,7 +18074,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D27" s="115">
         <v>0</v>
@@ -18094,7 +18094,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D28" s="115">
         <v>0</v>
@@ -18114,13 +18114,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D29" s="115">
         <v>1</v>
@@ -18140,7 +18140,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D30" s="115">
         <v>0</v>
@@ -18160,7 +18160,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D31" s="115">
         <v>0</v>
@@ -18180,13 +18180,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -18206,7 +18206,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D33" s="115">
         <v>0</v>
@@ -18226,7 +18226,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D34" s="115">
         <v>0</v>
@@ -18246,13 +18246,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -18272,7 +18272,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D36" s="115">
         <v>0</v>
@@ -18292,7 +18292,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D37" s="115">
         <v>0</v>
@@ -18312,13 +18312,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D38" s="115">
         <v>0.3</v>
@@ -18338,7 +18338,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D39" s="115">
         <v>0.5</v>
@@ -18358,7 +18358,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D40" s="115">
         <v>0.65</v>
@@ -18381,7 +18381,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D41" s="115">
         <v>0.3</v>
@@ -18401,7 +18401,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D42" s="115">
         <v>0.49</v>
@@ -18421,7 +18421,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D43" s="115">
         <v>0.63</v>
@@ -18441,13 +18441,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D44" s="115">
         <v>0.88</v>
@@ -18467,7 +18467,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D45" s="115">
         <v>0.8</v>
@@ -18487,13 +18487,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D46" s="115">
         <v>1</v>
@@ -18513,7 +18513,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D47" s="115">
         <v>0.76</v>
@@ -18533,13 +18533,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B48" s="52" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D48" s="115">
         <v>0.57999999999999996</v>
@@ -18559,7 +18559,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D49" s="115">
         <v>0.88</v>
@@ -18578,7 +18578,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="p1irRiuWQqgHRixYX0hR40LfjC3wA2he4SuqUagO4llES1ooRFdvTmCD3Hn+hb33/x31ugibR7HmqbWpckG/GA==" saltValue="ho1dnjLxPK4v5vrl6Zw8Xg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2JtVxDAfChwApwj7gDSHt7pPQKDrpnh3Gq8a1fhs5B4jE+xINc5QsiQ15EwyOh5AKlIfjY0meLoWw5NtF6anug==" saltValue="lb6sOFuv4r1ObnjDQWSV3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18606,35 +18606,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C1" s="127"/>
       <c r="D1" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>54</v>
       </c>
       <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="115">
         <v>1</v>
@@ -18652,7 +18652,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D3" s="115">
         <v>0.2</v>
@@ -18670,13 +18670,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -18695,7 +18695,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D5" s="115">
         <v>0.59</v>
@@ -18713,13 +18713,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -18738,7 +18738,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D7" s="115">
         <v>0.59</v>
@@ -18755,7 +18755,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iVbKokNewGlKpEbp61M8uE3klDeZ0wCqGUBDfG5KYtwYjIrpug0RU3LZU/6DXXXsRQCs5M+BaXLSiKpUWmf/jg==" saltValue="4at8YK7L1bIjclj2b7LwcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yZjY2yWDzfOvNQ95RCNuOtynl++34qWu4HNZfRLM3KIbMPZlKv0SHXUunAyVE/zCO5vAWdB11us2uaRjAa7OYw==" saltValue="kL0+92JAP/6q1GVVN8DfzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18791,10 +18791,10 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>1</v>
@@ -18806,7 +18806,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -18846,7 +18846,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -18870,7 +18870,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18890,10 +18890,10 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>2</v>
@@ -18902,7 +18902,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>4</v>
@@ -18911,7 +18911,7 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -19064,7 +19064,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19096,13 +19096,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19112,7 +19112,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -19120,7 +19120,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -19128,7 +19128,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -19136,7 +19136,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -19144,7 +19144,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="75">
         <v>0.12434007</v>
@@ -19152,7 +19152,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -19160,7 +19160,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -19168,7 +19168,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -19176,7 +19176,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -19184,7 +19184,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19192,7 +19192,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fQhhKa1N7BV4vFwcRYQCXjB9P0Ntit08evK9hu9pJ3CghtFxm5B4cgX0KKiYMpsSFBfWrKfqozHzwswBWov5Vg==" saltValue="vJVBs28C8R+KK2srjrJ97A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PjJsHIS0uf9nVJ8HA5UHGeSGto7stvt77y29HjzcM3nKxBZLTp9bjiC9yopNYNtTDqgyZdPoxaVKXDmQFDfHwA==" saltValue="8BII7xG1yVO1Cqx9iZSZwA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19234,7 +19234,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>4</v>
@@ -19242,10 +19242,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19271,7 +19271,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -19297,7 +19297,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -19318,7 +19318,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -19354,10 +19354,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19382,7 +19382,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19407,7 +19407,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -19427,7 +19427,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -19461,7 +19461,7 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>1</v>
@@ -19473,39 +19473,39 @@
         <v>3</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="J13" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="K13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>54</v>
-      </c>
       <c r="L13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="N13" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="O13" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -19549,7 +19549,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19619,7 +19619,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oZNo1eO1m55Eut9tKxufRWGFhQijrzkiNAxYwP51jj3eWNGnHQy3cWs8wbX+l/cz9/V5dx0oULU4zzmBDSBvHw==" saltValue="4tA2zQqTdT2kAjmuBGjo4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="f0jmJehLhOLVhtm42YS8mnkGis7n8mV443LkFZHLt98YjmPDvbL40rWrUFzs9ND9kfF+nVhdxpu6swn40zHzig==" saltValue="clUsvsOiFBeVElPok1Uh+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19661,7 +19661,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>4</v>
@@ -19672,7 +19672,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -19692,7 +19692,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -19712,7 +19712,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -19732,7 +19732,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -19756,7 +19756,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HFkDEfxgR/MQtXT8GeS2FXst8AJ4A3mzhjjZpAPQkw4nBa1vqMnyzhsa5bXAt1yQlMQwh96i4n2FrH78dP7yng==" saltValue="P2Lnvmr2MgdNihSW6glmIg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ndjcofJxZ0cKiUfDm7Z5GSb0b6biQztmivLKvXAwjvBxhG8Twzqf8v9EblTdh5FC9tbozpwg4qmYrFzn3sl2RA==" saltValue="ePDNhgaXNt0Bv1sAZ3NEaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19781,10 +19781,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C1">
         <v>2017</v>
@@ -19831,10 +19831,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="28">
         <f>(('Nutritional status distribution'!C4+'Nutritional status distribution'!C5)*(1/60)+('Nutritional status distribution'!D4+'Nutritional status distribution'!D5)*(5/60)+('Nutritional status distribution'!E4+'Nutritional status distribution'!E5)*(6/60)+('Nutritional status distribution'!F4+'Nutritional status distribution'!F5)*(12/60)+('Nutritional status distribution'!G4+'Nutritional status distribution'!G5)*(36/60))</f>
@@ -19861,10 +19861,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="28">
         <f>(('Nutritional status distribution'!C10+'Nutritional status distribution'!C11)*(1/60)+('Nutritional status distribution'!D10+'Nutritional status distribution'!D11)*(5/60)+('Nutritional status distribution'!E10+'Nutritional status distribution'!E11)*(6/60)+('Nutritional status distribution'!F10+'Nutritional status distribution'!F11)*(12/60)+('Nutritional status distribution'!G10+'Nutritional status distribution'!G11)*(36/60))</f>
@@ -19893,10 +19893,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>138</v>
       </c>
       <c r="C6" s="28">
         <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(36/60)</f>
@@ -19920,7 +19920,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="28">
         <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
@@ -19944,7 +19944,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="28">
         <f>('Nutritional status distribution'!L15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!M15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!N15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!O15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
@@ -19968,10 +19968,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="28">
         <f>('Breastfeeding distribution'!C2*(1/6)+'Breastfeeding distribution'!D2*(5/6))</f>
@@ -19997,7 +19997,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" s="28">
         <f>(('Breastfeeding distribution'!E2+'Breastfeeding distribution'!E3+'Breastfeeding distribution'!E4)*(6/18)+('Breastfeeding distribution'!F2+'Breastfeeding distribution'!F3+'Breastfeeding distribution'!F4)*(12/18))</f>
@@ -20021,10 +20021,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="28">
         <f>(neonatal_mortality*(1/60)+infant_mortality*(11/60)+U5_mortality*(48/60))/1000</f>
@@ -20050,7 +20050,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="28">
         <f>maternal_mortality/1000</f>
@@ -20071,7 +20071,7 @@
       <c r="P14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qKdxos9QA6efomsmXNJjCvPC5EUKJZ3xlflY8ngnwdCbskyjQmI6/P9XSI3n0hbQg/bKBkojeaLyTj7cWf3I4A==" saltValue="r+8C4S1LQRBbAyZqb1nMqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="o2QkVsM41fZB8SYD/YA29T0256HjeoySUsxP6OTfTz/giibRXXGzFQMbA+k6rbO6VV1tFgcBfwyx7jX9eNzOnw==" saltValue="LvEyRpfZFqSjcI/WbJ12Bw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20098,44 +20098,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Pym4XKQPPkP4U3JEvr4JViKQz8pwlYo2TzdfMOvIlLnMPu6cUKFAMrOdeZ5X+c7KUuBXvjMjM3pc9kngiWYS4A==" saltValue="us+GZ1OB47GcqcLZn6Sq3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g1E3drfI3FdDMLgWs0G2ifRjttUvAw3DcKrN7M19mKlI35euu3xIQXKP+UVeOw6SiJpoJB0FuqfjrGVhiC9Txw==" saltValue="fQGvCdiqXIK4pswuCEBP9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20161,27 +20161,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20235,7 +20235,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -20249,7 +20249,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -20257,10 +20257,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -20310,7 +20310,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -20322,24 +20322,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20353,7 +20353,7 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20367,7 +20367,7 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20381,7 +20381,7 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20391,11 +20391,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20405,14 +20405,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MdKPgUC/9uRmViVPkrXNZDoZ1yFRIh46rpLxQlP0OjWEGQptdf+L4mP8psU2J2rmKAdhowIj0GjHnEJdbNEpiQ==" saltValue="88A8Fyy8tUL6n83I7ZW40A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="syEcYmAkvOFopwSLvtEjDNkL0wtoslxn5i5WU3mD5+Ey5pfH/ATu6za3DoWT6PwDNOQnmWpRqfs/WdW7B3YeCw==" saltValue="XQ2mdBwqNvS+P7+5xM7RbA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20441,25 +20441,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
         <v>Baseline (2017) coverage</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -20471,12 +20471,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -20488,12 +20488,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -20505,12 +20505,12 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -20522,12 +20522,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -20539,12 +20539,12 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -20556,12 +20556,12 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -20573,12 +20573,12 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -20590,12 +20590,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -20607,12 +20607,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20624,12 +20624,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -20641,12 +20641,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -20658,12 +20658,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -20675,12 +20675,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -20692,12 +20692,12 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="81">
         <v>0.34599999999999997</v>
@@ -20709,12 +20709,12 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="81">
         <v>0.80800000000000005</v>
@@ -20726,12 +20726,12 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -20743,12 +20743,12 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -20760,12 +20760,12 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -20777,12 +20777,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -20794,12 +20794,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -20811,12 +20811,12 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="81">
         <v>0.50800000000000001</v>
@@ -20828,12 +20828,12 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" s="81">
         <v>0</v>
@@ -20845,12 +20845,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="81">
         <v>0</v>
@@ -20862,12 +20862,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" s="81">
         <v>0.1</v>
@@ -20879,12 +20879,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="81">
         <v>0.3538</v>
@@ -20896,12 +20896,12 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="81">
         <v>0</v>
@@ -20913,12 +20913,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="81">
         <v>0</v>
@@ -20930,12 +20930,12 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -20947,12 +20947,12 @@
         <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="B31" s="81">
         <v>0.89970000000000006</v>
@@ -20964,12 +20964,12 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="81">
         <v>0.80700000000000005</v>
@@ -20981,12 +20981,12 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="81">
         <v>0.73199999999999998</v>
@@ -20998,12 +20998,12 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="81">
         <v>0.316</v>
@@ -21015,12 +21015,12 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="81">
         <v>0.59699999999999998</v>
@@ -21032,12 +21032,12 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="81">
         <v>0.19900000000000001</v>
@@ -21049,13 +21049,13 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="81">
         <v>0.13400000000000001</v>
@@ -21067,12 +21067,12 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="81">
         <v>0</v>
@@ -21084,14 +21084,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7Iv6VaqNFRcRG7Gc96Kvigg+S6S+vuiuTrfI9t7YloEbcT11n9M1OtaUCB5Vrj/3VJfbNXaZW26FVRWBM236BA==" saltValue="HnMvboPLD7yVdx+XEVrx5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OF3jF7mOn9hPiDAfF05E4PekwdvZQcsmuPyoYLoj8SV2N23zQfABo3TgYnJpHliNU74kXcsJJhpP6wIg1iRL0g==" saltValue="6IEyv9PM5cN4esuoMlzM+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region2_input.xlsx
+++ b/inputs/fr/demo_region2_input.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F33028A9-746B-4D25-B530-B8004D584D57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23FF4F82-A7C8-40B7-9E49-A14D6A2C2D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="29895" windowHeight="16770" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="2085" windowWidth="27480" windowHeight="16170" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
-    <sheet name="Demographic projections" sheetId="2" r:id="rId2"/>
-    <sheet name="Causes of death" sheetId="4" r:id="rId3"/>
-    <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
-    <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
-    <sheet name="Time trends" sheetId="51" state="hidden" r:id="rId6"/>
-    <sheet name="Treatment of SAM" sheetId="60" r:id="rId7"/>
-    <sheet name="IYCF packages" sheetId="55" r:id="rId8"/>
-    <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
-    <sheet name="Program dependencies" sheetId="58" r:id="rId10"/>
-    <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId11"/>
+    <sheet name="Projections démographiques" sheetId="2" r:id="rId2"/>
+    <sheet name="Causes de décès" sheetId="4" r:id="rId3"/>
+    <sheet name="Dist. de l'état nutritionnel" sheetId="5" r:id="rId4"/>
+    <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
+    <sheet name="Tendances temporelles" sheetId="51" state="hidden" r:id="rId6"/>
+    <sheet name="Traitement de la MAS" sheetId="60" r:id="rId7"/>
+    <sheet name="Paquets IYCF" sheetId="55" r:id="rId8"/>
+    <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId9"/>
+    <sheet name="Dépendances du programme" sheetId="58" r:id="rId10"/>
+    <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId11"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
     <sheet name="Programs target population" sheetId="21" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
@@ -45,7 +45,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Birth outcome risks'!$A$1:$F$7</definedName>
     <definedName name="abortion" localSheetId="7">'Donnees pop de l''annee de ref'!$C$38</definedName>
     <definedName name="abortion">'Donnees pop de l''annee de ref'!$C$41</definedName>
-    <definedName name="comm_deliv">'Treatment of SAM'!$D$3</definedName>
+    <definedName name="comm_deliv">'Traitement de la MAS'!$D$3</definedName>
     <definedName name="diarrhoea_1_5mo">'Donnees pop de l''annee de ref'!$C$52</definedName>
     <definedName name="diarrhoea_12_23mo">'Donnees pop de l''annee de ref'!$C$54</definedName>
     <definedName name="diarrhoea_1mo">'Donnees pop de l''annee de ref'!$C$51</definedName>
@@ -58,26 +58,26 @@
     <definedName name="frac_diarrhea_severe">'Donnees pop de l''annee de ref'!$C$58</definedName>
     <definedName name="frac_maize">'Donnees pop de l''annee de ref'!$C$19</definedName>
     <definedName name="frac_malaria_risk">'Donnees pop de l''annee de ref'!$C$9</definedName>
-    <definedName name="frac_mam_1_5months">'Nutritional status distribution'!$D$10</definedName>
-    <definedName name="frac_mam_12_23months">'Nutritional status distribution'!$F$10</definedName>
-    <definedName name="frac_mam_1month">'Nutritional status distribution'!$C$10</definedName>
-    <definedName name="frac_mam_24_59months">'Nutritional status distribution'!$G$10</definedName>
-    <definedName name="frac_mam_6_11months">'Nutritional status distribution'!$E$10</definedName>
+    <definedName name="frac_mam_1_5months">'Dist. de l''état nutritionnel'!$D$10</definedName>
+    <definedName name="frac_mam_12_23months">'Dist. de l''état nutritionnel'!$F$10</definedName>
+    <definedName name="frac_mam_1month">'Dist. de l''état nutritionnel'!$C$10</definedName>
+    <definedName name="frac_mam_24_59months">'Dist. de l''état nutritionnel'!$G$10</definedName>
+    <definedName name="frac_mam_6_11months">'Dist. de l''état nutritionnel'!$E$10</definedName>
     <definedName name="frac_MAMtoSAM">'Donnees pop de l''annee de ref'!#REF!</definedName>
     <definedName name="frac_other_staples">'Donnees pop de l''annee de ref'!$C$20</definedName>
     <definedName name="frac_PW_health_facility">'Donnees pop de l''annee de ref'!$C$11</definedName>
     <definedName name="frac_rice">'Donnees pop de l''annee de ref'!$C$17</definedName>
-    <definedName name="frac_sam_1_5months">'Nutritional status distribution'!$D$11</definedName>
-    <definedName name="frac_sam_12_23months">'Nutritional status distribution'!$F$11</definedName>
-    <definedName name="frac_sam_1month">'Nutritional status distribution'!$C$11</definedName>
-    <definedName name="frac_sam_24_59months">'Nutritional status distribution'!$G$11</definedName>
-    <definedName name="frac_sam_6_11months">'Nutritional status distribution'!$E$11</definedName>
+    <definedName name="frac_sam_1_5months">'Dist. de l''état nutritionnel'!$D$11</definedName>
+    <definedName name="frac_sam_12_23months">'Dist. de l''état nutritionnel'!$F$11</definedName>
+    <definedName name="frac_sam_1month">'Dist. de l''état nutritionnel'!$C$11</definedName>
+    <definedName name="frac_sam_24_59months">'Dist. de l''état nutritionnel'!$G$11</definedName>
+    <definedName name="frac_sam_6_11months">'Dist. de l''état nutritionnel'!$E$11</definedName>
     <definedName name="frac_SAMtoMAM">'Donnees pop de l''annee de ref'!#REF!</definedName>
     <definedName name="frac_subsistence_farming">'Donnees pop de l''annee de ref'!$C$16</definedName>
     <definedName name="frac_wheat">'Donnees pop de l''annee de ref'!$C$18</definedName>
     <definedName name="infant_mortality">'Donnees pop de l''annee de ref'!$C$38</definedName>
     <definedName name="iron_deficiency_anaemia">'Donnees pop de l''annee de ref'!$C$59</definedName>
-    <definedName name="manage_mam">'Treatment of SAM'!$D$2</definedName>
+    <definedName name="manage_mam">'Traitement de la MAS'!$D$2</definedName>
     <definedName name="maternal_mortality">'Donnees pop de l''annee de ref'!$C$40</definedName>
     <definedName name="neonatal_mortality">'Donnees pop de l''annee de ref'!$C$37</definedName>
     <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Donnees pop de l''annee de ref'!$C$11</definedName>
@@ -409,437 +409,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="272">
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>&lt;1 month</t>
-  </si>
-  <si>
-    <t>1-5 months</t>
-  </si>
-  <si>
-    <t>6-11 months</t>
-  </si>
-  <si>
-    <t>24-59 months</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Neonatal sepsis</t>
-  </si>
-  <si>
-    <t>Neonatal pneumonia</t>
-  </si>
-  <si>
-    <t>Pre-term SGA</t>
-  </si>
-  <si>
-    <t>Neonatal asphyxia</t>
-  </si>
-  <si>
-    <t>Pre-term AGA</t>
-  </si>
-  <si>
-    <t>Term SGA</t>
-  </si>
-  <si>
-    <t>Neonatal prematurity</t>
-  </si>
-  <si>
-    <t>Neonatal other</t>
-  </si>
-  <si>
-    <t>Pneumonia</t>
-  </si>
-  <si>
-    <t>Meningitis</t>
-  </si>
-  <si>
-    <t>Measles</t>
-  </si>
-  <si>
-    <t>Malaria</t>
-  </si>
-  <si>
-    <t>Pertussis</t>
-  </si>
-  <si>
-    <t>AIDS</t>
-  </si>
-  <si>
-    <t>Injury</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Breastfeeding</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="271">
   <si>
     <t>Condition</t>
   </si>
   <si>
-    <t>Term AGA</t>
-  </si>
-  <si>
-    <t>Neonatal congenital anomalies</t>
-  </si>
-  <si>
-    <t>Balanced energy-protein supplementation</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Pregnant women</t>
-  </si>
-  <si>
     <t>Broad population group</t>
   </si>
   <si>
-    <t>Long-lasting insecticide-treated bednets</t>
-  </si>
-  <si>
     <t>General population</t>
   </si>
   <si>
-    <t>non-pregnant WRA</t>
-  </si>
-  <si>
-    <t>Non-pregnant WRA</t>
-  </si>
-  <si>
-    <t>Antepartum haemorrhage</t>
-  </si>
-  <si>
-    <t>Intrapartum haemorrhage</t>
-  </si>
-  <si>
-    <t>Postpartum haemorrhage</t>
-  </si>
-  <si>
-    <t>Hypertensive disorders</t>
-  </si>
-  <si>
-    <t>Sepsis</t>
-  </si>
-  <si>
-    <t>Abortion</t>
-  </si>
-  <si>
-    <t>Embolism</t>
-  </si>
-  <si>
-    <t>Other direct causes</t>
-  </si>
-  <si>
-    <t>Indirect causes</t>
-  </si>
-  <si>
-    <t>Iron and iodine fortification of salt</t>
-  </si>
-  <si>
-    <t>Population data</t>
-  </si>
-  <si>
-    <t>WRA: 15-19 years</t>
-  </si>
-  <si>
-    <t>WRA: 20-29 years</t>
-  </si>
-  <si>
-    <t>WRA: 30-39 years</t>
-  </si>
-  <si>
-    <t>WRA: 40-49 years</t>
-  </si>
-  <si>
-    <t>PW: 15-19 years</t>
-  </si>
-  <si>
-    <t>PW: 20-29 years</t>
-  </si>
-  <si>
-    <t>PW: 30-39 years</t>
-  </si>
-  <si>
-    <t>PW: 40-49 years</t>
-  </si>
-  <si>
     <t>IPTp</t>
   </si>
   <si>
-    <t>Public provision of complementary foods</t>
-  </si>
-  <si>
-    <t>Multiple micronutrient supplementation</t>
-  </si>
-  <si>
-    <t>Zinc supplementation</t>
-  </si>
-  <si>
-    <t>Cash transfers</t>
-  </si>
-  <si>
-    <t>IFA fortification of wheat flour</t>
-  </si>
-  <si>
-    <t>IFA fortification of rice</t>
-  </si>
-  <si>
     <t>MAM</t>
   </si>
   <si>
     <t>SAM</t>
   </si>
   <si>
-    <t>Treatment of SAM</t>
-  </si>
-  <si>
-    <t>Prevalence of iron deficiency anaemia</t>
-  </si>
-  <si>
-    <t>Program</t>
-  </si>
-  <si>
-    <t>Anaemia</t>
-  </si>
-  <si>
-    <t>Diarrhoea</t>
-  </si>
-  <si>
-    <t>Diarrhoea incidence</t>
-  </si>
-  <si>
-    <t>Neonatal diarrhoea</t>
-  </si>
-  <si>
-    <t>Mortality</t>
-  </si>
-  <si>
-    <t>First birth</t>
-  </si>
-  <si>
-    <t>less than 18 months</t>
-  </si>
-  <si>
-    <t>18-23 months</t>
-  </si>
-  <si>
-    <t>24 months or greater</t>
-  </si>
-  <si>
-    <t>WASH: Improved water source</t>
-  </si>
-  <si>
-    <t>WASH: Piped water</t>
-  </si>
-  <si>
-    <t>WASH: Improved sanitation</t>
-  </si>
-  <si>
-    <t>WASH: Hygenic disposal</t>
-  </si>
-  <si>
-    <t>WASH: Handwashing</t>
-  </si>
-  <si>
-    <t>Oral rehydration salts</t>
-  </si>
-  <si>
-    <t>Zinc for treatment + ORS</t>
-  </si>
-  <si>
-    <t>Calcium supplementation</t>
-  </si>
-  <si>
-    <t>Mg for pre-eclampsia</t>
-  </si>
-  <si>
-    <t>Mg for eclampsia</t>
-  </si>
-  <si>
-    <t>Fraction of pregnancies ending in spontaneous abortion</t>
-  </si>
-  <si>
-    <t>Under 5 mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Infant mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Neonatal mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Stillbirths (per 1,000 total births)</t>
-  </si>
-  <si>
-    <t>Fraction of subsistence farming</t>
-  </si>
-  <si>
-    <t>Fraction eating rice as main staple food</t>
-  </si>
-  <si>
-    <t>Fraction eating wheat as main staple food</t>
-  </si>
-  <si>
-    <t>Fraction eating maize as main staple food</t>
-  </si>
-  <si>
-    <t>Fraction on other staples as main staple food</t>
-  </si>
-  <si>
-    <t>Age distribution of pregnant women</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women 15-19 years</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women 30-39 years</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women 40-49 years</t>
-  </si>
-  <si>
-    <t>School attendance (percentage of 15-19 year women)</t>
-  </si>
-  <si>
-    <t>Percentage of population food insecure (default poor)</t>
-  </si>
-  <si>
-    <t>Percentage of population at risk of malaria</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women attending health facility</t>
-  </si>
-  <si>
-    <t>Percentage of children attending health facility</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning</t>
-  </si>
-  <si>
-    <t>Percentage of diarrhea that is severe</t>
-  </si>
-  <si>
-    <t>Number of births</t>
-  </si>
-  <si>
-    <t>Total WRA</t>
-  </si>
-  <si>
-    <t>Wasting (weight-for-height)</t>
-  </si>
-  <si>
-    <t>Stunting (height-for-age)</t>
-  </si>
-  <si>
-    <t>Moderate (HAZ-score between -3 and -2)</t>
-  </si>
-  <si>
-    <t>Normal (HAZ-score &gt; -1)</t>
-  </si>
-  <si>
-    <t>Mild (HAZ-score between -2 and -1)</t>
-  </si>
-  <si>
-    <t>High (HAZ-score between &lt; -3)</t>
-  </si>
-  <si>
-    <t>Normal  (WHZ-score &gt; -1)</t>
-  </si>
-  <si>
-    <t>Mild  (WHZ-score between -2 and -1)</t>
-  </si>
-  <si>
-    <t>MAM   (WHZ-score between -3 and -2)</t>
-  </si>
-  <si>
-    <t>SAM   (WHZ-score &lt; -3)</t>
-  </si>
-  <si>
-    <t>Average episodes per year: &lt;1 month</t>
-  </si>
-  <si>
-    <t>Average episodes per year: 1-5 months</t>
-  </si>
-  <si>
-    <t>Average episodes per year: 6-11 months</t>
-  </si>
-  <si>
-    <t>Average episodes per year: 24-59 months</t>
-  </si>
-  <si>
-    <t>Total (must be 100%)</t>
-  </si>
-  <si>
-    <t>Estimated pregnant women</t>
-  </si>
-  <si>
-    <t>Prevalence of anaemia</t>
-  </si>
-  <si>
-    <t>Percentage of anaemia that is iron deficient</t>
-  </si>
-  <si>
-    <t>Birth outcome distribution</t>
-  </si>
-  <si>
-    <t>Other risks</t>
-  </si>
-  <si>
-    <t>Baseline year mortality and risk factors</t>
-  </si>
-  <si>
-    <t>Lipid-based nutrition supplements</t>
-  </si>
-  <si>
-    <t>Micronutrient powders</t>
-  </si>
-  <si>
-    <t>Risk</t>
-  </si>
-  <si>
-    <t>Stunting prevalence (%)</t>
-  </si>
-  <si>
-    <t>Wasting prevalence (%)</t>
-  </si>
-  <si>
-    <t>Anaemia prevalence (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of age-appropriate breastfeeding</t>
-  </si>
-  <si>
     <t>Children 0-59 months</t>
   </si>
   <si>
-    <t>Women of reproductive age</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
-    <t>Children 6-23 months</t>
-  </si>
-  <si>
-    <t>Children 0-5 months</t>
-  </si>
-  <si>
-    <t>Under five (deaths per 1,000 births)</t>
-  </si>
-  <si>
-    <t>Delayed cord clamping</t>
-  </si>
-  <si>
     <t>IUD</t>
   </si>
   <si>
@@ -888,54 +483,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Exclusive</t>
-  </si>
-  <si>
-    <t>Predominant</t>
-  </si>
-  <si>
-    <t>Partial</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Maternal (deaths per 1,000 births)</t>
-  </si>
-  <si>
-    <t>Maternal mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>IYCF 1</t>
-  </si>
-  <si>
-    <t>Mass media</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>Health facility</t>
-  </si>
-  <si>
-    <t>Target population</t>
-  </si>
-  <si>
-    <t>IYCF package</t>
-  </si>
-  <si>
-    <t>Threshold dependency</t>
-  </si>
-  <si>
-    <t>Exclusion dependency</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -945,81 +492,12 @@
     <t>Community-based</t>
   </si>
   <si>
-    <t>Delivery mode</t>
-  </si>
-  <si>
-    <t>Add extension</t>
-  </si>
-  <si>
-    <t>IFAS for pregnant women (community)</t>
-  </si>
-  <si>
-    <t>IFAS (community)</t>
-  </si>
-  <si>
-    <t>IFAS (retailer)</t>
-  </si>
-  <si>
-    <t>IFAS (school)</t>
-  </si>
-  <si>
-    <t>Projection years</t>
-  </si>
-  <si>
-    <t>End year</t>
-  </si>
-  <si>
-    <t>Baseline year (projection start year)</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Kangaroo mother care</t>
-  </si>
-  <si>
-    <t>Birth spacing</t>
-  </si>
-  <si>
-    <t>Family planning</t>
-  </si>
-  <si>
-    <t>IYCF 2</t>
-  </si>
-  <si>
     <t>IYCF 3</t>
   </si>
   <si>
-    <t>Saturation coverage of target population</t>
-  </si>
-  <si>
-    <t>Linear (constant marginal cost) [default]</t>
-  </si>
-  <si>
-    <t>Curved with increasing marginal cost</t>
-  </si>
-  <si>
-    <t>Curved with decreasing marginal cost</t>
-  </si>
-  <si>
-    <t>S-shaped (decreasing then increasing marginal cost)</t>
-  </si>
-  <si>
-    <t>Cost-coverage relationship</t>
-  </si>
-  <si>
-    <t>IFAS (health facility)</t>
-  </si>
-  <si>
-    <t>IFAS for pregnant women (health facility)</t>
-  </si>
-  <si>
-    <t>Children under 5 population</t>
-  </si>
-  <si>
-    <t>Neonatal</t>
-  </si>
-  <si>
     <t>Causes</t>
   </si>
   <si>
@@ -1209,22 +687,541 @@
     <t>Données de l'année de référence</t>
   </si>
   <si>
+    <t>Années de projection</t>
+  </si>
+  <si>
+    <t>Année de référence (année de début de la projection)</t>
+  </si>
+  <si>
+    <t>Fin d'année</t>
+  </si>
+  <si>
+    <t>Données sur la population</t>
+  </si>
+  <si>
+    <t>Population des enfants de moins de 5 ans</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population en situation d'insécurité alimentaire (pauvre par défaut)</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population exposée au risque de paludisme</t>
+  </si>
+  <si>
+    <t>Fréquentation scolaire (pourcentage de femmes de 15 à 19 ans)</t>
+  </si>
+  <si>
+    <t>Pourcentage de femmes enceintes fréquentant un établissement de santé</t>
+  </si>
+  <si>
+    <t>Pourcentage d'enfants fréquentant un établissement de santé</t>
+  </si>
+  <si>
+    <t>Besoin non satisfait de planification familiale</t>
+  </si>
+  <si>
+    <t>Alimentation</t>
+  </si>
+  <si>
+    <t>Fraction de l'agriculture de subsistance</t>
+  </si>
+  <si>
+    <t>Fraction de personnes consommant du riz comme principal aliment de base</t>
+  </si>
+  <si>
+    <t>Fraction de ceux qui consomment du blé comme principal aliment de base</t>
+  </si>
+  <si>
+    <t>Fraction de la population consommant du maïs comme principal aliment de base</t>
+  </si>
+  <si>
+    <t>Fraction de la population qui consomme d'autres aliments de base comme principale denrée alimentaire</t>
+  </si>
+  <si>
+    <t>Répartition par âge des femmes enceintes</t>
+  </si>
+  <si>
+    <t>Pourcentage de femmes enceintes de 15 à 19 ans</t>
+  </si>
+  <si>
     <t>Pourcentage de femmes enceintes âgées de 20 à 29 ans</t>
   </si>
   <si>
-    <t>Average episodes per year: 12-23 mois</t>
+    <t>Pourcentage de femmes enceintes âgées de 30 à 39 ans</t>
+  </si>
+  <si>
+    <t>Pourcentage de femmes enceintes âgées de 40 à 49 ans</t>
+  </si>
+  <si>
+    <t>Espacement des naissances</t>
+  </si>
+  <si>
+    <t>Première naissance</t>
+  </si>
+  <si>
+    <t>moins de 18 mois</t>
+  </si>
+  <si>
+    <t>18 à 23 mois</t>
+  </si>
+  <si>
+    <t>24 mois ou plus</t>
+  </si>
+  <si>
+    <t>Total (doit être 100%)</t>
+  </si>
+  <si>
+    <t>Mortalité de l'année de référence et facteurs de risque</t>
+  </si>
+  <si>
+    <t>Mortalité</t>
+  </si>
+  <si>
+    <t>Mortalité néonatale (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mortalité infantile (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mortalité des moins de 5 ans (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mortalité maternelle (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Fraction des grossesses se terminant par un avortement spontané</t>
+  </si>
+  <si>
+    <t>Mortinatalité (pour 1 000 naissances totales)</t>
+  </si>
+  <si>
+    <t>Distribution des résultats des naissances</t>
+  </si>
+  <si>
+    <t>SGA avant terme</t>
+  </si>
+  <si>
+    <t>AGA avant terme</t>
+  </si>
+  <si>
+    <t>SGA à terme</t>
+  </si>
+  <si>
+    <t>AGA à terme</t>
+  </si>
+  <si>
+    <t>Incidence de la diarrhée</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : &lt;1 mois</t>
+  </si>
+  <si>
+    <t>Épisodes moyens par an : 1-5 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : 6-11 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : 12-23 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : 24-59 mois</t>
+  </si>
+  <si>
+    <t>Autres risques</t>
+  </si>
+  <si>
+    <t>Pourcentage de diarrhée grave</t>
+  </si>
+  <si>
+    <t>Pourcentage d'anémie avec carence en fer</t>
+  </si>
+  <si>
+    <t>Année</t>
+  </si>
+  <si>
+    <t>Nombre de naissances</t>
+  </si>
+  <si>
+    <t>FAP : 15-19 ans</t>
+  </si>
+  <si>
+    <t>FAP : 20-29 ans</t>
+  </si>
+  <si>
+    <t>FAP : 30-39 ans</t>
+  </si>
+  <si>
+    <t>FAP : 40-49 ans</t>
+  </si>
+  <si>
+    <t>Total FAP</t>
+  </si>
+  <si>
+    <t>Estimation des femmes enceintes</t>
+  </si>
+  <si>
+    <t>FAP non enceintes</t>
+  </si>
+  <si>
+    <t>Néonatal</t>
+  </si>
+  <si>
+    <t>Diarrhée néonatale</t>
+  </si>
+  <si>
+    <t>Septicémie néonatale</t>
+  </si>
+  <si>
+    <t>Pneumonie néonatale</t>
+  </si>
+  <si>
+    <t>Asphyxie néonatale</t>
+  </si>
+  <si>
+    <t>Prématurité néonatale</t>
   </si>
   <si>
     <t>Tétanos néonatal</t>
   </si>
   <si>
+    <t>Anomalies congénitales néonatales</t>
+  </si>
+  <si>
+    <t>Autres pathologies néonatales</t>
+  </si>
+  <si>
+    <t>Enfants</t>
+  </si>
+  <si>
+    <t>Diarrhée</t>
+  </si>
+  <si>
+    <t>Pneumonie</t>
+  </si>
+  <si>
+    <t>Méningite</t>
+  </si>
+  <si>
+    <t>Rougeole</t>
+  </si>
+  <si>
+    <t>Paludisme</t>
+  </si>
+  <si>
+    <t>Coqueluche</t>
+  </si>
+  <si>
+    <t>SIDA</t>
+  </si>
+  <si>
+    <t>Blessure</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>1-5 mois</t>
+  </si>
+  <si>
+    <t>6-11 mois</t>
+  </si>
+  <si>
     <t>12-23 mois</t>
   </si>
   <si>
+    <t>24-59 mois</t>
+  </si>
+  <si>
+    <t>Femmes enceintes</t>
+  </si>
+  <si>
+    <t>Hémorragie antepartum</t>
+  </si>
+  <si>
+    <t>Hémorragie intra-partum</t>
+  </si>
+  <si>
+    <t>Hémorragie du post-partum</t>
+  </si>
+  <si>
+    <t>Troubles hypertensifs</t>
+  </si>
+  <si>
+    <t>Septicémie</t>
+  </si>
+  <si>
+    <t>Avortement</t>
+  </si>
+  <si>
+    <t>Embolie</t>
+  </si>
+  <si>
+    <t>Autres causes directes</t>
+  </si>
+  <si>
+    <t>Causes indirectes</t>
+  </si>
+  <si>
+    <t>&lt;1 mois</t>
+  </si>
+  <si>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>Retard de croissance (taille pour l'âge)</t>
+  </si>
+  <si>
+    <t>Normal (score HAZ &gt; -1)</t>
+  </si>
+  <si>
+    <t>Léger (score HAZ entre -2 et -1)</t>
+  </si>
+  <si>
+    <t>Modéré (score HAZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>Élevé (score HAZ entre &lt; -3)</t>
+  </si>
+  <si>
+    <t>Amaigrissement (poids par rapport à la taille)</t>
+  </si>
+  <si>
+    <t>Normal (score WHZ &gt; -1)</t>
+  </si>
+  <si>
+    <t>Léger (score WHZ entre -2 et -1)</t>
+  </si>
+  <si>
+    <t>MAM (score WHZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>SAM (score WHZ &lt; -3)</t>
+  </si>
+  <si>
+    <t>Anémie</t>
+  </si>
+  <si>
+    <t>PW : 15-19 ans</t>
+  </si>
+  <si>
+    <t>PW : 20-29 ans</t>
+  </si>
+  <si>
+    <t>PW : 30-39 ans</t>
+  </si>
+  <si>
+    <t>PW : 40-49 ans</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie ferriprive</t>
+  </si>
+  <si>
+    <t>Allaitement maternel</t>
+  </si>
+  <si>
+    <t>Exclusif</t>
+  </si>
+  <si>
+    <t>Prédominant</t>
+  </si>
+  <si>
+    <t>Partiel</t>
+  </si>
+  <si>
+    <t>Aucun</t>
+  </si>
+  <si>
+    <t>Risque</t>
+  </si>
+  <si>
+    <t>Prévalence du retard de croissance (%)</t>
+  </si>
+  <si>
+    <t>Prévalence de l'émaciation (%)</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie (%)</t>
+  </si>
+  <si>
+    <t>Femmes en âge de procréer</t>
+  </si>
+  <si>
+    <t>Prévalence de l'allaitement maternel adapté à l'âge des enfants</t>
+  </si>
+  <si>
+    <t>Enfants de 0 à 5 mois</t>
+  </si>
+  <si>
+    <t>Enfants de 6 à 23 mois</t>
+  </si>
+  <si>
+    <t>Moins de cinq ans (décès pour 1 000 naissances)</t>
+  </si>
+  <si>
+    <t>Maternelle (décès pour 1 000 naissances)</t>
+  </si>
+  <si>
+    <t>Établissement de santé</t>
+  </si>
+  <si>
+    <t>Programme</t>
+  </si>
+  <si>
+    <t>Traitement de la MAS</t>
+  </si>
+  <si>
+    <t>Défaut</t>
+  </si>
+  <si>
+    <t>Ajouter une extension</t>
+  </si>
+  <si>
+    <t>Mode de livraison</t>
+  </si>
+  <si>
+    <t>Paquet IYCF</t>
+  </si>
+  <si>
+    <t>Population cible</t>
+  </si>
+  <si>
+    <t>Communauté</t>
+  </si>
+  <si>
+    <t>Médias de masse</t>
+  </si>
+  <si>
+    <t>Tous</t>
+  </si>
+  <si>
+    <t>AIFC 1</t>
+  </si>
+  <si>
+    <t>AIFC 2</t>
+  </si>
+  <si>
+    <t>Couverture à saturation de la population cible</t>
+  </si>
+  <si>
+    <t>Relation coût-couverture</t>
+  </si>
+  <si>
+    <t>Supplémentation équilibrée en énergie et en protéines</t>
+  </si>
+  <si>
+    <t>Supplémentation en calcium</t>
+  </si>
+  <si>
+    <t>Transferts en espèces</t>
+  </si>
+  <si>
+    <t>Retardement du clampage du cordon</t>
+  </si>
+  <si>
+    <t>Planification familiale</t>
+  </si>
+  <si>
+    <t>Enrichissement du maïs en AGI</t>
+  </si>
+  <si>
+    <t>Enrichissement du riz en AGI</t>
+  </si>
+  <si>
+    <t>Enrichissement en ACI de la farine de blé</t>
+  </si>
+  <si>
+    <t>IFAS (communauté)</t>
+  </si>
+  <si>
+    <t>IFAS (établissement de santé)</t>
+  </si>
+  <si>
+    <t>IFAS (détaillant)</t>
+  </si>
+  <si>
+    <t>IFAS (école)</t>
+  </si>
+  <si>
+    <t>IFAS pour les femmes enceintes (communauté)</t>
+  </si>
+  <si>
+    <t>IFAS pour les femmes enceintes (établissement de santé)</t>
+  </si>
+  <si>
+    <t>Enrichissement du sel en fer et en iode</t>
+  </si>
+  <si>
+    <t>Soins maternels kangourou</t>
+  </si>
+  <si>
+    <t>Suppléments nutritionnels à base de lipides</t>
+  </si>
+  <si>
+    <t>Moustiquaires imprégnées d'insecticide longue durée</t>
+  </si>
+  <si>
+    <t>Mg pour l'éclampsie</t>
+  </si>
+  <si>
+    <t>Mg pour la pré-éclampsie</t>
+  </si>
+  <si>
+    <t>Poudres de micronutriments</t>
+  </si>
+  <si>
+    <t>Supplémentation en micronutriments multiples</t>
+  </si>
+  <si>
+    <t>Sels de réhydratation orale</t>
+  </si>
+  <si>
+    <t>Fourniture publique d'aliments complémentaires</t>
+  </si>
+  <si>
     <t>Supplémentation en vitamine A</t>
   </si>
   <si>
-    <t>Enrichissement du maïs en AGI</t>
+    <t>WASH : lavage des mains</t>
+  </si>
+  <si>
+    <t>WASH : Élimination hygiénique</t>
+  </si>
+  <si>
+    <t>WASH : Amélioration de l'assainissement</t>
+  </si>
+  <si>
+    <t>WASH : Source d'eau améliorée</t>
+  </si>
+  <si>
+    <t>WASH : Eau courante</t>
+  </si>
+  <si>
+    <t>Zinc pour le traitement + SRO</t>
+  </si>
+  <si>
+    <t>Supplémentation en zinc</t>
+  </si>
+  <si>
+    <t>Linéaire (coût marginal constant) [par défaut].</t>
+  </si>
+  <si>
+    <t>Dépendance d'exclusion</t>
+  </si>
+  <si>
+    <t>Dépendance de seuil</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal croissant</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal décroissant</t>
+  </si>
+  <si>
+    <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
 </sst>
 </file>
@@ -4765,18 +4762,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4784,7 +4781,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4793,7 +4790,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4806,12 +4803,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4819,7 +4816,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4827,7 +4824,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4843,7 +4840,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4851,7 +4848,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4859,7 +4856,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4870,14 +4867,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4885,7 +4882,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4893,7 +4890,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4901,7 +4898,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4909,7 +4906,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4921,12 +4918,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4934,7 +4931,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4942,7 +4939,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4950,7 +4947,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4962,14 +4959,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4977,7 +4974,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4985,7 +4982,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4993,7 +4990,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5001,7 +4998,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5011,19 +5008,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5031,7 +5028,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5041,7 +5038,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5051,7 +5048,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5059,7 +5056,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5067,7 +5064,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5078,13 +5075,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5093,7 +5090,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5102,7 +5099,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5112,7 +5109,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5126,13 +5123,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5141,7 +5138,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5149,7 +5146,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5157,7 +5154,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5165,7 +5162,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5173,12 +5170,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5186,7 +5183,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5194,7 +5191,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>262</v>
+        <v>88</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5202,7 +5199,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5212,7 +5209,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8fTppeLz1teILVVRD3ssmsdAiq2/RO7nrE+rbn4LJw9rSl5DISybVXGoA98HZrQg1aL/6tTWbRehhYa8C4xD7Q==" saltValue="TFOY+d3lxUQvmuFyMUs99Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H0Clm0Bhvy7pl8ncJFpy6mFFDvZjpeMMKdGv7+V4B7wKUvbSFUfJvbTUd767wANkTl/ZfEmLYNR6Unr4Wb6psA==" saltValue="L+fWyWrHPawXV0Sb98XpAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5239,48 +5236,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>172</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -5360,7 +5357,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rX1gqMwRdoAlKpf3QWDDIgySrUQ8M+qoO/2f2wt8lMaf5GWuIOYyU4DB1Ovrgg4o9yhs5+BcKzU1l85Eq2FBHg==" saltValue="VUbWSqvOlY6RH02fISzUpA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5rnhZgbj2N/XjdHpAVWxkhPa3uvuTnlDi75Mqf2glICFaq9+C3Eg1EUAS7G9iyNLAZ7bndoHIW7F6sJiPSEKRA==" saltValue="0zpsfpQ8SLtvNuwYaoc2wA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5386,47 +5383,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5460,7 +5457,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="i8YexQ5W/sUjmBUWMxtwtUhwe/3RYXgLGnf3gV7CDnD5g4P3k9FKTXHdH/0FN/3nupeeLuFvelSrPEt02eCsHQ==" saltValue="LMzTGxXbHU2tCFj0/f9KSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PHUu/GKWDt5/n1h8f5xJZvMufeEvTsPN0Mx+0SVCOspNdBcOx+2NxJJhIU5B8HTmRLmfSgrRgZnANyBDnWG/pg==" saltValue="lOstvfcdfEu44/2mVfVvDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5481,27 +5478,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5526,7 +5523,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -5551,7 +5548,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -5575,7 +5572,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xHGrVc+m9wIJxaILNjne5oBa6N2RxAYKHmLYcw6Mk5YHiU1okXNl54sWBDeWQgWeAL9L2oknL2J+RSFuvJg7+A==" saltValue="zjcrxwnTNSSe7RuHkK9sxg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HNyjY/gJlFMf5MxFkOanHr2fQo2m7/+sZM16a8y4p0/IqMxx5YwiEVxoY5CqdHfAhuYm2mCcJ1Aud9juovnMMA==" saltValue="ARiugF0i5cpHpnvtjDIudg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5606,57 +5603,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -5704,7 +5701,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -5748,7 +5745,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -5792,7 +5789,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -5838,7 +5835,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -5885,7 +5882,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo</f>
@@ -5934,7 +5931,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -5980,7 +5977,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -6028,7 +6025,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -6072,7 +6069,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo</f>
@@ -6121,7 +6118,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="C12" s="87">
         <v>0</v>
@@ -6168,10 +6165,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -6220,7 +6217,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -6265,7 +6262,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -6314,7 +6311,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6362,7 +6359,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -6410,7 +6407,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -6454,7 +6451,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="C20" s="88">
         <v>0</v>
@@ -6498,7 +6495,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C21" s="88">
         <v>0</v>
@@ -6549,10 +6546,10 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -6600,7 +6597,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -6648,7 +6645,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -6696,7 +6693,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -6744,7 +6741,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -6799,10 +6796,10 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C29" s="87">
         <v>0</v>
@@ -6857,7 +6854,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -6912,7 +6909,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -6967,7 +6964,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -7011,7 +7008,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
@@ -7068,7 +7065,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="C34" s="87">
         <v>1</v>
@@ -7113,7 +7110,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="C35" s="87">
         <v>1</v>
@@ -7157,7 +7154,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="C36" s="87">
         <v>1</v>
@@ -7201,7 +7198,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="C37" s="87">
         <v>1</v>
@@ -7245,7 +7242,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="C38" s="87">
         <v>1</v>
@@ -7291,7 +7288,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uFcNnO7NyxAq6zrcPYHqYGS2V0KlbhwY7APhp1PCoAR0wgzuwIfhejb2OId8N5725Z4YhIUK2zcdWAH96P0aEQ==" saltValue="Ao/yW6frpWnA1yhAhmr1fQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z+vdHsivf8vUapqd1WrglgfGk+A04g4sM1uuMnEWXdijOjlPLQzCW0jzWOy/l8tDfuhoJPFLQ3LPDUmCTygIiA==" saltValue="1/S9vvX6dY/hfVIohV/Wtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7310,26 +7307,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9gGPK5kWD/Z8pIgxHuDBzoCi8hD3dQygZZo0ss5H48Gwqh6Vnj+pJsyfH0Ln3WOKuQnQ+CGUk1V2ujeaBo9JUg==" saltValue="YimvUuUCkgtlVM1GkpUb6w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="12Au5xwVsXAgtmuimOd2mZWcvp83gOU3DqPXQ4BvK7TmFRcjWIEJEWOgZMUD8FY9OeLmCMKl92q4Qro1xPSUNw==" saltValue="LUpJ5+5FK+mde9xHyrS/ww==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7356,24 +7353,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="B2" s="38">
         <v>0.9</v>
@@ -7391,7 +7388,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="B3" s="38">
         <v>1</v>
@@ -7409,7 +7406,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="B4" s="38">
         <v>1</v>
@@ -7427,7 +7424,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="B5" s="38">
         <v>1</v>
@@ -7445,7 +7442,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -7463,7 +7460,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="B7" s="38">
         <v>0.93</v>
@@ -7481,7 +7478,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="B8" s="38">
         <v>0.5</v>
@@ -7499,7 +7496,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="B9" s="38">
         <v>0.5</v>
@@ -7517,7 +7514,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="B10" s="38">
         <v>0.98</v>
@@ -7537,7 +7534,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AmoQ9YqTApUWOY7SMFhsfOjYlrYTRJoxfWSTTTHtPYbYdEOtTnPjdpI6BqBNEMeC7frBtm/fI9r8/6F8f9//bw==" saltValue="SljOlAK6aIjhRFripCZpZw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="O/cx1zLjg5bkSaVsnGBcllb5Y52zqYG2s7ZChR3NIwfKWNcvpT5SIOoEkmMJWsx4jyD8lHzLW9IGyl4xR9FKdg==" saltValue="nJkEfAt+cL84od3P62dP+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7570,57 +7567,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="C2" s="90">
         <v>0</v>
@@ -7664,7 +7661,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C3" s="90">
         <v>1</v>
@@ -7708,7 +7705,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="C4" s="90">
         <v>1</v>
@@ -7752,7 +7749,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="C5" s="90">
         <v>1</v>
@@ -7796,7 +7793,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="C6" s="90">
         <v>1</v>
@@ -7840,7 +7837,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C7" s="90">
         <v>1</v>
@@ -7884,7 +7881,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C8" s="90">
         <v>0</v>
@@ -7928,7 +7925,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C9" s="90">
         <v>0</v>
@@ -7972,7 +7969,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="C10" s="90">
         <v>1</v>
@@ -8016,7 +8013,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C11" s="90">
         <v>0</v>
@@ -8060,7 +8057,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="C12" s="90">
         <v>0</v>
@@ -8104,7 +8101,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C13" s="90">
         <v>0</v>
@@ -8148,7 +8145,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="C14" s="90">
         <v>1</v>
@@ -8192,7 +8189,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="C15" s="90">
         <v>0</v>
@@ -8252,10 +8249,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="C17" s="90">
         <v>0</v>
@@ -8300,7 +8297,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="C18" s="90">
         <v>0</v>
@@ -8344,7 +8341,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="92" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C19" s="90">
         <v>0</v>
@@ -8388,7 +8385,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="92" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C20" s="90">
         <v>0</v>
@@ -8432,7 +8429,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="93" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C21" s="90">
         <v>0</v>
@@ -8476,7 +8473,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="C22" s="90">
         <v>0</v>
@@ -8520,7 +8517,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="C23" s="90">
         <v>0</v>
@@ -8564,7 +8561,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C24" s="90">
         <v>0</v>
@@ -8624,10 +8621,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C26" s="90">
         <v>0</v>
@@ -8672,7 +8669,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C27" s="90">
         <v>0</v>
@@ -8717,7 +8714,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C28" s="90">
         <v>0</v>
@@ -8761,7 +8758,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C29" s="90">
         <v>0</v>
@@ -8805,7 +8802,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C30" s="90">
         <v>0</v>
@@ -8865,10 +8862,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C32" s="90">
         <v>1</v>
@@ -8912,7 +8909,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C33" s="90">
         <v>1</v>
@@ -8956,7 +8953,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C34" s="90">
         <v>1</v>
@@ -9000,7 +8997,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C35" s="90">
         <v>1</v>
@@ -9044,7 +9041,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C36" s="90">
         <v>1</v>
@@ -9089,7 +9086,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="C37" s="90">
         <v>1</v>
@@ -9133,7 +9130,7 @@
     </row>
     <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="C38" s="90">
         <v>1</v>
@@ -9177,7 +9174,7 @@
     </row>
     <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="C39" s="90">
         <v>1</v>
@@ -9221,7 +9218,7 @@
     </row>
     <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="C40" s="90">
         <v>1</v>
@@ -9265,7 +9262,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="C41" s="90">
         <v>1</v>
@@ -9308,7 +9305,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="42k1Sqt3YBCsua5uXvCwdJYO05Y86KnFp92XafyE5Y348LDz4v2Kk84VRjgibFfA01dLY+LYUgkXGtXiFP6c9A==" saltValue="JoHvSlrUokInSOhAY1q+tg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0qZONoFJLsx/8oiyXJy2XAeWZPU3O3mh+aDtG2yE/f2dkhN1qBVpOEmjQ8EEv/1IFPMM+3lajaawR8vXXSFCAw==" saltValue="3GdLY2q7BVGFvLVW20dx8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9341,42 +9338,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -9386,14 +9383,14 @@
       <c r="G2" s="90"/>
       <c r="H2" s="90"/>
       <c r="I2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="90"/>
@@ -9402,7 +9399,7 @@
       <c r="F3" s="90"/>
       <c r="G3" s="90"/>
       <c r="H3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -9410,12 +9407,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
       <c r="D4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
@@ -9427,11 +9424,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
@@ -9444,7 +9441,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="B6" s="90"/>
       <c r="C6" s="90"/>
@@ -9455,26 +9452,26 @@
       <c r="H6" s="90"/>
       <c r="I6" s="90"/>
       <c r="J6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="K6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
@@ -9482,18 +9479,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I8" s="90"/>
       <c r="J8" s="90"/>
@@ -9501,18 +9498,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="90"/>
       <c r="H9" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
@@ -9520,11 +9517,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
@@ -9537,11 +9534,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -9554,11 +9551,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -9571,11 +9568,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -9588,11 +9585,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -9600,18 +9597,18 @@
       <c r="G14" s="90"/>
       <c r="H14" s="90"/>
       <c r="I14" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="92" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D15" s="90"/>
       <c r="E15" s="90"/>
@@ -9619,39 +9616,39 @@
       <c r="G15" s="90"/>
       <c r="H15" s="90"/>
       <c r="I15" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="90"/>
       <c r="H16" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="B17" s="90"/>
       <c r="C17" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D17" s="90"/>
       <c r="E17" s="90"/>
@@ -9664,16 +9661,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C18" s="90"/>
       <c r="D18" s="90"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G18" s="90"/>
       <c r="H18" s="90"/>
@@ -9683,16 +9680,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C19" s="90"/>
       <c r="D19" s="90"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -9702,16 +9699,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C20" s="90"/>
       <c r="D20" s="90"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G20" s="90"/>
       <c r="H20" s="90"/>
@@ -9721,7 +9718,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B21" s="90"/>
       <c r="C21" s="90"/>
@@ -9730,26 +9727,26 @@
       <c r="F21" s="90"/>
       <c r="G21" s="90"/>
       <c r="H21" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I21" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B22" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D22" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
@@ -9761,11 +9758,11 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="B23" s="90"/>
       <c r="C23" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
@@ -9773,14 +9770,14 @@
       <c r="G23" s="90"/>
       <c r="H23" s="90"/>
       <c r="I23" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="B24" s="90"/>
       <c r="C24" s="90"/>
@@ -9789,7 +9786,7 @@
       <c r="F24" s="90"/>
       <c r="G24" s="90"/>
       <c r="H24" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I24" s="90"/>
       <c r="J24" s="90"/>
@@ -9797,7 +9794,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
@@ -9806,7 +9803,7 @@
       <c r="F25" s="90"/>
       <c r="G25" s="90"/>
       <c r="H25" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I25" s="90"/>
       <c r="J25" s="90"/>
@@ -9814,11 +9811,11 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D26" s="90"/>
       <c r="E26" s="90"/>
@@ -9831,11 +9828,11 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B27" s="90"/>
       <c r="C27" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D27" s="90"/>
       <c r="E27" s="90"/>
@@ -9843,14 +9840,14 @@
       <c r="G27" s="90"/>
       <c r="H27" s="90"/>
       <c r="I27" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
@@ -9859,7 +9856,7 @@
       <c r="F28" s="90"/>
       <c r="G28" s="90"/>
       <c r="H28" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I28" s="90"/>
       <c r="J28" s="90"/>
@@ -9867,14 +9864,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B29" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C29" s="90"/>
       <c r="D29" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
@@ -9886,13 +9883,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="B30" s="90"/>
       <c r="C30" s="90"/>
       <c r="D30" s="90"/>
       <c r="E30" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F30" s="90"/>
       <c r="G30" s="90"/>
@@ -9903,7 +9900,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
@@ -9911,10 +9908,10 @@
       <c r="E31" s="90"/>
       <c r="F31" s="90"/>
       <c r="G31" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H31" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I31" s="90"/>
       <c r="J31" s="90"/>
@@ -9922,7 +9919,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B32" s="90"/>
       <c r="C32" s="90"/>
@@ -9930,10 +9927,10 @@
       <c r="E32" s="90"/>
       <c r="F32" s="90"/>
       <c r="G32" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H32" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I32" s="90"/>
       <c r="J32" s="90"/>
@@ -9941,7 +9938,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="B33" s="90"/>
       <c r="C33" s="90"/>
@@ -9949,10 +9946,10 @@
       <c r="E33" s="90"/>
       <c r="F33" s="90"/>
       <c r="G33" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H33" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I33" s="90"/>
       <c r="J33" s="90"/>
@@ -9960,7 +9957,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B34" s="90"/>
       <c r="C34" s="90"/>
@@ -9968,10 +9965,10 @@
       <c r="E34" s="90"/>
       <c r="F34" s="90"/>
       <c r="G34" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H34" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I34" s="90"/>
       <c r="J34" s="90"/>
@@ -9979,7 +9976,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B35" s="90"/>
       <c r="C35" s="90"/>
@@ -9987,10 +9984,10 @@
       <c r="E35" s="90"/>
       <c r="F35" s="90"/>
       <c r="G35" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H35" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
@@ -9998,7 +9995,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B36" s="90"/>
       <c r="C36" s="90"/>
@@ -10006,10 +10003,10 @@
       <c r="E36" s="90"/>
       <c r="F36" s="90"/>
       <c r="G36" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H36" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I36" s="90"/>
       <c r="J36" s="90"/>
@@ -10017,7 +10014,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
@@ -10026,7 +10023,7 @@
       <c r="F37" s="90"/>
       <c r="G37" s="90"/>
       <c r="H37" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I37" s="90"/>
       <c r="J37" s="90"/>
@@ -10034,27 +10031,27 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C38" s="90"/>
       <c r="D38" s="90"/>
       <c r="E38" s="90"/>
       <c r="F38" s="90"/>
       <c r="G38" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H38" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I38" s="90"/>
       <c r="J38" s="90"/>
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mS1TyjAY1VuXPCum9ThgzhyBBdTe4RbGk5GGZ8nAo7Up2yigxhPhYO3BXPolqIXqvqiIm+CJ1O/gNJwYb/TJGw==" saltValue="niW3TVn0nVF5DcpWHBYXbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="96q+nq3saMQLOCGI1HBk4Gz2JEx3Uco8oRqYDJDOsPiBz4On4fLA7BckzpJtDO+C8ukU9QD8ZGheM9GNB3F0qA==" saltValue="/jDro3+/qfyZh6MwuCeP1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10087,63 +10084,63 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
@@ -10151,28 +10148,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -10180,28 +10177,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I4" s="90"/>
       <c r="J4" s="90"/>
@@ -10209,28 +10206,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I5" s="90"/>
       <c r="J5" s="90"/>
@@ -10238,28 +10235,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I6" s="90"/>
       <c r="J6" s="90"/>
@@ -10267,95 +10264,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I7" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="90"/>
       <c r="H9" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I9" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
       <c r="F10" s="90"/>
       <c r="G10" s="90"/>
       <c r="H10" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I10" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -10364,19 +10361,19 @@
       <c r="H11" s="90"/>
       <c r="I11" s="90"/>
       <c r="J11" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="K11" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -10386,16 +10383,16 @@
       <c r="I12" s="90"/>
       <c r="J12" s="90"/>
       <c r="K12" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -10405,16 +10402,16 @@
       <c r="I13" s="90"/>
       <c r="J13" s="90"/>
       <c r="K13" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -10424,11 +10421,11 @@
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="R/qA4fUOlTJKKEG6rjb4z4jaZ+GNnCy7Vzhi0EIvWQa14KCH4yYXwMDdMwjzkeTwgEyXuO6Xw155Ve6VP4VblQ==" saltValue="hplfPeSyJN9KjY53FfAxtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EezZGx5mEbF1Vtj8lsEZi/Q3y4g2ghbWa518VGghpAkECoqBmlb66H9h86e3DgaafrprWFXKAv93WLBsOHvRcA==" saltValue="vA9rKhogr3UVa2N+3POJNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10454,39 +10451,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H1" s="98" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D2" s="99">
         <v>1</v>
@@ -10507,7 +10504,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="D3" s="99">
         <v>1</v>
@@ -10529,7 +10526,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D4" s="99">
         <v>1</v>
@@ -10550,10 +10547,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D5" s="99">
         <f>5.16</f>
@@ -10575,7 +10572,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="D6" s="99">
         <v>5.16</v>
@@ -10596,7 +10593,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D7" s="99">
         <v>1</v>
@@ -10616,10 +10613,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D8" s="99">
         <v>1</v>
@@ -10640,7 +10637,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="D9" s="99">
         <v>1</v>
@@ -10661,7 +10658,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D10" s="99">
         <v>1</v>
@@ -10681,10 +10678,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D11" s="99">
         <v>1</v>
@@ -10705,7 +10702,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="D12" s="99">
         <v>1</v>
@@ -10726,7 +10723,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D13" s="99">
         <v>1</v>
@@ -10746,10 +10743,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D14" s="99">
         <v>1</v>
@@ -10770,7 +10767,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="D15" s="99">
         <v>1</v>
@@ -10791,7 +10788,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D16" s="99">
         <v>1</v>
@@ -10811,10 +10808,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="101" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D17" s="99">
         <v>1.05</v>
@@ -10841,13 +10838,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D19" s="99">
         <v>1</v>
@@ -10868,7 +10865,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="D20" s="99">
         <v>1</v>
@@ -10889,7 +10886,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D21" s="99">
         <v>1</v>
@@ -10909,10 +10906,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="138" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D22" s="99">
         <v>1</v>
@@ -10933,7 +10930,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="D23" s="99">
         <v>1</v>
@@ -10954,7 +10951,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D24" s="99">
         <v>1</v>
@@ -10974,10 +10971,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="138" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D25" s="99">
         <v>1</v>
@@ -10998,7 +10995,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="D26" s="99">
         <v>1</v>
@@ -11019,7 +11016,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D27" s="99">
         <v>1</v>
@@ -11039,10 +11036,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="138" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D28" s="99">
         <v>1</v>
@@ -11063,7 +11060,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="D29" s="99">
         <v>1</v>
@@ -11084,7 +11081,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D30" s="99">
         <v>1</v>
@@ -11104,10 +11101,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D31" s="99">
         <v>1</v>
@@ -11128,7 +11125,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="D32" s="99">
         <v>1</v>
@@ -11149,7 +11146,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D33" s="99">
         <v>1</v>
@@ -11169,10 +11166,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="101" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D34" s="99">
         <v>1</v>
@@ -11199,13 +11196,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="103" t="s">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D36" s="99">
         <v>1</v>
@@ -11226,7 +11223,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="D37" s="99">
         <v>1</v>
@@ -11247,7 +11244,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D38" s="99">
         <v>1</v>
@@ -11267,10 +11264,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="138" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D39" s="99">
         <v>1</v>
@@ -11291,7 +11288,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="D40" s="99">
         <v>1</v>
@@ -11312,7 +11309,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D41" s="99">
         <v>1</v>
@@ -11332,10 +11329,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="138" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D42" s="99">
         <v>1</v>
@@ -11356,7 +11353,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="D43" s="99">
         <v>1</v>
@@ -11377,7 +11374,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D44" s="99">
         <v>1</v>
@@ -11397,10 +11394,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="138" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D45" s="99">
         <v>1</v>
@@ -11421,7 +11418,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="D46" s="99">
         <v>1</v>
@@ -11442,7 +11439,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D47" s="99">
         <v>1</v>
@@ -11462,10 +11459,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D48" s="99">
         <v>1</v>
@@ -11486,7 +11483,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="D49" s="99">
         <v>1</v>
@@ -11507,7 +11504,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D50" s="99">
         <v>1</v>
@@ -11527,10 +11524,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="104" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D51" s="99">
         <v>1.05</v>
@@ -11549,7 +11546,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kwrTI39iKisMITi2Q6cyL8sfQbM0Hch8mma6FDdGZ7IURniTVNmBZoruCjW83QdNhRRm0kX+g+8txrzTrh2hBg==" saltValue="dCk8NFR7WtqBpMr6DzZcSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2F8mrOh/5Y+3Q6q7GGTLjCUcECEz2OVuMSMVt428VKrMO596Z3/Zif4LyXxiBZyfID4AzNFG/XmpX/ZAoXA5uQ==" saltValue="zdjy7ueIDImiBWf9g+Dg/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11592,31 +11589,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12657,7 +12654,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pvJ4P90YCZERXBl6i411SNSibTuFu+5EVCUUxHWOB63lMFtIXYRxl/SJovMsdHfsXw/4Zotpd8Uam1dBsBKGrg==" saltValue="ks+R7oKChtK2jmTZ0Y6bQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/7lQFdOz1Hj25xwyykaOWqtvLUbC1ajPcvtDo5tp8UTSt2x6jp7VTUFRhiRKJ3GZV2EU0xx8Tikhbi0iut14yw==" saltValue="I9W1svPXiJXVEM/u8g+FqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12691,27 +12688,27 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E2" s="109" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F2" s="109" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="B3" s="110"/>
       <c r="C3" s="111"/>
@@ -12721,7 +12718,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C4" s="114">
         <v>1</v>
@@ -12738,7 +12735,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C5" s="114">
         <v>1</v>
@@ -12755,7 +12752,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C6" s="114">
         <v>1</v>
@@ -12772,7 +12769,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C7" s="114">
         <v>1</v>
@@ -12795,7 +12792,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="C9" s="114">
         <v>1</v>
@@ -12820,7 +12817,7 @@
     </row>
     <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="105" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="C11" s="118"/>
       <c r="D11" s="119"/>
@@ -12830,7 +12827,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="C12" s="116"/>
       <c r="D12" s="100"/>
@@ -12840,7 +12837,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="121" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="C13" s="114">
         <v>1</v>
@@ -12858,7 +12855,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="121" t="s">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="C14" s="114">
         <v>1</v>
@@ -12876,7 +12873,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="121" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="C15" s="114">
         <v>1</v>
@@ -12903,7 +12900,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="B17" s="110"/>
       <c r="C17" s="123"/>
@@ -12914,7 +12911,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -12932,7 +12929,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="125" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C19" s="114">
         <v>1</v>
@@ -12950,7 +12947,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="125" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C20" s="114">
         <v>1</v>
@@ -12968,7 +12965,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="125" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C21" s="114">
         <v>1</v>
@@ -12986,7 +12983,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="125" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C22" s="114">
         <v>1</v>
@@ -13003,7 +13000,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -13020,7 +13017,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="125" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C24" s="114">
         <v>1</v>
@@ -13037,7 +13034,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="125" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="C25" s="114">
         <v>1</v>
@@ -13059,7 +13056,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LywaxaZkhIdrOekr9WaGY7k24KvgxMBnqXLpKfzF49RfOutCcHBfH9ZuugRLmxru9euEmHZRlmkkkiozrifM3Q==" saltValue="RKvbf4wgAy4CnxysBPGemg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iatCn5/urUa68gMX72Gd5rSlH5M6JOZ/lBL5ikC6nvUnvi3iR0ABQntQzP/LfdHoUnuOpNH5fiIvOw9IY72sag==" saltValue="d1gMDrR/AVeZqQFCjXW5Ew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13089,33 +13086,33 @@
   <sheetData>
     <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="126" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="B2" s="127" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C2" s="127" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E2" s="109" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F2" s="109" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G2" s="109" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H2" s="109" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I2" s="128"/>
       <c r="J2" s="128"/>
@@ -13129,10 +13126,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D3" s="114">
         <v>1</v>
@@ -13160,7 +13157,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -13188,7 +13185,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D5" s="115">
         <v>1</v>
@@ -13216,7 +13213,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -13244,10 +13241,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D7" s="114">
         <v>1</v>
@@ -13275,7 +13272,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D8" s="115">
         <v>1</v>
@@ -13303,7 +13300,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D9" s="115">
         <v>1</v>
@@ -13331,7 +13328,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D10" s="115">
         <v>1</v>
@@ -13359,10 +13356,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D11" s="114">
         <v>1</v>
@@ -13390,7 +13387,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D12" s="115">
         <v>1</v>
@@ -13418,7 +13415,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D13" s="115">
         <v>1</v>
@@ -13446,7 +13443,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D14" s="115">
         <v>1</v>
@@ -13474,10 +13471,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D15" s="114">
         <v>1</v>
@@ -13505,7 +13502,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D16" s="115">
         <v>1</v>
@@ -13533,7 +13530,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D17" s="115">
         <v>1</v>
@@ -13561,7 +13558,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D18" s="115">
         <v>1</v>
@@ -13589,10 +13586,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D19" s="114">
         <v>1</v>
@@ -13620,7 +13617,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D20" s="115">
         <v>1</v>
@@ -13648,7 +13645,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D21" s="115">
         <v>1</v>
@@ -13676,7 +13673,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D22" s="115">
         <v>1</v>
@@ -13704,10 +13701,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D23" s="114">
         <v>1</v>
@@ -13735,7 +13732,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D24" s="115">
         <v>1</v>
@@ -13763,7 +13760,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D25" s="115">
         <v>1</v>
@@ -13791,7 +13788,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -13819,33 +13816,33 @@
     </row>
     <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="105" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="129" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E29" s="109" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F29" s="109" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G29" s="109" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H29" s="109" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I29" s="128"/>
       <c r="J29" s="128"/>
@@ -13859,10 +13856,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D30" s="114">
         <v>1</v>
@@ -13890,7 +13887,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D31" s="115">
         <v>1</v>
@@ -13918,7 +13915,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -13946,7 +13943,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D33" s="115">
         <v>1</v>
@@ -13974,10 +13971,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D34" s="114">
         <v>1</v>
@@ -14005,7 +14002,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -14033,7 +14030,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D36" s="115">
         <v>1</v>
@@ -14061,7 +14058,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D37" s="115">
         <v>1</v>
@@ -14089,10 +14086,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D38" s="114">
         <v>1</v>
@@ -14120,7 +14117,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D39" s="115">
         <v>1</v>
@@ -14148,7 +14145,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D40" s="115">
         <v>1</v>
@@ -14176,7 +14173,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D41" s="115">
         <v>1</v>
@@ -14204,10 +14201,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D42" s="114">
         <v>1</v>
@@ -14235,7 +14232,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D43" s="115">
         <v>1</v>
@@ -14263,7 +14260,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D44" s="115">
         <v>1</v>
@@ -14291,7 +14288,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D45" s="115">
         <v>1</v>
@@ -14319,10 +14316,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D46" s="114">
         <v>1</v>
@@ -14350,7 +14347,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D47" s="115">
         <v>1</v>
@@ -14378,7 +14375,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D48" s="115">
         <v>1</v>
@@ -14406,7 +14403,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D49" s="115">
         <v>1</v>
@@ -14434,10 +14431,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D50" s="114">
         <v>1</v>
@@ -14465,7 +14462,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D51" s="115">
         <v>1</v>
@@ -14493,7 +14490,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D52" s="115">
         <v>1</v>
@@ -14521,7 +14518,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D53" s="115">
         <v>1</v>
@@ -14553,30 +14550,30 @@
     </row>
     <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="105" t="s">
-        <v>233</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="129" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="B56" s="98" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C56" s="131" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="D56" s="109" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="E56" s="109" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="F56" s="109" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="G56" s="109" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="H56" s="128"/>
       <c r="M56" s="128"/>
@@ -14587,10 +14584,10 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D57" s="114">
         <v>1</v>
@@ -14612,7 +14609,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="D58" s="115">
         <v>10.675000000000001</v>
@@ -14634,10 +14631,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D59" s="114">
         <v>1</v>
@@ -14659,7 +14656,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="D60" s="115">
         <v>10.675000000000001</v>
@@ -14681,10 +14678,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D61" s="114">
         <v>1</v>
@@ -14706,7 +14703,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="D62" s="115">
         <v>10.675000000000001</v>
@@ -14732,33 +14729,33 @@
     </row>
     <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="105" t="s">
-        <v>237</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="129" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="B65" s="98" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C65" s="131" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="D65" s="109" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E65" s="109" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F65" s="109" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G65" s="109" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H65" s="132" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I65" s="128"/>
       <c r="J65" s="128"/>
@@ -14772,10 +14769,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D66" s="114">
         <v>1</v>
@@ -14803,7 +14800,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D67" s="115">
         <v>1.35</v>
@@ -14831,7 +14828,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D68" s="115">
         <v>1.35</v>
@@ -14859,7 +14856,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D69" s="115">
         <v>5.4</v>
@@ -14887,10 +14884,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D70" s="114">
         <v>1</v>
@@ -14918,7 +14915,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D71" s="115">
         <v>1.35</v>
@@ -14946,7 +14943,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D72" s="115">
         <v>1.35</v>
@@ -14974,7 +14971,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D73" s="115">
         <v>5.4</v>
@@ -15002,10 +14999,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D74" s="114">
         <v>1</v>
@@ -15033,7 +15030,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D75" s="115">
         <v>1.35</v>
@@ -15061,7 +15058,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D76" s="115">
         <v>1.35</v>
@@ -15089,7 +15086,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D77" s="115">
         <v>5.4</v>
@@ -15117,10 +15114,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D78" s="114">
         <v>1</v>
@@ -15148,7 +15145,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D79" s="115">
         <v>1</v>
@@ -15176,7 +15173,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D80" s="115">
         <v>1</v>
@@ -15204,7 +15201,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D81" s="115">
         <v>1</v>
@@ -15232,10 +15229,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D82" s="114">
         <v>1</v>
@@ -15263,7 +15260,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D83" s="115">
         <v>1</v>
@@ -15291,7 +15288,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D84" s="115">
         <v>1</v>
@@ -15319,7 +15316,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D85" s="115">
         <v>1</v>
@@ -15347,10 +15344,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D86" s="114">
         <v>1</v>
@@ -15378,7 +15375,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D87" s="115">
         <v>1</v>
@@ -15406,7 +15403,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D88" s="115">
         <v>1</v>
@@ -15434,7 +15431,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D89" s="115">
         <v>1</v>
@@ -15462,10 +15459,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D90" s="114">
         <v>1</v>
@@ -15493,7 +15490,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D91" s="115">
         <v>1</v>
@@ -15521,7 +15518,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D92" s="115">
         <v>1</v>
@@ -15549,7 +15546,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D93" s="115">
         <v>1</v>
@@ -15577,10 +15574,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D94" s="114">
         <v>1</v>
@@ -15608,7 +15605,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D95" s="115">
         <v>1</v>
@@ -15636,7 +15633,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D96" s="115">
         <v>1</v>
@@ -15664,7 +15661,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D97" s="115">
         <v>1</v>
@@ -15692,10 +15689,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D98" s="114">
         <v>1</v>
@@ -15723,7 +15720,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D99" s="115">
         <v>1</v>
@@ -15751,7 +15748,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D100" s="115">
         <v>1</v>
@@ -15779,7 +15776,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D101" s="115">
         <v>1</v>
@@ -15807,33 +15804,33 @@
     </row>
     <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="105" t="s">
-        <v>239</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="129" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B104" s="134" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="C104" s="131" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="D104" s="109" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E104" s="109" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F104" s="109" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G104" s="109" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H104" s="132" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I104" s="128"/>
       <c r="J104" s="128"/>
@@ -15848,7 +15845,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D105" s="114">
         <v>1</v>
@@ -15876,7 +15873,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D106" s="115">
         <v>1.26</v>
@@ -15904,7 +15901,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D107" s="115">
         <v>1.68</v>
@@ -15932,7 +15929,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D108" s="115">
         <v>2.65</v>
@@ -15962,7 +15959,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X+D5C+aqRinH3H8aOaY5sRMYa24lZudkkgZSqM2fEMG/Z6fN87rviyKIwORXNhb4AI555eTmlbRcrSCVj6y4AQ==" saltValue="tturqNggNvRgDCl1ALVRtw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oeOBDQFRLAQjOTYAav2na+3AiP2GQjvuSj4OLmDRUmBnfGic997mn9ptR+6IxZxU1ezOGqEjuY8J5hvg0WfmDQ==" saltValue="EycRKtPtvL1vnqwpUcFP3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15993,36 +15990,36 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>240</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="40" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="121" t="s">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="D3" s="115">
         <v>45</v>
@@ -16040,7 +16037,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="C4" s="115">
         <v>1.0249999999999999</v>
@@ -16060,12 +16057,12 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="110" t="s">
-        <v>244</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="125" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C6" s="115">
         <v>1</v>
@@ -16085,7 +16082,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="125" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16105,7 +16102,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="125" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="C8" s="115">
         <v>1</v>
@@ -16133,13 +16130,13 @@
     </row>
     <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="105" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C11" s="115">
         <v>1.5</v>
@@ -16163,15 +16160,15 @@
     </row>
     <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="105" t="s">
-        <v>246</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="133" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="B14" s="125" t="s">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="C14" s="115">
         <v>1.0249999999999999</v>
@@ -16192,7 +16189,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="C15" s="115">
         <v>1.0249999999999999</v>
@@ -16212,10 +16209,10 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="133" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="C16" s="115">
         <v>1</v>
@@ -16236,26 +16233,26 @@
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="105" t="s">
-        <v>250</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="121" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C20" s="115">
         <v>1.52</v>
@@ -16271,7 +16268,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pEu7lmVMWnMrCjBh1JSnYoOSK/4bjXCPg8GaTMUM8jkvSR8/u2/IvpTHazd2Btep5n3XXVmTXqN6J6vpQWRXOg==" saltValue="Yf5AbtS82NcCoadw43yb0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="krHXQfwGmLb+O+XMSLzHAnFKYWguzq0pFskBk0ipZtOA1KLLCZ+29L5YwhUITEOWp4nvcQD0UY8Ejb15uKLU8g==" saltValue="gz1yW5Mdh628rf/yHqllPw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16300,28 +16297,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F1" s="127" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C2" s="115">
         <v>0.21</v>
@@ -16339,7 +16336,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -16356,10 +16353,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="92" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C4" s="115">
         <v>0</v>
@@ -16377,7 +16374,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16394,10 +16391,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C6" s="115">
         <v>0</v>
@@ -16415,7 +16412,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16432,10 +16429,10 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C8" s="115">
         <v>0.35</v>
@@ -16453,7 +16450,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16470,10 +16467,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C10" s="115">
         <v>0.35</v>
@@ -16491,7 +16488,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -16508,10 +16505,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="92" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C12" s="115">
         <v>0.08</v>
@@ -16529,7 +16526,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -16551,7 +16548,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qAooT/Z2xQW5lfUWnVwPYfWQULwGAiL3r7IsDwlJ5HacT36k0DAGGBEqTQeHk35toiIZqIRdhr2rgjVhXpSWEg==" saltValue="X2rnS3O578kRip7/BueNvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KReyiTJiEZrNIhZPFws2Vg9HJvyF2M3Jds/L9SlcTJA2St55Ge7qGTQ/4UGslJhbItliHbE2Dug5wQ2xfqr/4w==" saltValue="Flp7/teTxeuDvFKRMOyK7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16580,53 +16577,53 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="109" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="109" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="109" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="109" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H1" s="109" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="I1" s="109" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="J1" s="109" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="K1" s="109" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="L1" s="109" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="M1" s="109" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="N1" s="109" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="O1" s="109" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>253</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C3" s="115">
         <v>0.53</v>
@@ -16670,7 +16667,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C4" s="115">
         <v>1</v>
@@ -16714,7 +16711,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16758,7 +16755,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C6" s="115">
         <v>1</v>
@@ -16802,7 +16799,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16846,7 +16843,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="92" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C8" s="115">
         <v>1</v>
@@ -16890,7 +16887,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16934,7 +16931,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C10" s="115">
         <v>1</v>
@@ -16978,7 +16975,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -17022,7 +17019,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C12" s="115">
         <v>0.83</v>
@@ -17066,7 +17063,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -17110,7 +17107,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C14" s="115">
         <v>1</v>
@@ -17154,13 +17151,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="B16" s="59"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="92" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C17" s="115">
         <v>1</v>
@@ -17204,7 +17201,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="92" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C18" s="115">
         <v>1</v>
@@ -17248,7 +17245,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="92" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C19" s="115">
         <v>1</v>
@@ -17292,7 +17289,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="92" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C20" s="115">
         <v>1</v>
@@ -17347,7 +17344,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rpA79y2b1uIkxPm/5QQS79wqbpoZngDhVCJ+bBquMh4XfC+IwSo7frr9oIqVdtQmf77KP2ktnDPE4OPtud7Pqg==" saltValue="wOhFDVK3vTYLAhH9lN/9zA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IKlbaCvWmrFixTzqJefSSdZM5ft5ax8DxlsYQDDR3baSJDxjz5CRsCKAjbLvZ6bYiyd+SOA/R2D8KlHjdfeYuw==" saltValue="3elniG/bDALj9/M/0z8yDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17376,29 +17373,29 @@
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -17418,7 +17415,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="135"/>
@@ -17429,7 +17426,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="92" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -17448,7 +17445,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DorqcD5pZzm2TTPkZdUkxG31PRV1s9dWUhdw4lSkOaSetcMsKe84SIzV4U/H7Ed5gmXZ49QGmaci9UX9oteZ5Q==" saltValue="fTWUXl2o93+FBJmceiFGqw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="X73trPZ6vACBoUA/0E3HaP9RObRrGpYakGuW5UavR1Ef1krLMx2Uk6ThUJlCDSBKVqUXasBxBojmVXK/7OpQnA==" saltValue="E53xtcGn9v3luZIsuKd4iA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17480,39 +17477,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="C1" s="133" t="s">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D2" s="115">
         <v>0</v>
@@ -17532,7 +17529,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D3" s="115">
         <v>0</v>
@@ -17552,7 +17549,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D4" s="115">
         <v>0</v>
@@ -17572,13 +17569,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D5" s="115">
         <v>0</v>
@@ -17598,7 +17595,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D6" s="115">
         <v>0</v>
@@ -17618,10 +17615,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D7" s="115">
         <v>0</v>
@@ -17641,7 +17638,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D8" s="115">
         <v>0</v>
@@ -17661,13 +17658,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D9" s="115">
         <v>0</v>
@@ -17687,7 +17684,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D10" s="115">
         <v>0</v>
@@ -17707,10 +17704,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D11" s="115">
         <v>0</v>
@@ -17730,7 +17727,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D12" s="115">
         <v>0</v>
@@ -17750,13 +17747,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D13" s="115">
         <v>0</v>
@@ -17776,7 +17773,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D14" s="115">
         <v>0</v>
@@ -17797,10 +17794,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D15" s="115">
         <v>0</v>
@@ -17821,7 +17818,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D16" s="115">
         <v>0</v>
@@ -17842,13 +17839,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D17" s="115">
         <v>0.7</v>
@@ -17869,7 +17866,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D18" s="115">
         <v>0.19</v>
@@ -17890,13 +17887,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D19" s="115">
         <v>0.7</v>
@@ -17916,7 +17913,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D20" s="115">
         <v>0.19</v>
@@ -17936,13 +17933,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D21" s="115">
         <v>0.7</v>
@@ -17962,7 +17959,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D22" s="115">
         <v>0.19</v>
@@ -17982,13 +17979,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D23" s="115">
         <v>1</v>
@@ -18008,7 +18005,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D24" s="115">
         <v>0</v>
@@ -18028,7 +18025,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D25" s="115">
         <v>0</v>
@@ -18048,13 +18045,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -18074,7 +18071,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D27" s="115">
         <v>0</v>
@@ -18094,7 +18091,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D28" s="115">
         <v>0</v>
@@ -18114,13 +18111,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D29" s="115">
         <v>1</v>
@@ -18140,7 +18137,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D30" s="115">
         <v>0</v>
@@ -18160,7 +18157,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D31" s="115">
         <v>0</v>
@@ -18180,13 +18177,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -18206,7 +18203,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D33" s="115">
         <v>0</v>
@@ -18226,7 +18223,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D34" s="115">
         <v>0</v>
@@ -18246,13 +18243,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -18272,7 +18269,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D36" s="115">
         <v>0</v>
@@ -18292,7 +18289,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D37" s="115">
         <v>0</v>
@@ -18312,13 +18309,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D38" s="115">
         <v>0.3</v>
@@ -18338,7 +18335,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D39" s="115">
         <v>0.5</v>
@@ -18358,7 +18355,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D40" s="115">
         <v>0.65</v>
@@ -18378,10 +18375,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D41" s="115">
         <v>0.3</v>
@@ -18401,7 +18398,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D42" s="115">
         <v>0.49</v>
@@ -18421,7 +18418,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D43" s="115">
         <v>0.63</v>
@@ -18441,13 +18438,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D44" s="115">
         <v>0.88</v>
@@ -18467,7 +18464,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D45" s="115">
         <v>0.8</v>
@@ -18487,13 +18484,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D46" s="115">
         <v>1</v>
@@ -18513,7 +18510,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D47" s="115">
         <v>0.76</v>
@@ -18533,13 +18530,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D48" s="115">
         <v>0.57999999999999996</v>
@@ -18559,7 +18556,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D49" s="115">
         <v>0.88</v>
@@ -18578,7 +18575,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2JtVxDAfChwApwj7gDSHt7pPQKDrpnh3Gq8a1fhs5B4jE+xINc5QsiQ15EwyOh5AKlIfjY0meLoWw5NtF6anug==" saltValue="lb6sOFuv4r1ObnjDQWSV3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="A1SOfmmD9NBZj3tEMD88s9nQhQspjoO0oSrlPsmyxj28FUMj3vRw1X4G9aiKPBXuaTXKhEgFP6RcUZp29oEhsQ==" saltValue="fummeNuiDqj7zcby+GyqwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18606,35 +18603,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="C1" s="127"/>
       <c r="D1" s="40" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D2" s="115">
         <v>1</v>
@@ -18652,7 +18649,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D3" s="115">
         <v>0.2</v>
@@ -18670,13 +18667,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -18695,7 +18692,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D5" s="115">
         <v>0.59</v>
@@ -18713,13 +18710,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -18738,7 +18735,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D7" s="115">
         <v>0.59</v>
@@ -18755,7 +18752,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yZjY2yWDzfOvNQ95RCNuOtynl++34qWu4HNZfRLM3KIbMPZlKv0SHXUunAyVE/zCO5vAWdB11us2uaRjAa7OYw==" saltValue="kL0+92JAP/6q1GVVN8DfzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="a7QeAhe30SWc8i1G63CneSqOAZ8OnVhORjRT+6HM+D7kue52gtSHpC7TQaPPjcS5Yop+9ZhpdAMcCNGv8omBwg==" saltValue="JJNH8u0QMRvNaYMzTc8jJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18791,13 +18788,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -18806,7 +18803,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -18814,7 +18811,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -18822,7 +18819,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -18830,7 +18827,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -18838,7 +18835,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -18846,7 +18843,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -18854,7 +18851,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -18862,7 +18859,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -18870,7 +18867,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18890,28 +18887,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -18928,7 +18925,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -18945,7 +18942,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -18962,7 +18959,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -18979,7 +18976,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -18996,7 +18993,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -19013,7 +19010,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -19030,7 +19027,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -19047,7 +19044,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -19064,7 +19061,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19096,13 +19093,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>203</v>
-      </c>
       <c r="C25" s="41" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19112,7 +19109,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -19120,7 +19117,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -19128,7 +19125,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -19136,7 +19133,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -19144,7 +19141,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="C30" s="75">
         <v>0.12434007</v>
@@ -19152,7 +19149,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -19160,7 +19157,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -19168,7 +19165,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -19176,7 +19173,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -19184,7 +19181,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19192,7 +19189,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PjJsHIS0uf9nVJ8HA5UHGeSGto7stvt77y29HjzcM3nKxBZLTp9bjiC9yopNYNtTDqgyZdPoxaVKXDmQFDfHwA==" saltValue="8BII7xG1yVO1Cqx9iZSZwA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KagXC2wOKrxIWSFpUVwzgdcj7hAAyaQ/NCIUJA1jajxVR0KJ/Dzjl5Xfn34jt7K78T5XMPK4RE8cEp9JWRuUUg==" saltValue="Aev7q0kO2JJziI/nU041jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19222,30 +19219,30 @@
         <v>Percentage of population in each category in baseline year (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19271,7 +19268,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -19297,7 +19294,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -19318,7 +19315,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -19354,10 +19351,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19382,7 +19379,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19407,7 +19404,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -19427,7 +19424,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -19461,51 +19458,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -19549,7 +19546,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19619,7 +19616,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="f0jmJehLhOLVhtm42YS8mnkGis7n8mV443LkFZHLt98YjmPDvbL40rWrUFzs9ND9kfF+nVhdxpu6swn40zHzig==" saltValue="clUsvsOiFBeVElPok1Uh+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XpnFuotJPO0VdvqQS/pnYjLvo7rgYWRmDBHt3tWDZK9hBTy6fweU3PEqTXBEDlmmxtAxePLdUPhiqYM83yNOoA==" saltValue="ugQO8qTrjtFvIcKtIa+JhA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19649,30 +19646,30 @@
         <v>Percentage of children in each category in baseline year (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -19692,7 +19689,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -19712,7 +19709,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -19732,7 +19729,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -19756,7 +19753,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ndjcofJxZ0cKiUfDm7Z5GSb0b6biQztmivLKvXAwjvBxhG8Twzqf8v9EblTdh5FC9tbozpwg4qmYrFzn3sl2RA==" saltValue="ePDNhgaXNt0Bv1sAZ3NEaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GRnSb5WjRvpvVT6OIOdkEyi7IJpdstH6H80WzISXWPD7bCciYcWeKlkvUtkSMBo3B6xJMBQCPz5BsL84A2Bqhw==" saltValue="aGAl4lszZrnhIyWQIcxWZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19781,10 +19778,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="C1">
         <v>2017</v>
@@ -19831,13 +19828,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C2" s="28">
-        <f>(('Nutritional status distribution'!C4+'Nutritional status distribution'!C5)*(1/60)+('Nutritional status distribution'!D4+'Nutritional status distribution'!D5)*(5/60)+('Nutritional status distribution'!E4+'Nutritional status distribution'!E5)*(6/60)+('Nutritional status distribution'!F4+'Nutritional status distribution'!F5)*(12/60)+('Nutritional status distribution'!G4+'Nutritional status distribution'!G5)*(36/60))</f>
+        <f>(('Dist. de l''état nutritionnel'!C4+'Dist. de l''état nutritionnel'!C5)*(1/60)+('Dist. de l''état nutritionnel'!D4+'Dist. de l''état nutritionnel'!D5)*(5/60)+('Dist. de l''état nutritionnel'!E4+'Dist. de l''état nutritionnel'!E5)*(6/60)+('Dist. de l''état nutritionnel'!F4+'Dist. de l''état nutritionnel'!F5)*(12/60)+('Dist. de l''état nutritionnel'!G4+'Dist. de l''état nutritionnel'!G5)*(36/60))</f>
         <v>0.34434320222452625</v>
       </c>
       <c r="D2" s="28"/>
@@ -19861,13 +19858,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C4" s="28">
-        <f>(('Nutritional status distribution'!C10+'Nutritional status distribution'!C11)*(1/60)+('Nutritional status distribution'!D10+'Nutritional status distribution'!D11)*(5/60)+('Nutritional status distribution'!E10+'Nutritional status distribution'!E11)*(6/60)+('Nutritional status distribution'!F10+'Nutritional status distribution'!F11)*(12/60)+('Nutritional status distribution'!G10+'Nutritional status distribution'!G11)*(36/60))</f>
+        <f>(('Dist. de l''état nutritionnel'!C10+'Dist. de l''état nutritionnel'!C11)*(1/60)+('Dist. de l''état nutritionnel'!D10+'Dist. de l''état nutritionnel'!D11)*(5/60)+('Dist. de l''état nutritionnel'!E10+'Dist. de l''état nutritionnel'!E11)*(6/60)+('Dist. de l''état nutritionnel'!F10+'Dist. de l''état nutritionnel'!F11)*(12/60)+('Dist. de l''état nutritionnel'!G10+'Dist. de l''état nutritionnel'!G11)*(36/60))</f>
         <v>4.4702487716765882E-2</v>
       </c>
       <c r="D4" s="28"/>
@@ -19893,13 +19890,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C6" s="28">
-        <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(36/60)</f>
+        <f>'Dist. de l''état nutritionnel'!C15*(1/60)+'Dist. de l''état nutritionnel'!D15*(5/60)+'Dist. de l''état nutritionnel'!E15*(6/60)+'Dist. de l''état nutritionnel'!F15*(12/60)+'Dist. de l''état nutritionnel'!G15*(36/60)</f>
         <v>0.22016400000000003</v>
       </c>
       <c r="D6" s="28"/>
@@ -19920,10 +19917,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C7" s="28">
-        <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <f>('Dist. de l''état nutritionnel'!H15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!I15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!J15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!K15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
         <v>0.18837666072928053</v>
       </c>
       <c r="D7" s="28"/>
@@ -19944,10 +19941,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="C8" s="28">
-        <f>('Nutritional status distribution'!L15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!M15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!N15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!O15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <f>('Dist. de l''état nutritionnel'!L15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!M15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!N15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!O15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
         <v>0.18837666072928053</v>
       </c>
       <c r="D8" s="28"/>
@@ -19968,13 +19965,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="C10" s="28">
-        <f>('Breastfeeding distribution'!C2*(1/6)+'Breastfeeding distribution'!D2*(5/6))</f>
+        <f>('Dist. l''allaitement maternel'!C2*(1/6)+'Dist. l''allaitement maternel'!D2*(5/6))</f>
         <v>0.50922873745377717</v>
       </c>
       <c r="D10" s="28"/>
@@ -19997,10 +19994,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="C11" s="28">
-        <f>(('Breastfeeding distribution'!E2+'Breastfeeding distribution'!E3+'Breastfeeding distribution'!E4)*(6/18)+('Breastfeeding distribution'!F2+'Breastfeeding distribution'!F3+'Breastfeeding distribution'!F4)*(12/18))</f>
+        <f>(('Dist. l''allaitement maternel'!E2+'Dist. l''allaitement maternel'!E3+'Dist. l''allaitement maternel'!E4)*(6/18)+('Dist. l''allaitement maternel'!F2+'Dist. l''allaitement maternel'!F3+'Dist. l''allaitement maternel'!F4)*(12/18))</f>
         <v>0.80834605377276669</v>
       </c>
       <c r="D11" s="28"/>
@@ -20021,10 +20018,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="C13" s="28">
         <f>(neonatal_mortality*(1/60)+infant_mortality*(11/60)+U5_mortality*(48/60))/1000</f>
@@ -20050,7 +20047,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="C14" s="28">
         <f>maternal_mortality/1000</f>
@@ -20071,7 +20068,7 @@
       <c r="P14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="o2QkVsM41fZB8SYD/YA29T0256HjeoySUsxP6OTfTz/giibRXXGzFQMbA+k6rbO6VV1tFgcBfwyx7jX9eNzOnw==" saltValue="LvEyRpfZFqSjcI/WbJ12Bw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="k19cESEK6jMtfxV1JSFMboR/xGVrMEss3SrJdyJrhmxIJsIfHi9Rahzw92PIX56DwcfffsArlRa6AFTiE8rRnQ==" saltValue="fkmaDCcdcEN9GiCmtlOUlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20098,44 +20095,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g1E3drfI3FdDMLgWs0G2ifRjttUvAw3DcKrN7M19mKlI35euu3xIQXKP+UVeOw6SiJpoJB0FuqfjrGVhiC9Txw==" saltValue="fQGvCdiqXIK4pswuCEBP9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BM5yckfVetO71KvCx47rPKh86cHO6EkgyKHqtLRmy6MxHLgUbZo0HaadE6NhgqIyDIcup3orGgxWg/ageCngTQ==" saltValue="o+Yz0hQq+gVpwHBsd7jlqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20161,27 +20158,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20193,7 +20190,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -20207,7 +20204,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -20221,7 +20218,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -20235,7 +20232,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -20249,7 +20246,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -20257,10 +20254,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -20274,7 +20271,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -20286,7 +20283,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -20298,7 +20295,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -20310,7 +20307,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -20322,24 +20319,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20349,11 +20346,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20363,11 +20360,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20377,11 +20374,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20391,11 +20388,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20405,14 +20402,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="syEcYmAkvOFopwSLvtEjDNkL0wtoslxn5i5WU3mD5+Ey5pfH/ATu6za3DoWT6PwDNOQnmWpRqfs/WdW7B3YeCw==" saltValue="XQ2mdBwqNvS+P7+5xM7RbA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VvPpB8GwevBtd5VIZF/tOAeRjrasb9kNY9/byJVXj8opFB8L+iUo0BujFWgIFvCK+2fX6np0agd6gAjQBj+7Gw==" saltValue="TNtzw3EgV4568MDYIIHEWw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20441,25 +20438,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
         <v>Baseline (2017) coverage</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>264</v>
+        <v>90</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -20471,12 +20468,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -20488,12 +20485,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -20505,12 +20502,12 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -20522,12 +20519,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -20539,12 +20536,12 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -20556,12 +20553,12 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -20573,12 +20570,12 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -20590,12 +20587,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -20607,12 +20604,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20624,12 +20621,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -20641,12 +20638,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -20658,12 +20655,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -20675,12 +20672,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -20692,12 +20689,12 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B16" s="81">
         <v>0.34599999999999997</v>
@@ -20709,12 +20706,12 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="B17" s="81">
         <v>0.80800000000000005</v>
@@ -20726,12 +20723,12 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -20743,12 +20740,12 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -20760,12 +20757,12 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -20777,12 +20774,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -20794,12 +20791,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -20811,12 +20808,12 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="B23" s="81">
         <v>0.50800000000000001</v>
@@ -20828,12 +20825,12 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="B24" s="81">
         <v>0</v>
@@ -20845,12 +20842,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B25" s="81">
         <v>0</v>
@@ -20862,12 +20859,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B26" s="81">
         <v>0.1</v>
@@ -20879,12 +20876,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B27" s="81">
         <v>0.3538</v>
@@ -20896,12 +20893,12 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B28" s="81">
         <v>0</v>
@@ -20913,12 +20910,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B29" s="81">
         <v>0</v>
@@ -20930,12 +20927,12 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -20947,12 +20944,12 @@
         <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B31" s="81">
         <v>0.89970000000000006</v>
@@ -20964,12 +20961,12 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B32" s="81">
         <v>0.80700000000000005</v>
@@ -20981,12 +20978,12 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="B33" s="81">
         <v>0.73199999999999998</v>
@@ -20998,12 +20995,12 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B34" s="81">
         <v>0.316</v>
@@ -21015,12 +21012,12 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B35" s="81">
         <v>0.59699999999999998</v>
@@ -21032,12 +21029,12 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B36" s="81">
         <v>0.19900000000000001</v>
@@ -21049,13 +21046,13 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B37" s="81">
         <v>0.13400000000000001</v>
@@ -21067,12 +21064,12 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B38" s="81">
         <v>0</v>
@@ -21084,14 +21081,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OF3jF7mOn9hPiDAfF05E4PekwdvZQcsmuPyoYLoj8SV2N23zQfABo3TgYnJpHliNU74kXcsJJhpP6wIg1iRL0g==" saltValue="6IEyv9PM5cN4esuoMlzM+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DKoXZSxtrF4Hrp0gVdrvdiy2V+YogZcBZFwuZz8aUYNEu9hOq/sz9RgbD1apwLB9JDjtOrD+/JMFk7FBQFwr1g==" saltValue="NkxZmTQFzqbVwtysbw++pA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region2_input.xlsx
+++ b/inputs/fr/demo_region2_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23FF4F82-A7C8-40B7-9E49-A14D6A2C2D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{366FCCF3-CFF9-4642-B8CC-DAB396D94236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="2085" windowWidth="27480" windowHeight="16170" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7965" yWindow="2430" windowWidth="27480" windowHeight="16170" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId10"/>
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId11"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId13"/>
+    <sheet name="Population cible programmes" sheetId="21" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
     <sheet name="Programs impacted population" sheetId="62" state="hidden" r:id="rId16"/>
@@ -5209,7 +5209,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="H0Clm0Bhvy7pl8ncJFpy6mFFDvZjpeMMKdGv7+V4B7wKUvbSFUfJvbTUd767wANkTl/ZfEmLYNR6Unr4Wb6psA==" saltValue="L+fWyWrHPawXV0Sb98XpAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QjdbhhooTrNbLiEvtJydJK40wXMgoxVpmfYcQZ9g0BJtr1vS0Fd5fM5+zQ/SAx5XEf3hLp15Tvs5KNvzvzFFmw==" saltValue="gVsd/QDaZNLP7KhIKA2HXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5357,7 +5357,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5rnhZgbj2N/XjdHpAVWxkhPa3uvuTnlDi75Mqf2glICFaq9+C3Eg1EUAS7G9iyNLAZ7bndoHIW7F6sJiPSEKRA==" saltValue="0zpsfpQ8SLtvNuwYaoc2wA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="M2jX04kZvTJFVHW+5ENQIpcqtGxjJ4ufzEpczOkxpV1zW/rUHVm600wjFpK+RVpg8Ug2F/PTQFA+7Oe8hyA6hw==" saltValue="NBx1V7g2iEg81rFA0iOarw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5457,7 +5457,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PHUu/GKWDt5/n1h8f5xJZvMufeEvTsPN0Mx+0SVCOspNdBcOx+2NxJJhIU5B8HTmRLmfSgrRgZnANyBDnWG/pg==" saltValue="lOstvfcdfEu44/2mVfVvDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4U2kpHIcG7PdE4za1PYah0YcUR1+boXYSiAymopy+2XqjYD0AqOuOIZ0+syF5zp/PO5kb/rvzwkm+keKWv1mpA==" saltValue="SCet4WCK8XzyBToDt2TPaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5572,7 +5572,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HNyjY/gJlFMf5MxFkOanHr2fQo2m7/+sZM16a8y4p0/IqMxx5YwiEVxoY5CqdHfAhuYm2mCcJ1Aud9juovnMMA==" saltValue="ARiugF0i5cpHpnvtjDIudg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="O5m5RcOHs4pZbXxKNA40PMkR5HkNCy9bqLFNLJX0LLr6aVLoBCzMVG0nUXv7RhAXW9YEKyHpWSZJuF1GWv59cA==" saltValue="pZzzf17YMt+RkoHSETOiSA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7288,7 +7288,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z+vdHsivf8vUapqd1WrglgfGk+A04g4sM1uuMnEWXdijOjlPLQzCW0jzWOy/l8tDfuhoJPFLQ3LPDUmCTygIiA==" saltValue="1/S9vvX6dY/hfVIohV/Wtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KB8OMiw22F5MeSUnWFP/W2DULeCkzWseKStcdM7QhSGZ8OlXpeFR84D/iaXWDUkzs2lSodGVAoP2z5bO9TpgVA==" saltValue="hHcWV7g8cJDQfQjSoB+aaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7326,7 +7326,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="12Au5xwVsXAgtmuimOd2mZWcvp83gOU3DqPXQ4BvK7TmFRcjWIEJEWOgZMUD8FY9OeLmCMKl92q4Qro1xPSUNw==" saltValue="LUpJ5+5FK+mde9xHyrS/ww==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dRU5ih2/PSnyO2YiIrYum5+DU96lIa1q0zcZ02osb6GfLS2+a9RkbHslCHK2PA9bQSRRlzoVqx99tedNXjlR5g==" saltValue="TQAAF6hyzLRN/AnUyh/UBA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7534,7 +7534,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="O/cx1zLjg5bkSaVsnGBcllb5Y52zqYG2s7ZChR3NIwfKWNcvpT5SIOoEkmMJWsx4jyD8lHzLW9IGyl4xR9FKdg==" saltValue="nJkEfAt+cL84od3P62dP+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hHm9QEF2PkisshnxOrZDjWiq5GqGh4Zlm1aRsOxggnvr71gzh3JAkdCyJjVDIGj5+r7O6azvcZ9l67VGXWSY0w==" saltValue="h9xVs8tQrV86xAxukPYCew==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9305,7 +9305,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0qZONoFJLsx/8oiyXJy2XAeWZPU3O3mh+aDtG2yE/f2dkhN1qBVpOEmjQ8EEv/1IFPMM+3lajaawR8vXXSFCAw==" saltValue="3GdLY2q7BVGFvLVW20dx8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pVEWnm0aV42uVkU8gNlxOEVMOfycgZh0PWC0iQNSct2mAGjesEZhZPplqryoTpdaZZvLViagV+Eghz4JyY3Sew==" saltValue="j/PBpqvma0+a1Yy/qu/m7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10051,7 +10051,7 @@
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="96q+nq3saMQLOCGI1HBk4Gz2JEx3Uco8oRqYDJDOsPiBz4On4fLA7BckzpJtDO+C8ukU9QD8ZGheM9GNB3F0qA==" saltValue="/jDro3+/qfyZh6MwuCeP1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fXyNe0oJl0EoW6SjXhCmgjVzs+Og7zWqZ3g5c45aFYZZVQ6oaUMTblDlzVTwpGE54+PwV1udGAUsBOnYLZBZcA==" saltValue="GKx+MdgTJHF3JfO8HvrwPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10425,7 +10425,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EezZGx5mEbF1Vtj8lsEZi/Q3y4g2ghbWa518VGghpAkECoqBmlb66H9h86e3DgaafrprWFXKAv93WLBsOHvRcA==" saltValue="vA9rKhogr3UVa2N+3POJNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2/3bsM+nkO9/gbSBhbOPKO7+UrtBABpLZeIYco8fpfRpvyssg0Ayjg5ek8TRUpcY7yXxuXfB+xPmUd5GUCNa9g==" saltValue="KbiVCrh7/baVkcLytnAlMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11546,7 +11546,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2F8mrOh/5Y+3Q6q7GGTLjCUcECEz2OVuMSMVt428VKrMO596Z3/Zif4LyXxiBZyfID4AzNFG/XmpX/ZAoXA5uQ==" saltValue="zdjy7ueIDImiBWf9g+Dg/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MedD3kdTgaqK72d3xVeOeCkMcTIUzNeqBDSEQslhrWrO5KR0NIAyJdl3wfzE7mhgG3v2gjiF20LkjOQomj0ZRA==" saltValue="mc8fQchV0wz7jdfFgegZzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -12654,7 +12654,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/7lQFdOz1Hj25xwyykaOWqtvLUbC1ajPcvtDo5tp8UTSt2x6jp7VTUFRhiRKJ3GZV2EU0xx8Tikhbi0iut14yw==" saltValue="I9W1svPXiJXVEM/u8g+FqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="c6Rz0iiYkmkflWygi+c4CqfqDL/DGpKFBrB02jybSVRpUPlcRvtu+0QaiYAwe6Yp8OKHw5Sxkmi2mYKbmtCuRA==" saltValue="KiCqztNGfdsn7cEAV3IR2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13056,7 +13056,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iatCn5/urUa68gMX72Gd5rSlH5M6JOZ/lBL5ikC6nvUnvi3iR0ABQntQzP/LfdHoUnuOpNH5fiIvOw9IY72sag==" saltValue="d1gMDrR/AVeZqQFCjXW5Ew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7NXLRAZchSTecbDkrngkr4X/fTNN12Y6KHx0nP6nwjyn4VUp9bNfE+oGHOydQ6EaLONB47EzxCpmmecoB8RWvQ==" saltValue="ZVaaYiW8icDkOCjXWIEeMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15959,7 +15959,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oeOBDQFRLAQjOTYAav2na+3AiP2GQjvuSj4OLmDRUmBnfGic997mn9ptR+6IxZxU1ezOGqEjuY8J5hvg0WfmDQ==" saltValue="EycRKtPtvL1vnqwpUcFP3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7KVjSsU2ZygtOfiW9TQVC0xsFPcUo2CE+/BUZNXB/7WLtUpedTp7fR9bqR/Zg/QOm4jmPdf2uy39n6tfo9xROQ==" saltValue="7k3hGre8mmwpnxdaknlETA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16268,7 +16268,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="krHXQfwGmLb+O+XMSLzHAnFKYWguzq0pFskBk0ipZtOA1KLLCZ+29L5YwhUITEOWp4nvcQD0UY8Ejb15uKLU8g==" saltValue="gz1yW5Mdh628rf/yHqllPw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Hlt979n8aBhDQRLa3eIz2psGzaG0OGDvZzy32E37rzWpclNXgt5dRZXuYbiEL3gflLZ0Uvng/aVd7o+BhsAEUQ==" saltValue="p8cQqf6x0sUbV2jXex9F+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16548,7 +16548,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KReyiTJiEZrNIhZPFws2Vg9HJvyF2M3Jds/L9SlcTJA2St55Ge7qGTQ/4UGslJhbItliHbE2Dug5wQ2xfqr/4w==" saltValue="Flp7/teTxeuDvFKRMOyK7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IZx7Ak2GPUiU7FKVrllB3ZS3X5tP83HagAtxewEnTySu5VK+rgYOnqpjDArTFVzFvYWOQRBZQNvJONWX3N7rTA==" saltValue="gD+d020Ip8v742KkbfKt1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17344,7 +17344,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IKlbaCvWmrFixTzqJefSSdZM5ft5ax8DxlsYQDDR3baSJDxjz5CRsCKAjbLvZ6bYiyd+SOA/R2D8KlHjdfeYuw==" saltValue="3elniG/bDALj9/M/0z8yDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pVMZ58X60DY1R8RL6ZD5+TlMzoTj2Eo2DNrM3wGhugiRpK5dnxcs0wRmyj2B1khZmfd4PV+P0qc2hTGdrFmh5Q==" saltValue="46X6OJsPm5WnBqmb3EBbtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17445,7 +17445,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X73trPZ6vACBoUA/0E3HaP9RObRrGpYakGuW5UavR1Ef1krLMx2Uk6ThUJlCDSBKVqUXasBxBojmVXK/7OpQnA==" saltValue="E53xtcGn9v3luZIsuKd4iA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NEGEZ5UZwBE3eqJuPcDkA3BF97+jLK1w/+oAu1fUdAzSViNhixq60xNfq5W8Q8h/X6xlfqMgiPhTPS09J51ZCQ==" saltValue="DQBY7DSIGgheLihz2FzB4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -18575,7 +18575,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="A1SOfmmD9NBZj3tEMD88s9nQhQspjoO0oSrlPsmyxj28FUMj3vRw1X4G9aiKPBXuaTXKhEgFP6RcUZp29oEhsQ==" saltValue="fummeNuiDqj7zcby+GyqwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZXAbevJFQ1PZn+rab+xgRjh6Tke1RWsX5WAmD21DiL695tU0g6jF6JQ7SIdtqIVhg0EMwmc4YlpEZa6xMnt0Pg==" saltValue="CvY1Qcu7iPycXiR5AZXeng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18752,7 +18752,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="a7QeAhe30SWc8i1G63CneSqOAZ8OnVhORjRT+6HM+D7kue52gtSHpC7TQaPPjcS5Yop+9ZhpdAMcCNGv8omBwg==" saltValue="JJNH8u0QMRvNaYMzTc8jJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="i69oWEMyDWWJSdk0m5DOV6NoeRWnrEn/DnjK2cj5YPvb6/BP+WukxEfz3gq4pAgRzf7O11B8apWJM31TG0BnZw==" saltValue="ZyuI5VGn8ibR3PdQ1XDNZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19189,7 +19189,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KagXC2wOKrxIWSFpUVwzgdcj7hAAyaQ/NCIUJA1jajxVR0KJ/Dzjl5Xfn34jt7K78T5XMPK4RE8cEp9JWRuUUg==" saltValue="Aev7q0kO2JJziI/nU041jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5yM3+mTq8MNbrjVxCNrz2ilO4gwbkR8lYsR2k5B8W8+v9OiNNVy6e3I5ygmQXbjKr5//f8wRdVhBx/jOiZVXoQ==" saltValue="CHEAjtGa2M3/U8oFuNY3BQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19616,7 +19616,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XpnFuotJPO0VdvqQS/pnYjLvo7rgYWRmDBHt3tWDZK9hBTy6fweU3PEqTXBEDlmmxtAxePLdUPhiqYM83yNOoA==" saltValue="ugQO8qTrjtFvIcKtIa+JhA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wwBYy9AGS5Q2oEC6yPlAiIp6ld1ZA893SxEaeEU8KNHJmy43R/mR50cBJbAOOCa2qbAAlkHNeMJK7YmLmFRmow==" saltValue="Tx668xCFfRTKAQdsyrBgKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19753,7 +19753,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GRnSb5WjRvpvVT6OIOdkEyi7IJpdstH6H80WzISXWPD7bCciYcWeKlkvUtkSMBo3B6xJMBQCPz5BsL84A2Bqhw==" saltValue="aGAl4lszZrnhIyWQIcxWZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PXz9DcCGY6jsArX3TVwZ3pjcv93rbG3+US4mwe4/suzKhROk0e4h97kpwFPbW2Ygrb4GplbVmALHfY46LH0mkg==" saltValue="8noTvwxL5tI5TFPA2nTnYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20068,7 +20068,7 @@
       <c r="P14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k19cESEK6jMtfxV1JSFMboR/xGVrMEss3SrJdyJrhmxIJsIfHi9Rahzw92PIX56DwcfffsArlRa6AFTiE8rRnQ==" saltValue="fkmaDCcdcEN9GiCmtlOUlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1A+D6edpmLY5nw9cPKWDMqn3/99JnVWWnwuDYN3cMWciWzc54+LIwuAfgaalzBN4KdkYmdCEyzryYKYgmZi1Vg==" saltValue="o6XD3mJBrRYsx8DEU34vxw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20132,7 +20132,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BM5yckfVetO71KvCx47rPKh86cHO6EkgyKHqtLRmy6MxHLgUbZo0HaadE6NhgqIyDIcup3orGgxWg/ageCngTQ==" saltValue="o+Yz0hQq+gVpwHBsd7jlqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qjM7bteqWr83rLSwnhl4bUgVf0t0xl1gQCX97sGs8/dhteW1rpsHHptiyMuIZhRaEu9Au/TakFvdT6EsgMkMtQ==" saltValue="FUtFF8gEPsRZulgVdfZEiw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20409,7 +20409,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VvPpB8GwevBtd5VIZF/tOAeRjrasb9kNY9/byJVXj8opFB8L+iUo0BujFWgIFvCK+2fX6np0agd6gAjQBj+7Gw==" saltValue="TNtzw3EgV4568MDYIIHEWw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="r07sGIU67wO+YI1eRdj//H9GpB1zle8JsoFKcXa5r6vgkyR8/EQVFt941Dy0ImdShwDNBcYbuJUxPpixm44Y3g==" saltValue="hCo6yYYHGj+qTD1RPAYvJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -21088,7 +21088,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DKoXZSxtrF4Hrp0gVdrvdiy2V+YogZcBZFwuZz8aUYNEu9hOq/sz9RgbD1apwLB9JDjtOrD+/JMFk7FBQFwr1g==" saltValue="NkxZmTQFzqbVwtysbw++pA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Yn9U5L+bbr6Jhy+mceMc6rNxCgdxbsNOyO3eiZQL1d1WA3zdCDecwwOtP/wUHrqrGCH1oXw1asiJPci0ORLNnw==" saltValue="TMnnZ23Nx7AvTDf1kD/YGA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region2_input.xlsx
+++ b/inputs/fr/demo_region2_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4144D4F0-C26D-4A1A-A431-05ACD9DF6802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38795149-3CC4-439F-AA6C-C62E16C8AF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,7 +510,7 @@
     <t>Année finale</t>
   </si>
   <si>
-    <t>Données sur la population</t>
+    <t>Données démographiques</t>
   </si>
   <si>
     <t>Population des enfants de moins de 5 ans</t>
@@ -1056,7 +1056,7 @@
     <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
   <si>
-    <t>Efficacité</t>
+    <t>efficacité</t>
   </si>
   <si>
     <t>Retard de croissance</t>
@@ -1146,19 +1146,19 @@
     <t>Anémique</t>
   </si>
   <si>
-    <t xml:space="preserve">Risque relatif des causes du décès par mode d'allaitement maternel </t>
+    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
   </si>
   <si>
     <t>Mode d'allaitement maternel</t>
   </si>
   <si>
-    <t xml:space="preserve">Risques relatifs de la diarrhée par mode d'allaitement maternel </t>
+    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
   </si>
   <si>
     <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
   </si>
   <si>
-    <t>Avec retard de croissance précédent (HAZ &lt; -2 dans la tranche d'àge précédente)</t>
+    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
   </si>
   <si>
     <t>Diarrhée (par épisode supplémentaire)</t>
@@ -5194,7 +5194,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="95ysW88qq8CWO7JwVVpysAg1Kpr55rpaG/IXHTw51zT8auCS0dxMBrSy2Rq4wTUIgn+08j90vRyipMhj5oSqLw==" saltValue="8bYzssy4dd6hdYDd5uTEow==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q+qMIgAzSx+ZT0DFMofBu9kaTHAx45T53M2T+MhFwDpFBwwThyxSsw8XifpHW5HSdilcCOFL2vFDYLEa4ueGWA==" saltValue="Qi7Y1TuLmprvgVk3D7ywWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5342,7 +5342,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8W6/P2jF0ygGu+2qslVnxqpYgQeZJOgUaVTUaaZ3TLDGehhFhpHA9cSWTkP/geeaTCqbxYGW8cjrvr8KXA/KUg==" saltValue="gFbnW2ObOy5fCLnUTeER4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MbdgnhLahMTMahOJ354BqBYRY40NjFlZAM7JOx9kjBh9Gh0jXRMQsgxS3bm8C6v/xi/081SKfRn/621Wv8b77g==" saltValue="fqrpspm1g9iyOT2O/E54Cg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5442,7 +5442,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="r91tNBpiI4QSrloz9IKDjzW2D5t6ni3QyiXSwlEyjWus/t5nsxxDyN30LDTqDOQNTSMszCYlJjwLJA/SIHU04w==" saltValue="tcw7JXCj9lZQenmTK+JOTw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YBYyALY5YXIdnQFgj7xmPmnRYd4z3lGiuxuz5RezifAVC+VVNK81QqrQuNyBKPVB/0jcX8sLGwbSYZ/x+Mf3qA==" saltValue="RwCHUODo5+oDlfS3XT9rAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5557,7 +5557,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WZ/pjuee8xyxvprx6meYifhYFkeRXec4GmK+j99Q8VdQyJeSax+peUJo7VPAZcpzb5KU4Hb+wiu/nRJiEW8RAA==" saltValue="zWWrC/ZZFWTh/iEF64+2XQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uQWUFDpb3YHkWrpiK//AbTNTcjcp+Ust75Vy1LCd7sLgLJFyhWVu9gpgfA65ZJqhCQs1zzlLJ7ghQ+fL28fWqw==" saltValue="k7Psd/zz5n7dBMAvXzAzcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7273,7 +7273,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FtK+ydUq4OTxabl3luI8df6JSlsZT0MVranrGbVkIQy1CZWdPdzGlKApRK8ATS+1Hp1ZXwkeUsEBhMiBw6Xb4A==" saltValue="BAUDF+78EGmUJJCdjagz8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kYuEv/W+WVjn02tzW/Iid28P+5Q5sSq5iWEH315tsV0XWSEk9Nmir+oIKhTQzKpxeOywDsrpye3yAk5K5NjPKg==" saltValue="I2azoL9txCFEtIARLg0GFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7311,7 +7311,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Mlwez1obCCWJoA+JBfi1EuNq/a8tycyEXnsRp06kjfVUH3JArXW6XijAIK7gcU2QUUz69XsQUvRk/dHdRSFMzg==" saltValue="7Lhx5FGiH7VC33BKy0dvpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ub6KLr3+ysS7u/0ll4j9AQpGxKzvcrShu2rMZL2wOmmsNM9jaWz2fGvLVfIXEwWGkWRAi2F3vbudGikbJ3TOIw==" saltValue="sKpeM7CoStCvEUUw8w3WGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7519,7 +7519,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CUhSePueUBv/Z1pbxEQTbEauVyoY0uKzQoZwJ+9qPGj6jo94cdI6aVmtgLOuyhqgKTPSQqlgJMPeg5kWv2NFpg==" saltValue="RNS09qi0V/ed/Ndg9HZezg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="o5Ww0dx/OG89fCXXL0MTXKwtrS8bcOCrvV+BdLMC+5sx50Bf/Vf5X4SGhkqCxnERJSV+MgaHs5YElqAF7uWZ7A==" saltValue="gokQrTzxsbtOnhizQ3xICw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9290,7 +9290,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BdvWdm8iqjAd98o3TN7eGyznXuxau4vMQhkC1qcNWiSGci88wSJi2YUdv07Ob3bMmqiQ6MIdQ99v2FnoRBzTXg==" saltValue="mxjGwhwilkUhlL0dqHLduA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AsNC7DHgaEb6BxJW8YyNJWb8m6UE0mehLpG6A2PvclYcCrDfoLRq+I+H53JjZBfdBfvUnJ4kInCyYJZSr5yd6g==" saltValue="INDZJR6BRG2OfwZiNiiviQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10036,7 +10036,7 @@
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cvbS2GqntyDWONs5idek1IK3RCQezu1l/rGUQVDZ2s2ITl2H5kCLjGwQ4atBRNHefTnTUo+/iU63nRPqTtuiVw==" saltValue="4dmZyZzC3jaLIuK0CfZxng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q9qMNyD1sReVdIFaZX2qDSVcls06FVpkFKPuNGRyLm73lzROId7qW7hmb9xcIo3Mh+c8JxiR8SVN8Qgqz/GAog==" saltValue="pxBClKDUkEETVI9QkCI5ZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10410,7 +10410,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8+afjnvhkeCY7QZJd10pNAlssU+AGeWbkQhhqpumUo9ry4KS7XGD1FcCkEHy8YsAFaFeL9cR7VEFUkNSrM2XUg==" saltValue="869Ju0cYJDdIxyt0USCXFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qWi19zVcopCq6XnIe23Kz+e3u9CXe0O4j6g41A0XzFX18vl/v9cn+19IaPjcYRY8sIsh57DMKUew5Uqepw1mxA==" saltValue="FuPA+ZISR7bqPyj2qlsBwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11531,7 +11531,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lbhuJ+bvotg14aWkgRCiGjDd0yjoDvmuFWTrLYvA97sg7TCNc7kG1MwFVx5CcbULnaAZwwDH9XM6OGySvBIYGw==" saltValue="+tSoPPDa6WNGCyvX3+jEVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0m0wWifR8eWbaRZ5gXT8mcvGSCGOBe3IfyEtRJEcTR16BFaml0BH4xlFeEEO+BF2F2+Qw3dHvFGhIOv1ji5G1Q==" saltValue="OIgC+DrKvZRseopKfKBrSA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -12639,7 +12639,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MmZZJiFrnwZ7gs5cGthxnHl9YRhM/76pMC5SYmyjcn5j2xTYc5nJhLqwFdHEMq7X4HvqSE3y8YeSXC0PwRQoXA==" saltValue="J5aNtW/KSAsVcE3+JvYVJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UNAXpPax5xbunDMhjy7ocFmy9AiFAhyKb3N+oIfg4ab5Kl+NIFpvLsROTqhd3/3NS2tHYH/qhKJitFvfLhaGbw==" saltValue="AVT/uEQ+w6ZAIcajzyauzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13041,7 +13041,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OjBAgWHW9PtCVToPgs/vqo/APKWV/AFgb4DOkzIdSKnAs6DA5eLeeVOSHvPFUz+mt8HDdk40QxBHwMQFbzERcA==" saltValue="XCD0j+Mb3jWemttZfHfUVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TGv2/3ngQLajxDNWuNBLlDOSLvnm546XUKMIlWIaLbS3RoqOgU+x1J7psZbKQeUEh9lxXpJF+gE1I7Xfvt+soA==" saltValue="2YNmNK70LDKNzzRFt4yBrw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15944,7 +15944,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="i1+UA0jtimQiwtX5V1toisU9R81tE4JaYXc2ptAOlS+aPKfwcZrXelNFyGPKtqR4DkeCYJke6SSJ0XvGbBQGYg==" saltValue="mtqrGrGJ9l7DBHfDgA+ffQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MAiCp+Cth+yo50MplYgflEFd1UuyatWTHH1yauDd+CCaNGfoUSloUV6EqCenk4lc8zi6aPr/siHkEawXymoFfg==" saltValue="b+3p9UdCIaI542wtErCvTg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16253,7 +16253,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l/Bmug5XzalGXCbdGMzLQJQ9xzIV9OICihXt1NCh3Rdr3u6VGE9Yt7ZGNvIaYhZBRPrpfO+g65d8mDHr37XEfA==" saltValue="7JeVxRwYp10kGfgtPKE4Ig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5fnlqXhp4ufr2mdSuOOkTVC3CIeVPP6YsdQbYuYgcaC+jJE8XwPAj79MHWxGQq9sZKxgdosD/J58iTXMwkQfQw==" saltValue="Tj2B8m3qBR+gUaaZMUB8bQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16533,7 +16533,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RZ6tYWsZN9fpuKBwHAQvbBLaAoeqI5PAERoWXejfgwcKXJb0wlrueys9d7FYTqCUuB2GuNbNfZEHQSZtURbmgw==" saltValue="7vq+VQuN8Y9Xs9OvzMmukA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HTrAUKQfeaqybTAT6TAjMqpvaljjKgwlZJ9YjWyw8RWYp1Ao9Nz19izgkEMYu1ddpAFPPOn27drZIwD0n6Wh9A==" saltValue="/QCuYYj+4Y2Y4XO5C2FywQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17329,7 +17329,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y3u0pyacW/Qfym3AOupccp44iVRLzfHSn7pI2BTomfAiVAyHto+6bX7ETa4wFCXFEvLjCud7CiblT+VB+0TObg==" saltValue="HmFXfA1XbzFOnurHyX5u4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z4YWnKo3hYlmkEeTQqtV/S5G+Azxl4sIgdFstTet+RTVe+7z5DmxL3v4USc1lIm904ORHNZHBSDjnon6ilBVNw==" saltValue="IEN+quLrWWgBDwGteVchUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17430,7 +17430,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NKlpuqMLxDe4QWduErYE6LjbWNoeUTWGHASnbdkw2Cp+E4zLTkVEsGqaOamIB3JygPd1+50i6Hjh/PRsVT6Z0w==" saltValue="JYsgTc4KFiXWbZ6ajHlJpw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MeZE5ILbT6APctBKKz7lxwXLtIMpIjqnvoeK2FdgTmVklfa7metFHqjTaycxkd1p0S2Cvamb6tlsvU7NcdljWQ==" saltValue="dq4ioTbn8Ay34aJ5n4yH9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -18560,7 +18560,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fyQCGGC2psTrsgn+cgWgL68uGCUFZYdVK0Zc3L6mqwDbEwycePaz9GIyohrz6sJecNZ4RXcFhJKE/4HGe2PRjg==" saltValue="icOAXh8OFY83TOtfvj2eXg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+NholkUuWCH3sf/6Kfew+nt2PPSff8P+AwjhtowSVnOMzTa1xXDTlaLieZ8gIjMpp9G3KbpuNN7jf/hW9pVv7w==" saltValue="aVluA87FCp18LvgXYstXAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18737,7 +18737,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+77ZL2xbilrSzsDQXm6qE+1un7fScIaPVRKm2xZA2OzvEnNNgpeH1PR3VsOOULkW0ia/kWqckl5fg6L1/TLTpw==" saltValue="y5Q01pV3iZYSl1aeUH3JrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="W5FQT1XKp5VsymwutYlwZd0nH357gCONteH2tI/4kB65kHx+d9vKsGcHiOKQJOi5eWeGTDJ86qn+9iv8CjK89A==" saltValue="TEtbqkEslgElgfvd8SXN2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19174,7 +19174,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XhZ2BfHZGglR26YirzMx6M7Nh3O3k+yjdi2Xjlvu38LR9gAS6L5AN9h5jEU1kBpV91fRrA859tPEId948aFfFw==" saltValue="RtU3/v+bl2AH4yEIBvcSPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xEAo40vG15Wzp/kp/6lrFPuYEjkSDaeixUIUIfkwvbqex8Wzt7YIxXeWq1ioCkmuLebw66mUTfG6l9wsnIxqOA==" saltValue="CsVgqtRes5iIiRYx5hUlJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19601,7 +19601,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Haz/RxiqUo8/he7rO0VGfsRY9Xl7qufoBy7a3hkKeeXpkYobpNLcd3VKi1aXNTm/xvz8EvwZuXzUng072bzUzA==" saltValue="sezRpl74C3YWDPawGFTnnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7Mz05vqa/MN9g6Tf6my7F3YhqxDRAo0KbW4x9peUOFhBrPF7BxEn8GskRT8q55YkyHleBiS7FyECKjFmhFLdzw==" saltValue="zvEvLUXqRaOaud/K2kIIZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19738,7 +19738,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zb1vIrB4TbB5k/53fjBAARSxoUVHUjnmeWT7Zc4IEv3JlRfz7bUJ3y9LXR9fvAseJlKWyPhoReIFhPHq0dA/2Q==" saltValue="13pvD5kyiJYC7kKE06qIAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8PTTgoAckXVjkON42SPyvTtI3+IHrlFKPJEyddjOkyeZotGzbCq/OQ6ZHSmVLAjD69fp0Vi0NoFqXlkUXXPVTg==" saltValue="ulKyqIxLiL+oLT3ChSW3Og==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20053,7 +20053,7 @@
       <c r="P14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X1FBIEmbiEDFDw6QujaTiu/2mPN+7pnmdwwWATllY5yqcMb9+1xe/I8Fi6nPXPfWFqdJiVjaF2Ba3EgPILfC4w==" saltValue="33ZZEOGfC0F/TtmYEh7hUA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Lth7UEgPn/330QYZiqiG1fx7yMmDoXpHJqOGAFecxfCmEHTW86mrEbaA9j0zY9rQRADuT27kpdmJf6SlaV7IXQ==" saltValue="2ac2Fkt/vvMO7y25AedU4A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20117,7 +20117,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HtzKGCn3cVbtLvwNC/jXop//XHxkEiNvWhRdov5JY6Ofu54SHJyUPzx90zIYfBxU44BgomG648CZv5pzMiV6LA==" saltValue="c+Lr/ztEDS4C97ouSXqvzg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PaaHsaMtzEkrDZcRghGBofhXu6nWxQHJ7/snmxX0lEfPd0sSxp5Z0v0pqkHkv3UDqDCOOSCrJqOBzw4rgUd3pA==" saltValue="UJjtK2xeXE8w5Bl4yDIR0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20394,7 +20394,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="juNHG9BJKDhPQNh7IA553FsWQmfDEBONrxnap6apyeDGQIuiP6Fd8lMzn5Sj2aY1aTWnCqtXhPx5+rip87Jbcw==" saltValue="eu5NIkTGxz1EsSzbg7T7vQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ee7tSU+X6UmiUq/2XnH9acfIuB8VKcGBMqSDOEIWk61Vx1K1NbjBTCYwRZXXd0EUejKdJBgWZQlZO/eSF4WqjA==" saltValue="tdf1kPXRE/3wWjvP7LWLfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -21073,7 +21073,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="n6S3tIzYJvV34KbX+1k2nkJh9Soc8aZHxh83W4Q0aAGi9CaoeHjNbkomnGjVDyFGxEAJQ2j+tGZYYJNIB3/HeA==" saltValue="3mIsH2JQLTk+N7iz/aa3HQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rMe/VDtwuRdgBuBS0NQhceBGDdDB52wt9HirktBoNxDSg9szR1x8LMcM4WNoadRrOJj5E3KliyEtnK2JKWbj1g==" saltValue="W5eIY3/yJi8mZDCWzUaEvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region2_input.xlsx
+++ b/inputs/fr/demo_region2_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38795149-3CC4-439F-AA6C-C62E16C8AF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{499BB6D2-3548-464D-A84C-5AA63228CB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="3480" windowWidth="31215" windowHeight="14940" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -4738,14 +4738,14 @@
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -4756,14 +4756,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>31</v>
@@ -4772,7 +4772,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
@@ -4781,17 +4781,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>35</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>36</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>37</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
@@ -4847,17 +4847,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>42</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>43</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>45</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
@@ -4898,15 +4898,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>48</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>49</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
         <v>50</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
         <v>51</v>
       </c>
@@ -4938,18 +4938,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
         <v>53</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
         <v>54</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
         <v>55</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
         <v>56</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
         <v>57</v>
       </c>
@@ -4990,20 +4990,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
         <v>60</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
         <v>61</v>
       </c>
@@ -5021,7 +5021,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
         <v>62</v>
       </c>
@@ -5031,7 +5031,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
         <v>63</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
         <v>64</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
         <v>65</v>
       </c>
@@ -5055,16 +5055,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
         <v>67</v>
       </c>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
         <v>68</v>
       </c>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
         <v>69</v>
       </c>
@@ -5092,7 +5092,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
         <v>70</v>
       </c>
@@ -5103,16 +5103,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>72</v>
       </c>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
         <v>73</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
         <v>74</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
         <v>75</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
         <v>76</v>
       </c>
@@ -5153,12 +5153,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>78</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
         <v>79</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
         <v>80</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
         <v>81</v>
       </c>
@@ -5190,11 +5190,11 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q+qMIgAzSx+ZT0DFMofBu9kaTHAx45T53M2T+MhFwDpFBwwThyxSsw8XifpHW5HSdilcCOFL2vFDYLEa4ueGWA==" saltValue="Qi7Y1TuLmprvgVk3D7ywWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Twsye9uqmoif+av4YWukCOe0hTWpwa4YUxpELi8cg/KeGEk9wnXhc/hrstcKezb+g1q6T95JUdpcOfMBjKONyA==" saltValue="QQK8Zxo4b5Y/7PTEWsugyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5211,15 +5211,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>159</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
         <v>184</v>
       </c>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
         <v>185</v>
       </c>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
         <v>195</v>
       </c>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
         <v>192</v>
       </c>
@@ -5266,83 +5266,83 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MbdgnhLahMTMahOJ354BqBYRY40NjFlZAM7JOx9kjBh9Gh0jXRMQsgxS3bm8C6v/xi/081SKfRn/621Wv8b77g==" saltValue="fqrpspm1g9iyOT2O/E54Cg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Lp2+gFbDWAi/MrDHKMaf09BzaC4zMH0xuaBlLpdx6x37C0qEc3bf2D2MgrXE7+G210xFGTSUrIBIMDEpY5TgHA==" saltValue="+aV95F0IF0XpmEuvJIcRBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5360,89 +5360,89 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.140625" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YBYyALY5YXIdnQFgj7xmPmnRYd4z3lGiuxuz5RezifAVC+VVNK81QqrQuNyBKPVB/0jcX8sLGwbSYZ/x+Mf3qA==" saltValue="RwCHUODo5+oDlfS3XT9rAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NI9bYC+djFV5uJ7qHbDINzmWMSnqX0EalEMSKs6i2BjNMFCHvwWi0LsTpH81yfX5pEOsVYjKn55dk3/hpGRvaQ==" saltValue="DBAgJ6EdBduz014hRyNNKw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5459,9 +5459,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>101</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>209</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>208</v>
       </c>
@@ -5557,7 +5557,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uQWUFDpb3YHkWrpiK//AbTNTcjcp+Ust75Vy1LCd7sLgLJFyhWVu9gpgfA65ZJqhCQs1zzlLJ7ghQ+fL28fWqw==" saltValue="k7Psd/zz5n7dBMAvXzAzcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="54muwtAjDtDVQN3WS1n3JsJ5e50S4Hqyrc6v35ep59+Daew8ZlGksePuSdaDXbZikf/DOenswZY3JiqzT5BWGQ==" saltValue="/Q8nxfCYGLlNqx0koF1GuA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5574,19 +5574,19 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>211</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>175</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>187</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>188</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>192</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
         <v>194</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>195</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>160</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>196</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>202</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>203</v>
       </c>
@@ -6145,10 +6145,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>114</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>173</v>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>184</v>
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>185</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>2</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>190</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>191</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
         <v>193</v>
       </c>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
         <v>90</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
         <v>180</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
         <v>181</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
         <v>182</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
         <v>183</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6779,7 +6779,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>210</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>178</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>179</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>186</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>189</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
         <v>197</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>198</v>
@@ -7137,7 +7137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
         <v>199</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
         <v>200</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
         <v>201</v>
       </c>
@@ -7269,11 +7269,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kYuEv/W+WVjn02tzW/Iid28P+5Q5sSq5iWEH315tsV0XWSEk9Nmir+oIKhTQzKpxeOywDsrpye3yAk5K5NjPKg==" saltValue="I2azoL9txCFEtIARLg0GFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JqzKAe6pOJ8TrGJunTpGhMi24Plzl2hpVtMEQHwog+rC3uvzBHWl4wPvrKIvvXalBjNi7HpNTw7uADNmFpeS0g==" saltValue="wMjXRZ6AyQ37HkSCBiJzYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7288,30 +7288,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>214</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ub6KLr3+ysS7u/0ll4j9AQpGxKzvcrShu2rMZL2wOmmsNM9jaWz2fGvLVfIXEwWGkWRAi2F3vbudGikbJ3TOIw==" saltValue="sKpeM7CoStCvEUUw8w3WGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sFTE9ITBsDtuQ1nrWRv0j7yqoow6uiz699s9P2Ojhf2H94IJDTSYKZ2t2LQpjOlHlYZ3gPMzFgGI9tKK9FgbXg==" saltValue="Znvtz1R1t9VnrX+Gficlrg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7327,16 +7327,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="35"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>12</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>11</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>10</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>9</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>7</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>6</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>5</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>4</v>
       </c>
@@ -7515,11 +7515,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="o5Ww0dx/OG89fCXXL0MTXKwtrS8bcOCrvV+BdLMC+5sx50Bf/Vf5X4SGhkqCxnERJSV+MgaHs5YElqAF7uWZ7A==" saltValue="gokQrTzxsbtOnhizQ3xICw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vG53OFWXLcafuzzGX99dDLOIAwN706i/RtdaCyfnJV6U3eVRm0S2pfU+AvlPBZ8IXEsxTJry4gIWnJe0SiNcEg==" saltValue="NWiyPE86Wj+mCfALT6WFnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7537,20 +7537,20 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>211</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>100</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
         <v>175</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
         <v>19</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
         <v>22</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
         <v>23</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>187</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
         <v>188</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
         <v>192</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
         <v>194</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>195</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
         <v>160</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
         <v>196</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
         <v>202</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>203</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8232,7 +8232,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>114</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>173</v>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="92" t="s">
         <v>184</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="92" t="s">
         <v>185</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="93" t="s">
         <v>2</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
         <v>190</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
         <v>191</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
         <v>193</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8604,7 +8604,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>90</v>
       </c>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
         <v>180</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>181</v>
@@ -8741,7 +8741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
         <v>182</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
         <v>183</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8845,7 +8845,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>210</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
         <v>178</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
         <v>179</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
         <v>186</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
         <v>189</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>197</v>
@@ -9113,7 +9113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
         <v>198</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
         <v>199</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
         <v>200</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>201</v>
       </c>
@@ -9290,7 +9290,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AsNC7DHgaEb6BxJW8YyNJWb8m6UE0mehLpG6A2PvclYcCrDfoLRq+I+H53JjZBfdBfvUnJ4kInCyYJZSr5yd6g==" saltValue="INDZJR6BRG2OfwZiNiiviQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VFTNe/LCQhTDqNKL+ByIKtg+UAM4trzoUfIUNNNiNGeeEg4CeDvMoljbc+fSDqZ24Wt1uKI3O+UyNgK+oUwG3w==" saltValue="IQM3iEH3Z0bA1QK+Ps2e9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9306,22 +9306,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>159</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>172</v>
       </c>
@@ -9373,7 +9373,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>173</v>
       </c>
@@ -9390,7 +9390,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>174</v>
       </c>
@@ -9407,7 +9407,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>175</v>
       </c>
@@ -9424,7 +9424,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>176</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>177</v>
       </c>
@@ -9462,7 +9462,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>178</v>
       </c>
@@ -9481,7 +9481,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>179</v>
       </c>
@@ -9500,7 +9500,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>180</v>
       </c>
@@ -9517,7 +9517,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>181</v>
       </c>
@@ -9534,7 +9534,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>182</v>
       </c>
@@ -9551,7 +9551,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>183</v>
       </c>
@@ -9568,7 +9568,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
         <v>184</v>
       </c>
@@ -9587,7 +9587,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="92" t="s">
         <v>185</v>
       </c>
@@ -9606,7 +9606,7 @@
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -9627,7 +9627,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>186</v>
       </c>
@@ -9644,7 +9644,7 @@
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>19</v>
       </c>
@@ -9663,7 +9663,7 @@
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>22</v>
       </c>
@@ -9682,7 +9682,7 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>23</v>
       </c>
@@ -9701,7 +9701,7 @@
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>187</v>
       </c>
@@ -9720,7 +9720,7 @@
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>188</v>
       </c>
@@ -9741,7 +9741,7 @@
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>189</v>
       </c>
@@ -9760,7 +9760,7 @@
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>190</v>
       </c>
@@ -9777,7 +9777,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>191</v>
       </c>
@@ -9794,7 +9794,7 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>192</v>
       </c>
@@ -9811,7 +9811,7 @@
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>193</v>
       </c>
@@ -9830,7 +9830,7 @@
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>194</v>
       </c>
@@ -9847,7 +9847,7 @@
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>195</v>
       </c>
@@ -9866,7 +9866,7 @@
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>160</v>
       </c>
@@ -9883,7 +9883,7 @@
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>196</v>
       </c>
@@ -9902,7 +9902,7 @@
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>197</v>
       </c>
@@ -9921,7 +9921,7 @@
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>198</v>
       </c>
@@ -9940,7 +9940,7 @@
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>199</v>
       </c>
@@ -9959,7 +9959,7 @@
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>200</v>
       </c>
@@ -9978,7 +9978,7 @@
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>201</v>
       </c>
@@ -9997,7 +9997,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>202</v>
       </c>
@@ -10014,7 +10014,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>203</v>
       </c>
@@ -10036,7 +10036,7 @@
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q9qMNyD1sReVdIFaZX2qDSVcls06FVpkFKPuNGRyLm73lzROId7qW7hmb9xcIo3Mh+c8JxiR8SVN8Qgqz/GAog==" saltValue="pxBClKDUkEETVI9QkCI5ZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="c9oxh2E71kw3FtoXddCZ5oxfGRFPV4DJHjssAOh95NIXriYHHrTpD2CCvSeKnixz/w+MBnrBDPEnt/jECyvh/g==" saltValue="1s3MrYfGmoSNEyjJM35oqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10052,22 +10052,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>220</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>123</v>
       </c>
@@ -10131,7 +10131,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>110</v>
       </c>
@@ -10160,7 +10160,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>111</v>
       </c>
@@ -10189,7 +10189,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>112</v>
       </c>
@@ -10218,7 +10218,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>113</v>
       </c>
@@ -10247,7 +10247,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>136</v>
       </c>
@@ -10268,7 +10268,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>137</v>
       </c>
@@ -10289,7 +10289,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>138</v>
       </c>
@@ -10310,7 +10310,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>139</v>
       </c>
@@ -10331,7 +10331,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>84</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>85</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>86</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>87</v>
       </c>
@@ -10410,7 +10410,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qWi19zVcopCq6XnIe23Kz+e3u9CXe0O4j6g41A0XzFX18vl/v9cn+19IaPjcYRY8sIsh57DMKUew5Uqepw1mxA==" saltValue="FuPA+ZISR7bqPyj2qlsBwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g/6WfCK3lYsUjZp9vaN1lUVx8tqxqnBOP3bdWDVJBfcO2bXdmht/bJ160Oe+gpRpoqOU2F3oiKOqRVKHAEBOIQ==" saltValue="QhkgJbBAHTVEU9P4UpFADQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10426,15 +10426,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.5703125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>221</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>222</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
         <v>165</v>
@@ -10508,7 +10508,7 @@
       </c>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
         <v>168</v>
@@ -10530,7 +10530,7 @@
       </c>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
         <v>123</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
         <v>165</v>
@@ -10575,7 +10575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
         <v>168</v>
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
         <v>110</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
         <v>165</v>
@@ -10640,7 +10640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
         <v>168</v>
@@ -10661,7 +10661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
         <v>111</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
         <v>165</v>
@@ -10705,7 +10705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
         <v>168</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
         <v>112</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>165</v>
@@ -10770,7 +10770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
         <v>168</v>
@@ -10791,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="101" t="s">
         <v>169</v>
       </c>
@@ -10814,14 +10814,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>223</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
         <v>165</v>
@@ -10868,7 +10868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
         <v>168</v>
@@ -10889,7 +10889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="138" t="s">
         <v>123</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
         <v>165</v>
@@ -10933,7 +10933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
         <v>168</v>
@@ -10954,7 +10954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="138" t="s">
         <v>110</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
         <v>165</v>
@@ -10998,7 +10998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
         <v>168</v>
@@ -11019,7 +11019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="138" t="s">
         <v>111</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
         <v>165</v>
@@ -11063,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
         <v>168</v>
@@ -11084,7 +11084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
         <v>112</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
         <v>165</v>
@@ -11128,7 +11128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
         <v>168</v>
@@ -11149,7 +11149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="101" t="s">
         <v>169</v>
       </c>
@@ -11172,14 +11172,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D35" s="102"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102"/>
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="103" t="s">
         <v>224</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
         <v>165</v>
@@ -11226,7 +11226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
         <v>168</v>
@@ -11247,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="138" t="s">
         <v>123</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
         <v>165</v>
@@ -11291,7 +11291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
         <v>168</v>
@@ -11312,7 +11312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="138" t="s">
         <v>110</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
         <v>165</v>
@@ -11356,7 +11356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
         <v>168</v>
@@ -11377,7 +11377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="138" t="s">
         <v>111</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
         <v>165</v>
@@ -11421,7 +11421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
         <v>168</v>
@@ -11442,7 +11442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
         <v>112</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
         <v>165</v>
@@ -11486,7 +11486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
         <v>168</v>
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="104" t="s">
         <v>169</v>
       </c>
@@ -11531,7 +11531,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0m0wWifR8eWbaRZ5gXT8mcvGSCGOBe3IfyEtRJEcTR16BFaml0BH4xlFeEEO+BF2F2+Qw3dHvFGhIOv1ji5G1Q==" saltValue="OIgC+DrKvZRseopKfKBrSA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="x85UO6ZR8f05vTyOx9Ie10D/JPDFfPcB38g9QnRPxTmVlYEfK8ERl45Hf2YrtjuaP50IoE8Sh5/kLFhKvO2sIA==" saltValue="GSXTsswn73K4NEnDCGCa9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11565,14 +11565,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.42578125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.85546875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>82</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11634,7 +11634,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11667,7 +11667,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11700,7 +11700,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11733,7 +11733,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11766,7 +11766,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11799,7 +11799,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11832,7 +11832,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11865,7 +11865,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11898,7 +11898,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11931,7 +11931,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -11964,7 +11964,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -11997,7 +11997,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12030,7 +12030,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12063,7 +12063,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12086,7 +12086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12132,7 +12132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12155,7 +12155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12201,7 +12201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12224,7 +12224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12270,7 +12270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12293,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12316,7 +12316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12385,7 +12385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12431,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12454,7 +12454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12477,7 +12477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12500,7 +12500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12523,7 +12523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12546,7 +12546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12569,7 +12569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12592,7 +12592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12615,7 +12615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12639,7 +12639,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UNAXpPax5xbunDMhjy7ocFmy9AiFAhyKb3N+oIfg4ab5Kl+NIFpvLsROTqhd3/3NS2tHYH/qhKJitFvfLhaGbw==" saltValue="AVT/uEQ+w6ZAIcajzyauzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/X5R7eGPrYT744B6ECON8TO2ocOHUW8T1pDJ8tWIMG3PLq29Fn7/YCJtg1HiN3akttbusrOD9o+wx4hOuvc85g==" saltValue="X1JZvj3DOV5Yp2ECVa7cZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12661,22 +12661,22 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>70</v>
@@ -12691,7 +12691,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>226</v>
       </c>
@@ -12701,7 +12701,7 @@
       <c r="E3" s="112"/>
       <c r="F3" s="112"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
         <v>53</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
         <v>54</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
         <v>55</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
         <v>56</v>
       </c>
@@ -12769,13 +12769,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="116"/>
       <c r="D8" s="100"/>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>233</v>
       </c>
@@ -12793,14 +12793,14 @@
       </c>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="116"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100"/>
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="105" t="s">
         <v>227</v>
       </c>
@@ -12810,7 +12810,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>228</v>
       </c>
@@ -12820,7 +12820,7 @@
       <c r="F12" s="100"/>
       <c r="G12" s="117"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="121" t="s">
         <v>229</v>
       </c>
@@ -12838,7 +12838,7 @@
       </c>
       <c r="G13" s="117"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="121" t="s">
         <v>230</v>
       </c>
@@ -12856,7 +12856,7 @@
       </c>
       <c r="G14" s="117"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="121" t="s">
         <v>231</v>
       </c>
@@ -12874,7 +12874,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12883,7 +12883,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>232</v>
       </c>
@@ -12894,7 +12894,7 @@
       <c r="F17" s="124"/>
       <c r="G17" s="117"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125" t="s">
         <v>92</v>
       </c>
@@ -12912,7 +12912,7 @@
       </c>
       <c r="G18" s="117"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="125" t="s">
         <v>93</v>
       </c>
@@ -12930,7 +12930,7 @@
       </c>
       <c r="G19" s="117"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="125" t="s">
         <v>94</v>
       </c>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="G20" s="117"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="125" t="s">
         <v>95</v>
       </c>
@@ -12966,7 +12966,7 @@
       </c>
       <c r="G21" s="117"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="125" t="s">
         <v>96</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125" t="s">
         <v>97</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="125" t="s">
         <v>98</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="125" t="s">
         <v>99</v>
       </c>
@@ -13034,14 +13034,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TGv2/3ngQLajxDNWuNBLlDOSLvnm546XUKMIlWIaLbS3RoqOgU+x1J7psZbKQeUEh9lxXpJF+gE1I7Xfvt+soA==" saltValue="2YNmNK70LDKNzzRFt4yBrw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mpzC3lfQL8Yly53iWM94EhPlutnz7tjo7Gkamo9Bnf4ooaNWd3jWNPvcK12Z0jOdb/clRs9ouSNobk04g9Q1mA==" saltValue="ZUm0N3ISd+TIrcH/Lsk05A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13058,23 +13058,23 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.85546875" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="126" t="s">
         <v>216</v>
       </c>
@@ -13108,7 +13108,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>101</v>
@@ -13140,7 +13140,7 @@
       <c r="O3" s="126"/>
       <c r="P3" s="126"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
         <v>237</v>
       </c>
@@ -13168,7 +13168,7 @@
       <c r="O4" s="126"/>
       <c r="P4" s="126"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
         <v>238</v>
       </c>
@@ -13196,7 +13196,7 @@
       <c r="O5" s="126"/>
       <c r="P5" s="126"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
         <v>239</v>
       </c>
@@ -13224,7 +13224,7 @@
       <c r="O6" s="126"/>
       <c r="P6" s="126"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
         <v>102</v>
       </c>
@@ -13255,7 +13255,7 @@
       <c r="O7" s="126"/>
       <c r="P7" s="126"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
         <v>237</v>
       </c>
@@ -13283,7 +13283,7 @@
       <c r="O8" s="126"/>
       <c r="P8" s="126"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
         <v>238</v>
       </c>
@@ -13311,7 +13311,7 @@
       <c r="O9" s="126"/>
       <c r="P9" s="126"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
         <v>239</v>
       </c>
@@ -13339,7 +13339,7 @@
       <c r="O10" s="126"/>
       <c r="P10" s="126"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
         <v>104</v>
       </c>
@@ -13370,7 +13370,7 @@
       <c r="O11" s="126"/>
       <c r="P11" s="126"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
         <v>237</v>
       </c>
@@ -13398,7 +13398,7 @@
       <c r="O12" s="126"/>
       <c r="P12" s="126"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
         <v>238</v>
       </c>
@@ -13426,7 +13426,7 @@
       <c r="O13" s="126"/>
       <c r="P13" s="126"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
         <v>239</v>
       </c>
@@ -13454,7 +13454,7 @@
       <c r="O14" s="126"/>
       <c r="P14" s="126"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
         <v>105</v>
       </c>
@@ -13485,7 +13485,7 @@
       <c r="O15" s="126"/>
       <c r="P15" s="126"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
         <v>237</v>
       </c>
@@ -13513,7 +13513,7 @@
       <c r="O16" s="126"/>
       <c r="P16" s="126"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
         <v>238</v>
       </c>
@@ -13541,7 +13541,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
         <v>239</v>
       </c>
@@ -13569,7 +13569,7 @@
       <c r="O18" s="126"/>
       <c r="P18" s="126"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
         <v>103</v>
       </c>
@@ -13600,7 +13600,7 @@
       <c r="O19" s="126"/>
       <c r="P19" s="126"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
         <v>237</v>
       </c>
@@ -13628,7 +13628,7 @@
       <c r="O20" s="126"/>
       <c r="P20" s="126"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
         <v>238</v>
       </c>
@@ -13656,7 +13656,7 @@
       <c r="O21" s="126"/>
       <c r="P21" s="126"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
         <v>239</v>
       </c>
@@ -13684,7 +13684,7 @@
       <c r="O22" s="126"/>
       <c r="P22" s="126"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
         <v>109</v>
       </c>
@@ -13715,7 +13715,7 @@
       <c r="O23" s="126"/>
       <c r="P23" s="126"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
         <v>237</v>
       </c>
@@ -13743,7 +13743,7 @@
       <c r="O24" s="126"/>
       <c r="P24" s="126"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
         <v>238</v>
       </c>
@@ -13771,7 +13771,7 @@
       <c r="O25" s="126"/>
       <c r="P25" s="126"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
         <v>239</v>
       </c>
@@ -13799,12 +13799,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="105" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="129" t="s">
         <v>26</v>
       </c>
@@ -13838,7 +13838,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>101</v>
@@ -13870,7 +13870,7 @@
       <c r="O30" s="126"/>
       <c r="P30" s="126"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
         <v>237</v>
       </c>
@@ -13898,7 +13898,7 @@
       <c r="O31" s="126"/>
       <c r="P31" s="126"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
         <v>209</v>
       </c>
@@ -13926,7 +13926,7 @@
       <c r="O32" s="126"/>
       <c r="P32" s="126"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
         <v>208</v>
       </c>
@@ -13954,7 +13954,7 @@
       <c r="O33" s="126"/>
       <c r="P33" s="126"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>102</v>
       </c>
@@ -13985,7 +13985,7 @@
       <c r="O34" s="126"/>
       <c r="P34" s="126"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
         <v>237</v>
       </c>
@@ -14013,7 +14013,7 @@
       <c r="O35" s="126"/>
       <c r="P35" s="126"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
         <v>209</v>
       </c>
@@ -14041,7 +14041,7 @@
       <c r="O36" s="126"/>
       <c r="P36" s="126"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
         <v>208</v>
       </c>
@@ -14069,7 +14069,7 @@
       <c r="O37" s="126"/>
       <c r="P37" s="126"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
         <v>104</v>
       </c>
@@ -14100,7 +14100,7 @@
       <c r="O38" s="126"/>
       <c r="P38" s="126"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
         <v>237</v>
       </c>
@@ -14128,7 +14128,7 @@
       <c r="O39" s="126"/>
       <c r="P39" s="126"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
         <v>209</v>
       </c>
@@ -14156,7 +14156,7 @@
       <c r="O40" s="126"/>
       <c r="P40" s="126"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
         <v>208</v>
       </c>
@@ -14184,7 +14184,7 @@
       <c r="O41" s="126"/>
       <c r="P41" s="126"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
         <v>105</v>
       </c>
@@ -14215,7 +14215,7 @@
       <c r="O42" s="126"/>
       <c r="P42" s="126"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
         <v>237</v>
       </c>
@@ -14243,7 +14243,7 @@
       <c r="O43" s="126"/>
       <c r="P43" s="126"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
         <v>209</v>
       </c>
@@ -14271,7 +14271,7 @@
       <c r="O44" s="126"/>
       <c r="P44" s="126"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
         <v>208</v>
       </c>
@@ -14299,7 +14299,7 @@
       <c r="O45" s="126"/>
       <c r="P45" s="126"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
         <v>103</v>
       </c>
@@ -14330,7 +14330,7 @@
       <c r="O46" s="126"/>
       <c r="P46" s="126"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
         <v>237</v>
       </c>
@@ -14358,7 +14358,7 @@
       <c r="O47" s="126"/>
       <c r="P47" s="126"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
         <v>209</v>
       </c>
@@ -14386,7 +14386,7 @@
       <c r="O48" s="126"/>
       <c r="P48" s="126"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
         <v>208</v>
       </c>
@@ -14414,7 +14414,7 @@
       <c r="O49" s="126"/>
       <c r="P49" s="126"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
         <v>109</v>
       </c>
@@ -14445,7 +14445,7 @@
       <c r="O50" s="126"/>
       <c r="P50" s="126"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
         <v>237</v>
       </c>
@@ -14473,7 +14473,7 @@
       <c r="O51" s="126"/>
       <c r="P51" s="126"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
         <v>209</v>
       </c>
@@ -14501,7 +14501,7 @@
       <c r="O52" s="126"/>
       <c r="P52" s="126"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
         <v>208</v>
       </c>
@@ -14529,16 +14529,16 @@
       <c r="O53" s="126"/>
       <c r="P53" s="126"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="105" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="129" t="s">
         <v>135</v>
       </c>
@@ -14566,7 +14566,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>115</v>
@@ -14592,7 +14592,7 @@
       <c r="O57" s="126"/>
       <c r="P57" s="126"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14614,7 +14614,7 @@
       <c r="O58" s="126"/>
       <c r="P58" s="126"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
         <v>116</v>
       </c>
@@ -14639,7 +14639,7 @@
       <c r="O59" s="126"/>
       <c r="P59" s="126"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14661,7 +14661,7 @@
       <c r="O60" s="126"/>
       <c r="P60" s="126"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
         <v>117</v>
       </c>
@@ -14686,7 +14686,7 @@
       <c r="O61" s="126"/>
       <c r="P61" s="126"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14708,16 +14708,16 @@
       <c r="O62" s="126"/>
       <c r="P62" s="126"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="105" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="129" t="s">
         <v>142</v>
       </c>
@@ -14751,7 +14751,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>92</v>
@@ -14783,7 +14783,7 @@
       <c r="O66" s="126"/>
       <c r="P66" s="126"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
         <v>144</v>
       </c>
@@ -14811,7 +14811,7 @@
       <c r="O67" s="126"/>
       <c r="P67" s="126"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
         <v>145</v>
       </c>
@@ -14839,7 +14839,7 @@
       <c r="O68" s="126"/>
       <c r="P68" s="126"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
         <v>146</v>
       </c>
@@ -14867,7 +14867,7 @@
       <c r="O69" s="126"/>
       <c r="P69" s="126"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
         <v>93</v>
       </c>
@@ -14898,7 +14898,7 @@
       <c r="O70" s="126"/>
       <c r="P70" s="126"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
         <v>144</v>
       </c>
@@ -14926,7 +14926,7 @@
       <c r="O71" s="126"/>
       <c r="P71" s="126"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
         <v>145</v>
       </c>
@@ -14954,7 +14954,7 @@
       <c r="O72" s="126"/>
       <c r="P72" s="126"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
         <v>146</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="O73" s="126"/>
       <c r="P73" s="126"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
         <v>94</v>
       </c>
@@ -15013,7 +15013,7 @@
       <c r="O74" s="126"/>
       <c r="P74" s="126"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
         <v>144</v>
       </c>
@@ -15041,7 +15041,7 @@
       <c r="O75" s="126"/>
       <c r="P75" s="126"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
         <v>145</v>
       </c>
@@ -15069,7 +15069,7 @@
       <c r="O76" s="126"/>
       <c r="P76" s="126"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
         <v>146</v>
       </c>
@@ -15097,7 +15097,7 @@
       <c r="O77" s="126"/>
       <c r="P77" s="126"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
         <v>96</v>
       </c>
@@ -15128,7 +15128,7 @@
       <c r="O78" s="126"/>
       <c r="P78" s="126"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
         <v>144</v>
       </c>
@@ -15156,7 +15156,7 @@
       <c r="O79" s="126"/>
       <c r="P79" s="126"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
         <v>145</v>
       </c>
@@ -15184,7 +15184,7 @@
       <c r="O80" s="126"/>
       <c r="P80" s="126"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
         <v>146</v>
       </c>
@@ -15212,7 +15212,7 @@
       <c r="O81" s="126"/>
       <c r="P81" s="126"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
         <v>101</v>
       </c>
@@ -15243,7 +15243,7 @@
       <c r="O82" s="126"/>
       <c r="P82" s="126"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
         <v>144</v>
       </c>
@@ -15271,7 +15271,7 @@
       <c r="O83" s="126"/>
       <c r="P83" s="126"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
         <v>145</v>
       </c>
@@ -15299,7 +15299,7 @@
       <c r="O84" s="126"/>
       <c r="P84" s="126"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
         <v>146</v>
       </c>
@@ -15327,7 +15327,7 @@
       <c r="O85" s="126"/>
       <c r="P85" s="126"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
         <v>102</v>
       </c>
@@ -15358,7 +15358,7 @@
       <c r="O86" s="126"/>
       <c r="P86" s="126"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
         <v>144</v>
       </c>
@@ -15386,7 +15386,7 @@
       <c r="O87" s="126"/>
       <c r="P87" s="126"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
         <v>145</v>
       </c>
@@ -15414,7 +15414,7 @@
       <c r="O88" s="126"/>
       <c r="P88" s="126"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
         <v>146</v>
       </c>
@@ -15442,7 +15442,7 @@
       <c r="O89" s="126"/>
       <c r="P89" s="126"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
         <v>104</v>
       </c>
@@ -15473,7 +15473,7 @@
       <c r="O90" s="126"/>
       <c r="P90" s="126"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
         <v>144</v>
       </c>
@@ -15501,7 +15501,7 @@
       <c r="O91" s="126"/>
       <c r="P91" s="126"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
         <v>145</v>
       </c>
@@ -15529,7 +15529,7 @@
       <c r="O92" s="126"/>
       <c r="P92" s="126"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
         <v>146</v>
       </c>
@@ -15557,7 +15557,7 @@
       <c r="O93" s="126"/>
       <c r="P93" s="126"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
         <v>103</v>
       </c>
@@ -15588,7 +15588,7 @@
       <c r="O94" s="126"/>
       <c r="P94" s="126"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
         <v>144</v>
       </c>
@@ -15616,7 +15616,7 @@
       <c r="O95" s="126"/>
       <c r="P95" s="126"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
         <v>145</v>
       </c>
@@ -15644,7 +15644,7 @@
       <c r="O96" s="126"/>
       <c r="P96" s="126"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
         <v>146</v>
       </c>
@@ -15672,7 +15672,7 @@
       <c r="O97" s="126"/>
       <c r="P97" s="126"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
         <v>106</v>
       </c>
@@ -15703,7 +15703,7 @@
       <c r="O98" s="126"/>
       <c r="P98" s="126"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
         <v>144</v>
       </c>
@@ -15731,7 +15731,7 @@
       <c r="O99" s="126"/>
       <c r="P99" s="126"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
         <v>145</v>
       </c>
@@ -15759,7 +15759,7 @@
       <c r="O100" s="126"/>
       <c r="P100" s="126"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
         <v>146</v>
       </c>
@@ -15787,12 +15787,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="129" t="s">
         <v>101</v>
       </c>
@@ -15826,7 +15826,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15856,7 +15856,7 @@
       <c r="O105" s="126"/>
       <c r="P105" s="126"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
         <v>144</v>
       </c>
@@ -15884,7 +15884,7 @@
       <c r="O106" s="126"/>
       <c r="P106" s="126"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
         <v>145</v>
       </c>
@@ -15912,7 +15912,7 @@
       <c r="O107" s="126"/>
       <c r="P107" s="126"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
         <v>146</v>
       </c>
@@ -15940,11 +15940,11 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MAiCp+Cth+yo50MplYgflEFd1UuyatWTHH1yauDd+CCaNGfoUSloUV6EqCenk4lc8zi6aPr/siHkEawXymoFfg==" saltValue="b+3p9UdCIaI542wtErCvTg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="63BEQPQTxy+IzPPphmB9yqhshVLV75/GPccSNltnHhBdbYWuXSRdBxgJLe2384ZGfR5R07CsauyhXITj07uN2A==" saltValue="1I5xZhkFPiGHo/zXgKe3QA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15961,24 +15961,24 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
         <v>0</v>
       </c>
@@ -15999,7 +15999,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="121" t="s">
         <v>249</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>250</v>
@@ -16040,12 +16040,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="110" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="125" t="s">
         <v>195</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="125" t="s">
         <v>188</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="125" t="s">
         <v>203</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
@@ -16113,12 +16113,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="105" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>187</v>
@@ -16139,16 +16139,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="105" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="133" t="s">
         <v>26</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>256</v>
@@ -16192,7 +16192,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="133" t="s">
         <v>135</v>
       </c>
@@ -16215,13 +16215,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="105" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
         <v>84</v>
       </c>
@@ -16235,7 +16235,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="121" t="s">
         <v>176</v>
       </c>
@@ -16253,7 +16253,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5fnlqXhp4ufr2mdSuOOkTVC3CIeVPP6YsdQbYuYgcaC+jJE8XwPAj79MHWxGQq9sZKxgdosD/J58iTXMwkQfQw==" saltValue="Tj2B8m3qBR+gUaaZMUB8bQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TitK3DpuKg0OzNHeElU146ziAT6mZ9me+pb3PXgcKT9pvBmS5Q1S67I7uOp7sed6mp1PIiMnL7yWrVvQK5BEWw==" saltValue="zg40azRqBemE5PBtpibPeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16271,16 +16271,16 @@
       <selection activeCell="E6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.140625" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.140625" style="35"/>
+    <col min="7" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
         <v>159</v>
       </c>
@@ -16298,7 +16298,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
         <v>172</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
         <v>258</v>
@@ -16336,7 +16336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="92" t="s">
         <v>184</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
         <v>258</v>
@@ -16374,7 +16374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
         <v>185</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
         <v>258</v>
@@ -16412,7 +16412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
         <v>2</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
         <v>258</v>
@@ -16450,7 +16450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
         <v>189</v>
       </c>
@@ -16470,7 +16470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
         <v>258</v>
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="92" t="s">
         <v>193</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
         <v>258</v>
@@ -16526,14 +16526,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HTrAUKQfeaqybTAT6TAjMqpvaljjKgwlZJ9YjWyw8RWYp1Ao9Nz19izgkEMYu1ddpAFPPOn27drZIwD0n6Wh9A==" saltValue="/QCuYYj+4Y2Y4XO5C2FywQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yp+OdVWM7ztM6lxqbxFQ88G/SpC7cb1kpRd3ecVym0m5B4/ocKr9MNDKL8Y0IamrfwHT6/M8DO1tR1E3K+/Qgg==" saltValue="BdHHRCMbGz1GTllFo+Xl/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16550,15 +16550,15 @@
       <selection activeCell="O19" sqref="E19:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16601,12 +16601,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>175</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
         <v>180</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
         <v>181</v>
       </c>
@@ -16738,7 +16738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
         <v>182</v>
       </c>
@@ -16782,7 +16782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>183</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="92" t="s">
         <v>184</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="s">
         <v>185</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
         <v>2</v>
       </c>
@@ -16958,7 +16958,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
         <v>188</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
         <v>189</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
         <v>192</v>
       </c>
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
         <v>193</v>
       </c>
@@ -17134,13 +17134,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>260</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="92" t="s">
         <v>177</v>
       </c>
@@ -17184,7 +17184,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="92" t="s">
         <v>178</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="92" t="s">
         <v>179</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="92" t="s">
         <v>186</v>
       </c>
@@ -17316,20 +17316,20 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z4YWnKo3hYlmkEeTQqtV/S5G+Azxl4sIgdFstTet+RTVe+7z5DmxL3v4USc1lIm904ORHNZHBSDjnon6ilBVNw==" saltValue="IEN+quLrWWgBDwGteVchUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Vtk72kXVjF1xUWLjBqitWin6wQUiRzm8ke7wFbP+w8NZaUlbStdIz+h9VzQuAM7+vStItuo55+OOqT0XjbpLNw==" saltValue="iPh9f4Cw3rF51DP/nQ5Bag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17346,15 +17346,15 @@
       <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17373,12 +17373,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>160</v>
       </c>
@@ -17398,7 +17398,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>262</v>
       </c>
@@ -17409,7 +17409,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="92" t="s">
         <v>164</v>
       </c>
@@ -17430,7 +17430,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MeZE5ILbT6APctBKKz7lxwXLtIMpIjqnvoeK2FdgTmVklfa7metFHqjTaycxkd1p0S2Cvamb6tlsvU7NcdljWQ==" saltValue="dq4ioTbn8Ay34aJ5n4yH9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9tVyG0nmdLD7dWG9dXmBGcl5/urAIGDrUZduopTZXwGsVPJzwWqCRdre15MnquVq+VGqCTOD6XSADSkE9lAjdw==" saltValue="WnXSYrgelnnwEBxbjjFfew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17447,20 +17447,20 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.5703125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="35"/>
+    <col min="8" max="8" width="17.5703125" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>159</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>196</v>
       </c>
@@ -17512,7 +17512,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
         <v>264</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
         <v>265</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>195</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
         <v>265</v>
       </c>
@@ -17598,7 +17598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
         <v>209</v>
       </c>
@@ -17621,7 +17621,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
         <v>265</v>
       </c>
@@ -17641,7 +17641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>188</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
         <v>265</v>
       </c>
@@ -17687,7 +17687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
         <v>209</v>
       </c>
@@ -17710,7 +17710,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
         <v>265</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>174</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
         <v>265</v>
       </c>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
         <v>209</v>
       </c>
@@ -17801,7 +17801,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
         <v>265</v>
       </c>
@@ -17822,7 +17822,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>179</v>
       </c>
@@ -17849,7 +17849,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
         <v>264</v>
       </c>
@@ -17870,7 +17870,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>177</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
         <v>264</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>178</v>
       </c>
@@ -17942,7 +17942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>264</v>
       </c>
@@ -17962,7 +17962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>200</v>
       </c>
@@ -17988,7 +17988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
         <v>264</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
         <v>265</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>201</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
         <v>264</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
         <v>265</v>
       </c>
@@ -18094,7 +18094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>199</v>
       </c>
@@ -18120,7 +18120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
         <v>264</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
         <v>265</v>
       </c>
@@ -18160,7 +18160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>198</v>
       </c>
@@ -18186,7 +18186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
         <v>264</v>
       </c>
@@ -18206,7 +18206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
         <v>265</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>197</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
         <v>264</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
         <v>265</v>
       </c>
@@ -18292,7 +18292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>203</v>
       </c>
@@ -18318,7 +18318,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
         <v>264</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
         <v>265</v>
       </c>
@@ -18358,7 +18358,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
         <v>102</v>
       </c>
@@ -18381,7 +18381,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
         <v>264</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
         <v>265</v>
       </c>
@@ -18421,7 +18421,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
         <v>194</v>
       </c>
@@ -18447,7 +18447,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
         <v>264</v>
       </c>
@@ -18467,7 +18467,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
         <v>202</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
         <v>264</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
         <v>187</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
         <v>264</v>
       </c>
@@ -18560,7 +18560,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+NholkUuWCH3sf/6Kfew+nt2PPSff8P+AwjhtowSVnOMzTa1xXDTlaLieZ8gIjMpp9G3KbpuNN7jf/hW9pVv7w==" saltValue="aVluA87FCp18LvgXYstXAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z2vn1utLw+RgDxAwGu2Ps/vtZ80a1B54nxsBg1RjwVogvI4ZthHUlIznS0nzZf9vcFmVHj6BB0mNxcZUulQt+g==" saltValue="EOOJLG+CeBT98chzw23HvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18577,16 +18577,16 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
         <v>159</v>
       </c>
@@ -18608,7 +18608,7 @@
       </c>
       <c r="H1" s="98"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>173</v>
       </c>
@@ -18632,7 +18632,7 @@
       </c>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
         <v>264</v>
       </c>
@@ -18650,7 +18650,7 @@
       </c>
       <c r="H3" s="136"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>191</v>
       </c>
@@ -18674,7 +18674,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>264</v>
@@ -18693,7 +18693,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>190</v>
       </c>
@@ -18717,7 +18717,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>264</v>
@@ -18737,7 +18737,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="W5FQT1XKp5VsymwutYlwZd0nH357gCONteH2tI/4kB65kHx+d9vKsGcHiOKQJOi5eWeGTDJ86qn+9iv8CjK89A==" saltValue="TEtbqkEslgElgfvd8SXN2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="20A6wifk2bT6jGhumjEAhiT1AfcpJa3UrkVuN/fxsnI9hpX4pmU3DicbS/AmFd+ahcadGMZwhvlFv8qkVPqQ9A==" saltValue="rWeilwxzBKxBFlFzG6btPw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18753,14 +18753,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -18771,7 +18771,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -18786,7 +18786,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>92</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>93</v>
       </c>
@@ -18802,7 +18802,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>94</v>
       </c>
@@ -18810,7 +18810,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>95</v>
       </c>
@@ -18818,7 +18818,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
         <v>96</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
         <v>97</v>
       </c>
@@ -18834,7 +18834,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>98</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
         <v>99</v>
       </c>
@@ -18850,7 +18850,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>57</v>
       </c>
@@ -18861,7 +18861,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18870,7 +18870,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>100</v>
       </c>
@@ -18891,7 +18891,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
         <v>101</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
         <v>102</v>
       </c>
@@ -18925,7 +18925,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
         <v>103</v>
       </c>
@@ -18942,7 +18942,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
         <v>104</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>105</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>106</v>
       </c>
@@ -18993,7 +18993,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>107</v>
       </c>
@@ -19010,7 +19010,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
         <v>108</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
         <v>109</v>
       </c>
@@ -19044,7 +19044,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>57</v>
       </c>
@@ -19067,7 +19067,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19076,7 +19076,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -19092,7 +19092,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
         <v>115</v>
       </c>
@@ -19100,7 +19100,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
         <v>116</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
         <v>117</v>
       </c>
@@ -19116,7 +19116,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
         <v>118</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
         <v>1</v>
       </c>
@@ -19132,7 +19132,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
         <v>119</v>
       </c>
@@ -19140,7 +19140,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
         <v>120</v>
       </c>
@@ -19148,7 +19148,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
         <v>121</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
         <v>122</v>
       </c>
@@ -19164,7 +19164,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
         <v>57</v>
       </c>
@@ -19174,7 +19174,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xEAo40vG15Wzp/kp/6lrFPuYEjkSDaeixUIUIfkwvbqex8Wzt7YIxXeWq1ioCkmuLebw66mUTfG6l9wsnIxqOA==" saltValue="CsVgqtRes5iIiRYx5hUlJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vWATzyPB5IM1E0Nf+NkeEoClo3gZfNQ+6OU//0QK1pIgavMRV3+7Dgq0Yyl3f5Pud91bB6ctLHCUfQ4BcxBORA==" saltValue="HTjywzg1HnN9VAC2dAvOuw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19192,13 +19192,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19222,7 +19222,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>125</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>0.23269074767298425</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>127</v>
@@ -19276,7 +19276,7 @@
         <v>0.37372365733745416</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>128</v>
@@ -19297,7 +19297,7 @@
         <v>0.25929610299234518</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>129</v>
@@ -19318,7 +19318,7 @@
         <v>0.13428949199721643</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19326,7 +19326,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19334,7 +19334,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>130</v>
       </c>
@@ -19362,7 +19362,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>132</v>
       </c>
@@ -19387,7 +19387,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>133</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>134</v>
       </c>
@@ -19427,7 +19427,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19441,7 +19441,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>135</v>
       </c>
@@ -19485,7 +19485,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>140</v>
       </c>
@@ -19529,7 +19529,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>141</v>
       </c>
@@ -19586,14 +19586,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19601,7 +19601,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7Mz05vqa/MN9g6Tf6my7F3YhqxDRAo0KbW4x9peUOFhBrPF7BxEn8GskRT8q55YkyHleBiS7FyECKjFmhFLdzw==" saltValue="zvEvLUXqRaOaud/K2kIIZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xKb/bH9rhYkKIOqkGI9ExA4BmbXt8B2CO+4OBAkc0ej2bjjvT+sIFPG568BfzxpMRsf8NdrBXQsv12H8JI66JA==" saltValue="o9vgw+DwUsXdlXqKecVD8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19619,13 +19619,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19649,7 +19649,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>142</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
         <v>144</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
         <v>145</v>
       </c>
@@ -19712,7 +19712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>146</v>
       </c>
@@ -19738,7 +19738,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8PTTgoAckXVjkON42SPyvTtI3+IHrlFKPJEyddjOkyeZotGzbCq/OQ6ZHSmVLAjD69fp0Vi0NoFqXlkUXXPVTg==" saltValue="ulKyqIxLiL+oLT3ChSW3Og==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4FNrKJraN+KN2CIqgDHQ460DajknI03baXXKBZqjOdo4RZAsX6Y1DILzPb38oHunAZaWX9BZuRabA7zmJ+Na5g==" saltValue="y3qXlLyt5duhxfz6mY3tVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19755,13 +19755,13 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>147</v>
       </c>
@@ -19811,7 +19811,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>148</v>
       </c>
@@ -19838,10 +19838,10 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -19870,10 +19870,10 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -19900,7 +19900,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>114</v>
       </c>
@@ -19924,7 +19924,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>151</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -19977,7 +19977,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>154</v>
       </c>
@@ -20001,7 +20001,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>59</v>
       </c>
@@ -20030,7 +20030,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>156</v>
       </c>
@@ -20053,7 +20053,7 @@
       <c r="P14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Lth7UEgPn/330QYZiqiG1fx7yMmDoXpHJqOGAFecxfCmEHTW86mrEbaA9j0zY9rQRADuT27kpdmJf6SlaV7IXQ==" saltValue="2ac2Fkt/vvMO7y25AedU4A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mLQF1fviHJhOscZGnblgIUW26bfc0Bbf3JP6j+ZRo9pYolKeiRIFIL5vPQ1yB/4dKKaGdZLae39UdPs/Gwe3eA==" saltValue="k31CJUp+jVrFp2hfNKRkWg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20070,15 +20070,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>17</v>
       </c>
@@ -20092,7 +20092,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>159</v>
       </c>
@@ -20104,7 +20104,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>163</v>
       </c>
@@ -20117,7 +20117,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PaaHsaMtzEkrDZcRghGBofhXu6nWxQHJ7/snmxX0lEfPd0sSxp5Z0v0pqkHkv3UDqDCOOSCrJqOBzw4rgUd3pA==" saltValue="UJjtK2xeXE8w5Bl4yDIR0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z8I9AsHZPmXuYY85D0p2d+X/0oUDDutwWha9F57tQ6jAKQSDvVCM+D17mEoPOk/h6+GCvkeeblCGsj4UWXjnzg==" saltValue="/g7SFNL3MHwIaiej2F5G8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20133,15 +20133,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>166</v>
       </c>
@@ -20158,7 +20158,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>19</v>
       </c>
@@ -20172,7 +20172,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>123</v>
@@ -20186,7 +20186,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>110</v>
@@ -20200,7 +20200,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>111</v>
@@ -20214,7 +20214,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>112</v>
@@ -20228,7 +20228,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>169</v>
@@ -20237,7 +20237,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
         <v>22</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>123</v>
@@ -20265,7 +20265,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>110</v>
@@ -20277,7 +20277,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>111</v>
@@ -20289,7 +20289,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>112</v>
@@ -20301,7 +20301,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>169</v>
@@ -20312,7 +20312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>23</v>
       </c>
@@ -20328,7 +20328,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>123</v>
@@ -20342,7 +20342,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>110</v>
@@ -20356,7 +20356,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>111</v>
@@ -20370,7 +20370,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>112</v>
@@ -20384,7 +20384,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>169</v>
@@ -20394,7 +20394,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ee7tSU+X6UmiUq/2XnH9acfIuB8VKcGBMqSDOEIWk61Vx1K1NbjBTCYwRZXXd0EUejKdJBgWZQlZO/eSF4WqjA==" saltValue="tdf1kPXRE/3wWjvP7LWLfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Wwq7VfRqvVl8PTQwL6dh5xgASOPNjQKNrGu0EYR3PfNk3m9cJb4zfuNU5Xti/+4ajws/0Qb1TYU9+70mPD0alg==" saltValue="SHl8vTVoRthmoDLqyI7S2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20411,17 +20411,17 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>159</v>
       </c>
@@ -20439,7 +20439,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>172</v>
       </c>
@@ -20456,7 +20456,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>173</v>
       </c>
@@ -20473,7 +20473,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>174</v>
       </c>
@@ -20490,7 +20490,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>175</v>
       </c>
@@ -20507,7 +20507,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>176</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>177</v>
       </c>
@@ -20541,7 +20541,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>178</v>
       </c>
@@ -20558,7 +20558,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>179</v>
       </c>
@@ -20575,7 +20575,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>180</v>
       </c>
@@ -20592,7 +20592,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>181</v>
       </c>
@@ -20609,7 +20609,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>182</v>
       </c>
@@ -20626,7 +20626,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>183</v>
       </c>
@@ -20643,7 +20643,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>184</v>
       </c>
@@ -20660,7 +20660,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>185</v>
       </c>
@@ -20677,7 +20677,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -20694,7 +20694,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>186</v>
       </c>
@@ -20711,7 +20711,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>19</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>22</v>
       </c>
@@ -20745,7 +20745,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>23</v>
       </c>
@@ -20762,7 +20762,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>187</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>188</v>
       </c>
@@ -20796,7 +20796,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>189</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>190</v>
       </c>
@@ -20830,7 +20830,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>191</v>
       </c>
@@ -20847,7 +20847,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>192</v>
       </c>
@@ -20864,7 +20864,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>193</v>
       </c>
@@ -20881,7 +20881,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>194</v>
       </c>
@@ -20898,7 +20898,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>195</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>160</v>
       </c>
@@ -20932,7 +20932,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>196</v>
       </c>
@@ -20949,7 +20949,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>197</v>
       </c>
@@ -20966,7 +20966,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>198</v>
       </c>
@@ -20983,7 +20983,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>199</v>
       </c>
@@ -21000,7 +21000,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>200</v>
       </c>
@@ -21017,7 +21017,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>201</v>
       </c>
@@ -21035,7 +21035,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>202</v>
       </c>
@@ -21052,7 +21052,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>203</v>
       </c>
@@ -21069,11 +21069,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rMe/VDtwuRdgBuBS0NQhceBGDdDB52wt9HirktBoNxDSg9szR1x8LMcM4WNoadRrOJj5E3KliyEtnK2JKWbj1g==" saltValue="W5eIY3/yJi8mZDCWzUaEvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5l1ib4LH+hBq//ffhtjkyPpl4dP1TLnHjAcYaNxeIbq7sPA0tTDHDs/kkVo+RfSQhZukrx6pc5Hw60G3QwX2eQ==" saltValue="RvAztqFDrMeVghzAbTz4WQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region2_input.xlsx
+++ b/inputs/fr/demo_region2_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{499BB6D2-3548-464D-A84C-5AA63228CB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D627950-2CF5-4B45-BC59-6FF60E4CE9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="3480" windowWidth="31215" windowHeight="14940" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="3600" windowWidth="34980" windowHeight="15600" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -1128,7 +1128,7 @@
     <t>Modéré</t>
   </si>
   <si>
-    <t>Elevé</t>
+    <t>Élevé</t>
   </si>
   <si>
     <t>Niveau WHZ</t>
@@ -5194,7 +5194,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Twsye9uqmoif+av4YWukCOe0hTWpwa4YUxpELi8cg/KeGEk9wnXhc/hrstcKezb+g1q6T95JUdpcOfMBjKONyA==" saltValue="QQK8Zxo4b5Y/7PTEWsugyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nyJguzYOn16XqztTK71wOGx3X0gPCTRNJwFD97i1TX8mrvYs2jJ7XK4KttXdbLpGm1BVFc9FfSINa97pLzEgHw==" saltValue="kIfUs9SkrvRLW7WrEY2HOA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5342,7 +5342,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Lp2+gFbDWAi/MrDHKMaf09BzaC4zMH0xuaBlLpdx6x37C0qEc3bf2D2MgrXE7+G210xFGTSUrIBIMDEpY5TgHA==" saltValue="+aV95F0IF0XpmEuvJIcRBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CWdE2ov+KO4SLJ7yKZq7w15/ScV0RDiH1JbnaZFBeShg+gEazqjnIG3UW1TKlp3MI/Ubh8EGMo/yBEvWtEMIuw==" saltValue="sCwSeEyKDd0psdFeH16iog==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5442,7 +5442,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NI9bYC+djFV5uJ7qHbDINzmWMSnqX0EalEMSKs6i2BjNMFCHvwWi0LsTpH81yfX5pEOsVYjKn55dk3/hpGRvaQ==" saltValue="DBAgJ6EdBduz014hRyNNKw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZALTVZCnW6mJAMJWfic+0dvsbid4IoO7+Tz1zTarrHWXrPyjkPk8v8sg5+//4mBZkAkMNJZ92HRcmMahLB4G2g==" saltValue="kXzBYZs/pXJ6YV1AUynshg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5557,7 +5557,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="54muwtAjDtDVQN3WS1n3JsJ5e50S4Hqyrc6v35ep59+Daew8ZlGksePuSdaDXbZikf/DOenswZY3JiqzT5BWGQ==" saltValue="/Q8nxfCYGLlNqx0koF1GuA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hkg+WqWRo73pYjkoTibepMTcbtrw2WaSB4EEw+IllnKY8oTChp/UGdkan4dtlByI3cyKZ3U4O4jdP2XQK19C9A==" saltValue="PU5HjNZcSFxDYLFB5C9Ppg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7273,7 +7273,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JqzKAe6pOJ8TrGJunTpGhMi24Plzl2hpVtMEQHwog+rC3uvzBHWl4wPvrKIvvXalBjNi7HpNTw7uADNmFpeS0g==" saltValue="wMjXRZ6AyQ37HkSCBiJzYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LkjcPz6vW4BKHqA93jBVziw/ZynEek6r09+xRhr+7YyOuLbsOiFGB9CBa6r7rlGYlvzKhXrD6VLBCtCNGQC0QA==" saltValue="V1BYL1Mgt/PS+qQzni3b/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7311,7 +7311,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sFTE9ITBsDtuQ1nrWRv0j7yqoow6uiz699s9P2Ojhf2H94IJDTSYKZ2t2LQpjOlHlYZ3gPMzFgGI9tKK9FgbXg==" saltValue="Znvtz1R1t9VnrX+Gficlrg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TQEIHX+nmKX9hERpiAm0l4H0KdUQoYLqM74l7EKD7x+58NDuDmgQS0QrqMpJVnFRzsx0oybRzUfeNc+2OjxsSg==" saltValue="G1Tgf5Le0b4LuFpd4bJlVg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7519,7 +7519,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vG53OFWXLcafuzzGX99dDLOIAwN706i/RtdaCyfnJV6U3eVRm0S2pfU+AvlPBZ8IXEsxTJry4gIWnJe0SiNcEg==" saltValue="NWiyPE86Wj+mCfALT6WFnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5QGLqPiGnXK93v0aYhgvJ1ijs7P/TPbqgLO2gLYPHj8zjjMWmqpWVFqSXy8waznY/qtKqJnlVqCrRMHFXI1Pdg==" saltValue="MVQDMOv0tOoplvHdFNI5Fg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9290,7 +9290,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VFTNe/LCQhTDqNKL+ByIKtg+UAM4trzoUfIUNNNiNGeeEg4CeDvMoljbc+fSDqZ24Wt1uKI3O+UyNgK+oUwG3w==" saltValue="IQM3iEH3Z0bA1QK+Ps2e9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LcZ6znXFz2vZkOaOqh57c0JdXb0nHxT0HFAPlvFuj6m40tZM8OBLE/o6k8lghOOG7VtILQe63cCaYSE0eFpT2A==" saltValue="4PrhUZiaOogqP/16qTEqbw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10036,7 +10036,7 @@
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="c9oxh2E71kw3FtoXddCZ5oxfGRFPV4DJHjssAOh95NIXriYHHrTpD2CCvSeKnixz/w+MBnrBDPEnt/jECyvh/g==" saltValue="1s3MrYfGmoSNEyjJM35oqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RtnwEkbxezfTkAdSWZdfOusJV2G0XjWqJlJtyFFdcqUyMiegmoQ5wfWS0e/OfD+yL7FXJMqdp/qEKGjqgR947A==" saltValue="cST3I6/u+1aPbKLYWe2p7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10410,7 +10410,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g/6WfCK3lYsUjZp9vaN1lUVx8tqxqnBOP3bdWDVJBfcO2bXdmht/bJ160Oe+gpRpoqOU2F3oiKOqRVKHAEBOIQ==" saltValue="QhkgJbBAHTVEU9P4UpFADQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="URqdNduhz5XKWexNcxz8Gm7BaKUcwEUKlrtpRXgMdqHlGkyrwRznNcJVw/TRacL7wshM5PuErl02ueDQiEL1dg==" saltValue="AEV83M3VzK1JJHzqRf3WCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11531,7 +11531,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x85UO6ZR8f05vTyOx9Ie10D/JPDFfPcB38g9QnRPxTmVlYEfK8ERl45Hf2YrtjuaP50IoE8Sh5/kLFhKvO2sIA==" saltValue="GSXTsswn73K4NEnDCGCa9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rQ+H9VuCVFBikfy1brrTmvdxbVvxXm/43Sd7P3mMjlczy2ymdcOX+Q/QQb1UhzkTIPVabZM2KVwKShq0MxTejg==" saltValue="io17WSjXS3CC5nuaXPhfxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -12639,7 +12639,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/X5R7eGPrYT744B6ECON8TO2ocOHUW8T1pDJ8tWIMG3PLq29Fn7/YCJtg1HiN3akttbusrOD9o+wx4hOuvc85g==" saltValue="X1JZvj3DOV5Yp2ECVa7cZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WgzTFb7b4c0O2OKMLwgR11LgtZVkAtCghEiX4Tm7ttyOrn2KdLnglZ485N2esCZvPi4EVY22LbjXJnmreD+5zg==" saltValue="F3thHz4HC41ocFdX+8U/Dg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13041,7 +13041,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mpzC3lfQL8Yly53iWM94EhPlutnz7tjo7Gkamo9Bnf4ooaNWd3jWNPvcK12Z0jOdb/clRs9ouSNobk04g9Q1mA==" saltValue="ZUm0N3ISd+TIrcH/Lsk05A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RnkmySH4VPmBl50uTYm4JwXlx0lxJKTSAOGTRpbhKZChyOJgn20KMvWT4bOXHZkChXpEitMO9NJvvHKwhf4WIw==" saltValue="nQ9Ju81Pn3sI5Zo8ZWTXBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15944,7 +15944,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="63BEQPQTxy+IzPPphmB9yqhshVLV75/GPccSNltnHhBdbYWuXSRdBxgJLe2384ZGfR5R07CsauyhXITj07uN2A==" saltValue="1I5xZhkFPiGHo/zXgKe3QA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/gX8wtfkliq1jweXAUJEAhoUFj+PdH0tSOaUZfGb0sV4CgCrE/ZDlBoGAPJt1ELHUHjcwsmrlnp0L55P2vZEtg==" saltValue="tMKjK6mA33RJV/p9GKsuIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16253,7 +16253,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TitK3DpuKg0OzNHeElU146ziAT6mZ9me+pb3PXgcKT9pvBmS5Q1S67I7uOp7sed6mp1PIiMnL7yWrVvQK5BEWw==" saltValue="zg40azRqBemE5PBtpibPeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ludV9YoHTWjgbgMtSh24ra1tjgXnn+oB8bnM8Lb9gJq4pSkuQ2p6HrBzvKfprwF2PM3RQAKblb9FJAiNcikwew==" saltValue="oCx1NobP5kJATFpUeLxWxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16533,7 +16533,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yp+OdVWM7ztM6lxqbxFQ88G/SpC7cb1kpRd3ecVym0m5B4/ocKr9MNDKL8Y0IamrfwHT6/M8DO1tR1E3K+/Qgg==" saltValue="BdHHRCMbGz1GTllFo+Xl/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XxR1Du7vWMItjKyemth/eALufIspMsbGHxKmgLbB6E/VgFprvY0CQTwbM5yvEGbL1y3+WlzNlSxAoDVfKiQW2Q==" saltValue="kM3IXzwarQBNfFKp9jun0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17329,7 +17329,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Vtk72kXVjF1xUWLjBqitWin6wQUiRzm8ke7wFbP+w8NZaUlbStdIz+h9VzQuAM7+vStItuo55+OOqT0XjbpLNw==" saltValue="iPh9f4Cw3rF51DP/nQ5Bag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5QbxZtaPbBcVGM7/GcWuYXLoPteFgAYhoo6NfsOs2ZP4paSsRrpyn7fTNaHLoPwPWpcey4goBMBhyA8qC5+hhw==" saltValue="qNptwKx7O6swvaWquTHtpw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17430,7 +17430,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9tVyG0nmdLD7dWG9dXmBGcl5/urAIGDrUZduopTZXwGsVPJzwWqCRdre15MnquVq+VGqCTOD6XSADSkE9lAjdw==" saltValue="WnXSYrgelnnwEBxbjjFfew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KzAJNyzzQ8HTsTg7HwZHIfpfIUhcj2RRnGA5A+Ams80uB5e5o3y2qftoGRaoUaISUb3k06Oun55DtlFWJcD1Dg==" saltValue="ONzInvu3JGfu5P7Mf5e5fA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -18560,7 +18560,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z2vn1utLw+RgDxAwGu2Ps/vtZ80a1B54nxsBg1RjwVogvI4ZthHUlIznS0nzZf9vcFmVHj6BB0mNxcZUulQt+g==" saltValue="EOOJLG+CeBT98chzw23HvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gBpvVL6HsmnLd382NNbqwR9opj6tG8mQj7DIukJAZkKTTMavIcvf6XiIo79b4yspbgmLqaeXyge6crW4/jQ07g==" saltValue="y60jd1cVa0ef5r/6Y+3X+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18737,7 +18737,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="20A6wifk2bT6jGhumjEAhiT1AfcpJa3UrkVuN/fxsnI9hpX4pmU3DicbS/AmFd+ahcadGMZwhvlFv8qkVPqQ9A==" saltValue="rWeilwxzBKxBFlFzG6btPw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XYqC2cj2vbJdKPEZlujOrmVvaqzjNwbS4S/gaKSQGSohJOI4VbTv7x6nQNJOeeM4o+4MYHoSD45hh8GOF0NjeQ==" saltValue="ckBlgr+GKNmejFMf9UBTZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19174,7 +19174,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vWATzyPB5IM1E0Nf+NkeEoClo3gZfNQ+6OU//0QK1pIgavMRV3+7Dgq0Yyl3f5Pud91bB6ctLHCUfQ4BcxBORA==" saltValue="HTjywzg1HnN9VAC2dAvOuw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WZCqgTtAuTT2dP2phusQsuaLkRa2EN/GFrA36LnH6xNAewoQxrAEkVWbt/mGysUccZDtREgtc08ywbcYrIFzAQ==" saltValue="x+UpMpdS9BoYHevXY6kg+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19601,7 +19601,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xKb/bH9rhYkKIOqkGI9ExA4BmbXt8B2CO+4OBAkc0ej2bjjvT+sIFPG568BfzxpMRsf8NdrBXQsv12H8JI66JA==" saltValue="o9vgw+DwUsXdlXqKecVD8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l6kZU53xLHMMNdPH/sXhjJflyN0gyugspBPCKsLSxq9YN8DRpzbHdrnP8bpkEnHWoNm9PlX5S8GtMGVV5Tx3Ww==" saltValue="VM3OHSsG0TrOHsnS3jNbWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19738,7 +19738,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4FNrKJraN+KN2CIqgDHQ460DajknI03baXXKBZqjOdo4RZAsX6Y1DILzPb38oHunAZaWX9BZuRabA7zmJ+Na5g==" saltValue="y3qXlLyt5duhxfz6mY3tVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d4kdu4tXcZlbks/Yucfz7G0aPWJX2a88av9X73yF9BSjxHdcZw87o280Y0JEAbaQkDg7EdcXfyj3jHh9j1hghQ==" saltValue="FlJr7Bzea27M4w+HzPDGNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20053,7 +20053,7 @@
       <c r="P14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mLQF1fviHJhOscZGnblgIUW26bfc0Bbf3JP6j+ZRo9pYolKeiRIFIL5vPQ1yB/4dKKaGdZLae39UdPs/Gwe3eA==" saltValue="k31CJUp+jVrFp2hfNKRkWg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0JTLknea3qatth9g26/97FoJV1eBM3ctWHMdWBumBIONxjK6+O4ckvUpAkGDGxBfPA4GbiY2XAlwc/9bgPU2DQ==" saltValue="41VRFsGqQ99l3EMRj7uMvg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20117,7 +20117,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z8I9AsHZPmXuYY85D0p2d+X/0oUDDutwWha9F57tQ6jAKQSDvVCM+D17mEoPOk/h6+GCvkeeblCGsj4UWXjnzg==" saltValue="/g7SFNL3MHwIaiej2F5G8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SJT0mrXzC49jKj1VjjNVPqZCSVw5fy9/wBYH6JVjdB6KozkgJX7p7mCIWkCsxkuxG8/oSWBKNU80o1HgzZUEeA==" saltValue="yWQ+MsX43YHiG24rgt+JoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20394,7 +20394,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Wwq7VfRqvVl8PTQwL6dh5xgASOPNjQKNrGu0EYR3PfNk3m9cJb4zfuNU5Xti/+4ajws/0Qb1TYU9+70mPD0alg==" saltValue="SHl8vTVoRthmoDLqyI7S2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="74I5ALuV9c6gIaoO29DwL6uCFwU6cMVpXxaGyhnqakpUsX7/qTiS2TLVFeN6PZdkAhkswQFmTYzUDIX+DbWQgg==" saltValue="uavr0Qwa1h1YatHxL+XVxA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -21073,7 +21073,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5l1ib4LH+hBq//ffhtjkyPpl4dP1TLnHjAcYaNxeIbq7sPA0tTDHDs/kkVo+RfSQhZukrx6pc5Hw60G3QwX2eQ==" saltValue="RvAztqFDrMeVghzAbTz4WQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eJ+O1HRcpYEF2lSJFWEM5VNZoDPfGdsvX32dbvOIHI3NJkFMhO2WKxqiuSUxkCWxH8qV/uL+6hfsIiY1NH9zpg==" saltValue="EBDzxCacUkuYKNjSmHFIkw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region2_input.xlsx
+++ b/inputs/fr/demo_region2_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D627950-2CF5-4B45-BC59-6FF60E4CE9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1D2096D-035C-478B-8172-DB575EE9DE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3600" windowWidth="34980" windowHeight="15600" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="7815" windowWidth="30255" windowHeight="13185" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="268">
   <si>
     <t>Condition</t>
   </si>
@@ -489,9 +489,6 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>Wasting</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -651,15 +648,111 @@
     <t>Pourcentage de l'anémie qui est ferriprive</t>
   </si>
   <si>
+    <t>Néonatal</t>
+  </si>
+  <si>
+    <t>Diarrhée néonatale</t>
+  </si>
+  <si>
+    <t>Sepsis néonatal</t>
+  </si>
+  <si>
+    <t>Pneumonie néonatale</t>
+  </si>
+  <si>
+    <t>Asphyxie néonatale</t>
+  </si>
+  <si>
+    <t>Prématurité néonatale</t>
+  </si>
+  <si>
+    <t>Tétanos néonatal</t>
+  </si>
+  <si>
+    <t>Anomalies congénitales néonatales</t>
+  </si>
+  <si>
+    <t>Autres pathologies néonatales</t>
+  </si>
+  <si>
+    <t>Enfants</t>
+  </si>
+  <si>
+    <t>Diarrhée</t>
+  </si>
+  <si>
+    <t>Pneumonie</t>
+  </si>
+  <si>
+    <t>Méningite</t>
+  </si>
+  <si>
+    <t>Rougeole</t>
+  </si>
+  <si>
+    <t>Paludisme</t>
+  </si>
+  <si>
+    <t>Coqueluche</t>
+  </si>
+  <si>
+    <t>SIDA</t>
+  </si>
+  <si>
+    <t>Blessure</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>1-5 mois</t>
+  </si>
+  <si>
+    <t>6-11 mois</t>
+  </si>
+  <si>
+    <t>12-23 mois</t>
+  </si>
+  <si>
+    <t>24-59 mois</t>
+  </si>
+  <si>
+    <t>Femmes enceintes</t>
+  </si>
+  <si>
+    <t>Hémorragie antepartum</t>
+  </si>
+  <si>
+    <t>Hémorragie intra-partum</t>
+  </si>
+  <si>
+    <t>Hémorragie du post-partum</t>
+  </si>
+  <si>
+    <t>Troubles hypertensifs</t>
+  </si>
+  <si>
+    <t>Avortement</t>
+  </si>
+  <si>
+    <t>Embolie</t>
+  </si>
+  <si>
+    <t>Autres causes directes</t>
+  </si>
+  <si>
+    <t>Causes indirectes</t>
+  </si>
+  <si>
+    <t>&lt;1 mois</t>
+  </si>
+  <si>
     <t>Prévalence de la pré-éclampsie</t>
   </si>
   <si>
     <t>Prévalence de l'éclampsie</t>
   </si>
   <si>
-    <t>Année</t>
-  </si>
-  <si>
     <t>Nombre de naissances</t>
   </si>
   <si>
@@ -684,103 +777,7 @@
     <t>FAP non enceintes</t>
   </si>
   <si>
-    <t>Néonatal</t>
-  </si>
-  <si>
-    <t>Diarrhée néonatale</t>
-  </si>
-  <si>
-    <t>Sepsis néonatal</t>
-  </si>
-  <si>
-    <t>Pneumonie néonatale</t>
-  </si>
-  <si>
-    <t>Asphyxie néonatale</t>
-  </si>
-  <si>
-    <t>Prématurité néonatale</t>
-  </si>
-  <si>
-    <t>Tétanos néonatal</t>
-  </si>
-  <si>
-    <t>Anomalies congénitales néonatales</t>
-  </si>
-  <si>
-    <t>Autres pathologies néonatales</t>
-  </si>
-  <si>
-    <t>Enfants</t>
-  </si>
-  <si>
-    <t>Diarrhée</t>
-  </si>
-  <si>
-    <t>Pneumonie</t>
-  </si>
-  <si>
-    <t>Méningite</t>
-  </si>
-  <si>
-    <t>Rougeole</t>
-  </si>
-  <si>
-    <t>Paludisme</t>
-  </si>
-  <si>
-    <t>Coqueluche</t>
-  </si>
-  <si>
-    <t>SIDA</t>
-  </si>
-  <si>
-    <t>Blessure</t>
-  </si>
-  <si>
-    <t>Autre</t>
-  </si>
-  <si>
-    <t>1-5 mois</t>
-  </si>
-  <si>
-    <t>6-11 mois</t>
-  </si>
-  <si>
-    <t>12-23 mois</t>
-  </si>
-  <si>
-    <t>24-59 mois</t>
-  </si>
-  <si>
-    <t>Femmes enceintes</t>
-  </si>
-  <si>
-    <t>Hémorragie antepartum</t>
-  </si>
-  <si>
-    <t>Hémorragie intra-partum</t>
-  </si>
-  <si>
-    <t>Hémorragie du post-partum</t>
-  </si>
-  <si>
-    <t>Troubles hypertensifs</t>
-  </si>
-  <si>
-    <t>Avortement</t>
-  </si>
-  <si>
-    <t>Embolie</t>
-  </si>
-  <si>
-    <t>Autres causes directes</t>
-  </si>
-  <si>
-    <t>Causes indirectes</t>
-  </si>
-  <si>
-    <t>&lt;1 mois</t>
+    <t>année</t>
   </si>
   <si>
     <t>Etat</t>
@@ -1056,135 +1053,141 @@
     <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
   <si>
+    <t>Efficacité</t>
+  </si>
+  <si>
+    <t>Retard de croissance</t>
+  </si>
+  <si>
+    <t>Prévention de l'amaigrissement</t>
+  </si>
+  <si>
+    <t>Traitement de l'amaigrissement</t>
+  </si>
+  <si>
+    <t>Résultats des naissances</t>
+  </si>
+  <si>
+    <t>Tranche d'âge</t>
+  </si>
+  <si>
+    <t>Comportement</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour l'allaitement maternelle correct</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour le retard de croissance</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour l'alimentation complémetaire</t>
+  </si>
+  <si>
+    <t>Facteurs de risque maternels contribuant aux résultats des naissances</t>
+  </si>
+  <si>
+    <t>Risque relatif par espacement des naissances</t>
+  </si>
+  <si>
+    <t>Risques pour les enfants touchés par chaque résultat des naissances</t>
+  </si>
+  <si>
+    <t>Rapport des cote pour des conditions</t>
+  </si>
+  <si>
+    <t>Amaigrissement (score-HAZ &lt; -2)</t>
+  </si>
+  <si>
+    <t>MM (Score-WHZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>MAS (Score-WHZ &lt; -3)</t>
+  </si>
+  <si>
+    <t>Risques relatifs des causes du décès néonatales</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour les femmes avec l'anémie maternelle</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
+  </si>
+  <si>
+    <t>Cause du décès</t>
+  </si>
+  <si>
+    <t>Niveau HAZ</t>
+  </si>
+  <si>
+    <t>Léger</t>
+  </si>
+  <si>
+    <t>Modéré</t>
+  </si>
+  <si>
+    <t>Élevé</t>
+  </si>
+  <si>
+    <t>Niveau WHZ</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par condition anémique</t>
+  </si>
+  <si>
+    <t>Condition anémique</t>
+  </si>
+  <si>
+    <t>Pas anémique</t>
+  </si>
+  <si>
+    <t>Anémique</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
+  </si>
+  <si>
+    <t>Amaigrissement</t>
+  </si>
+  <si>
+    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
+  </si>
+  <si>
+    <t>Diarrhée (par épisode supplémentaire)</t>
+  </si>
+  <si>
+    <t>Par programme</t>
+  </si>
+  <si>
+    <t>Rapports des cotes supplémentaires</t>
+  </si>
+  <si>
+    <t>Pour MAS par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Pour l'anémie par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour allaitement maternel correct par programme</t>
+  </si>
+  <si>
+    <t>Pour MM par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Rapports des cotes pour espacement des naissances optimal par programme</t>
+  </si>
+  <si>
     <t>efficacité</t>
   </si>
   <si>
-    <t>Retard de croissance</t>
-  </si>
-  <si>
-    <t>Prévention de l'amaigrissement</t>
-  </si>
-  <si>
-    <t>Traitement de l'amaigrissement</t>
-  </si>
-  <si>
-    <t>Résultats des naissances</t>
-  </si>
-  <si>
-    <t>Tranche d'âge</t>
-  </si>
-  <si>
-    <t>Comportement</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour l'allaitement maternelle correct</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour le retard de croissance</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour l'alimentation complémetaire</t>
-  </si>
-  <si>
-    <t>Facteurs de risque maternels contribuant aux résultats des naissances</t>
-  </si>
-  <si>
-    <t>Risque relatif par espacement des naissances</t>
-  </si>
-  <si>
-    <t>Risques pour les enfants touchés par chaque résultat des naissances</t>
-  </si>
-  <si>
-    <t>Rapport des cote pour des conditions</t>
-  </si>
-  <si>
-    <t>Amaigrissement (score-HAZ &lt; -2)</t>
-  </si>
-  <si>
-    <t>MM (Score-WHZ entre -3 et -2)</t>
-  </si>
-  <si>
-    <t>MAS (Score-WHZ &lt; -3)</t>
-  </si>
-  <si>
-    <t>Risques relatifs des causes du décès néonatales</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour les femmes avec l'anémie maternelle</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
-  </si>
-  <si>
-    <t>Cause du décès</t>
-  </si>
-  <si>
-    <t>Niveau HAZ</t>
-  </si>
-  <si>
-    <t>Léger</t>
-  </si>
-  <si>
-    <t>Modéré</t>
-  </si>
-  <si>
-    <t>Élevé</t>
-  </si>
-  <si>
-    <t>Niveau WHZ</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par condition anémique</t>
-  </si>
-  <si>
-    <t>Condition anémique</t>
-  </si>
-  <si>
-    <t>Pas anémique</t>
-  </si>
-  <si>
-    <t>Anémique</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
-  </si>
-  <si>
-    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
-  </si>
-  <si>
-    <t>Diarrhée (par épisode supplémentaire)</t>
-  </si>
-  <si>
-    <t>Par programme</t>
-  </si>
-  <si>
-    <t>Rapports des cotes supplémentaires</t>
-  </si>
-  <si>
-    <t>Pour MAS par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Pour l'anémie par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour allaitement maternel correct par programme</t>
-  </si>
-  <si>
-    <t>Pour MM par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Rapports des cotes pour espacement des naissances optimal par programme</t>
-  </si>
-  <si>
     <t>fraction touchée</t>
   </si>
   <si>
@@ -1201,6 +1204,9 @@
   </si>
   <si>
     <t>Condition ciblée</t>
+  </si>
+  <si>
+    <t>Fraction touchée</t>
   </si>
   <si>
     <t>Efficacité à prévenir une mort</t>
@@ -4747,7 +4753,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>17</v>
@@ -4758,7 +4764,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4766,7 +4772,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4775,7 +4781,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4788,12 +4794,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4801,7 +4807,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4809,7 +4815,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4817,7 +4823,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -4825,7 +4831,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4833,7 +4839,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4841,7 +4847,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4852,14 +4858,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4867,7 +4873,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4875,7 +4881,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4883,7 +4889,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4891,7 +4897,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4903,12 +4909,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4916,7 +4922,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4924,7 +4930,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4932,7 +4938,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4944,14 +4950,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4959,7 +4965,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4967,7 +4973,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4975,7 +4981,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -4983,7 +4989,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -4993,19 +4999,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5013,7 +5019,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5023,7 +5029,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5033,7 +5039,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5041,7 +5047,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5049,7 +5055,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5060,13 +5066,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5075,7 +5081,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5084,7 +5090,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5094,7 +5100,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5108,13 +5114,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5123,7 +5129,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5131,7 +5137,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5139,7 +5145,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5147,7 +5153,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5155,12 +5161,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5168,7 +5174,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5176,7 +5182,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5184,7 +5190,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5194,7 +5200,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nyJguzYOn16XqztTK71wOGx3X0gPCTRNJwFD97i1TX8mrvYs2jJ7XK4KttXdbLpGm1BVFc9FfSINa97pLzEgHw==" saltValue="kIfUs9SkrvRLW7WrEY2HOA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iufaAIYZXQ5nXeqPXXBlvkHvd7twK+YfTG09HnEjgPSxofYLp5GLj+tzsn4t9f5Q9TQdjFP3Sf2zbiafUMbgGA==" saltValue="bzo9+c+4tvjGSsVym6NoWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5221,48 +5227,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -5342,7 +5348,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CWdE2ov+KO4SLJ7yKZq7w15/ScV0RDiH1JbnaZFBeShg+gEazqjnIG3UW1TKlp3MI/Ubh8EGMo/yBEvWtEMIuw==" saltValue="sCwSeEyKDd0psdFeH16iog==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rt/HA6Rf5iqCQkEB1PzJVsUcBbCkDmdanAUyTP9ylsnwyN+ltXT4EnBvNyMaA+RLta31LWOYFCZ/BjTd2i7dFg==" saltValue="ovuthtlp+N2zRiuYNkhRWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5368,12 +5374,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -5383,32 +5389,32 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5442,7 +5448,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZALTVZCnW6mJAMJWfic+0dvsbid4IoO7+Tz1zTarrHWXrPyjkPk8v8sg5+//4mBZkAkMNJZ92HRcmMahLB4G2g==" saltValue="kXzBYZs/pXJ6YV1AUynshg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Uh7B7wTLxqf9fEhjpTeXiQ/+OFK/Fr1c30IBVEM/u6gp/ZEPyNpQyU0VKw7a5+nUrQh8IDWzKxZhL8JHyopVKQ==" saltValue="XeZgVZYh2bRDrJKLSz0BhA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5466,24 +5472,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5508,7 +5514,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -5533,7 +5539,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -5557,7 +5563,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hkg+WqWRo73pYjkoTibepMTcbtrw2WaSB4EEw+IllnKY8oTChp/UGdkan4dtlByI3cyKZ3U4O4jdP2XQK19C9A==" saltValue="PU5HjNZcSFxDYLFB5C9Ppg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bk3gqr0xSaTiV9mL2hViilbOslugmeB/cH9YcNVjOz8He6cKzX4uG5pVuR5NSFzWj1WAtlAHMAGXNm470bzryw==" saltValue="QrKtgU43cGSpOKuE8rV66A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5588,57 +5594,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -5686,7 +5692,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -5730,7 +5736,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -5774,7 +5780,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -5820,7 +5826,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -5867,7 +5873,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo</f>
@@ -5916,7 +5922,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -5962,7 +5968,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -6010,7 +6016,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -6054,7 +6060,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo</f>
@@ -6103,7 +6109,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="87">
         <v>0</v>
@@ -6150,10 +6156,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -6202,7 +6208,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -6247,7 +6253,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -6296,7 +6302,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6392,7 +6398,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -6436,7 +6442,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="88">
         <v>0</v>
@@ -6480,7 +6486,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="88">
         <v>0</v>
@@ -6531,10 +6537,10 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -6582,7 +6588,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -6630,7 +6636,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -6678,7 +6684,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -6726,7 +6732,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -6781,10 +6787,10 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C29" s="87">
         <v>0</v>
@@ -6839,7 +6845,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -6894,7 +6900,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -6949,7 +6955,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -6993,7 +6999,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
@@ -7050,7 +7056,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" s="87">
         <v>1</v>
@@ -7095,7 +7101,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" s="87">
         <v>1</v>
@@ -7139,7 +7145,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" s="87">
         <v>1</v>
@@ -7183,7 +7189,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" s="87">
         <v>1</v>
@@ -7227,7 +7233,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="87">
         <v>1</v>
@@ -7273,7 +7279,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LkjcPz6vW4BKHqA93jBVziw/ZynEek6r09+xRhr+7YyOuLbsOiFGB9CBa6r7rlGYlvzKhXrD6VLBCtCNGQC0QA==" saltValue="V1BYL1Mgt/PS+qQzni3b/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aeoRHg0OvMlH6Y9ghSQo2dAZP/zDxY/p/OC+2gpqSCqtQ5KsbYXIo8yatDFDMEFFWf/o4+shHDVQRTuBRbNb5Q==" saltValue="pajXRCyRaoW/97Cy59Hi6A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7292,26 +7298,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TQEIHX+nmKX9hERpiAm0l4H0KdUQoYLqM74l7EKD7x+58NDuDmgQS0QrqMpJVnFRzsx0oybRzUfeNc+2OjxsSg==" saltValue="G1Tgf5Le0b4LuFpd4bJlVg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GSIBiCCVb5Bd+hr0Z3yOZiEmfZN44c5n4FbJKpZOG2oa4vth5lBd5kxp7uvdi6xVKXRWYMgKBXcfMGsRytahKw==" saltValue="n+7P3Oh6QD1NphPAs5bajg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7341,7 +7347,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>15</v>
@@ -7519,7 +7525,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5QGLqPiGnXK93v0aYhgvJ1ijs7P/TPbqgLO2gLYPHj8zjjMWmqpWVFqSXy8waznY/qtKqJnlVqCrRMHFXI1Pdg==" saltValue="MVQDMOv0tOoplvHdFNI5Fg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PubXR7/c0rd7AyTFz8ijsjwr/5oQ5DRA+hR6KRST+iW3KjiNCoGEA91fExJ7bpAfvLNw8OIb0j8nbhQIbZ7BvQ==" saltValue="wK3rzvDlx0sGcSR9JoSzog==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7552,57 +7558,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="H1" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="J1" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="K1" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="56" t="s">
-        <v>139</v>
-      </c>
       <c r="L1" s="56" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="90">
         <v>0</v>
@@ -7646,7 +7652,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="90">
         <v>1</v>
@@ -7822,7 +7828,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="90">
         <v>1</v>
@@ -7866,7 +7872,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="90">
         <v>0</v>
@@ -7910,7 +7916,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="90">
         <v>0</v>
@@ -7954,7 +7960,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="90">
         <v>1</v>
@@ -7998,7 +8004,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="90">
         <v>0</v>
@@ -8042,7 +8048,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="90">
         <v>0</v>
@@ -8086,7 +8092,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" s="90">
         <v>0</v>
@@ -8130,7 +8136,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="90">
         <v>1</v>
@@ -8174,7 +8180,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" s="90">
         <v>0</v>
@@ -8234,10 +8240,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="90">
         <v>0</v>
@@ -8282,7 +8288,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="90">
         <v>0</v>
@@ -8326,7 +8332,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="90">
         <v>0</v>
@@ -8370,7 +8376,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" s="90">
         <v>0</v>
@@ -8458,7 +8464,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="90">
         <v>0</v>
@@ -8502,7 +8508,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="90">
         <v>0</v>
@@ -8546,7 +8552,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" s="90">
         <v>0</v>
@@ -8606,10 +8612,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="90">
         <v>0</v>
@@ -8654,7 +8660,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" s="90">
         <v>0</v>
@@ -8699,7 +8705,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" s="90">
         <v>0</v>
@@ -8743,7 +8749,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" s="90">
         <v>0</v>
@@ -8787,7 +8793,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" s="90">
         <v>0</v>
@@ -8847,10 +8853,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32" s="90">
         <v>1</v>
@@ -8894,7 +8900,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C33" s="90">
         <v>1</v>
@@ -8938,7 +8944,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C34" s="90">
         <v>1</v>
@@ -8982,7 +8988,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C35" s="90">
         <v>1</v>
@@ -9026,7 +9032,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" s="90">
         <v>1</v>
@@ -9071,7 +9077,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" s="90">
         <v>1</v>
@@ -9115,7 +9121,7 @@
     </row>
     <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C38" s="90">
         <v>1</v>
@@ -9159,7 +9165,7 @@
     </row>
     <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" s="90">
         <v>1</v>
@@ -9203,7 +9209,7 @@
     </row>
     <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C40" s="90">
         <v>1</v>
@@ -9247,7 +9253,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C41" s="90">
         <v>1</v>
@@ -9290,7 +9296,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LcZ6znXFz2vZkOaOqh57c0JdXb0nHxT0HFAPlvFuj6m40tZM8OBLE/o6k8lghOOG7VtILQe63cCaYSE0eFpT2A==" saltValue="4PrhUZiaOogqP/16qTEqbw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3RmG2pW5SaBTiup0ZzLRXVjFzQQ4USC6gQEDI0Rw7R5UNaagfyAmJB9jAfl67971Ylu7ySLY9gx7N5SJ8v95hA==" saltValue="E7ba4p/Maw3EDQeSeB0aPw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9323,42 +9329,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>219</v>
-      </c>
       <c r="J1" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -9375,7 +9381,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="90"/>
@@ -9392,7 +9398,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
@@ -9409,7 +9415,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="90" t="s">
@@ -9426,7 +9432,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="90"/>
       <c r="C6" s="90"/>
@@ -9445,7 +9451,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
@@ -9464,7 +9470,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
@@ -9483,7 +9489,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
@@ -9502,7 +9508,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
@@ -9519,7 +9525,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
@@ -9536,7 +9542,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
@@ -9553,7 +9559,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
@@ -9570,7 +9576,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
@@ -9589,7 +9595,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="90" t="s">
@@ -9629,7 +9635,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="90"/>
       <c r="C17" s="90" t="s">
@@ -9703,7 +9709,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="90"/>
       <c r="C21" s="90"/>
@@ -9722,7 +9728,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="90" t="s">
         <v>21</v>
@@ -9743,7 +9749,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="90"/>
       <c r="C23" s="90" t="s">
@@ -9762,7 +9768,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="90"/>
       <c r="C24" s="90"/>
@@ -9779,7 +9785,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
@@ -9796,7 +9802,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="90" t="s">
@@ -9813,7 +9819,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="90"/>
       <c r="C27" s="90" t="s">
@@ -9832,7 +9838,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
@@ -9849,7 +9855,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="90" t="s">
         <v>21</v>
@@ -9868,7 +9874,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B30" s="90"/>
       <c r="C30" s="90"/>
@@ -9885,7 +9891,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
@@ -9904,7 +9910,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="90"/>
       <c r="C32" s="90"/>
@@ -9923,7 +9929,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="90"/>
       <c r="C33" s="90"/>
@@ -9942,7 +9948,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="90"/>
       <c r="C34" s="90"/>
@@ -9961,7 +9967,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="90"/>
       <c r="C35" s="90"/>
@@ -9980,7 +9986,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="90"/>
       <c r="C36" s="90"/>
@@ -9999,7 +10005,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
@@ -10016,7 +10022,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="90" t="s">
         <v>21</v>
@@ -10036,7 +10042,7 @@
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RtnwEkbxezfTkAdSWZdfOusJV2G0XjWqJlJtyFFdcqUyMiegmoQ5wfWS0e/OfD+yL7FXJMqdp/qEKGjqgR947A==" saltValue="cST3I6/u+1aPbKLYWe2p7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8hER25Gg7TD3T0t2wwyb3fhb8+i2oNyiL5zXjXV2VL927a8E8KY8+JdVDF0l1/m7PciEbGd1qxsJJzrXbZJCtA==" saltValue="i3ViPKpTLzWA/x1Q/F4fRg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10069,42 +10075,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>219</v>
-      </c>
       <c r="J1" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B2" s="90" t="s">
         <v>21</v>
@@ -10133,7 +10139,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B3" s="90" t="s">
         <v>21</v>
@@ -10162,7 +10168,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B4" s="90" t="s">
         <v>21</v>
@@ -10191,7 +10197,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B5" s="90" t="s">
         <v>21</v>
@@ -10220,7 +10226,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B6" s="90" t="s">
         <v>21</v>
@@ -10249,7 +10255,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
@@ -10270,7 +10276,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
@@ -10291,7 +10297,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
@@ -10312,7 +10318,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
@@ -10333,7 +10339,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
@@ -10354,7 +10360,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
@@ -10373,7 +10379,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
@@ -10392,7 +10398,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
@@ -10410,7 +10416,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="URqdNduhz5XKWexNcxz8Gm7BaKUcwEUKlrtpRXgMdqHlGkyrwRznNcJVw/TRacL7wshM5PuErl02ueDQiEL1dg==" saltValue="AEV83M3VzK1JJHzqRf3WCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kGkZZTKNsMvVsk7pCLYVpkdMIigTWVy52SOBS7B4IDieO1Hs2kaQSr3HjBRRcMrovmfqdwizd0Wo6+De3cl2jA==" saltValue="l0HVJJfQNL2qndrSL9o+Ew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10436,39 +10442,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H1" s="98" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" s="99">
         <v>1</v>
@@ -10489,7 +10495,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" s="99">
         <v>1</v>
@@ -10511,7 +10517,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="99">
         <v>1</v>
@@ -10532,10 +10538,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" s="99">
         <f>5.16</f>
@@ -10557,7 +10563,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="99">
         <v>5.16</v>
@@ -10578,7 +10584,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="99">
         <v>1</v>
@@ -10598,10 +10604,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" s="99">
         <v>1</v>
@@ -10622,7 +10628,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" s="99">
         <v>1</v>
@@ -10643,7 +10649,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="99">
         <v>1</v>
@@ -10663,10 +10669,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="99">
         <v>1</v>
@@ -10687,7 +10693,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" s="99">
         <v>1</v>
@@ -10708,7 +10714,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="99">
         <v>1</v>
@@ -10728,10 +10734,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="99">
         <v>1</v>
@@ -10752,7 +10758,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" s="99">
         <v>1</v>
@@ -10773,7 +10779,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" s="99">
         <v>1</v>
@@ -10793,10 +10799,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D17" s="99">
         <v>1.05</v>
@@ -10823,13 +10829,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D19" s="99">
         <v>1</v>
@@ -10850,7 +10856,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D20" s="99">
         <v>1</v>
@@ -10871,7 +10877,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" s="99">
         <v>1</v>
@@ -10891,10 +10897,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="138" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D22" s="99">
         <v>1</v>
@@ -10915,7 +10921,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D23" s="99">
         <v>1</v>
@@ -10936,7 +10942,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D24" s="99">
         <v>1</v>
@@ -10956,10 +10962,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="138" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D25" s="99">
         <v>1</v>
@@ -10980,7 +10986,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D26" s="99">
         <v>1</v>
@@ -11001,7 +11007,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D27" s="99">
         <v>1</v>
@@ -11021,10 +11027,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="138" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D28" s="99">
         <v>1</v>
@@ -11045,7 +11051,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D29" s="99">
         <v>1</v>
@@ -11066,7 +11072,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D30" s="99">
         <v>1</v>
@@ -11086,10 +11092,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31" s="99">
         <v>1</v>
@@ -11110,7 +11116,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D32" s="99">
         <v>1</v>
@@ -11131,7 +11137,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D33" s="99">
         <v>1</v>
@@ -11151,10 +11157,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D34" s="99">
         <v>1</v>
@@ -11181,13 +11187,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D36" s="99">
         <v>1</v>
@@ -11208,7 +11214,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D37" s="99">
         <v>1</v>
@@ -11229,7 +11235,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D38" s="99">
         <v>1</v>
@@ -11249,10 +11255,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="138" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" s="99">
         <v>1</v>
@@ -11273,7 +11279,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D40" s="99">
         <v>1</v>
@@ -11294,7 +11300,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D41" s="99">
         <v>1</v>
@@ -11314,10 +11320,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="138" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D42" s="99">
         <v>1</v>
@@ -11338,7 +11344,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D43" s="99">
         <v>1</v>
@@ -11359,7 +11365,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D44" s="99">
         <v>1</v>
@@ -11379,10 +11385,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="138" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D45" s="99">
         <v>1</v>
@@ -11403,7 +11409,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D46" s="99">
         <v>1</v>
@@ -11424,7 +11430,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D47" s="99">
         <v>1</v>
@@ -11444,10 +11450,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D48" s="99">
         <v>1</v>
@@ -11468,7 +11474,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D49" s="99">
         <v>1</v>
@@ -11489,7 +11495,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D50" s="99">
         <v>1</v>
@@ -11509,10 +11515,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="104" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D51" s="99">
         <v>1.05</v>
@@ -11531,7 +11537,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rQ+H9VuCVFBikfy1brrTmvdxbVvxXm/43Sd7P3mMjlczy2ymdcOX+Q/QQb1UhzkTIPVabZM2KVwKShq0MxTejg==" saltValue="io17WSjXS3CC5nuaXPhfxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SjmdvxTCl1nHfqlZe+VqXty/7g/Xj2n+hPXAq8xZCum4NpcK+3Xeloyy2naDnBUVnjO4cO5wk85PeNvXaGlIUQ==" saltValue="lgoVo2x4m9BONpEY8+LbeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11574,31 +11580,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12639,7 +12645,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WgzTFb7b4c0O2OKMLwgR11LgtZVkAtCghEiX4Tm7ttyOrn2KdLnglZ485N2esCZvPi4EVY22LbjXJnmreD+5zg==" saltValue="F3thHz4HC41ocFdX+8U/Dg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Dgd6NGBlREM6H3q09PutXa69sOOvT9YW7QGr6SlThD5xvEExa7xXDKLaIDFsOTTwSZ/Pb+VEQCDYfBToL8z5Lw==" saltValue="6OO2H1HBPRi25lduhOkF+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12673,27 +12679,27 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="110"/>
       <c r="C3" s="111"/>
@@ -12703,7 +12709,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="114">
         <v>1</v>
@@ -12720,7 +12726,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="114">
         <v>1</v>
@@ -12737,7 +12743,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="114">
         <v>1</v>
@@ -12754,7 +12760,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="114">
         <v>1</v>
@@ -12777,7 +12783,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C9" s="114">
         <v>1</v>
@@ -12802,7 +12808,7 @@
     </row>
     <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="105" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="118"/>
       <c r="D11" s="119"/>
@@ -12812,7 +12818,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="116"/>
       <c r="D12" s="100"/>
@@ -12822,7 +12828,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="121" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="114">
         <v>1</v>
@@ -12840,7 +12846,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="121" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C14" s="114">
         <v>1</v>
@@ -12858,7 +12864,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="121" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="114">
         <v>1</v>
@@ -12885,7 +12891,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" s="110"/>
       <c r="C17" s="123"/>
@@ -12896,7 +12902,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -12914,7 +12920,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="125" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C19" s="114">
         <v>1</v>
@@ -12932,7 +12938,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="125" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C20" s="114">
         <v>1</v>
@@ -12950,7 +12956,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="125" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C21" s="114">
         <v>1</v>
@@ -12968,7 +12974,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="125" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C22" s="114">
         <v>1</v>
@@ -12985,7 +12991,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -13002,7 +13008,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="125" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C24" s="114">
         <v>1</v>
@@ -13019,7 +13025,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="125" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C25" s="114">
         <v>1</v>
@@ -13041,7 +13047,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RnkmySH4VPmBl50uTYm4JwXlx0lxJKTSAOGTRpbhKZChyOJgn20KMvWT4bOXHZkChXpEitMO9NJvvHKwhf4WIw==" saltValue="nQ9Ju81Pn3sI5Zo8ZWTXBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+BGxbD1QR4oeiOL2g7kwrvhfT+IG9lvEElSo17FK4cvTdzubFe9aLUkoVG4ynGG8GU3cWPms11bbrsdZtus/wg==" saltValue="J6kfvLjfhqeNfsEsJn8SIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13071,33 +13077,33 @@
   <sheetData>
     <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="126" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="127" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="127" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="127" t="s">
-        <v>236</v>
-      </c>
       <c r="D2" s="109" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E2" s="109" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F2" s="109" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G2" s="109" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H2" s="109" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I2" s="128"/>
       <c r="J2" s="128"/>
@@ -13111,7 +13117,7 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>25</v>
@@ -13142,7 +13148,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -13170,7 +13176,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" s="115">
         <v>1</v>
@@ -13198,7 +13204,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -13226,7 +13232,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>25</v>
@@ -13257,7 +13263,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D8" s="115">
         <v>1</v>
@@ -13285,7 +13291,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="115">
         <v>1</v>
@@ -13313,7 +13319,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D10" s="115">
         <v>1</v>
@@ -13341,7 +13347,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>25</v>
@@ -13372,7 +13378,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D12" s="115">
         <v>1</v>
@@ -13400,7 +13406,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" s="115">
         <v>1</v>
@@ -13428,7 +13434,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" s="115">
         <v>1</v>
@@ -13456,7 +13462,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>25</v>
@@ -13487,7 +13493,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D16" s="115">
         <v>1</v>
@@ -13515,7 +13521,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D17" s="115">
         <v>1</v>
@@ -13543,7 +13549,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D18" s="115">
         <v>1</v>
@@ -13571,7 +13577,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>25</v>
@@ -13602,7 +13608,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D20" s="115">
         <v>1</v>
@@ -13630,7 +13636,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D21" s="115">
         <v>1</v>
@@ -13658,7 +13664,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D22" s="115">
         <v>1</v>
@@ -13686,7 +13692,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>25</v>
@@ -13717,7 +13723,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24" s="115">
         <v>1</v>
@@ -13745,7 +13751,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D25" s="115">
         <v>1</v>
@@ -13773,7 +13779,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -13801,33 +13807,33 @@
     </row>
     <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="105" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="129" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E29" s="109" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F29" s="109" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G29" s="109" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H29" s="109" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I29" s="128"/>
       <c r="J29" s="128"/>
@@ -13841,7 +13847,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>25</v>
@@ -13872,7 +13878,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D31" s="115">
         <v>1</v>
@@ -13900,7 +13906,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -13928,7 +13934,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D33" s="115">
         <v>1</v>
@@ -13956,7 +13962,7 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C34" s="43" t="s">
         <v>25</v>
@@ -13987,7 +13993,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -14015,7 +14021,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D36" s="115">
         <v>1</v>
@@ -14043,7 +14049,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D37" s="115">
         <v>1</v>
@@ -14071,7 +14077,7 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>25</v>
@@ -14102,7 +14108,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D39" s="115">
         <v>1</v>
@@ -14130,7 +14136,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D40" s="115">
         <v>1</v>
@@ -14158,7 +14164,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" s="115">
         <v>1</v>
@@ -14186,7 +14192,7 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>25</v>
@@ -14217,7 +14223,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D43" s="115">
         <v>1</v>
@@ -14245,7 +14251,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D44" s="115">
         <v>1</v>
@@ -14273,7 +14279,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D45" s="115">
         <v>1</v>
@@ -14301,7 +14307,7 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C46" s="43" t="s">
         <v>25</v>
@@ -14332,7 +14338,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D47" s="115">
         <v>1</v>
@@ -14360,7 +14366,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D48" s="115">
         <v>1</v>
@@ -14388,7 +14394,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D49" s="115">
         <v>1</v>
@@ -14416,7 +14422,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>25</v>
@@ -14447,7 +14453,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D51" s="115">
         <v>1</v>
@@ -14475,7 +14481,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D52" s="115">
         <v>1</v>
@@ -14503,7 +14509,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D53" s="115">
         <v>1</v>
@@ -14535,30 +14541,30 @@
     </row>
     <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="105" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="131" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="98" t="s">
-        <v>235</v>
-      </c>
-      <c r="C56" s="131" t="s">
-        <v>242</v>
-      </c>
-      <c r="D56" s="109" t="s">
+      <c r="E56" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="109" t="s">
+      <c r="F56" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="F56" s="109" t="s">
+      <c r="G56" s="109" t="s">
         <v>138</v>
-      </c>
-      <c r="G56" s="109" t="s">
-        <v>139</v>
       </c>
       <c r="H56" s="128"/>
       <c r="M56" s="128"/>
@@ -14569,10 +14575,10 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" s="114">
         <v>1</v>
@@ -14594,7 +14600,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D58" s="115">
         <v>10.675000000000001</v>
@@ -14616,10 +14622,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D59" s="114">
         <v>1</v>
@@ -14641,7 +14647,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D60" s="115">
         <v>10.675000000000001</v>
@@ -14663,10 +14669,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D61" s="114">
         <v>1</v>
@@ -14688,7 +14694,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D62" s="115">
         <v>10.675000000000001</v>
@@ -14714,33 +14720,33 @@
     </row>
     <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B65" s="98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C65" s="131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D65" s="109" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E65" s="109" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F65" s="109" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G65" s="109" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H65" s="132" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I65" s="128"/>
       <c r="J65" s="128"/>
@@ -14754,10 +14760,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D66" s="114">
         <v>1</v>
@@ -14785,7 +14791,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D67" s="115">
         <v>1.35</v>
@@ -14813,7 +14819,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D68" s="115">
         <v>1.35</v>
@@ -14841,7 +14847,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D69" s="115">
         <v>5.4</v>
@@ -14869,10 +14875,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D70" s="114">
         <v>1</v>
@@ -14900,7 +14906,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D71" s="115">
         <v>1.35</v>
@@ -14928,7 +14934,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" s="115">
         <v>1.35</v>
@@ -14956,7 +14962,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" s="115">
         <v>5.4</v>
@@ -14984,10 +14990,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D74" s="114">
         <v>1</v>
@@ -15015,7 +15021,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D75" s="115">
         <v>1.35</v>
@@ -15043,7 +15049,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D76" s="115">
         <v>1.35</v>
@@ -15071,7 +15077,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D77" s="115">
         <v>5.4</v>
@@ -15099,10 +15105,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D78" s="114">
         <v>1</v>
@@ -15130,7 +15136,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D79" s="115">
         <v>1</v>
@@ -15158,7 +15164,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D80" s="115">
         <v>1</v>
@@ -15186,7 +15192,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D81" s="115">
         <v>1</v>
@@ -15214,10 +15220,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D82" s="114">
         <v>1</v>
@@ -15245,7 +15251,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D83" s="115">
         <v>1</v>
@@ -15273,7 +15279,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D84" s="115">
         <v>1</v>
@@ -15301,7 +15307,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D85" s="115">
         <v>1</v>
@@ -15329,10 +15335,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D86" s="114">
         <v>1</v>
@@ -15360,7 +15366,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D87" s="115">
         <v>1</v>
@@ -15388,7 +15394,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D88" s="115">
         <v>1</v>
@@ -15416,7 +15422,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D89" s="115">
         <v>1</v>
@@ -15444,10 +15450,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D90" s="114">
         <v>1</v>
@@ -15475,7 +15481,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D91" s="115">
         <v>1</v>
@@ -15503,7 +15509,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D92" s="115">
         <v>1</v>
@@ -15531,7 +15537,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D93" s="115">
         <v>1</v>
@@ -15559,10 +15565,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D94" s="114">
         <v>1</v>
@@ -15590,7 +15596,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D95" s="115">
         <v>1</v>
@@ -15618,7 +15624,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D96" s="115">
         <v>1</v>
@@ -15646,7 +15652,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D97" s="115">
         <v>1</v>
@@ -15674,10 +15680,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D98" s="114">
         <v>1</v>
@@ -15705,7 +15711,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D99" s="115">
         <v>1</v>
@@ -15733,7 +15739,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D100" s="115">
         <v>1</v>
@@ -15761,7 +15767,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D101" s="115">
         <v>1</v>
@@ -15789,33 +15795,33 @@
     </row>
     <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="105" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="B104" s="134" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" s="131" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104" s="109" t="s">
+        <v>98</v>
+      </c>
+      <c r="F104" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="G104" s="109" t="s">
+        <v>100</v>
+      </c>
+      <c r="H104" s="132" t="s">
         <v>101</v>
-      </c>
-      <c r="B104" s="134" t="s">
-        <v>146</v>
-      </c>
-      <c r="C104" s="131" t="s">
-        <v>246</v>
-      </c>
-      <c r="D104" s="109" t="s">
-        <v>123</v>
-      </c>
-      <c r="E104" s="109" t="s">
-        <v>110</v>
-      </c>
-      <c r="F104" s="109" t="s">
-        <v>111</v>
-      </c>
-      <c r="G104" s="109" t="s">
-        <v>112</v>
-      </c>
-      <c r="H104" s="132" t="s">
-        <v>113</v>
       </c>
       <c r="I104" s="128"/>
       <c r="J104" s="128"/>
@@ -15830,7 +15836,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D105" s="114">
         <v>1</v>
@@ -15858,7 +15864,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D106" s="115">
         <v>1.26</v>
@@ -15886,7 +15892,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D107" s="115">
         <v>1.68</v>
@@ -15914,7 +15920,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D108" s="115">
         <v>2.65</v>
@@ -15944,7 +15950,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/gX8wtfkliq1jweXAUJEAhoUFj+PdH0tSOaUZfGb0sV4CgCrE/ZDlBoGAPJt1ELHUHjcwsmrlnp0L55P2vZEtg==" saltValue="tMKjK6mA33RJV/p9GKsuIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="a4nmmSttjdmtvKmunVGiHu2r1judWpFk/OkoTPF/4GWEmXs5wgV3n8LUOCcicF5HG04cqGfRXLexjKhK+o/MXQ==" saltValue="GaHdVRYC87N9YyY1porQ0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15975,7 +15981,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15984,19 +15990,19 @@
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="40" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16004,7 +16010,7 @@
         <v>249</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="115">
         <v>45</v>
@@ -16047,7 +16053,7 @@
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="125" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="115">
         <v>1</v>
@@ -16067,7 +16073,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="125" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16087,7 +16093,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="115">
         <v>1</v>
@@ -16121,7 +16127,7 @@
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="115">
         <v>1.5</v>
@@ -16150,7 +16156,7 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="133" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="B14" s="125" t="s">
         <v>253</v>
@@ -16194,7 +16200,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="121" t="s">
         <v>254</v>
@@ -16223,21 +16229,21 @@
     </row>
     <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="121" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="115">
         <v>1.52</v>
@@ -16253,7 +16259,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ludV9YoHTWjgbgMtSh24ra1tjgXnn+oB8bnM8Lb9gJq4pSkuQ2p6HrBzvKfprwF2PM3RQAKblb9FJAiNcikwew==" saltValue="oCx1NobP5kJATFpUeLxWxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0uro+5VMDPdJ/ei2KnSRhk12To9OC6qXcLdZAe3l8SYeL0US8X4AH3FnXu4mTms2LqjysRT7uLBZLky1/3GKCg==" saltValue="NHg2RcmU3+8Z85H/eBcXeA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16282,28 +16288,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="127" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="127" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C2" s="115">
         <v>0.21</v>
@@ -16321,7 +16327,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -16338,10 +16344,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C4" s="115">
         <v>0</v>
@@ -16359,7 +16365,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16376,10 +16382,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C6" s="115">
         <v>0</v>
@@ -16397,7 +16403,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16417,7 +16423,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C8" s="115">
         <v>0.35</v>
@@ -16435,7 +16441,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16452,10 +16458,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C10" s="115">
         <v>0.35</v>
@@ -16473,7 +16479,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -16490,10 +16496,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C12" s="115">
         <v>0.08</v>
@@ -16511,7 +16517,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -16533,7 +16539,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XxR1Du7vWMItjKyemth/eALufIspMsbGHxKmgLbB6E/VgFprvY0CQTwbM5yvEGbL1y3+WlzNlSxAoDVfKiQW2Q==" saltValue="kM3IXzwarQBNfFKp9jun0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FBP+idKQaHbxO5OreiWTE9z8hjlfPOJgWWzikB+q3NkdJDqUuYlPHJaIUkFViw3ylF1kx93iszlwMnCcWTnR1w==" saltValue="jg1Uh267nLHKfbAh27WLcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16562,53 +16568,53 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D1" s="109" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E1" s="109" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F1" s="109" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G1" s="109" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="H1" s="109" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="I1" s="109" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="J1" s="109" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="K1" s="109" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="L1" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="109" t="s">
+      <c r="N1" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="109" t="s">
+      <c r="O1" s="109" t="s">
         <v>138</v>
-      </c>
-      <c r="O1" s="109" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="115">
         <v>0.53</v>
@@ -16652,7 +16658,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="115">
         <v>1</v>
@@ -16696,7 +16702,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16740,7 +16746,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="115">
         <v>1</v>
@@ -16784,7 +16790,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16828,7 +16834,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="115">
         <v>1</v>
@@ -16872,7 +16878,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16960,7 +16966,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -17004,7 +17010,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="115">
         <v>0.83</v>
@@ -17048,7 +17054,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -17092,7 +17098,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" s="115">
         <v>1</v>
@@ -17136,13 +17142,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="92" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="115">
         <v>1</v>
@@ -17186,7 +17192,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="115">
         <v>1</v>
@@ -17230,7 +17236,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="92" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" s="115">
         <v>1</v>
@@ -17274,7 +17280,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="115">
         <v>1</v>
@@ -17329,7 +17335,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5QbxZtaPbBcVGM7/GcWuYXLoPteFgAYhoo6NfsOs2ZP4paSsRrpyn7fTNaHLoPwPWpcey4goBMBhyA8qC5+hhw==" saltValue="qNptwKx7O6swvaWquTHtpw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oYGbCZbnAOngly2CL1+RaC4fn4TAcZYkqMKVRgOn3slr1bgifZN07yeHMHHg0+mDHQwp/8RO8oiO25bBWkD8Lg==" saltValue="jBE/nVmjzW84Sz50lSEUhw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17358,29 +17364,29 @@
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -17400,7 +17406,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="135"/>
@@ -17411,7 +17417,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -17430,7 +17436,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KzAJNyzzQ8HTsTg7HwZHIfpfIUhcj2RRnGA5A+Ams80uB5e5o3y2qftoGRaoUaISUb3k06Oun55DtlFWJcD1Dg==" saltValue="ONzInvu3JGfu5P7Mf5e5fA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yms38llcQslPQna+WryiodkdoKDPW5VJgUWjMSLB9/isB3optPaIr5lAFLVjIJWDIK0gZURa8D6lhkZDyyCuZA==" saltValue="gNr8CQVoohy880hVsSRcng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17462,39 +17468,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C1" s="133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D2" s="115">
         <v>0</v>
@@ -17514,7 +17520,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D3" s="115">
         <v>0</v>
@@ -17534,7 +17540,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D4" s="115">
         <v>0</v>
@@ -17554,13 +17560,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D5" s="115">
         <v>0</v>
@@ -17580,7 +17586,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D6" s="115">
         <v>0</v>
@@ -17600,10 +17606,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D7" s="115">
         <v>0</v>
@@ -17623,7 +17629,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D8" s="115">
         <v>0</v>
@@ -17643,13 +17649,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D9" s="115">
         <v>0</v>
@@ -17669,7 +17675,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D10" s="115">
         <v>0</v>
@@ -17689,10 +17695,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D11" s="115">
         <v>0</v>
@@ -17712,7 +17718,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D12" s="115">
         <v>0</v>
@@ -17732,13 +17738,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D13" s="115">
         <v>0</v>
@@ -17758,7 +17764,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D14" s="115">
         <v>0</v>
@@ -17779,10 +17785,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D15" s="115">
         <v>0</v>
@@ -17803,7 +17809,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D16" s="115">
         <v>0</v>
@@ -17824,13 +17830,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D17" s="115">
         <v>0.7</v>
@@ -17851,7 +17857,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D18" s="115">
         <v>0.19</v>
@@ -17872,13 +17878,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D19" s="115">
         <v>0.7</v>
@@ -17898,7 +17904,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D20" s="115">
         <v>0.19</v>
@@ -17918,13 +17924,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D21" s="115">
         <v>0.7</v>
@@ -17944,7 +17950,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D22" s="115">
         <v>0.19</v>
@@ -17964,13 +17970,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D23" s="115">
         <v>1</v>
@@ -17990,7 +17996,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D24" s="115">
         <v>0</v>
@@ -18010,7 +18016,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D25" s="115">
         <v>0</v>
@@ -18030,13 +18036,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -18056,7 +18062,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D27" s="115">
         <v>0</v>
@@ -18076,7 +18082,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D28" s="115">
         <v>0</v>
@@ -18096,13 +18102,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D29" s="115">
         <v>1</v>
@@ -18122,7 +18128,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D30" s="115">
         <v>0</v>
@@ -18142,7 +18148,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D31" s="115">
         <v>0</v>
@@ -18162,13 +18168,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -18188,7 +18194,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D33" s="115">
         <v>0</v>
@@ -18208,7 +18214,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D34" s="115">
         <v>0</v>
@@ -18228,13 +18234,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -18254,7 +18260,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D36" s="115">
         <v>0</v>
@@ -18274,7 +18280,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D37" s="115">
         <v>0</v>
@@ -18294,13 +18300,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D38" s="115">
         <v>0.3</v>
@@ -18320,7 +18326,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D39" s="115">
         <v>0.5</v>
@@ -18340,7 +18346,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D40" s="115">
         <v>0.65</v>
@@ -18360,10 +18366,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D41" s="115">
         <v>0.3</v>
@@ -18383,7 +18389,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D42" s="115">
         <v>0.49</v>
@@ -18403,7 +18409,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D43" s="115">
         <v>0.63</v>
@@ -18423,13 +18429,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D44" s="115">
         <v>0.88</v>
@@ -18449,7 +18455,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D45" s="115">
         <v>0.8</v>
@@ -18469,13 +18475,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D46" s="115">
         <v>1</v>
@@ -18495,7 +18501,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D47" s="115">
         <v>0.76</v>
@@ -18515,13 +18521,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D48" s="115">
         <v>0.57999999999999996</v>
@@ -18541,7 +18547,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D49" s="115">
         <v>0.88</v>
@@ -18560,7 +18566,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gBpvVL6HsmnLd382NNbqwR9opj6tG8mQj7DIukJAZkKTTMavIcvf6XiIo79b4yspbgmLqaeXyge6crW4/jQ07g==" saltValue="y60jd1cVa0ef5r/6Y+3X+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="32zIQwnrSR7PIzdRYA9NHfkCADteJlmf5W6Ec863fp35MamnxrsToIG+eb3H1E9xfjpG2XAW4IbYgVIZrHmsFA==" saltValue="9Y8XfHoGMYVQCVgDdOGMJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18588,35 +18594,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C1" s="127"/>
       <c r="D1" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>138</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>139</v>
       </c>
       <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D2" s="115">
         <v>1</v>
@@ -18634,7 +18640,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D3" s="115">
         <v>0.2</v>
@@ -18652,13 +18658,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -18677,7 +18683,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D5" s="115">
         <v>0.59</v>
@@ -18695,13 +18701,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -18720,7 +18726,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D7" s="115">
         <v>0.59</v>
@@ -18737,7 +18743,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XYqC2cj2vbJdKPEZlujOrmVvaqzjNwbS4S/gaKSQGSohJOI4VbTv7x6nQNJOeeM4o+4MYHoSD45hh8GOF0NjeQ==" saltValue="ckBlgr+GKNmejFMf9UBTZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RF3cAu9PD9kDJtcDu7104DtTJjMElBcDS0eBGq0ojbTX3JpJPhQ8hj/NDuvRNvosNVOLp4rWFk77Z1/FSOfnew==" saltValue="wKAvMqESKgIyuQOyT62grA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18773,13 +18779,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -18788,7 +18794,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -18796,7 +18802,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -18804,7 +18810,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -18812,7 +18818,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -18820,7 +18826,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -18828,7 +18834,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -18836,7 +18842,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -18844,7 +18850,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -18852,7 +18858,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18872,28 +18878,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -18910,7 +18916,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -18927,7 +18933,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -18944,7 +18950,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -18961,7 +18967,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -18978,7 +18984,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -18995,7 +19001,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -19012,7 +19018,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -19029,7 +19035,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -19046,7 +19052,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19078,13 +19084,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19094,7 +19100,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -19102,7 +19108,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -19110,7 +19116,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -19118,7 +19124,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -19134,7 +19140,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -19142,7 +19148,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -19150,7 +19156,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -19158,7 +19164,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -19166,7 +19172,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19174,7 +19180,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WZCqgTtAuTT2dP2phusQsuaLkRa2EN/GFrA36LnH6xNAewoQxrAEkVWbt/mGysUccZDtREgtc08ywbcYrIFzAQ==" saltValue="x+UpMpdS9BoYHevXY6kg+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uqzaZuxNKdY+HP9S8u1OsVIaRqbRB2v5pD3y2PGboI0PV5jEw305roLUVHdeLqS8sO9boyiKCyPd1SASXONhWQ==" saltValue="98dLZXcSFtxYmxRRfsZdwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19204,30 +19210,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>126</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19253,7 +19259,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -19279,7 +19285,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -19300,7 +19306,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -19336,10 +19342,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19364,7 +19370,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19389,7 +19395,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -19409,7 +19415,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -19443,51 +19449,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="23" t="s">
+      <c r="I13" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="J13" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="K13" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>139</v>
-      </c>
       <c r="L13" s="23" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -19531,7 +19537,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19601,7 +19607,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l6kZU53xLHMMNdPH/sXhjJflyN0gyugspBPCKsLSxq9YN8DRpzbHdrnP8bpkEnHWoNm9PlX5S8GtMGVV5Tx3Ww==" saltValue="VM3OHSsG0TrOHsnS3jNbWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+GKxV9yuRu2Tt8VnU1kAxLqkh9N/4rPSzxR0tzulVmAay7QDAgfRBBBUavjBP4uGs8zQAHYsJLat/D7VWuL7Og==" saltValue="wLdnEVXq5EQwukUFooKaCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19631,30 +19637,30 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>142</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>143</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -19674,7 +19680,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -19694,7 +19700,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -19714,7 +19720,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -19738,7 +19744,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d4kdu4tXcZlbks/Yucfz7G0aPWJX2a88av9X73yF9BSjxHdcZw87o280Y0JEAbaQkDg7EdcXfyj3jHh9j1hghQ==" saltValue="FlJr7Bzea27M4w+HzPDGNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Q8FnyMir0pKWrFYy+oYOjwikebuN3YNUBDWkglne6o0S55QJfZ8uBN+M6RXO0g+yrV2dVB5gR6GE5n5TZLiOvQ==" saltValue="HHFCFbF3wqIVgEKNbCwcGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19763,7 +19769,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -19813,10 +19819,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="28">
         <f>(('Dist. de l''état nutritionnel'!C4+'Dist. de l''état nutritionnel'!C5)*(1/60)+('Dist. de l''état nutritionnel'!D4+'Dist. de l''état nutritionnel'!D5)*(5/60)+('Dist. de l''état nutritionnel'!E4+'Dist. de l''état nutritionnel'!E5)*(6/60)+('Dist. de l''état nutritionnel'!F4+'Dist. de l''état nutritionnel'!F5)*(12/60)+('Dist. de l''état nutritionnel'!G4+'Dist. de l''état nutritionnel'!G5)*(36/60))</f>
@@ -19843,10 +19849,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="28">
         <f>(('Dist. de l''état nutritionnel'!C10+'Dist. de l''état nutritionnel'!C11)*(1/60)+('Dist. de l''état nutritionnel'!D10+'Dist. de l''état nutritionnel'!D11)*(5/60)+('Dist. de l''état nutritionnel'!E10+'Dist. de l''état nutritionnel'!E11)*(6/60)+('Dist. de l''état nutritionnel'!F10+'Dist. de l''état nutritionnel'!F11)*(12/60)+('Dist. de l''état nutritionnel'!G10+'Dist. de l''état nutritionnel'!G11)*(36/60))</f>
@@ -19875,10 +19881,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="28">
         <f>'Dist. de l''état nutritionnel'!C15*(1/60)+'Dist. de l''état nutritionnel'!D15*(5/60)+'Dist. de l''état nutritionnel'!E15*(6/60)+'Dist. de l''état nutritionnel'!F15*(12/60)+'Dist. de l''état nutritionnel'!G15*(36/60)</f>
@@ -19902,7 +19908,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C7" s="28">
         <f>('Dist. de l''état nutritionnel'!H15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!I15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!J15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!K15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
@@ -19926,7 +19932,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="28">
         <f>('Dist. de l''état nutritionnel'!L15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!M15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!N15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!O15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
@@ -19950,10 +19956,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="C10" s="28">
         <f>('Dist. l''allaitement maternel'!C2*(1/6)+'Dist. l''allaitement maternel'!D2*(5/6))</f>
@@ -19979,7 +19985,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="28">
         <f>(('Dist. l''allaitement maternel'!E2+'Dist. l''allaitement maternel'!E3+'Dist. l''allaitement maternel'!E4)*(6/18)+('Dist. l''allaitement maternel'!F2+'Dist. l''allaitement maternel'!F3+'Dist. l''allaitement maternel'!F4)*(12/18))</f>
@@ -20003,10 +20009,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="28">
         <f>(neonatal_mortality*(1/60)+infant_mortality*(11/60)+U5_mortality*(48/60))/1000</f>
@@ -20032,7 +20038,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="28">
         <f>maternal_mortality/1000</f>
@@ -20053,7 +20059,7 @@
       <c r="P14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0JTLknea3qatth9g26/97FoJV1eBM3ctWHMdWBumBIONxjK6+O4ckvUpAkGDGxBfPA4GbiY2XAlwc/9bgPU2DQ==" saltValue="41VRFsGqQ99l3EMRj7uMvg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DOdHuA7+Xfugia4KndPUloXUshHgBHwa/tefWM7qSNVoJUv8lTnCUFeQw4r9dr7IH4BJsCMWc/BEA6h4gyzw/w==" saltValue="bbcbx42EyWCrQZFs6EYsyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20083,41 +20089,41 @@
         <v>17</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="61" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>160</v>
-      </c>
       <c r="C2" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SJT0mrXzC49jKj1VjjNVPqZCSVw5fy9/wBYH6JVjdB6KozkgJX7p7mCIWkCsxkuxG8/oSWBKNU80o1HgzZUEeA==" saltValue="yWQ+MsX43YHiG24rgt+JoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="erQHeScEdPTt9fe5jNDKH3uoKpJIUSBMZvTWFMfxsdkZXNBk93DQqAlBeF0fqnE7+jYTC3voG6hIWGfCDNIZZQ==" saltValue="/P4vYHRpDv4KZa87Lbjflg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20143,19 +20149,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="C1" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>167</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -20163,7 +20169,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20175,7 +20181,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -20189,7 +20195,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -20203,7 +20209,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -20217,7 +20223,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -20231,7 +20237,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -20242,7 +20248,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -20256,7 +20262,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -20268,7 +20274,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -20280,7 +20286,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -20292,7 +20298,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -20304,7 +20310,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
@@ -20317,7 +20323,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
@@ -20331,7 +20337,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
@@ -20345,7 +20351,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
@@ -20359,7 +20365,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
@@ -20373,7 +20379,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
@@ -20387,14 +20393,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="74I5ALuV9c6gIaoO29DwL6uCFwU6cMVpXxaGyhnqakpUsX7/qTiS2TLVFeN6PZdkAhkswQFmTYzUDIX+DbWQgg==" saltValue="uavr0Qwa1h1YatHxL+XVxA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vDZr9PTcV9LbkHEnF5moUL7gM6+SIG8Q7KFqkJezuDQTfGfnWAH/DDY0mAtbH8bR0UBm4z14jQmrQQxNM+xCSQ==" saltValue="QuAcn+50A/JqjvHo9bEdcg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20423,25 +20429,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="62" t="str">
-        <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
-        <v>Baseline (2017) coverage</v>
+        <f>"Couverture de l'année de référence ("&amp;start_year&amp;")"</f>
+        <v>Couverture de l'année de référence (2017)</v>
       </c>
       <c r="C1" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>170</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -20453,12 +20459,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -20470,12 +20476,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -20487,12 +20493,12 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -20504,12 +20510,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -20521,12 +20527,12 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -20538,12 +20544,12 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -20555,12 +20561,12 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -20572,12 +20578,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -20589,12 +20595,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20606,12 +20612,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -20623,12 +20629,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -20640,12 +20646,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -20657,12 +20663,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -20674,7 +20680,7 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20691,12 +20697,12 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="81">
         <v>0.80800000000000005</v>
@@ -20708,7 +20714,7 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20725,7 +20731,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20742,7 +20748,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20759,12 +20765,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -20776,12 +20782,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -20793,12 +20799,12 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="81">
         <v>0.50800000000000001</v>
@@ -20810,12 +20816,12 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="81">
         <v>0</v>
@@ -20827,12 +20833,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" s="81">
         <v>0</v>
@@ -20844,12 +20850,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="81">
         <v>0.1</v>
@@ -20861,12 +20867,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="81">
         <v>0.3538</v>
@@ -20878,12 +20884,12 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="81">
         <v>0</v>
@@ -20895,12 +20901,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="81">
         <v>0</v>
@@ -20912,12 +20918,12 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -20929,12 +20935,12 @@
         <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="81">
         <v>0.89970000000000006</v>
@@ -20946,12 +20952,12 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="81">
         <v>0.80700000000000005</v>
@@ -20963,12 +20969,12 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="81">
         <v>0.73199999999999998</v>
@@ -20980,12 +20986,12 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="81">
         <v>0.316</v>
@@ -20997,12 +21003,12 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="81">
         <v>0.59699999999999998</v>
@@ -21014,12 +21020,12 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="81">
         <v>0.19900000000000001</v>
@@ -21031,13 +21037,13 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="81">
         <v>0.13400000000000001</v>
@@ -21049,12 +21055,12 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="81">
         <v>0</v>
@@ -21066,14 +21072,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eJ+O1HRcpYEF2lSJFWEM5VNZoDPfGdsvX32dbvOIHI3NJkFMhO2WKxqiuSUxkCWxH8qV/uL+6hfsIiY1NH9zpg==" saltValue="EBDzxCacUkuYKNjSmHFIkw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AIaJaicvWW05BP9kNy7CaC6GW/41iXdDqy2Gbgg+EWjyO1MvXPom9CD/KDZrX6W+rhj7+AFvhdCq9JxyijIuEQ==" saltValue="3EQPO+lM6VFve6VSQIGE/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region2_input.xlsx
+++ b/inputs/fr/demo_region2_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1D2096D-035C-478B-8172-DB575EE9DE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ED80EDE-20A7-4862-9B32-611EC1EE2131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="7815" windowWidth="30255" windowHeight="13185" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="0" windowWidth="30255" windowHeight="13185" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId9"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId10"/>
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId11"/>
-    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
+    <sheet name="Incidence des conditions" sheetId="7" state="hidden" r:id="rId12"/>
     <sheet name="Population cible programmes" sheetId="21" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
@@ -36,7 +36,7 @@
     <sheet name="Risques relatifs" sheetId="67" state="hidden" r:id="rId21"/>
     <sheet name="Rapports des cotes" sheetId="68" state="hidden" r:id="rId22"/>
     <sheet name="Programmes-rés. des naissances" sheetId="69" state="hidden" r:id="rId23"/>
-    <sheet name="Programs anemia" sheetId="70" state="hidden" r:id="rId24"/>
+    <sheet name="Programmes-anémie" sheetId="70" state="hidden" r:id="rId24"/>
     <sheet name="Programmes-amaigrissement" sheetId="71" state="hidden" r:id="rId25"/>
     <sheet name="Programmes pour les enfants" sheetId="72" state="hidden" r:id="rId26"/>
     <sheet name="Programmes pour les FE" sheetId="73" state="hidden" r:id="rId27"/>
@@ -465,9 +465,6 @@
     <t>Field</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>IYCF 1</t>
   </si>
   <si>
@@ -624,19 +621,19 @@
     <t>Incidence de la diarrhée</t>
   </si>
   <si>
-    <t>Nombre moyen d'épisodes par an : &lt;1 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 1-5 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 6-11 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 12-23 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 24-59 mois</t>
+    <t>Nombre moyen d'épisodes par an: &lt;1 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 1-5 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 6-11 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 12-23 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 24-59 mois</t>
   </si>
   <si>
     <t>Autres risques</t>
@@ -753,19 +750,22 @@
     <t>Prévalence de l'éclampsie</t>
   </si>
   <si>
+    <t>Données</t>
+  </si>
+  <si>
     <t>Nombre de naissances</t>
   </si>
   <si>
-    <t>FAP : 15-19 ans</t>
-  </si>
-  <si>
-    <t>FAP : 20-29 ans</t>
-  </si>
-  <si>
-    <t>FAP : 30-39 ans</t>
-  </si>
-  <si>
-    <t>FAP : 40-49 ans</t>
+    <t>FAP: 15-19 ans</t>
+  </si>
+  <si>
+    <t>FAP: 20-29 ans</t>
+  </si>
+  <si>
+    <t>FAP: 30-39 ans</t>
+  </si>
+  <si>
+    <t>FAP: 40-49 ans</t>
   </si>
   <si>
     <t>Total FAP</t>
@@ -816,16 +816,16 @@
     <t>Anémie</t>
   </si>
   <si>
-    <t>FE : 15-19 ans</t>
-  </si>
-  <si>
-    <t>FE : 20-29 ans</t>
-  </si>
-  <si>
-    <t>FE : 30-39 ans</t>
-  </si>
-  <si>
-    <t>FE : 40-49 ans</t>
+    <t>FE: 15-19 ans</t>
+  </si>
+  <si>
+    <t>FE: 20-29 ans</t>
+  </si>
+  <si>
+    <t>FE: 30-39 ans</t>
+  </si>
+  <si>
+    <t>FE: 40-49 ans</t>
   </si>
   <si>
     <t>Prévalence de l'anémie</t>
@@ -999,19 +999,19 @@
     <t>Supplémentation en vitamine A</t>
   </si>
   <si>
-    <t>WASH : lavage des mains</t>
-  </si>
-  <si>
-    <t>WASH : Élimination hygiénique</t>
-  </si>
-  <si>
-    <t>WASH : Amélioration de l'assainissement</t>
-  </si>
-  <si>
-    <t>WASH : Source d'eau améliorée</t>
-  </si>
-  <si>
-    <t>WASH : Eau courante</t>
+    <t>WASH: lavage des mains</t>
+  </si>
+  <si>
+    <t>WASH: Élimination hygiénique</t>
+  </si>
+  <si>
+    <t>WASH: Amélioration de l'assainissement</t>
+  </si>
+  <si>
+    <t>WASH: Source d'eau améliorée</t>
+  </si>
+  <si>
+    <t>WASH: Eau courante</t>
   </si>
   <si>
     <t>Zinc pour le traitement + SRO</t>
@@ -4753,18 +4753,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4772,7 +4772,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4781,7 +4781,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4794,12 +4794,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4858,14 +4858,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4909,12 +4909,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4950,14 +4950,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -4999,19 +4999,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5066,13 +5066,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5081,7 +5081,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5114,13 +5114,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5161,12 +5161,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5200,7 +5200,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iufaAIYZXQ5nXeqPXXBlvkHvd7twK+YfTG09HnEjgPSxofYLp5GLj+tzsn4t9f5Q9TQdjFP3Sf2zbiafUMbgGA==" saltValue="bzo9+c+4tvjGSsVym6NoWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z0AsAbZYOGwLvHCaUOyxyHXNitv7/hC5rLxm2dETCSj8IVsE7F78Ezw5W/iiUtqJcL5aGbsNzm9wZCt4EUohuQ==" saltValue="BSyPCG4wGUJKFueKtcY2wQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5348,7 +5348,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rt/HA6Rf5iqCQkEB1PzJVsUcBbCkDmdanAUyTP9ylsnwyN+ltXT4EnBvNyMaA+RLta31LWOYFCZ/BjTd2i7dFg==" saltValue="ovuthtlp+N2zRiuYNkhRWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="e6azY1b2XaHazwuHyBTmgy2F7Q9rpWJu7Igh91B3A6ARZaHjotk8jQEGLL1Ns6ez5G/OcvAzEU9ahRNouDQYfw==" saltValue="QkRObYaAZRlPqEBKU4Cxnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5448,7 +5448,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Uh7B7wTLxqf9fEhjpTeXiQ/+OFK/Fr1c30IBVEM/u6gp/ZEPyNpQyU0VKw7a5+nUrQh8IDWzKxZhL8JHyopVKQ==" saltValue="XeZgVZYh2bRDrJKLSz0BhA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7ii7FO9vP5YmZeUFXRaddN+4veb+cHAnJxf7hWkRzEAWv8BjnpKV6zhbt7pKFxnP9zd/DDx5DTskdK3co8WjMg==" saltValue="0eAUM+ADyHOJp0YUG4DhGw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5472,24 +5472,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>100</v>
-      </c>
-      <c r="F1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5563,7 +5563,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bk3gqr0xSaTiV9mL2hViilbOslugmeB/cH9YcNVjOz8He6cKzX4uG5pVuR5NSFzWj1WAtlAHMAGXNm470bzryw==" saltValue="QrKtgU43cGSpOKuE8rV66A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mIaW1atWL0bzi0gm4qn5TpMtyoSrIZ6p8N7LwKCrehTNF62oM3tcSurypK+ZEdzC/uR/+MTaBqrb5BwaKuVoiQ==" saltValue="zjldsjXuav4SUt1lPgsm7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5600,19 +5600,19 @@
         <v>158</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>135</v>
@@ -5641,7 +5641,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>173</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>171</v>
@@ -7279,7 +7279,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aeoRHg0OvMlH6Y9ghSQo2dAZP/zDxY/p/OC+2gpqSCqtQ5KsbYXIo8yatDFDMEFFWf/o4+shHDVQRTuBRbNb5Q==" saltValue="pajXRCyRaoW/97Cy59Hi6A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="imFHGyVCwCMWUMGDCYjyAOigbTV667BycU72BZNJrXS3KYBCl4nAlRPqYVMiDRg/T8EEsN0bqimYVJbhVWR2dg==" saltValue="jt59y6GTYieDwR0AIWedgQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7317,7 +7317,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GSIBiCCVb5Bd+hr0Z3yOZiEmfZN44c5n4FbJKpZOG2oa4vth5lBd5kxp7uvdi6xVKXRWYMgKBXcfMGsRytahKw==" saltValue="n+7P3Oh6QD1NphPAs5bajg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+LLILqf7vGeVe2ALJMeuwZQArPdBtlFOLLDDPWbSksOsfWcbysi5lxGVCFG9rdWgD5/lGg99gonb0d97gxG1gA==" saltValue="67dPluWPeV9Wv+V6dXBV0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7525,7 +7525,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PubXR7/c0rd7AyTFz8ijsjwr/5oQ5DRA+hR6KRST+iW3KjiNCoGEA91fExJ7bpAfvLNw8OIb0j8nbhQIbZ7BvQ==" saltValue="wK3rzvDlx0sGcSR9JoSzog==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oCddk4lR0oM2j2DpJiqO/d3UszVzMTJBq6bQLPn9XoADI2entt9ZdT4Y45r+bMOvu9PfoZBxFX4RZTWhxUOU0g==" saltValue="2Ut30iq3guNLDrGfQwx/ZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7564,19 +7564,19 @@
         <v>158</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="56" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>101</v>
       </c>
       <c r="H1" s="56" t="s">
         <v>135</v>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>173</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="90">
         <v>1</v>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="90">
         <v>1</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="90">
         <v>1</v>
@@ -8240,7 +8240,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>171</v>
@@ -9296,7 +9296,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3RmG2pW5SaBTiup0ZzLRXVjFzQQ4USC6gQEDI0Rw7R5UNaagfyAmJB9jAfl67971Ylu7ySLY9gx7N5SJ8v95hA==" saltValue="E7ba4p/Maw3EDQeSeB0aPw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mcmMs/AoWfGMgCIYY0LLNBitaJR8ApbCSw3yYz9C6K/BwYdWVtPPBJHeqoI1eWvx6WTHdFkjXQ4q0CK158lMjQ==" saltValue="Nta6G3CMrYj7PiefsjmL1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9347,16 +9347,16 @@
         <v>141</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>114</v>
@@ -9374,7 +9374,7 @@
       <c r="G2" s="90"/>
       <c r="H2" s="90"/>
       <c r="I2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
@@ -9390,7 +9390,7 @@
       <c r="F3" s="90"/>
       <c r="G3" s="90"/>
       <c r="H3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -9403,7 +9403,7 @@
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
       <c r="D4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
@@ -9419,7 +9419,7 @@
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
@@ -9443,10 +9443,10 @@
       <c r="H6" s="90"/>
       <c r="I6" s="90"/>
       <c r="J6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -9455,14 +9455,14 @@
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
@@ -9474,14 +9474,14 @@
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="90"/>
       <c r="J8" s="90"/>
@@ -9493,14 +9493,14 @@
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="90"/>
       <c r="H9" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
@@ -9512,7 +9512,7 @@
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
@@ -9529,7 +9529,7 @@
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -9563,7 +9563,7 @@
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -9588,7 +9588,7 @@
       <c r="G14" s="90"/>
       <c r="H14" s="90"/>
       <c r="I14" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="90"/>
       <c r="E15" s="90"/>
@@ -9607,7 +9607,7 @@
       <c r="G15" s="90"/>
       <c r="H15" s="90"/>
       <c r="I15" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
@@ -9618,17 +9618,17 @@
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="90"/>
       <c r="H16" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B17" s="90"/>
       <c r="C17" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="90"/>
       <c r="E17" s="90"/>
@@ -9652,16 +9652,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="90"/>
       <c r="D18" s="90"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="90"/>
       <c r="H18" s="90"/>
@@ -9671,16 +9671,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="90"/>
       <c r="D19" s="90"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -9690,16 +9690,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="90"/>
       <c r="D20" s="90"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="90"/>
       <c r="H20" s="90"/>
@@ -9718,10 +9718,10 @@
       <c r="F21" s="90"/>
       <c r="G21" s="90"/>
       <c r="H21" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
@@ -9731,13 +9731,13 @@
         <v>187</v>
       </c>
       <c r="B22" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="B23" s="90"/>
       <c r="C23" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
@@ -9761,7 +9761,7 @@
       <c r="G23" s="90"/>
       <c r="H23" s="90"/>
       <c r="I23" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
@@ -9777,7 +9777,7 @@
       <c r="F24" s="90"/>
       <c r="G24" s="90"/>
       <c r="H24" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" s="90"/>
       <c r="J24" s="90"/>
@@ -9794,7 +9794,7 @@
       <c r="F25" s="90"/>
       <c r="G25" s="90"/>
       <c r="H25" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" s="90"/>
       <c r="J25" s="90"/>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="90"/>
       <c r="E26" s="90"/>
@@ -9823,7 +9823,7 @@
       </c>
       <c r="B27" s="90"/>
       <c r="C27" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="90"/>
       <c r="E27" s="90"/>
@@ -9831,7 +9831,7 @@
       <c r="G27" s="90"/>
       <c r="H27" s="90"/>
       <c r="I27" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
@@ -9847,7 +9847,7 @@
       <c r="F28" s="90"/>
       <c r="G28" s="90"/>
       <c r="H28" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" s="90"/>
       <c r="J28" s="90"/>
@@ -9858,11 +9858,11 @@
         <v>194</v>
       </c>
       <c r="B29" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="90"/>
       <c r="D29" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
@@ -9880,7 +9880,7 @@
       <c r="C30" s="90"/>
       <c r="D30" s="90"/>
       <c r="E30" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" s="90"/>
       <c r="G30" s="90"/>
@@ -9899,10 +9899,10 @@
       <c r="E31" s="90"/>
       <c r="F31" s="90"/>
       <c r="G31" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" s="90"/>
       <c r="J31" s="90"/>
@@ -9918,10 +9918,10 @@
       <c r="E32" s="90"/>
       <c r="F32" s="90"/>
       <c r="G32" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" s="90"/>
       <c r="J32" s="90"/>
@@ -9937,10 +9937,10 @@
       <c r="E33" s="90"/>
       <c r="F33" s="90"/>
       <c r="G33" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H33" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" s="90"/>
       <c r="J33" s="90"/>
@@ -9956,10 +9956,10 @@
       <c r="E34" s="90"/>
       <c r="F34" s="90"/>
       <c r="G34" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I34" s="90"/>
       <c r="J34" s="90"/>
@@ -9975,10 +9975,10 @@
       <c r="E35" s="90"/>
       <c r="F35" s="90"/>
       <c r="G35" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H35" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
@@ -9994,10 +9994,10 @@
       <c r="E36" s="90"/>
       <c r="F36" s="90"/>
       <c r="G36" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H36" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I36" s="90"/>
       <c r="J36" s="90"/>
@@ -10014,7 +10014,7 @@
       <c r="F37" s="90"/>
       <c r="G37" s="90"/>
       <c r="H37" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I37" s="90"/>
       <c r="J37" s="90"/>
@@ -10025,24 +10025,24 @@
         <v>202</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="90"/>
       <c r="D38" s="90"/>
       <c r="E38" s="90"/>
       <c r="F38" s="90"/>
       <c r="G38" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H38" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I38" s="90"/>
       <c r="J38" s="90"/>
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8hER25Gg7TD3T0t2wwyb3fhb8+i2oNyiL5zXjXV2VL927a8E8KY8+JdVDF0l1/m7PciEbGd1qxsJJzrXbZJCtA==" saltValue="i3ViPKpTLzWA/x1Q/F4fRg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CwK/Qr9+8uRr3lbBFYy+0vdDqV6Bze2mNaAbQ1f2Bh21CGCsm9lgnKjh7KJmOoiCy57qgn3iLx+E4lR7ClYcmw==" saltValue="PeSV5zb4/T7ClDGVqf8bqw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10093,16 +10093,16 @@
         <v>141</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>114</v>
@@ -10110,28 +10110,28 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
@@ -10139,28 +10139,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -10168,28 +10168,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="90"/>
       <c r="J4" s="90"/>
@@ -10197,28 +10197,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="90"/>
       <c r="J5" s="90"/>
@@ -10226,28 +10226,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="90"/>
       <c r="J6" s="90"/>
@@ -10259,17 +10259,17 @@
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
@@ -10280,17 +10280,17 @@
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
@@ -10301,17 +10301,17 @@
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="90"/>
       <c r="H9" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
@@ -10322,17 +10322,17 @@
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
       <c r="F10" s="90"/>
       <c r="G10" s="90"/>
       <c r="H10" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
@@ -10343,7 +10343,7 @@
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -10352,10 +10352,10 @@
       <c r="H11" s="90"/>
       <c r="I11" s="90"/>
       <c r="J11" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -10364,7 +10364,7 @@
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -10374,7 +10374,7 @@
       <c r="I12" s="90"/>
       <c r="J12" s="90"/>
       <c r="K12" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -10393,7 +10393,7 @@
       <c r="I13" s="90"/>
       <c r="J13" s="90"/>
       <c r="K13" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -10402,7 +10402,7 @@
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -10412,11 +10412,11 @@
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kGkZZTKNsMvVsk7pCLYVpkdMIigTWVy52SOBS7B4IDieO1Hs2kaQSr3HjBRRcMrovmfqdwizd0Wo6+De3cl2jA==" saltValue="l0HVJJfQNL2qndrSL9o+Ew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="++sWmIry//daX3pBuJ9WmSokRzi+kKwlaovhQq8FC/IAP+v5tEGed5HZt6ecmWfrBYoL6WqH67umAu+mRnVs8Q==" saltValue="pT7AeLv0Ab/bPThkePGpRg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10451,19 +10451,19 @@
         <v>162</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="98" t="s">
         <v>100</v>
-      </c>
-      <c r="H1" s="98" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -10471,7 +10471,7 @@
         <v>221</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>157</v>
@@ -10538,7 +10538,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>157</v>
@@ -10604,7 +10604,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>157</v>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>157</v>
@@ -10734,7 +10734,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>157</v>
@@ -10832,7 +10832,7 @@
         <v>222</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>157</v>
@@ -10897,7 +10897,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>157</v>
@@ -10962,7 +10962,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>157</v>
@@ -11027,7 +11027,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="138" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>157</v>
@@ -11092,7 +11092,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>157</v>
@@ -11190,7 +11190,7 @@
         <v>223</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>157</v>
@@ -11255,7 +11255,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>157</v>
@@ -11320,7 +11320,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="35" t="s">
         <v>157</v>
@@ -11385,7 +11385,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="138" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="35" t="s">
         <v>157</v>
@@ -11450,7 +11450,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>157</v>
@@ -11537,7 +11537,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SjmdvxTCl1nHfqlZe+VqXty/7g/Xj2n+hPXAq8xZCum4NpcK+3Xeloyy2naDnBUVnjO4cO5wk85PeNvXaGlIUQ==" saltValue="lgoVo2x4m9BONpEY8+LbeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6/jE2ZULWvyn08tden57LVnqdA8Ektcv9ebieTQcBNddTN7/qhemyTJqbKaQJ5qBMWQa0BMZS4p0SdqRXgA38Q==" saltValue="wgZMjK+Sqr6fyq+tFGB0pA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -12645,7 +12645,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Dgd6NGBlREM6H3q09PutXa69sOOvT9YW7QGr6SlThD5xvEExa7xXDKLaIDFsOTTwSZ/Pb+VEQCDYfBToL8z5Lw==" saltValue="6OO2H1HBPRi25lduhOkF+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6tEfgL8d7N71OP7Ln+V2bOdojOtUoAowWt0mjLlcWnemx/I41ztXXAo0WH4HjeLi70GCyNJi3lCgvIwvHlPxfQ==" saltValue="cLkHjljUXHALfsNIp4FDhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12685,16 +12685,16 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="109" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12709,7 +12709,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="114">
         <v>1</v>
@@ -12726,7 +12726,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="114">
         <v>1</v>
@@ -12743,7 +12743,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="114">
         <v>1</v>
@@ -12760,7 +12760,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="114">
         <v>1</v>
@@ -12902,7 +12902,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -12920,7 +12920,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="125" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="114">
         <v>1</v>
@@ -12938,7 +12938,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="114">
         <v>1</v>
@@ -12956,7 +12956,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="125" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="114">
         <v>1</v>
@@ -12974,7 +12974,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="114">
         <v>1</v>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -13008,7 +13008,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="125" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="114">
         <v>1</v>
@@ -13025,7 +13025,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="114">
         <v>1</v>
@@ -13047,7 +13047,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+BGxbD1QR4oeiOL2g7kwrvhfT+IG9lvEElSo17FK4cvTdzubFe9aLUkoVG4ynGG8GU3cWPms11bbrsdZtus/wg==" saltValue="J6kfvLjfhqeNfsEsJn8SIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7ouOZzcdoBeEjEYyYTyIRq2jubwo3K9YeZKgOLfU8zWQccx0DOZOmysMZ/bUGfoviNHMPQXHlIJYwXsJc5bpgg==" saltValue="D1YYR7m552yJVnj7/1ccqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13091,19 +13091,19 @@
         <v>235</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="G2" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="H2" s="109" t="s">
         <v>100</v>
-      </c>
-      <c r="H2" s="109" t="s">
-        <v>101</v>
       </c>
       <c r="I2" s="128"/>
       <c r="J2" s="128"/>
@@ -13117,10 +13117,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="114">
         <v>1</v>
@@ -13232,10 +13232,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="114">
         <v>1</v>
@@ -13347,10 +13347,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="114">
         <v>1</v>
@@ -13462,10 +13462,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="114">
         <v>1</v>
@@ -13577,10 +13577,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="114">
         <v>1</v>
@@ -13692,10 +13692,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="114">
         <v>1</v>
@@ -13821,19 +13821,19 @@
         <v>239</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="109" t="s">
+      <c r="G29" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="109" t="s">
+      <c r="H29" s="109" t="s">
         <v>100</v>
-      </c>
-      <c r="H29" s="109" t="s">
-        <v>101</v>
       </c>
       <c r="I29" s="128"/>
       <c r="J29" s="128"/>
@@ -13847,10 +13847,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="114">
         <v>1</v>
@@ -13962,10 +13962,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="114">
         <v>1</v>
@@ -14077,10 +14077,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="114">
         <v>1</v>
@@ -14192,10 +14192,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" s="114">
         <v>1</v>
@@ -14307,10 +14307,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" s="114">
         <v>1</v>
@@ -14422,10 +14422,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" s="114">
         <v>1</v>
@@ -14575,7 +14575,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>242</v>
@@ -14622,7 +14622,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>242</v>
@@ -14669,7 +14669,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>242</v>
@@ -14734,19 +14734,19 @@
         <v>245</v>
       </c>
       <c r="D65" s="109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E65" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="F65" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="F65" s="109" t="s">
+      <c r="G65" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="G65" s="109" t="s">
+      <c r="H65" s="132" t="s">
         <v>100</v>
-      </c>
-      <c r="H65" s="132" t="s">
-        <v>101</v>
       </c>
       <c r="I65" s="128"/>
       <c r="J65" s="128"/>
@@ -14760,7 +14760,7 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66" s="43" t="s">
         <v>142</v>
@@ -14875,7 +14875,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C70" s="43" t="s">
         <v>142</v>
@@ -14990,7 +14990,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" s="43" t="s">
         <v>142</v>
@@ -15105,7 +15105,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>142</v>
@@ -15220,7 +15220,7 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>142</v>
@@ -15335,7 +15335,7 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C86" s="43" t="s">
         <v>142</v>
@@ -15450,7 +15450,7 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="43" t="s">
         <v>142</v>
@@ -15565,7 +15565,7 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" s="43" t="s">
         <v>142</v>
@@ -15680,7 +15680,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98" s="43" t="s">
         <v>142</v>
@@ -15800,7 +15800,7 @@
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="129" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B104" s="134" t="s">
         <v>145</v>
@@ -15809,19 +15809,19 @@
         <v>245</v>
       </c>
       <c r="D104" s="109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E104" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="F104" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="F104" s="109" t="s">
+      <c r="G104" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="G104" s="109" t="s">
+      <c r="H104" s="132" t="s">
         <v>100</v>
-      </c>
-      <c r="H104" s="132" t="s">
-        <v>101</v>
       </c>
       <c r="I104" s="128"/>
       <c r="J104" s="128"/>
@@ -15950,7 +15950,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="a4nmmSttjdmtvKmunVGiHu2r1judWpFk/OkoTPF/4GWEmXs5wgV3n8LUOCcicF5HG04cqGfRXLexjKhK+o/MXQ==" saltValue="GaHdVRYC87N9YyY1porQ0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KZEgmK8WtDg4NVLdGPr32dfu9XL55uKSaUnd4NQkSRgWnGoqTlFXKHb9bl3mimToNQx2101jjvzlg/gBNnqmYA==" saltValue="+Zh7DK2CxFTJ3R3iHSFTag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15990,19 +15990,19 @@
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>100</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16010,7 +16010,7 @@
         <v>249</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="115">
         <v>45</v>
@@ -16259,7 +16259,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0uro+5VMDPdJ/ei2KnSRhk12To9OC6qXcLdZAe3l8SYeL0US8X4AH3FnXu4mTms2LqjysRT7uLBZLky1/3GKCg==" saltValue="NHg2RcmU3+8Z85H/eBcXeA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BWoXE7YzLNvWcBF8Q3C27/uWMrOLSVUZQHkZvZnZgeFDFmvRCVAEm317Kr1eMC0TcXSSPFVVZiiRqcluKwOhDQ==" saltValue="Qp2Bvg5w+ynswtZx1Q2BrA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16292,16 +16292,16 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="127" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="127" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16539,7 +16539,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FBP+idKQaHbxO5OreiWTE9z8hjlfPOJgWWzikB+q3NkdJDqUuYlPHJaIUkFViw3ylF1kx93iszlwMnCcWTnR1w==" saltValue="jg1Uh267nLHKfbAh27WLcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Gk9pkpk4QRUZHclPRvvn3EnhfKyB6f4S5norrZfT0bODUjzV+d8dK2yZMPbGLqjFg6edFgYH9NGTZEK3bTS6sQ==" saltValue="iaORzeMQstzW2mZ1IaZVrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16568,19 +16568,19 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="F1" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="G1" s="109" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="109" t="s">
-        <v>101</v>
       </c>
       <c r="H1" s="109" t="s">
         <v>115</v>
@@ -17335,7 +17335,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oYGbCZbnAOngly2CL1+RaC4fn4TAcZYkqMKVRgOn3slr1bgifZN07yeHMHHg0+mDHQwp/8RO8oiO25bBWkD8Lg==" saltValue="jBE/nVmjzW84Sz50lSEUhw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="35ISLVfXP4GYENDuNXDkwtjjJnx9SJ64GCxcllZ6QCpH3nUO+4MWrZ/inOfiNRHgzu9S/WTLHyEAUK2pbXEcPQ==" saltValue="h+ERllTY7DsHK1lGLSE27A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17364,19 +17364,19 @@
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -17436,7 +17436,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yms38llcQslPQna+WryiodkdoKDPW5VJgUWjMSLB9/isB3optPaIr5lAFLVjIJWDIK0gZURa8D6lhkZDyyCuZA==" saltValue="gNr8CQVoohy880hVsSRcng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DbdtPgYuJJw5mavOVpFEC+fG5xYjAGKOcynBtESeyQ4/gaRqXdX0XTH3xGzwonOlDYEUjL5N1QdZMCNxQnfJ+w==" saltValue="XgKTJX2+GwU9nd8ze3+EHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17474,22 +17474,22 @@
         <v>264</v>
       </c>
       <c r="C1" s="133" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>100</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -17497,7 +17497,7 @@
         <v>195</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>265</v>
@@ -17833,7 +17833,7 @@
         <v>178</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>265</v>
@@ -17881,7 +17881,7 @@
         <v>176</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>265</v>
@@ -17927,7 +17927,7 @@
         <v>177</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>265</v>
@@ -17973,7 +17973,7 @@
         <v>199</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>265</v>
@@ -18039,7 +18039,7 @@
         <v>200</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="52" t="s">
         <v>265</v>
@@ -18105,7 +18105,7 @@
         <v>198</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="52" t="s">
         <v>265</v>
@@ -18171,7 +18171,7 @@
         <v>197</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="52" t="s">
         <v>265</v>
@@ -18237,7 +18237,7 @@
         <v>196</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>265</v>
@@ -18303,7 +18303,7 @@
         <v>202</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="52" t="s">
         <v>265</v>
@@ -18366,7 +18366,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="52" t="s">
         <v>265</v>
@@ -18432,7 +18432,7 @@
         <v>193</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44" s="52" t="s">
         <v>265</v>
@@ -18478,7 +18478,7 @@
         <v>201</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="52" t="s">
         <v>265</v>
@@ -18524,7 +18524,7 @@
         <v>186</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>265</v>
@@ -18566,7 +18566,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="32zIQwnrSR7PIzdRYA9NHfkCADteJlmf5W6Ec863fp35MamnxrsToIG+eb3H1E9xfjpG2XAW4IbYgVIZrHmsFA==" saltValue="9Y8XfHoGMYVQCVgDdOGMJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zrW4p9cyhZ/Mrwdnk8yftTCDbP5g8lp8Lp0DVAZYo5lT9OjLgzcX/0ZAu6HJYqQ/tTXimZTEUgO3AZb2KMR8ZQ==" saltValue="0VPzxafKhNQNzz5WG9+Paw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18619,7 +18619,7 @@
         <v>172</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>265</v>
@@ -18661,7 +18661,7 @@
         <v>190</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>265</v>
@@ -18704,7 +18704,7 @@
         <v>189</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>265</v>
@@ -18743,7 +18743,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RF3cAu9PD9kDJtcDu7104DtTJjMElBcDS0eBGq0ojbTX3JpJPhQ8hj/NDuvRNvosNVOLp4rWFk77Z1/FSOfnew==" saltValue="wKAvMqESKgIyuQOyT62grA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PUVPUPzH+nz5yD5Uil/q/kBrMFL2QFFtzb6yAhN6Et/mhfj/xUlA+RwnGYzb8I6wFRAsDncom/WluQi7aF9xLQ==" saltValue="6AjE2FBwwgH2CsGBc5rCAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18779,13 +18779,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -18794,7 +18794,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -18802,7 +18802,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -18810,7 +18810,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -18818,7 +18818,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -18826,7 +18826,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -18834,7 +18834,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -18842,7 +18842,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -18850,7 +18850,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -18858,7 +18858,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18878,28 +18878,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="F13" s="23" t="s">
         <v>100</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>101</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -18916,7 +18916,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -18933,7 +18933,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -18950,7 +18950,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -18967,7 +18967,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -18984,7 +18984,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -19001,7 +19001,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -19018,7 +19018,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -19035,7 +19035,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -19052,7 +19052,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19084,13 +19084,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19100,7 +19100,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -19108,7 +19108,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -19116,7 +19116,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -19124,7 +19124,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -19140,7 +19140,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -19148,7 +19148,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -19156,7 +19156,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -19164,7 +19164,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -19172,7 +19172,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19180,7 +19180,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uqzaZuxNKdY+HP9S8u1OsVIaRqbRB2v5pD3y2PGboI0PV5jEw305roLUVHdeLqS8sO9boyiKCyPd1SASXONhWQ==" saltValue="98dLZXcSFtxYmxRRfsZdwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0Euni7jUUiorm9d1p18ll2gcXQ0DdBWWIrkTSskenw8K6aP0s6pQbAu8FTR1jGyz9QTcsSKHRvYkMGmoi5Qi9Q==" saltValue="eum1OqJrYqw2kMnFn8wsDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19213,19 +19213,19 @@
         <v>123</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19452,19 +19452,19 @@
         <v>134</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>101</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>135</v>
@@ -19607,7 +19607,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+GKxV9yuRu2Tt8VnU1kAxLqkh9N/4rPSzxR0tzulVmAay7QDAgfRBBBUavjBP4uGs8zQAHYsJLat/D7VWuL7Og==" saltValue="wLdnEVXq5EQwukUFooKaCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YA6dZ9M6ce7kqGnmGXNC0ApivuccYurD7dzowXvCJkNzqb6B8jM6eg6ziMQ55F9aK+NzhDeUCIzMJO50dg29gA==" saltValue="dJ1cjz7dLAg+4phspsMRuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19640,19 +19640,19 @@
         <v>123</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -19744,7 +19744,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q8FnyMir0pKWrFYy+oYOjwikebuN3YNUBDWkglne6o0S55QJfZ8uBN+M6RXO0g+yrV2dVB5gR6GE5n5TZLiOvQ==" saltValue="HHFCFbF3wqIVgEKNbCwcGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JSCV2qA1oDZT2/UuVk94Ua4q3iAQ3UPtZcQbyGDr86Iu75ZwymrZHbV+8PjoTdFRvbvVKh0Ujv/hIooLRyDPhg==" saltValue="H+5d5AKe8vXRYvEWEwQ2GQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19908,7 +19908,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="28">
         <f>('Dist. de l''état nutritionnel'!H15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!I15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!J15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!K15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
@@ -20009,7 +20009,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>154</v>
@@ -20059,7 +20059,7 @@
       <c r="P14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DOdHuA7+Xfugia4KndPUloXUshHgBHwa/tefWM7qSNVoJUv8lTnCUFeQw4r9dr7IH4BJsCMWc/BEA6h4gyzw/w==" saltValue="bbcbx42EyWCrQZFs6EYsyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2x4rGOZXXW7H168CsLj5nRiRu9veapNv4sK4HVVfNq7Pj17KOKj/kDxL4jvEPrEwoBBYblooJyOAjTzVc8FY3w==" saltValue="M/r0LXNvEXQe3qlRBh9ISg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20092,7 +20092,7 @@
         <v>160</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="61" t="s">
         <v>161</v>
@@ -20123,7 +20123,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="erQHeScEdPTt9fe5jNDKH3uoKpJIUSBMZvTWFMfxsdkZXNBk93DQqAlBeF0fqnE7+jYTC3voG6hIWGfCDNIZZQ==" saltValue="/P4vYHRpDv4KZa87Lbjflg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ydVa9zeJPFhvNzb5/r7SCtv5ySAERTV8LMFfrsXDgdDxzuckxym6GAvudQSrlOAElm4nA657z2QlGEcKLYAlvQ==" saltValue="aKcB+l1I/Cs7ObJAeWwUFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20166,10 +20166,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20181,7 +20181,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -20195,7 +20195,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -20209,7 +20209,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -20223,7 +20223,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -20245,10 +20245,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -20262,7 +20262,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -20274,7 +20274,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -20286,7 +20286,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -20298,7 +20298,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -20315,19 +20315,19 @@
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20337,11 +20337,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20351,11 +20351,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20365,11 +20365,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20379,11 +20379,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20400,7 +20400,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vDZr9PTcV9LbkHEnF5moUL7gM6+SIG8Q7KFqkJezuDQTfGfnWAH/DDY0mAtbH8bR0UBm4z14jQmrQQxNM+xCSQ==" saltValue="QuAcn+50A/JqjvHo9bEdcg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Vt8jb8gda0pcefwqRXkBxanwzxrJw4sNq5Nh7dOcYtZlOW+kxELcufK8jHOkYuAmeRFTfoPXI5sG0h6gfTkvMg==" saltValue="FUVKDsHg8FWiV73vfqf1Qw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20719,7 +20719,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -20736,7 +20736,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -20753,7 +20753,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -21079,7 +21079,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AIaJaicvWW05BP9kNy7CaC6GW/41iXdDqy2Gbgg+EWjyO1MvXPom9CD/KDZrX6W+rhj7+AFvhdCq9JxyijIuEQ==" saltValue="3EQPO+lM6VFve6VSQIGE/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="N7uGw1NdS1DbfNHJCKEg2kB5EHVV+lDBBcfVyzAYDKOOsqPQzacu8ocgIy8z64w8kJfkUQIw7w0ltYW5NMWmHg==" saltValue="TPAGc1JoLlnfiGQCC3qUJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region2_input.xlsx
+++ b/inputs/fr/demo_region2_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{712C3F09-0C07-4FEC-92B1-4834334A5F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9C62F25-0088-4E47-B71C-9D1E1186E8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="7020" windowWidth="29265" windowHeight="12300" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -4744,14 +4744,14 @@
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -4762,14 +4762,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>19</v>
@@ -4778,7 +4778,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
@@ -4787,17 +4787,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
@@ -4853,17 +4853,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>30</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>32</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>33</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>34</v>
       </c>
@@ -4904,15 +4904,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>36</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>37</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
         <v>38</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
         <v>39</v>
       </c>
@@ -4944,18 +4944,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
         <v>41</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
         <v>42</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
         <v>43</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
         <v>44</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
         <v>45</v>
       </c>
@@ -4996,20 +4996,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
         <v>48</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
         <v>49</v>
       </c>
@@ -5027,7 +5027,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
         <v>50</v>
       </c>
@@ -5037,7 +5037,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
         <v>51</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
         <v>52</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
         <v>53</v>
       </c>
@@ -5061,16 +5061,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
         <v>55</v>
       </c>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
         <v>56</v>
       </c>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
         <v>57</v>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
         <v>58</v>
       </c>
@@ -5109,16 +5109,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>60</v>
       </c>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
         <v>61</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
         <v>62</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
         <v>63</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
         <v>64</v>
       </c>
@@ -5159,12 +5159,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>66</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
         <v>67</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
         <v>68</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
         <v>69</v>
       </c>
@@ -5196,11 +5196,11 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jB83tlc9lUGuSmOIrC+YLcEJglkDDdrn97wScfFLOxC9QGcyLqRaGck/+8LO272dDLZSXpId5Nu7HHX8ZNCNKQ==" saltValue="pa7Y+gMbB6EShJqeQ1ZAqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IQ990WzcZAWUwFgDzmEwXlO1BnlYTTl9N9sOWqsVuVFmG8p27jiSsJJ2i+A9vtNFp8uL/DX5LM9IK8Y/67VGsQ==" saltValue="Ylg5ithMacV6z+K5KAbKzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5217,15 +5217,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>148</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
         <v>173</v>
       </c>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
         <v>174</v>
       </c>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
         <v>184</v>
       </c>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
         <v>181</v>
       </c>
@@ -5272,83 +5272,83 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="auqb/ZcbcffNSC14Z0zulge6LLNMYLl1ZydxTXR02NMCI62lU0ldWrCG1rORZjdGyYi6nzzN9uwVeR0zpahYUw==" saltValue="rKe2Ozjxb10EJrMRwMrCaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+mdwiPqsNj38++rCw11RCsNLjR5gEeXnBm/bJ/VucvLJ2PyIfpDCKH3Itu2GT0YjSN43oPN94Uic0DoFPAvnhw==" saltValue="3ua59bwP8VMzbI0R+IJifw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5366,89 +5366,89 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.140625" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="v9EijCOKkpqOFhnxyaHcR3K8+iBGVj2bHM4wQXET1ggM+jhzMixVIVoHuk/QCV5vmW2OHeuoQCnoQ/kw4W8MdA==" saltValue="5m09CiDulb0fzd4BNC1hng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CHxSE+JfjsILM0ZpconxR/XPHmqOoeoaj8O2+vsHOFs+TpU+r3fSMuVdpS0c60XmJaV9eI+5D1UEnkI7IM3Nrw==" saltValue="yZXjZz3uhIx1V6IgRVfq5A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5465,9 +5465,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>90</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>198</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>197</v>
       </c>
@@ -5563,7 +5563,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="z9eDTAKSNZSd/0uCJy+lntb2Wf1XIlnIyIeAfxEVpIalqbmLcmdF+/FW3I2S8uYQnJy9ZeBKD1bZxVCWgjENgA==" saltValue="rFCGEh+AEhApXBfb1oKJxw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yUoI0l7eTEdpE5GaoWnmSUr7g5iqHsPcJd3zh49Os5+K1cuwbU1c1ek7G03Erpe2cwk4im7Pywssir1tMtIrYQ==" saltValue="U+FIUQFnb5rvoBa3o5JMNg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5580,19 +5580,19 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>200</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>164</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>176</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>177</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>181</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
         <v>183</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>184</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>149</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>191</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>192</v>
       </c>
@@ -6151,10 +6151,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>103</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>162</v>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>173</v>
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>174</v>
@@ -6348,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>2</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>179</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>180</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
         <v>182</v>
       </c>
@@ -6532,10 +6532,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
         <v>78</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
         <v>169</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
         <v>170</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
         <v>171</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
         <v>172</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6785,7 +6785,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>199</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>167</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>168</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>175</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>178</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
         <v>186</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>187</v>
@@ -7143,7 +7143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
         <v>188</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
         <v>189</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
         <v>190</v>
       </c>
@@ -7275,11 +7275,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="juTFj+ulUMu+AY/3B6KlbpELRKUKL3PSgW2f+dLN91rXYkovW6aNza9cZsv22Uvb66Okf/TAzbAXIeIdDEWKvg==" saltValue="Hm7u8l0MxnmipRi9OMLOuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Xnnpz2H57Jp0v3IDVrlo8WJsCA5QCWVsQRPd1oCTbm9pk6KUkKnkXzvwNRV+bWbNcs68+MVnJLISENZMkpwWew==" saltValue="NVpEnUysGnhHS47ODaAtmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7294,30 +7294,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>203</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WVj+aQkKcQVVR3RW/DlymYAjrrGGLYqpucg/omeBaJfaZOO4sG4jkY4YpVDNeDHhj7oH1dlrq1y953w1LMi1QQ==" saltValue="AOpJzi2cbaEgZ8Fyn5IidQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="a8Nouxa8UTw0boKBpOfKCJfTKdIXmxVc+gtQUfdw6uXKIk0fFA7fL6xqmLwP6EmuuJ34F+qoyMnr0pMG9NCnSQ==" saltValue="HibUSRvqUJlHv13iWXmX1w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7333,16 +7333,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="35"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>205</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>206</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>207</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>208</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>209</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>210</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>211</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>212</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>213</v>
       </c>
@@ -7521,11 +7521,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xI1D0ZPrdQBXr9Z38VoWtUQ8PLFL5PV+A87l2QUusr73F3hHpb/vU7WbhbOfcUJBFa7QVC4H1DwGfqqfV27GwA==" saltValue="RAyT5t0WgiCFd/3eHyiAvA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2/PpPfVY+WBsBG5xC/8OwqIkDOsbvLM41foGDGKkj+GxI7uu9eGWPfh7/TB72MMbIYdfeE8YqWtnWrCIK4xNag==" saltValue="1xl3ycmcEsdbTy+PeCdZPw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7543,20 +7543,20 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>200</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>89</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
         <v>164</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
         <v>8</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
         <v>12</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>176</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
         <v>177</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
         <v>181</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
         <v>183</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>184</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
         <v>149</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
         <v>185</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
         <v>191</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>192</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8238,7 +8238,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>103</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>162</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="92" t="s">
         <v>173</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="92" t="s">
         <v>174</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="93" t="s">
         <v>2</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
         <v>179</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
         <v>180</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
         <v>182</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8610,7 +8610,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>78</v>
       </c>
@@ -8658,7 +8658,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
         <v>169</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>170</v>
@@ -8747,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
         <v>171</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
         <v>172</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8851,7 +8851,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>199</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
         <v>167</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
         <v>168</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
         <v>175</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
         <v>178</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>186</v>
@@ -9119,7 +9119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
         <v>187</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
         <v>188</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
         <v>189</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>190</v>
       </c>
@@ -9296,7 +9296,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d3bJSj34VdinsAh69JdarKbNjIvMJQQSHTZl/b2W0qZEp01mfXuaDQBlfg54JY60kvgwK4QUUdZ601GXc77rtw==" saltValue="2kOWdLvnuquSCDQXD52OVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tR4UX+jl2S41lULIO0ottMgXMh0/t/Kh6v8E1kBvVW/KLbQUXWsb78cLu88B3/Tp88E/jFsxtvMebSsTunW5PA==" saltValue="np1zw6zaPNXzARFG9vai4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9312,22 +9312,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>148</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>161</v>
       </c>
@@ -9379,7 +9379,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>162</v>
       </c>
@@ -9396,7 +9396,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>163</v>
       </c>
@@ -9413,7 +9413,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>164</v>
       </c>
@@ -9430,7 +9430,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>165</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>166</v>
       </c>
@@ -9468,7 +9468,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>167</v>
       </c>
@@ -9487,7 +9487,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>168</v>
       </c>
@@ -9506,7 +9506,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>169</v>
       </c>
@@ -9523,7 +9523,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>170</v>
       </c>
@@ -9540,7 +9540,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>171</v>
       </c>
@@ -9557,7 +9557,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>172</v>
       </c>
@@ -9574,7 +9574,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
         <v>173</v>
       </c>
@@ -9593,7 +9593,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="92" t="s">
         <v>174</v>
       </c>
@@ -9612,7 +9612,7 @@
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -9633,7 +9633,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>175</v>
       </c>
@@ -9650,7 +9650,7 @@
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>8</v>
       </c>
@@ -9669,7 +9669,7 @@
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>11</v>
       </c>
@@ -9688,7 +9688,7 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>12</v>
       </c>
@@ -9707,7 +9707,7 @@
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>176</v>
       </c>
@@ -9726,7 +9726,7 @@
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>177</v>
       </c>
@@ -9747,7 +9747,7 @@
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>178</v>
       </c>
@@ -9766,7 +9766,7 @@
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>179</v>
       </c>
@@ -9783,7 +9783,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>180</v>
       </c>
@@ -9800,7 +9800,7 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>181</v>
       </c>
@@ -9817,7 +9817,7 @@
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>182</v>
       </c>
@@ -9836,7 +9836,7 @@
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>183</v>
       </c>
@@ -9853,7 +9853,7 @@
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>184</v>
       </c>
@@ -9872,7 +9872,7 @@
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>149</v>
       </c>
@@ -9889,7 +9889,7 @@
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>185</v>
       </c>
@@ -9908,7 +9908,7 @@
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>186</v>
       </c>
@@ -9927,7 +9927,7 @@
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>187</v>
       </c>
@@ -9946,7 +9946,7 @@
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>188</v>
       </c>
@@ -9965,7 +9965,7 @@
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>189</v>
       </c>
@@ -9984,7 +9984,7 @@
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>190</v>
       </c>
@@ -10003,7 +10003,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>191</v>
       </c>
@@ -10020,7 +10020,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>192</v>
       </c>
@@ -10042,7 +10042,7 @@
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4Ob7ZbspsSbJK0HuG5jmiB/u88t+1pEQZGo6nvpn4sKLwgYk+VAMsWca3b08/pPrxFiXvSjpojfl5Ccy7a5cBw==" saltValue="VRcS+nmFn3Csx2RMGR95uw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OqlqhLx8TlZEsB9+5D33KZaYEPyyxJj+TARFdbKMH9SPHBC91Qupn9dyuRaaXOKNB4Vul5GpM/2vOIIDay2ahg==" saltValue="RDIRmKZL6g22HJB8+tPYgg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10058,22 +10058,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>219</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>112</v>
       </c>
@@ -10137,7 +10137,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>99</v>
       </c>
@@ -10166,7 +10166,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>100</v>
       </c>
@@ -10195,7 +10195,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>101</v>
       </c>
@@ -10224,7 +10224,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>102</v>
       </c>
@@ -10253,7 +10253,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>125</v>
       </c>
@@ -10274,7 +10274,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>126</v>
       </c>
@@ -10295,7 +10295,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>127</v>
       </c>
@@ -10316,7 +10316,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>128</v>
       </c>
@@ -10337,7 +10337,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>72</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>73</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>74</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>75</v>
       </c>
@@ -10416,7 +10416,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XDzbz/5GfFRlbfN+2uLQVKEvqBE2YH/H2r6ea+M5gfh9mMuJnDd+eO/JoAoW9HYCRlp2SdY1bCilNJ8zBCosxA==" saltValue="KWrY949TxFtbc3GhUNN9rg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rM0buH6PIkYbjoc7P8kAi4OR1vcv3U7OYqUAIhKEr0n2RDX25o8/kKu9kYK9/QoiZdcxbSLdDeOC6P0HIujyHA==" saltValue="S7ePW7nP9pSFX1MGFaqY+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10432,15 +10432,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.5703125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>220</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>221</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
         <v>154</v>
@@ -10514,7 +10514,7 @@
       </c>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
         <v>157</v>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
         <v>112</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
         <v>154</v>
@@ -10581,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
         <v>157</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
         <v>99</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
         <v>154</v>
@@ -10646,7 +10646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
         <v>157</v>
@@ -10667,7 +10667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
         <v>100</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
         <v>154</v>
@@ -10711,7 +10711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
         <v>157</v>
@@ -10732,7 +10732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
         <v>101</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>154</v>
@@ -10776,7 +10776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
         <v>157</v>
@@ -10797,7 +10797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="101" t="s">
         <v>158</v>
       </c>
@@ -10820,14 +10820,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>222</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
         <v>154</v>
@@ -10874,7 +10874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
         <v>157</v>
@@ -10895,7 +10895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="138" t="s">
         <v>112</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
         <v>154</v>
@@ -10939,7 +10939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
         <v>157</v>
@@ -10960,7 +10960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="138" t="s">
         <v>99</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
         <v>154</v>
@@ -11004,7 +11004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
         <v>157</v>
@@ -11025,7 +11025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="138" t="s">
         <v>100</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
         <v>154</v>
@@ -11069,7 +11069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
         <v>157</v>
@@ -11090,7 +11090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
         <v>101</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
         <v>154</v>
@@ -11134,7 +11134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
         <v>157</v>
@@ -11155,7 +11155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="101" t="s">
         <v>158</v>
       </c>
@@ -11178,14 +11178,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D35" s="102"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102"/>
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="103" t="s">
         <v>223</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
         <v>154</v>
@@ -11232,7 +11232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
         <v>157</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="138" t="s">
         <v>112</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
         <v>154</v>
@@ -11297,7 +11297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
         <v>157</v>
@@ -11318,7 +11318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="138" t="s">
         <v>99</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
         <v>154</v>
@@ -11362,7 +11362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
         <v>157</v>
@@ -11383,7 +11383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="138" t="s">
         <v>100</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
         <v>154</v>
@@ -11427,7 +11427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
         <v>157</v>
@@ -11448,7 +11448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
         <v>101</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
         <v>154</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
         <v>157</v>
@@ -11513,7 +11513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="104" t="s">
         <v>158</v>
       </c>
@@ -11537,7 +11537,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dOXaKBa+YgyYqDFfLrojwj0afcaFNL79K63ng4Kbbpb+wipzT/3OvsJXTIccqiMYVjwmW4CWa5wyopn84nDu/A==" saltValue="UPwcPQmN6TaugnusrFM0CQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="el/lo5Jtw2m+RbDPlpCr29jpzEF3AxhepFduam7CXa2myy2+WQpgCx4osiWEjQ1jR7FM4qeySKXVP0cRoBINyQ==" saltValue="Lv7yAUFKkD4olNIfSA3EnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11571,14 +11571,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.42578125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.85546875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>79</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11640,7 +11640,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11673,7 +11673,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11706,7 +11706,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11739,7 +11739,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11772,7 +11772,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11805,7 +11805,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11838,7 +11838,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11871,7 +11871,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11904,7 +11904,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11937,7 +11937,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -11970,7 +11970,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -12003,7 +12003,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12036,7 +12036,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12069,7 +12069,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12092,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12115,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12138,7 +12138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12184,7 +12184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12207,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12230,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12276,7 +12276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12322,7 +12322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12345,7 +12345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12391,7 +12391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12460,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12506,7 +12506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12529,7 +12529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12552,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12598,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12621,7 +12621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12645,7 +12645,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8gHW9LJqalghXvjONhBUzC3O9vPL8zTrELXdOeq+cDpdtwZqiYV05InkM8ADyTIpm/SyYTP/7ggdWlh1amN1+Q==" saltValue="qCRewtGG3MXDr6QHxQ6OfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GubZ2JmQFfCGpbNPv71rXOlZVlI1E8c77VO69aSEjWbvpiHA7k/Jv6TedpeboGUFls4DhgVsyDtPc7YV4WeSNA==" saltValue="NzKK66URGb097YnjAGGEZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12667,22 +12667,22 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>58</v>
@@ -12697,7 +12697,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>225</v>
       </c>
@@ -12707,7 +12707,7 @@
       <c r="E3" s="112"/>
       <c r="F3" s="112"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
         <v>41</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
         <v>42</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
         <v>43</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
         <v>44</v>
       </c>
@@ -12775,13 +12775,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="116"/>
       <c r="D8" s="100"/>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>232</v>
       </c>
@@ -12799,14 +12799,14 @@
       </c>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="116"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100"/>
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="105" t="s">
         <v>226</v>
       </c>
@@ -12816,7 +12816,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>227</v>
       </c>
@@ -12826,7 +12826,7 @@
       <c r="F12" s="100"/>
       <c r="G12" s="117"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="121" t="s">
         <v>228</v>
       </c>
@@ -12844,7 +12844,7 @@
       </c>
       <c r="G13" s="117"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="121" t="s">
         <v>229</v>
       </c>
@@ -12862,7 +12862,7 @@
       </c>
       <c r="G14" s="117"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="121" t="s">
         <v>230</v>
       </c>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12889,7 +12889,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>231</v>
       </c>
@@ -12900,7 +12900,7 @@
       <c r="F17" s="124"/>
       <c r="G17" s="117"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125" t="s">
         <v>81</v>
       </c>
@@ -12918,7 +12918,7 @@
       </c>
       <c r="G18" s="117"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="125" t="s">
         <v>82</v>
       </c>
@@ -12936,7 +12936,7 @@
       </c>
       <c r="G19" s="117"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="125" t="s">
         <v>83</v>
       </c>
@@ -12954,7 +12954,7 @@
       </c>
       <c r="G20" s="117"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="125" t="s">
         <v>84</v>
       </c>
@@ -12972,7 +12972,7 @@
       </c>
       <c r="G21" s="117"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="125" t="s">
         <v>85</v>
       </c>
@@ -12989,7 +12989,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125" t="s">
         <v>86</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="125" t="s">
         <v>87</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="125" t="s">
         <v>88</v>
       </c>
@@ -13040,14 +13040,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KiPkjtDm8J/k1gCICn5OzbyEnRZQgFEt9LxnmikwfCUuCkKGfeBcn+sSEJNM3Pfs9kcu2Fczw1HfAGxG3EvIVw==" saltValue="/AJnv+EcHPhGORAyi7HtqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jzNHool6XNHjjtNCv10YAS6GBApVysR3O4ntTvVmUgTGCim+sN3nLL7OqLd8gTmYLFGqkwuU1JJFuZXA++S8HA==" saltValue="4kUJoV/HVWTIBUgmwnLvEw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13064,23 +13064,23 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.85546875" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="126" t="s">
         <v>215</v>
       </c>
@@ -13114,7 +13114,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>90</v>
@@ -13146,7 +13146,7 @@
       <c r="O3" s="126"/>
       <c r="P3" s="126"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
         <v>236</v>
       </c>
@@ -13174,7 +13174,7 @@
       <c r="O4" s="126"/>
       <c r="P4" s="126"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
         <v>237</v>
       </c>
@@ -13202,7 +13202,7 @@
       <c r="O5" s="126"/>
       <c r="P5" s="126"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
         <v>238</v>
       </c>
@@ -13230,7 +13230,7 @@
       <c r="O6" s="126"/>
       <c r="P6" s="126"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
         <v>91</v>
       </c>
@@ -13261,7 +13261,7 @@
       <c r="O7" s="126"/>
       <c r="P7" s="126"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
         <v>236</v>
       </c>
@@ -13289,7 +13289,7 @@
       <c r="O8" s="126"/>
       <c r="P8" s="126"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
         <v>237</v>
       </c>
@@ -13317,7 +13317,7 @@
       <c r="O9" s="126"/>
       <c r="P9" s="126"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
         <v>238</v>
       </c>
@@ -13345,7 +13345,7 @@
       <c r="O10" s="126"/>
       <c r="P10" s="126"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
         <v>93</v>
       </c>
@@ -13376,7 +13376,7 @@
       <c r="O11" s="126"/>
       <c r="P11" s="126"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
         <v>236</v>
       </c>
@@ -13404,7 +13404,7 @@
       <c r="O12" s="126"/>
       <c r="P12" s="126"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
         <v>237</v>
       </c>
@@ -13432,7 +13432,7 @@
       <c r="O13" s="126"/>
       <c r="P13" s="126"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
         <v>238</v>
       </c>
@@ -13460,7 +13460,7 @@
       <c r="O14" s="126"/>
       <c r="P14" s="126"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
         <v>94</v>
       </c>
@@ -13491,7 +13491,7 @@
       <c r="O15" s="126"/>
       <c r="P15" s="126"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
         <v>236</v>
       </c>
@@ -13519,7 +13519,7 @@
       <c r="O16" s="126"/>
       <c r="P16" s="126"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
         <v>237</v>
       </c>
@@ -13547,7 +13547,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
         <v>238</v>
       </c>
@@ -13575,7 +13575,7 @@
       <c r="O18" s="126"/>
       <c r="P18" s="126"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
         <v>92</v>
       </c>
@@ -13606,7 +13606,7 @@
       <c r="O19" s="126"/>
       <c r="P19" s="126"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
         <v>236</v>
       </c>
@@ -13634,7 +13634,7 @@
       <c r="O20" s="126"/>
       <c r="P20" s="126"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
         <v>237</v>
       </c>
@@ -13662,7 +13662,7 @@
       <c r="O21" s="126"/>
       <c r="P21" s="126"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
         <v>238</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="O22" s="126"/>
       <c r="P22" s="126"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
         <v>98</v>
       </c>
@@ -13721,7 +13721,7 @@
       <c r="O23" s="126"/>
       <c r="P23" s="126"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
         <v>236</v>
       </c>
@@ -13749,7 +13749,7 @@
       <c r="O24" s="126"/>
       <c r="P24" s="126"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
         <v>237</v>
       </c>
@@ -13777,7 +13777,7 @@
       <c r="O25" s="126"/>
       <c r="P25" s="126"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
         <v>238</v>
       </c>
@@ -13805,12 +13805,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="129" t="s">
         <v>248</v>
       </c>
@@ -13844,7 +13844,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>90</v>
@@ -13876,7 +13876,7 @@
       <c r="O30" s="126"/>
       <c r="P30" s="126"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
         <v>236</v>
       </c>
@@ -13904,7 +13904,7 @@
       <c r="O31" s="126"/>
       <c r="P31" s="126"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
         <v>198</v>
       </c>
@@ -13932,7 +13932,7 @@
       <c r="O32" s="126"/>
       <c r="P32" s="126"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
         <v>197</v>
       </c>
@@ -13960,7 +13960,7 @@
       <c r="O33" s="126"/>
       <c r="P33" s="126"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>91</v>
       </c>
@@ -13991,7 +13991,7 @@
       <c r="O34" s="126"/>
       <c r="P34" s="126"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
         <v>236</v>
       </c>
@@ -14019,7 +14019,7 @@
       <c r="O35" s="126"/>
       <c r="P35" s="126"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
         <v>198</v>
       </c>
@@ -14047,7 +14047,7 @@
       <c r="O36" s="126"/>
       <c r="P36" s="126"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
         <v>197</v>
       </c>
@@ -14075,7 +14075,7 @@
       <c r="O37" s="126"/>
       <c r="P37" s="126"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
         <v>93</v>
       </c>
@@ -14106,7 +14106,7 @@
       <c r="O38" s="126"/>
       <c r="P38" s="126"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
         <v>236</v>
       </c>
@@ -14134,7 +14134,7 @@
       <c r="O39" s="126"/>
       <c r="P39" s="126"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
         <v>198</v>
       </c>
@@ -14162,7 +14162,7 @@
       <c r="O40" s="126"/>
       <c r="P40" s="126"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
         <v>197</v>
       </c>
@@ -14190,7 +14190,7 @@
       <c r="O41" s="126"/>
       <c r="P41" s="126"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
         <v>94</v>
       </c>
@@ -14221,7 +14221,7 @@
       <c r="O42" s="126"/>
       <c r="P42" s="126"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
         <v>236</v>
       </c>
@@ -14249,7 +14249,7 @@
       <c r="O43" s="126"/>
       <c r="P43" s="126"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
         <v>198</v>
       </c>
@@ -14277,7 +14277,7 @@
       <c r="O44" s="126"/>
       <c r="P44" s="126"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
         <v>197</v>
       </c>
@@ -14305,7 +14305,7 @@
       <c r="O45" s="126"/>
       <c r="P45" s="126"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
         <v>92</v>
       </c>
@@ -14336,7 +14336,7 @@
       <c r="O46" s="126"/>
       <c r="P46" s="126"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
         <v>236</v>
       </c>
@@ -14364,7 +14364,7 @@
       <c r="O47" s="126"/>
       <c r="P47" s="126"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
         <v>198</v>
       </c>
@@ -14392,7 +14392,7 @@
       <c r="O48" s="126"/>
       <c r="P48" s="126"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
         <v>197</v>
       </c>
@@ -14420,7 +14420,7 @@
       <c r="O49" s="126"/>
       <c r="P49" s="126"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
         <v>98</v>
       </c>
@@ -14451,7 +14451,7 @@
       <c r="O50" s="126"/>
       <c r="P50" s="126"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
         <v>236</v>
       </c>
@@ -14479,7 +14479,7 @@
       <c r="O51" s="126"/>
       <c r="P51" s="126"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
         <v>198</v>
       </c>
@@ -14507,7 +14507,7 @@
       <c r="O52" s="126"/>
       <c r="P52" s="126"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
         <v>197</v>
       </c>
@@ -14535,16 +14535,16 @@
       <c r="O53" s="126"/>
       <c r="P53" s="126"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="105" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="129" t="s">
         <v>124</v>
       </c>
@@ -14572,7 +14572,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>104</v>
@@ -14598,7 +14598,7 @@
       <c r="O57" s="126"/>
       <c r="P57" s="126"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
         <v>243</v>
       </c>
@@ -14620,7 +14620,7 @@
       <c r="O58" s="126"/>
       <c r="P58" s="126"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
         <v>105</v>
       </c>
@@ -14645,7 +14645,7 @@
       <c r="O59" s="126"/>
       <c r="P59" s="126"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
         <v>243</v>
       </c>
@@ -14667,7 +14667,7 @@
       <c r="O60" s="126"/>
       <c r="P60" s="126"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
         <v>106</v>
       </c>
@@ -14692,7 +14692,7 @@
       <c r="O61" s="126"/>
       <c r="P61" s="126"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
         <v>243</v>
       </c>
@@ -14714,16 +14714,16 @@
       <c r="O62" s="126"/>
       <c r="P62" s="126"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="105" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="129" t="s">
         <v>131</v>
       </c>
@@ -14757,7 +14757,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>81</v>
@@ -14789,7 +14789,7 @@
       <c r="O66" s="126"/>
       <c r="P66" s="126"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
         <v>133</v>
       </c>
@@ -14817,7 +14817,7 @@
       <c r="O67" s="126"/>
       <c r="P67" s="126"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
         <v>134</v>
       </c>
@@ -14845,7 +14845,7 @@
       <c r="O68" s="126"/>
       <c r="P68" s="126"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
         <v>135</v>
       </c>
@@ -14873,7 +14873,7 @@
       <c r="O69" s="126"/>
       <c r="P69" s="126"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
         <v>82</v>
       </c>
@@ -14904,7 +14904,7 @@
       <c r="O70" s="126"/>
       <c r="P70" s="126"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
         <v>133</v>
       </c>
@@ -14932,7 +14932,7 @@
       <c r="O71" s="126"/>
       <c r="P71" s="126"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
         <v>134</v>
       </c>
@@ -14960,7 +14960,7 @@
       <c r="O72" s="126"/>
       <c r="P72" s="126"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
         <v>135</v>
       </c>
@@ -14988,7 +14988,7 @@
       <c r="O73" s="126"/>
       <c r="P73" s="126"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
         <v>83</v>
       </c>
@@ -15019,7 +15019,7 @@
       <c r="O74" s="126"/>
       <c r="P74" s="126"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
         <v>133</v>
       </c>
@@ -15047,7 +15047,7 @@
       <c r="O75" s="126"/>
       <c r="P75" s="126"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
         <v>134</v>
       </c>
@@ -15075,7 +15075,7 @@
       <c r="O76" s="126"/>
       <c r="P76" s="126"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
         <v>135</v>
       </c>
@@ -15103,7 +15103,7 @@
       <c r="O77" s="126"/>
       <c r="P77" s="126"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
         <v>85</v>
       </c>
@@ -15134,7 +15134,7 @@
       <c r="O78" s="126"/>
       <c r="P78" s="126"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
         <v>133</v>
       </c>
@@ -15162,7 +15162,7 @@
       <c r="O79" s="126"/>
       <c r="P79" s="126"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
         <v>134</v>
       </c>
@@ -15190,7 +15190,7 @@
       <c r="O80" s="126"/>
       <c r="P80" s="126"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
         <v>135</v>
       </c>
@@ -15218,7 +15218,7 @@
       <c r="O81" s="126"/>
       <c r="P81" s="126"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
         <v>90</v>
       </c>
@@ -15249,7 +15249,7 @@
       <c r="O82" s="126"/>
       <c r="P82" s="126"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
         <v>133</v>
       </c>
@@ -15277,7 +15277,7 @@
       <c r="O83" s="126"/>
       <c r="P83" s="126"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
         <v>134</v>
       </c>
@@ -15305,7 +15305,7 @@
       <c r="O84" s="126"/>
       <c r="P84" s="126"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
         <v>135</v>
       </c>
@@ -15333,7 +15333,7 @@
       <c r="O85" s="126"/>
       <c r="P85" s="126"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
         <v>91</v>
       </c>
@@ -15364,7 +15364,7 @@
       <c r="O86" s="126"/>
       <c r="P86" s="126"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
         <v>133</v>
       </c>
@@ -15392,7 +15392,7 @@
       <c r="O87" s="126"/>
       <c r="P87" s="126"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
         <v>134</v>
       </c>
@@ -15420,7 +15420,7 @@
       <c r="O88" s="126"/>
       <c r="P88" s="126"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
         <v>135</v>
       </c>
@@ -15448,7 +15448,7 @@
       <c r="O89" s="126"/>
       <c r="P89" s="126"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
         <v>93</v>
       </c>
@@ -15479,7 +15479,7 @@
       <c r="O90" s="126"/>
       <c r="P90" s="126"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
         <v>133</v>
       </c>
@@ -15507,7 +15507,7 @@
       <c r="O91" s="126"/>
       <c r="P91" s="126"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
         <v>134</v>
       </c>
@@ -15535,7 +15535,7 @@
       <c r="O92" s="126"/>
       <c r="P92" s="126"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
         <v>135</v>
       </c>
@@ -15563,7 +15563,7 @@
       <c r="O93" s="126"/>
       <c r="P93" s="126"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
         <v>92</v>
       </c>
@@ -15594,7 +15594,7 @@
       <c r="O94" s="126"/>
       <c r="P94" s="126"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
         <v>133</v>
       </c>
@@ -15622,7 +15622,7 @@
       <c r="O95" s="126"/>
       <c r="P95" s="126"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
         <v>134</v>
       </c>
@@ -15650,7 +15650,7 @@
       <c r="O96" s="126"/>
       <c r="P96" s="126"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
         <v>135</v>
       </c>
@@ -15678,7 +15678,7 @@
       <c r="O97" s="126"/>
       <c r="P97" s="126"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
         <v>95</v>
       </c>
@@ -15709,7 +15709,7 @@
       <c r="O98" s="126"/>
       <c r="P98" s="126"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
         <v>133</v>
       </c>
@@ -15737,7 +15737,7 @@
       <c r="O99" s="126"/>
       <c r="P99" s="126"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
         <v>134</v>
       </c>
@@ -15765,7 +15765,7 @@
       <c r="O100" s="126"/>
       <c r="P100" s="126"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
         <v>135</v>
       </c>
@@ -15793,12 +15793,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="105" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="129" t="s">
         <v>90</v>
       </c>
@@ -15832,7 +15832,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15862,7 +15862,7 @@
       <c r="O105" s="126"/>
       <c r="P105" s="126"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
         <v>133</v>
       </c>
@@ -15890,7 +15890,7 @@
       <c r="O106" s="126"/>
       <c r="P106" s="126"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
         <v>134</v>
       </c>
@@ -15918,7 +15918,7 @@
       <c r="O107" s="126"/>
       <c r="P107" s="126"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
         <v>135</v>
       </c>
@@ -15946,11 +15946,11 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="67A6p0fWU2Q3kCmejZV7UUukE2BgvRWPSP43lyS2lJNSHWYN9doDkXMX7HOWfgFrKbotENAEVj6i/SFfzJCLow==" saltValue="hlS4zv7TlYk7dOlvZloj3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jif6XsICjPYxpQspeoDkZMcVUmUzTMiwP34InLJgSsvVgLz1SX/VNbxrzR+aOmMKIma7AlaZNMAx+L4mShfX0Q==" saltValue="6nwNWyV56DfW0IStFnGhaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15967,24 +15967,24 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
         <v>0</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="121" t="s">
         <v>249</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>250</v>
@@ -16046,12 +16046,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="110" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="125" t="s">
         <v>184</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="125" t="s">
         <v>177</v>
       </c>
@@ -16091,7 +16091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="125" t="s">
         <v>192</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
@@ -16119,12 +16119,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="105" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>176</v>
@@ -16145,16 +16145,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="105" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="133" t="s">
         <v>248</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>256</v>
@@ -16198,7 +16198,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="133" t="s">
         <v>124</v>
       </c>
@@ -16221,13 +16221,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="105" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
         <v>72</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="121" t="s">
         <v>165</v>
       </c>
@@ -16259,7 +16259,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uWQTd6vNGVjNQTwiiI2yjS1HqHVEZgjkvRVtZY0cv7Qk52KAeY7biJJErWNgU9BeS4BNRmRXfs/vK75Lqw2Rzw==" saltValue="YkfV3E3yvIJAA6201wKR6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="N3kGkZpyvmtlTs45VcUQAJceedWLsST8nKugJCjDXLcmToP+TiCFp9rvfCl18cPxLyhZ04pEIKXx/PgoPo5NAg==" saltValue="EdkIUfONgNtNdmP0iCH4jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16277,16 +16277,16 @@
       <selection activeCell="E6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.140625" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.140625" style="35"/>
+    <col min="7" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
         <v>148</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
         <v>161</v>
       </c>
@@ -16324,7 +16324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
         <v>259</v>
@@ -16342,7 +16342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="92" t="s">
         <v>173</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
         <v>259</v>
@@ -16380,7 +16380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
         <v>174</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
         <v>259</v>
@@ -16418,7 +16418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
         <v>2</v>
       </c>
@@ -16438,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
         <v>259</v>
@@ -16456,7 +16456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
         <v>178</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
         <v>259</v>
@@ -16494,7 +16494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="92" t="s">
         <v>182</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
         <v>259</v>
@@ -16532,14 +16532,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="S0D2/HbzZRHwkkuCCUfrX2wgq77MBj8e4h4z16XK9wUEgQshSxWDJxXKD5pIe7BzYGOl3+4BtKqw+rUL8cKn5w==" saltValue="fYcTaZ+fc+ITxUNMNfq3SA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YiKtg2FOgHFp2S2SV25c2ebPZixCvpJneKNnG+6b+Dkzho/Ve+Q1P+jmlWGuONxhx0ciBMKOn5mPntd92KEP3g==" saltValue="xTgG6VKEo4upvO862VO6CQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16556,15 +16556,15 @@
       <selection activeCell="O19" sqref="E19:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16607,12 +16607,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>164</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
         <v>169</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
         <v>170</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
         <v>171</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>172</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="92" t="s">
         <v>173</v>
       </c>
@@ -16876,7 +16876,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="s">
         <v>174</v>
       </c>
@@ -16920,7 +16920,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
         <v>2</v>
       </c>
@@ -16964,7 +16964,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
         <v>177</v>
       </c>
@@ -17008,7 +17008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
         <v>178</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
         <v>181</v>
       </c>
@@ -17096,7 +17096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
         <v>182</v>
       </c>
@@ -17140,13 +17140,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="92" t="s">
         <v>166</v>
       </c>
@@ -17190,7 +17190,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="92" t="s">
         <v>167</v>
       </c>
@@ -17234,7 +17234,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="92" t="s">
         <v>168</v>
       </c>
@@ -17278,7 +17278,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="92" t="s">
         <v>175</v>
       </c>
@@ -17322,20 +17322,20 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lanwZNeR85nr1O4OsuRfqAHp8yPks8cN9tTVWkfY26uO06MeHSO3lHHo3y3/qWKEO5H9jV22+1Vzr4+L4U8/IA==" saltValue="1wPbOenkV+75eIpPKUWL5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FyM/ATeecF9tWcXAL0ocYwu4Du4r4syzu4zkHIonF7cySuYhbdcscCYjtLFLObJqLJjisyOGkCp7kMRkCYslvg==" saltValue="gCu5aBQlfrZ9krlJNDBlQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17352,15 +17352,15 @@
       <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17379,12 +17379,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>149</v>
       </c>
@@ -17404,7 +17404,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>263</v>
       </c>
@@ -17415,7 +17415,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="92" t="s">
         <v>153</v>
       </c>
@@ -17436,7 +17436,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KX75Ibx8KqeqNuu801AUOHx0aItHX1nV5tAGUos23x+kPUCdzKZkW+xHeT06NyJvs/2U8DGVPZyurfVkYzLPOA==" saltValue="yB6z7EZAJ9XUVTc2gnOtRw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FAlFpTpgHxvZhkTDqE6B7kiKMlvZ7yQBV1Az/k3LDnNfAe1NJdOODcFlndylRb6ABrv40ezDDfNkdQqfZzXDzQ==" saltValue="qrDiGHfKEDMtX1BzDLUL9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17453,20 +17453,20 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.5703125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="35"/>
+    <col min="8" max="8" width="17.5703125" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>148</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>185</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
         <v>266</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
         <v>267</v>
       </c>
@@ -17558,7 +17558,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>184</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
         <v>267</v>
       </c>
@@ -17604,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
         <v>198</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
         <v>267</v>
       </c>
@@ -17647,7 +17647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>177</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
         <v>267</v>
       </c>
@@ -17693,7 +17693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
         <v>198</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
         <v>267</v>
       </c>
@@ -17736,7 +17736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>163</v>
       </c>
@@ -17762,7 +17762,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
         <v>267</v>
       </c>
@@ -17783,7 +17783,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
         <v>198</v>
       </c>
@@ -17807,7 +17807,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
         <v>267</v>
       </c>
@@ -17828,7 +17828,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>168</v>
       </c>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
         <v>266</v>
       </c>
@@ -17876,7 +17876,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>166</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
         <v>266</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>167</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>266</v>
       </c>
@@ -17968,7 +17968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>189</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
         <v>266</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
         <v>267</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>190</v>
       </c>
@@ -18060,7 +18060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
         <v>266</v>
       </c>
@@ -18080,7 +18080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
         <v>267</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>188</v>
       </c>
@@ -18126,7 +18126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
         <v>266</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
         <v>267</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>187</v>
       </c>
@@ -18192,7 +18192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
         <v>266</v>
       </c>
@@ -18212,7 +18212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
         <v>267</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>186</v>
       </c>
@@ -18258,7 +18258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
         <v>266</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
         <v>267</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>192</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
         <v>266</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
         <v>267</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
         <v>91</v>
       </c>
@@ -18387,7 +18387,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
         <v>266</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
         <v>267</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
         <v>183</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
         <v>266</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
         <v>191</v>
       </c>
@@ -18499,7 +18499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
         <v>266</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
         <v>176</v>
       </c>
@@ -18545,7 +18545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
         <v>266</v>
       </c>
@@ -18566,7 +18566,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AGgG9W3RLARmt9TbLr0Ma0Rk/D0qfQeM/tiuzIvsjnstmk5jfbkdom/zq+gE7FqAIFyEhbhuaOWxQk241e8kNw==" saltValue="fiIfL01X2wXuT8Kb8iM/GQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YLRiYka+kNeWmLNCnLO7JEzwjHyMGLFMJAgG0Uf1qAWgaX32wLE7CFP5yQIFiqINEqzhieMnZ/Kday9sbF0ghQ==" saltValue="hvkDahB17Hjo069GSAqZhw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18583,16 +18583,16 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
         <v>148</v>
       </c>
@@ -18614,7 +18614,7 @@
       </c>
       <c r="H1" s="98"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>162</v>
       </c>
@@ -18638,7 +18638,7 @@
       </c>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
         <v>266</v>
       </c>
@@ -18656,7 +18656,7 @@
       </c>
       <c r="H3" s="136"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>180</v>
       </c>
@@ -18680,7 +18680,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>266</v>
@@ -18699,7 +18699,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>179</v>
       </c>
@@ -18723,7 +18723,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>266</v>
@@ -18743,7 +18743,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xvJFQzXZlNxHZEUiTzomdu6SZsvULjLGRGxPVYXcL9RzfRCl+IVkO18IW2GdDk+jYTHRUK8nhIo6B5eFj2cKwQ==" saltValue="gTamydH/uDESHaRzHGh5Ag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="74a7UzNBsU3zwmw4dIp4Nc5GZSkdr9ULmaD6vWo5+uhrq8NwmpqtybBmTmi2sJCmvnZTzX+6Qxi7ceCyU5kaSg==" saltValue="gYLUtVQlE/lOZ+dgPsTStg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18759,14 +18759,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -18777,7 +18777,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -18792,7 +18792,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>81</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>82</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>83</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>84</v>
       </c>
@@ -18824,7 +18824,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
         <v>85</v>
       </c>
@@ -18832,7 +18832,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
         <v>86</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>87</v>
       </c>
@@ -18848,7 +18848,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
         <v>88</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>45</v>
       </c>
@@ -18867,7 +18867,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18876,7 +18876,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>89</v>
       </c>
@@ -18897,7 +18897,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
         <v>90</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
         <v>91</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
         <v>92</v>
       </c>
@@ -18948,7 +18948,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
         <v>93</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>94</v>
       </c>
@@ -18982,7 +18982,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>95</v>
       </c>
@@ -18999,7 +18999,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>96</v>
       </c>
@@ -19016,7 +19016,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
         <v>97</v>
       </c>
@@ -19033,7 +19033,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
         <v>98</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>45</v>
       </c>
@@ -19073,7 +19073,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19082,7 +19082,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -19098,7 +19098,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
         <v>104</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
         <v>105</v>
       </c>
@@ -19114,7 +19114,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
         <v>106</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
         <v>107</v>
       </c>
@@ -19130,7 +19130,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
         <v>1</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
         <v>108</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
         <v>109</v>
       </c>
@@ -19154,7 +19154,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
         <v>110</v>
       </c>
@@ -19162,7 +19162,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
         <v>111</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
         <v>45</v>
       </c>
@@ -19180,7 +19180,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HbD/Z++oz3KidfwdnA8xMnkTHz04C1OORmLMhPTIF96v3EJ7KpI6orf+1tRFjzed55qgfXYLOkBnsHAVx/AJug==" saltValue="yfHA8mMJfQP7nEpQ0vfrLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="B8GBHtdiTb12kaKVnCZt5QZSf4krhOM6JChpR5UStgt60nZ34teDCf5ZlzgHav938a5YpRwfjtb7KSzl0zpqZQ==" saltValue="ug92IuFhuvF1c9fyFXXj5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19198,13 +19198,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19228,7 +19228,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>114</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>0.23269074767298425</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>116</v>
@@ -19282,7 +19282,7 @@
         <v>0.37372365733745416</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>117</v>
@@ -19303,7 +19303,7 @@
         <v>0.25929610299234518</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>118</v>
@@ -19324,7 +19324,7 @@
         <v>0.13428949199721643</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19332,7 +19332,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19340,7 +19340,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>119</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -19413,7 +19413,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -19433,7 +19433,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19447,7 +19447,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>124</v>
       </c>
@@ -19491,7 +19491,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>129</v>
       </c>
@@ -19535,7 +19535,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>130</v>
       </c>
@@ -19592,14 +19592,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19607,7 +19607,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="It7PyWfcRxXC0zYy6zmMzul5IcPsSBbGEa+gBqo5SuUPTD6BwZ5SS3MQew5U2sVjrNnBSdEpyC+r2fGb74rOIA==" saltValue="u0OlqNjCRkWtVP8SCL4AlA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dNIzQqd8EhX3frYIaIxxJ21Z0NPQgGkFQOiHTkyqZ0WDElNqKpO5nWlhW2+NeEmhqpTFSCSHc+TedzHWCqmZ4Q==" saltValue="8q/BMtfOas2hPt/SxHHCRA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19625,13 +19625,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19655,7 +19655,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>131</v>
       </c>
@@ -19678,7 +19678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
         <v>133</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
         <v>134</v>
       </c>
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>135</v>
       </c>
@@ -19744,7 +19744,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="B3QzYLe/tX2MBuCP5qWqZ7YJbUUhPgimJSNrHW8+t1eNpaCD+E2FpCgJGcUsViu7eGj6ALWRm8U0udzGDeI00Q==" saltValue="eaOTfZxV6gGhKq4oir7INA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yJOyUXXt/MSUSlwHXZ1A0Zu1p/bdpJFfz2D78UL62GramLW4zYSkatTeZgwRUOn6zkfAhZwx7KCIcuEH0njzxw==" saltValue="ZlnnsvojTSz2q5xTa21z3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19761,13 +19761,13 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
@@ -19817,7 +19817,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -19844,10 +19844,10 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -19876,10 +19876,10 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>103</v>
       </c>
@@ -19930,7 +19930,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>140</v>
       </c>
@@ -19954,7 +19954,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>143</v>
       </c>
@@ -20007,7 +20007,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>47</v>
       </c>
@@ -20036,7 +20036,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>145</v>
       </c>
@@ -20059,7 +20059,7 @@
       <c r="P14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="D2vbBlzgN0vyegGA7GyHG68VYtBrrAEPRUhrSRtXABTzxJexMMVn+l5LC+85401lgQFPyT53nEBMQEMqWDItqA==" saltValue="t+II/8VbZF9UkGGju/xtpg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/FSl/ivH1yOzhhWLzDnlnIOBRsFW7MNPGiv4ybQhCU/t12kjhGKF+i73J65QTf8t7qSHoqnSz2mTBIAadSRh0w==" saltValue="gBXuRoomTIfYlFI8wD9Smw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20076,15 +20076,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>7</v>
       </c>
@@ -20098,7 +20098,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>148</v>
       </c>
@@ -20110,7 +20110,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>152</v>
       </c>
@@ -20123,7 +20123,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TLlS1+EvLS0qLj1zd3hmP6gH+oq3U/dl0BkOuhMPByeJmnJsv0FGSHEplEwrI5RU2hbbFwetkz2vwc5HIWzT6A==" saltValue="GjhpcOxngXJRRrz9oLxKJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oSmN0LDVLHlmWVtjKD55lLshx4EUQzUykeApHvZWoraJWW53xF9lW/T4/GxV4+NiM0Ar1MOYFmzoA9OV9yIMkw==" saltValue="z5GqdsSzdE5Ci2jJONf4EQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20139,15 +20139,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>155</v>
       </c>
@@ -20164,7 +20164,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
@@ -20178,7 +20178,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>112</v>
@@ -20192,7 +20192,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>99</v>
@@ -20206,7 +20206,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>100</v>
@@ -20220,7 +20220,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>101</v>
@@ -20234,7 +20234,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>158</v>
@@ -20243,7 +20243,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
         <v>11</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>112</v>
@@ -20271,7 +20271,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>99</v>
@@ -20283,7 +20283,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>100</v>
@@ -20295,7 +20295,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>101</v>
@@ -20307,7 +20307,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>158</v>
@@ -20318,7 +20318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>12</v>
       </c>
@@ -20334,7 +20334,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>112</v>
@@ -20348,7 +20348,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>99</v>
@@ -20362,7 +20362,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>100</v>
@@ -20376,7 +20376,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>101</v>
@@ -20390,7 +20390,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>158</v>
@@ -20400,7 +20400,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GTtXw8VYEG8D8um6tCrK2rJJ5yZRoEuioOTSdMJ/Fcz2b2R8ymmt3Bp1bDMYFXvl9Qr6/j3scH/mOrGljt2QsQ==" saltValue="QxZ1qG4AtPb2e6GAzhOGNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gDGwkk5TsYyCQNF9MW7PJF/b/gucawQ5YS3BII+ylWpJIpGUTn8a9Ho3u1V4iFA6YtYpmsST6cP7V2y5QXNKiQ==" saltValue="60e6cW0Df5HhXdicc7Mtfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20417,17 +20417,17 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>148</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>161</v>
       </c>
@@ -20462,7 +20462,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>162</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>163</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>164</v>
       </c>
@@ -20513,7 +20513,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>165</v>
       </c>
@@ -20530,7 +20530,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>166</v>
       </c>
@@ -20547,7 +20547,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>167</v>
       </c>
@@ -20564,7 +20564,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>168</v>
       </c>
@@ -20581,7 +20581,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>169</v>
       </c>
@@ -20598,7 +20598,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>170</v>
       </c>
@@ -20615,7 +20615,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>171</v>
       </c>
@@ -20632,7 +20632,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>172</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>173</v>
       </c>
@@ -20666,7 +20666,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>174</v>
       </c>
@@ -20683,7 +20683,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -20700,7 +20700,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>175</v>
       </c>
@@ -20717,7 +20717,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>8</v>
       </c>
@@ -20734,7 +20734,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>11</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>12</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>176</v>
       </c>
@@ -20785,7 +20785,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>177</v>
       </c>
@@ -20802,7 +20802,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>178</v>
       </c>
@@ -20819,7 +20819,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>179</v>
       </c>
@@ -20836,7 +20836,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>180</v>
       </c>
@@ -20853,7 +20853,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>181</v>
       </c>
@@ -20870,7 +20870,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>182</v>
       </c>
@@ -20887,7 +20887,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>183</v>
       </c>
@@ -20904,7 +20904,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>184</v>
       </c>
@@ -20921,7 +20921,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>149</v>
       </c>
@@ -20938,7 +20938,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>185</v>
       </c>
@@ -20955,7 +20955,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>186</v>
       </c>
@@ -20972,7 +20972,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>187</v>
       </c>
@@ -20989,7 +20989,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>188</v>
       </c>
@@ -21006,7 +21006,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>189</v>
       </c>
@@ -21023,7 +21023,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>190</v>
       </c>
@@ -21041,7 +21041,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>191</v>
       </c>
@@ -21058,7 +21058,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>192</v>
       </c>
@@ -21075,11 +21075,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1+lq7e/Ubkt331dqPLLaxnRhC0z2OzEyqRm+FODg/UNTYvReWIhoyyP51Fxsej2/Nf95pYj5QmG44MZpmmI5pQ==" saltValue="82kNsU437ZNPrsbD4qIiNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u+o7rGz04f22JzSemwxuId2mFaXE7twG/AYSv+xD8wp8/iEK/GLm6J+REA24fAz7DfIV5Lk9LeCLJame+prvKA==" saltValue="1FJoYMkfZsyXjk2i1ZJRdg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region2_input.xlsx
+++ b/inputs/fr/demo_region2_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B155432D-1031-444B-9018-F7CDF69BC560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56180192-9A24-4D2D-8344-7A8192C73089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8520" yWindow="6315" windowWidth="29130" windowHeight="12660" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -912,7 +912,7 @@
     <t>Modéré (score HAZ entre -3 et -2)</t>
   </si>
   <si>
-    <t>Élevé (score HAZ entre &lt; -3)</t>
+    <t>Élevé (score HAZ &lt; -3)</t>
   </si>
   <si>
     <t>Amaigrissement (poids-pour-taille)</t>
@@ -5570,7 +5570,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9itLpr3bTU4we1a0GxtpjnZAqRIKw3yrljrgmA8F9lJ+cyjxy2zG2QuMKu0OEBCKcBzYRXBdRGwZq1Z2wFvNIw==" saltValue="wrL2/pm7n2z8YbLUCfikvw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vcvDcQTJjSHBo2WZ/l1D65jBXrKk5eDp9UAVs2jks2BhKMPKEJQ3z2JUE/HidL9N2WS9gj1keuutksF0kCjpAg==" saltValue="/6GT+nwADI496BffuowyTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -6478,7 +6478,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="T6kT7tlTEe8CW1xO9PnON6pF+OQGbBoSdNgnMshEneFQ6+fb1eIehIZIMU0HRyzeLl48SPR0mE1smKzTkdhYtw==" saltValue="J31Byrthzu1im+MAnvbs5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fBSFPUpZd5uQFRNsHNOJorKrVawKnxd8rmw5O5AtjJJK83oqLQudD+dUsQopQDb3ArOAH0WFdX9Yptvq5Dy3ww==" saltValue="EuoCsXkmZq1iz/9qsCvBOg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>
@@ -6642,7 +6642,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GXH0M+h2nnCzdOcDTVcSZlSfdg4pZJeqxWxRsXtbVnz5Atq8kIaCDpueSfD9Ey4V9rlATH/JTZ5Oy/jTgMAd5A==" saltValue="lhjcJ4lwars4h3eF6mgKKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kWmkwl6q9EBrLP1MzwJUFSzA5B+apI4jdofDu6n7DqBvq5MDkchZajQZEDuv6OC//LMzVJjgRQcImub82Mi9AA==" saltValue="OvcNhFi9+2p4ux3JuVEDfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6742,7 +6742,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SJZzfdkCSTqGDTtwxwYOldIiabLE7KP+do+VfrKwPtFg1jYS4WizKP7/njej+AK8MtxviQsaB4WkIV+VutjL7g==" saltValue="BvfJUlbdBDHOxTKhoyCrlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6eZNIWSdJI1MFy8phHJ0bNLDXVH97/qtT6I54DyN+SIe60OU6rpdW6y92vHcoylaDUZhtsW9YnPPbSGg0Tx8+A==" saltValue="LTWQbr3JgGCXy/JgCddPqw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6857,7 +6857,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XG5O+UFjVjUUpaeeGVuqp9DR0iGo+TkXvd0img2HLSejZqzIpdJi9vVWFbYvHGB/0l2kfq90DYJVj2a0HgxpPA==" saltValue="cU/E3f4vHio/5ECmbU3URQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QV9xq4e5YLnGtmt+XKT57gc//Vm3lUm0hRYoqbPSENBNeT4a9gNU0aJJswRsJIuMH9BN0dyV/VYDr7nGSz9QEA==" saltValue="QSPnGr1ulp6RTPY3YD/C5A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8573,7 +8573,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tQcI1yZDpaTDSyI+sgqJWmgCTnCTRMj/E57YecpcqPTcCjuWbbWYVlC40XKna0v59Wynsn9+v+PgKEfT08z2xg==" saltValue="henRbxTMD1uqFde6Pg3rpg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3qVm3xFkkVxt/voT8hPUBsvY6Zw3o5SyhlR3R7SRw1o94gXrzuVhPGNzwZAxQuayRPdoJFyZVxOkXAoSGhgHEA==" saltValue="0AwqZq1dV0PvorOX0X2Qkw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -8611,7 +8611,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0xBTj11eLbBhvgY2QJA+A7CMrFp3yDTkV+zDMTebUI1mMfPaFxdxNbh5VgqAf8WlRSaDP4sedQ97Ogbvrg5Lzw==" saltValue="jRv7jcMO9Z54kbWHOOG7vA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MQh4l/1BZRcrLMan/NgnrN1y5qLL4A/ApxRo8idavec60S6Ww3xJXvXtBV6o3VjvDPSWO2Y09mF2VhivbfkSJw==" saltValue="5Jun0WRIeuKRzRdxx+yDPw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8819,7 +8819,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8Li29kM1w2wywWbMfVKBPyZHbK8tUBXj3V7XHMFOrEEt92AJL8LwO9D5jK3K7lbWyJb+14G1eWsSKbKU+kZ/5g==" saltValue="jkA4iq5Nfut5FE6phgqZwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8LDhXM8/qZljwths3nRdWGTtgze4F4irub17mUzVh5ZNWjJmyQ/IL+SPnQbR+I7GkWQV0Q2cbH2oY2jYDUkS9w==" saltValue="Adza3Y54e74bhpD7Gr16ew==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10590,7 +10590,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="s9vhe7rwFabEBUEKHjWSTSSUj2CoEh4DtundsXt69KDC2mhFMYgrT2w3MJqo1l29bnF9fFqZLZp6ujx3iJkI0A==" saltValue="VDHQxDwQpb4cqRhdqEGG8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Al0nOgNutrhyxF1SywgtRdxNPvz39/54eZgdMnO8D+MpOXpz6J8pq/SsLOLaMBw/9QpaIAJcLhE52mryvHDR7A==" saltValue="AJviIhZeQT6iOgnOziS/gw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11336,7 +11336,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ds+O1akbInK+4hFqkrmkxWumWS0oqx0b7dP1Jrw3NUa2CfDrjTWO41gRvkdqyMAOpGj/KlWHmA7y/TKtSs8G+g==" saltValue="88vbLmTBZW+5Qf876xAu4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qdh+PSgRS3LjU1eQErZm3j697sdYO45EcMiq410BaV8F+HZ8rskwwVHIdD5KXKY0VAnPFklBMAj2zRQIQedXcg==" saltValue="dLwNdEIobki5lh1aWFqUIw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11710,7 +11710,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qOAdFIjFJnX1i253IQnib7rjXVK4Jap+QW/oQEkNPHCo+P9XeFImq39gWktPuxnqxdC26AlrkLlqQFXMS787IQ==" saltValue="UZJYzMdKmX1PzxcwdH3M0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hql4iDD1jGzy21ZdtTcNpPZFk6hWduw0fYunGtiTmNyQUwNBQKBei/J0g5xcvYzoU70+jLd2OvKnq8+VXFfBOA==" saltValue="5GwpF0SNt/UVskolGC8fzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12799,7 +12799,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cprB/3rfLs+mOWMktprmJBbHdPYGF7ddTOK3rboyFFY/IlC/z/avDykNbKTidWuLyKgvUdHBw4r75TUSu9JgUQ==" saltValue="9xw4MU21mQ3Wonv1SRSMgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lKNGH6hgGWIBsmYKqPdV024xNuohvzDdocsB0UjstVkDP9URGoFiIapfKpxoaCSwgmCslZ49UC4jWkhm4h4pGw==" saltValue="lP7EDUVgahKn7mTyey13Rw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -16616,8 +16616,44 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TiXrMod6jwXTNOD0qocM9pMUGOLdMs5+wzwQMg0E9U0IjpVeO8oOU7PzmJiFJdOMHWcyeltAIZKGU2g4a8nBJQ==" saltValue="3WATd2DgoDYwJi7cGCXTlg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2ASHPsft6l6qNF6gWZByenrrmfi8SHfhq/yK2/wFNNQu0t3GLme/g+UtZP3y7AAMM6Ghd38ccNWLyJZsl6l+Ww==" saltValue="y9xA/Mpxuu41LpcZAWnnuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16627,42 +16663,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -17898,7 +17898,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+iiMPDTLQCSxSTAd7WeNta77kUAq7fNVpwfbwM0/or7vIO6JOl5x7SA5SWCNxLL/4oDWk4fLZBtM9hYCNQuA/A==" saltValue="cEY/YE+5fvbIomlf9knRsw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GE3s8ZP8z8htoHO6T3EiWXn1s6BblIs+cKjm8V48pp8ihdlCQmBwXjsywjtETtOSQL6JoP0mvnYopuq0P0aRVA==" saltValue="FjeAyed5IqlUmeuBrnIpQA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26043,7 +26043,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+ALWE0vfBUAywbXW3KFTPeC3qBV/WIbr8YcUV98DvkDkyp1EMvVaaxqs9u8sOjHK0c0OUSkcLb4zaUXGHsAxcw==" saltValue="V2Nf4sln002sEthvsNM5xw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8dT3OiS1DbVzBtXUeUCATCIfNNy+KOYDTmMe6DCg5iO4eMJUhXOWQrLBV7xGS9WxyK1TPwRNzW6FhAknO8kxow==" saltValue="FTG19h9a1m/eHsibXly+Bw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27065,7 +27065,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sfvBXtDQW5oTTtoTVZMkjJ54CvBU+qg1ljXq5PABEFk/Gbod4xz+z/hJ4HhcUaKrpXFkd1faiWXjLY/thLDDcA==" saltValue="xSGWQKhVqQC6/ydBYcOnvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1uwqZkEE9J71JJ894EDW9pdVehwdq2HZ1y5H9TJ8qcwGq6UeAVcrsjwfIbU6wpV+20W+WPrcHsp+7p3AgrMudQ==" saltValue="1CYMuHzzL6AqwO1mcPlQaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27940,7 +27940,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OVrDNhEj1oyBVjowvIdaM6VaWqppZro2z8gb0GlbhvjkhSqSes7DAh22qNArvkJqbhG4dphMHp3YJftGqmCl8A==" saltValue="DzBa+2lD0L9TloBUTSb16Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="scQlpMjVt9I9r6lUInQ/fARBtPgzSt1EDVI9jdOKCt3cNCdQpFUm9yRFXvMUprvb2HwLjjT3xFjojwbadsVitw==" saltValue="Mw7d0/XT7RvRjuw/ZUuNPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -30669,7 +30669,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vmME1t+7dMnKeD2U6g3KkQCq+Vagy78GWH/MbPWoFo4zzx0f/OGIBSqg3q0QyhCZ3ck+rsAuA4BigpGOQDhCgA==" saltValue="w8RwQDmWXsm2zwSeIeVdAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="w5GZfqz/kpHqI43Izqk52rFbcNhh0ZdcTzd/HUNIRrycGDxckaDAqw3/abYftAfnmjQfqN4zS2h4/5vShyuhGg==" saltValue="LJcsSG1+nlI1UIGd5FO8Eg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -30953,7 +30953,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ufz/YqV085fTnWJ6xD4bPMp9+2ELtbfK4ejQ+vMVg8KSprDXDvdMDVM9TgMZ/7CNnsSSrtp/ogK+wCcL5bygJg==" saltValue="T8UmJR/usVuHCBlQjpGKZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4Jj3XWN4fgFW+p8o0oZ5qML0RgNMOgu5/BQX8VsGq3A+CAzqM3s+m29tdRaJxcc8SqoHQmNt/4flyMiLAOzwyg==" saltValue="pq2hEuBQYpc+x8aU/1Csdg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -34768,7 +34768,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lR0KSI0DWM2MjrJ8XuiNPlmrXxM/l7U2k3YwRPjFC2E/A31ZGVBmecgnKIlL89cg113Xt51avtke6nNs5Qs65w==" saltValue="z6GswapO5EOnIaknVMEjtw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="R/sDeiCkJ39MnS/ALuQnDJhvOispfjwn+wRtggWZUWDtZae1WBoBONCpRETHQZ6Fsx0Y1SSI9e2DiHVBZ+9l2g==" saltValue="FsRnrh8XrmCaa4UjHXIjow==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35292,7 +35292,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mJNtjuFZceN9HGyrWk6FYv2BN3d83PbeMePSMQIUd8ZOQorjCTkyiKDXhaQnJOM8lbkmWJuFFMncatuGQ3qDWw==" saltValue="5EsAN6xVKaB3EOTHu/B1dQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2FztYh5fY+wOEVfi7XmsrwbMuVBVtaCZB/G8EUtJI7i84Y9QldiO04qDadykyKm68Y0q1Q+SpEmlpjKRXKK9vA==" saltValue="huTTPJMYuFpXd3z6oSFU8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -35732,7 +35732,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OVA1vACUeHQ8RijHuMGtwgT7lDb1icqbORhqFuLqNt8VZHIltAccmQXEpa51hpdnqzQQzSlizxV43U9vna1tLQ==" saltValue="tBg2xS+x5ZFNjGg0zZi/Tw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hfpB88ahTHyQXWqRT/ByGPTEMGBmyF+zN+JSoDHBRoJlkYBebMOkwj33YTKGMe/TD9j+f4VxXsE8fqvr5xYJ4Q==" saltValue="c/Hmd/QMfErj9ePsq5Nuew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -35747,7 +35747,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36159,7 +36159,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AUmzUA3MJXf+8+5o9ss8OZlLTotTgspLPK+jCtFfCPmsP6NB425ORM/bFA8n+ADmgyCI9kRNwcQKnzJqXp82aQ==" saltValue="4y1GlKhXVI9l0kwoRRaxhA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4R28kJcvCo3ZdqalIPSur2gOjGnTA1yPO1x4tIwxmvuYulKwxTq6a01vEPDg367orqHdwuBGMLSonkoDPL0Lgg==" saltValue="Ykwmuhq0hVgl+Z0YLHQzxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -36296,7 +36296,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="I+hiiMZSwHCXqYXH/BOHw2FXKA2WzkMsEjvUKFm8LViQKGVpahonjMRsZX3MI0MQUcF5SqWcVB4l7wOSuAmD3g==" saltValue="bsDg4MvTahU3tmy70HCV8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rQI1XZhpXnzT5tl68z6BoY58Au9S39qKEsVv/g6kDHzzOTmnngs9wXIjuxIVP0H/dNQOTKZDP9Q99/E5k0E3xw==" saltValue="8CCttH1Zf9gJRd+GO3wXuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -36502,7 +36502,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dy5arOZgndq41N9r1/z3n5xWRDlgxLdv0nd6kGnJ1oTtOUY2GwQQC2V20y8UQ4z7RZx1ASDMoyLHLq+Uj0K5dQ==" saltValue="N26Ls8YUzPXzlDiEt3+b7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VzbPefKrsrMW0ophnCnh8sk/GdDHU5MoQRD6JLI586f4Tn9gYLBVgg4wmHbdE0kkeq96SZJEK5pddQKwgt1vlg==" saltValue="gAt4BUroIpmhLgItZ+nyXA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -36580,7 +36580,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wAlAu7qc7SFcPe0FfQm8fjCo2BC5juXpRT2l9JmqIPOmj9ZUDb/aaRvF1+KSue8Sc5K78W9sXERdUqEEqnmYNw==" saltValue="+rqMEmfClv7TJhkp/nDgEw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SWm2Ia8u9Tqbn+cx/maW6x1QAE4biIYvJCug+h/8j4U1GeT8Is2i5OY9EImTKcE1yX8awu6l+Vt7XlbP26lHhw==" saltValue="n6dt9jbuzmJwfTXw0j/HKg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -36857,7 +36857,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3eshI1lC51rpwUC/d1UQiyEkM4Jv8XzZtE84eR0D4xKxpki6N30mG3z0D16SWcLiHAGqB7S3by5B6QnY9Y8VhQ==" saltValue="IjPMfTmlp2F2x6R08X2XnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TqgqphC0OAee0ZTKE9OsBkAnVSsfQNtIMNW/Jed1pxHDNFd2FOpc64HLERI8/FCmesceErGWFBnlLjt6186dEg==" saltValue="dKDH1NtxmOiFf5viScPP/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -36921,7 +36921,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZV2e05IoIudpPceT9jNi9RHkJqhYWDiZngk8uGvhDGQdj9y7DuMLb4pqknFWs11Z6+j/LRwIsZocGkZWLIOfHQ==" saltValue="HMBLKNkIT11l6u/Fjlofbg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0TYGkU2zYHNVzq79MBr8ptBN28gWGCpbQeZCGCMCm+QSWcY8fgYxC7aZ6rBaU3RUHPh4ObqojpR/H6gu19YDFQ==" saltValue="XeWdy5FWQNKvq2OayR3SXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_region2_input.xlsx
+++ b/inputs/fr/demo_region2_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE099821-AFA6-48B3-8C4D-47F5438A90D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A37E217-9E9B-441D-BD43-86B44A91E7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23280" yWindow="3555" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
     <sheet name="Tendances temporelles" sheetId="51" r:id="rId6"/>
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
-    <sheet name="Paquets IYCF" sheetId="55" r:id="rId8"/>
+    <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
     <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId10"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId11"/>
@@ -32,13 +32,13 @@
     <sheet name="Programmes - population touchée" sheetId="62" state="hidden" r:id="rId17"/>
     <sheet name="Programme - secteurs à risque" sheetId="63" r:id="rId18"/>
     <sheet name="Population des sect. à risque" sheetId="64" state="hidden" r:id="rId19"/>
-    <sheet name="Rapport des cotes IYCF" sheetId="65" r:id="rId20"/>
+    <sheet name="Rapport des cotes ANJE" sheetId="65" r:id="rId20"/>
     <sheet name="Risques des rés. des naissances" sheetId="66" r:id="rId21"/>
     <sheet name="Risques relatifs" sheetId="67" r:id="rId22"/>
     <sheet name="Rapports des cotes" sheetId="68" r:id="rId23"/>
     <sheet name="Programmes-rés. des naissances" sheetId="69" r:id="rId24"/>
     <sheet name="Programmes-anémie" sheetId="70" r:id="rId25"/>
-    <sheet name="Programmes-amaigrissement" sheetId="71" r:id="rId26"/>
+    <sheet name="Programmes-émaciation" sheetId="71" r:id="rId26"/>
     <sheet name="Programmes pour les enfants" sheetId="72" r:id="rId27"/>
     <sheet name="Programmes pour les FE" sheetId="73" r:id="rId28"/>
   </sheets>
@@ -598,9 +598,6 @@
     <t>Sepsis</t>
   </si>
   <si>
-    <t>IPTp</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -613,19 +610,10 @@
     <t>Field</t>
   </si>
   <si>
-    <t>IYCF 1</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>IYCF 2</t>
-  </si>
-  <si>
-    <t>IYCF 3</t>
   </si>
   <si>
     <t>Causes</t>
@@ -937,7 +925,7 @@
     <t>État</t>
   </si>
   <si>
-    <t>Retard de croissance (taille-pour-l'âge)</t>
+    <t>Retard de croissance (taille-pour-âge)</t>
   </si>
   <si>
     <t>Normal (score HAZ &gt; -1)</t>
@@ -952,7 +940,7 @@
     <t>Élevé (score HAZ &lt; -3)</t>
   </si>
   <si>
-    <t>Amaigrissement (poids-pour-taille)</t>
+    <t>Émaciation (poids-pour-taille)</t>
   </si>
   <si>
     <t>Normal (score WHZ &gt; -1)</t>
@@ -1009,7 +997,7 @@
     <t>Prévalence du retard de croissance (%)</t>
   </si>
   <si>
-    <t>Prévalence de l'amaigrissement (%)</t>
+    <t>Prévalence de l'émaciation (%)</t>
   </si>
   <si>
     <t>Prévalence de l'anémie (%)</t>
@@ -1039,7 +1027,7 @@
     <t>Coût</t>
   </si>
   <si>
-    <t>Épisode d'amaigrissement d'un enfant</t>
+    <t>Épisode d'émaciation d'un enfant</t>
   </si>
   <si>
     <t>Décès d'enfant</t>
@@ -1057,7 +1045,7 @@
     <t>Enfant souffrant d'un retard de croissance qui aura 5 ans (au cours de sa vie)</t>
   </si>
   <si>
-    <t>Paquet IYCF</t>
+    <t>Paquet ANJE</t>
   </si>
   <si>
     <t>Population cible</t>
@@ -1073,6 +1061,15 @@
   </si>
   <si>
     <t>Tous</t>
+  </si>
+  <si>
+    <t>ANJE 1</t>
+  </si>
+  <si>
+    <t>ANJE 2</t>
+  </si>
+  <si>
+    <t>ANJE 3</t>
   </si>
   <si>
     <t>Programme</t>
@@ -1141,10 +1138,13 @@
     <t>SFAF pour les femmes enceintes (établissement de santé)</t>
   </si>
   <si>
+    <t>TPIg</t>
+  </si>
+  <si>
     <t>Enrichissement du sel en fer et en iode</t>
   </si>
   <si>
-    <t>Méthode mère kangourou</t>
+    <t>Soins maternals kangourou</t>
   </si>
   <si>
     <t>Supplémentation en nutriments à base de lipides</t>
@@ -1189,7 +1189,7 @@
     <t>WASH: Eau courante</t>
   </si>
   <si>
-    <t>Zinc pour le traitement + SRO</t>
+    <t>SRO+Zn pour le traitement de la diarrhée</t>
   </si>
   <si>
     <t>Supplémentation en zinc</t>
@@ -1273,10 +1273,10 @@
     <t>Retard de croissance</t>
   </si>
   <si>
-    <t>Prévention de l'amaigrissement</t>
+    <t>Prévention de l'émaciation</t>
   </si>
   <si>
-    <t>Traitement de l'amaigrissement</t>
+    <t>Traitement de l'émaciation</t>
   </si>
   <si>
     <t>Résultats des naissances</t>
@@ -1333,7 +1333,7 @@
     <t>Rapport des cote pour des conditions</t>
   </si>
   <si>
-    <t>Amaigrissement (score-HAZ &lt; -2)</t>
+    <t>Émaciation (score-HAZ &lt; -2)</t>
   </si>
   <si>
     <t>Risques relatifs des causes du décès néonatales</t>
@@ -1384,7 +1384,7 @@
     <t>Rapports des cotes pour les femmes avec l'anémie maternelle - supérieur</t>
   </si>
   <si>
-    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
+    <t>Risque relatif des causes du décès par la distribution de la taille-pour-âge (retard de croissance)</t>
   </si>
   <si>
     <t>Cause du décès</t>
@@ -1426,10 +1426,10 @@
     <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
   </si>
   <si>
-    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
+    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (émaciation)</t>
   </si>
   <si>
-    <t>Amaigrissement</t>
+    <t>Émaciation</t>
   </si>
   <si>
     <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
@@ -1480,7 +1480,7 @@
     <t>Rapport des cotes pour allaitement correct par programme - inférieur</t>
   </si>
   <si>
-    <t>Méthode mère kangourou - inférieur</t>
+    <t>Soins maternals kangourou - inférieur</t>
   </si>
   <si>
     <t>Pour MAS par épisode supplémentaire de la diarrhée - inférieur</t>
@@ -1519,7 +1519,7 @@
     <t>Rapport des cotes pour allaitement correct par programme - supérieur</t>
   </si>
   <si>
-    <t>Méthode mère kangourou - supérieur</t>
+    <t>Soins maternals kangourou - supérieur</t>
   </si>
   <si>
     <t>Pour MAS par épisode supplémentaire de la diarrhée - supérieur</t>
@@ -5169,18 +5169,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -5188,7 +5188,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -5197,7 +5197,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -5210,12 +5210,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -5274,14 +5274,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -5325,12 +5325,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -5366,14 +5366,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5415,19 +5415,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5482,13 +5482,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5530,13 +5530,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5577,12 +5577,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C62" s="66">
         <v>0.02</v>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="V1N8wotIuztIq8CCXgh42jfQkID5zqWkO7/RV9FRAo17vvgqCOvwzMoKKU+MUeTJRnDV2v/0DRQNHmeZD/Mkkw==" saltValue="9flsCL0TBjlaNQB1nnhEUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7I6Pu9mHt52CzFHhm3djgCVW1Db2D52/yi7bXToRECilntHvU8z9aLduv1CAFFFjH9hfJIQnfAvGkmd8ikgpfw==" saltValue="w1Lol9b0Oh3qgi3h5tam4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5656,20 +5656,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Couverture de l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Couverture de l'année de référence (2017)</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="53" t="s">
         <v>203</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F1" s="53" t="s">
         <v>204</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B16" s="81">
         <v>0.9</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -6094,7 +6094,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="81">
         <v>0</v>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xkU7kk6/EabIB7a92s1YtMROt8mEvnHAFGD68n3XfUSLPAmLY6IU3dJ+eiZz9qIJ9Qmp6ccIzMtJHacWQtAoxw==" saltValue="/jZFJKRVBvAJFhpjvhMRjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fHzjFYBMdkQ1K/PyLKi5OEYKV+/eQh5Gf8oYD0Qq9gw9icv0e289vgJZbLu9qnCZL9Y6dLAwxkDPhEYI2JESUg==" saltValue="xgx/n/bpsudGFAW36QAxTA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6599,7 +6599,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>207</v>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>190</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>190</v>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xHCIODDe+RZdT1jcduLZxtY5ZphF0YFRX+7ESTGJTUgBNc4piKiwyPowMtoa4XvqOBNBdc9Ui7zlasWukgyojQ==" saltValue="h7Ghe9uMWFSGhLPJqN9c2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="s1zE9UKp9T+Dg4a9iIRvwnrvxCV0vq9UWYVr4PyjVxPAq+8AJLIq2mFPqBL/CzhtTUZRGoJ9H+byYO1dqBgVsQ==" saltValue="C0/PeoX1+hUBxhkLuXNYyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6746,17 +6746,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JAjdwxNOVL8i9WfQmpGacPnqchF7sodyDyU9xiVIhzwAr7L0m+QMRFxFc4ilI6H+yPpEEOwDrsXLRFmanXtoPQ==" saltValue="Wj93fmYMMNQuLX+0RSEWrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EOP//l6qzN7BibTPlRbr9teJ2jB6NOn3cWKbkAYpcN5LkfH6KLepK1ep2c55smFztXR4UzTtAdIawNWUnESgvw==" saltValue="lMJ6ABWrmzRWz3eqbeIE9A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6844,24 +6844,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zQjN9TL397xSP03hdktAQMwpzlib3cqI/XC2K5caz2EGBLdesf5xhtx6eWOvLyCJoLc03+4YRkcOMVpbCslsWw==" saltValue="vxYl12y70/SFuk1UywrAEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="V+bHwQHOqpmQQks5iDtxKxFhMH8rksXLUtwGMC59hbVO4c89xjIcRejl+M01WIO5E5Hgsh1VX8nTse4seuViAg==" saltValue="iMEMsNIo64W0C4/7p6nDVg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6969,54 +6969,54 @@
         <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -7574,10 +7574,10 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -7626,7 +7626,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -7671,7 +7671,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -7720,7 +7720,7 @@
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -7955,10 +7955,10 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -8006,7 +8006,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -8054,7 +8054,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -8102,7 +8102,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -8150,7 +8150,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" s="88">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>211</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -8263,7 +8263,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JdreXzwwamdMcNO/+fLa9bJIPSoBKtv7e8oH28PcWNXlkgy2EfLxvUKBbWAinuDNDu+Blxmqdkakb81fQTmrtQ==" saltValue="KYreghdocaPNWUALvD3JYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gDqElTsHrC9Duc5Q3gOhr6yJmR79bpd1/uFBJh3lToRg+1lE6Ve4hY2V6cW+AWhfMCNtNwbSKFC1kHs8wmZIxA==" saltValue="JsJQqsvs9eQCWAMwplO/XQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0x9kbw5chNJZ+HX3/QPe0FKbAYbhJnS8W8DCKuzdJVh4iBKlsU78/HpGuqjjpzKgDUQ/X7s+whUPYrxZVFL6KQ==" saltValue="JE2WUHKypBchEJ2BfWGEAA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="k24yKoi/HdoUgU6XEbRqBHKptrE/H5QZHiChwFSVbz7eZtXmVi6rvRmjIjeu4acaJXCj9yOd+yoJLPL50kTlWQ==" saltValue="67QsUd+py2fDX/gM7qsEvA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8768,10 +8768,10 @@
         <v>215</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>225</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="71NJsCI6FtRL0DinUpjPUcdAktNGnrXUnmOgGV70zjVdFs9qA9uw9UxoSJDn1TuX93S7PhocmRH9VPYbjqVxOQ==" saltValue="oyqBeoL0929CnQxkF+8Zag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4uTvcUKmJsGIQzHTL5JfqE8L3PRpyd7aXL01oK+1+cpiDp5xXaQmQ1RDQiBMRltKCYWVnZs07Ubb/Svg7TrNbA==" saltValue="w7qWGOjlpd1hJy4bEwEy2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8979,54 +8979,54 @@
         <v>212</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="133">
         <v>0</v>
@@ -9070,7 +9070,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="133">
         <v>1</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="C4" s="133">
         <v>1</v>
@@ -9158,7 +9158,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="C5" s="133">
         <v>1</v>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="C6" s="133">
         <v>1</v>
@@ -9510,7 +9510,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="133">
         <v>0</v>
@@ -9702,10 +9702,10 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="133">
         <v>0</v>
@@ -9750,7 +9750,7 @@
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
       <c r="B19" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="133">
         <v>0</v>
@@ -9794,7 +9794,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -9838,7 +9838,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="133">
         <v>0</v>
@@ -9882,7 +9882,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="91" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C22" s="133">
         <v>0</v>
@@ -10074,10 +10074,10 @@
     </row>
     <row r="27" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="133">
         <v>0</v>
@@ -10122,7 +10122,7 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -10167,7 +10167,7 @@
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="133">
         <v>0</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" s="133">
         <v>0</v>
@@ -10255,7 +10255,7 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C31" s="133">
         <v>0</v>
@@ -10318,7 +10318,7 @@
         <v>211</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="133">
         <v>1</v>
@@ -10362,7 +10362,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="133">
         <v>1</v>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" s="133">
         <v>1</v>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Mr1PRDYclu6hxRD8MuT/bX28pQRe0exAxtz4cC93tZr9HekLM9NYMlirtQFD9mbs2/M7fDmXrtiOK0K2jM7+nw==" saltValue="1YYHTw1aYDcWA2hyJ6+/lw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GtAW0Na8dobiIleKoV4fNhHJLwzSf69Wi5RH+mvbh3CB2o+uPnA5+1EE6tsaT+8YXRLgrf5ULerJF9GGU8c56A==" saltValue="iaN+QSE1K+OdR5ChGHyT/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10791,13 +10791,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>226</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>227</v>
@@ -10806,27 +10806,27 @@
         <v>228</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="133"/>
@@ -10836,14 +10836,14 @@
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="133"/>
@@ -10852,7 +10852,7 @@
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
       <c r="H3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -10860,12 +10860,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
@@ -10877,11 +10877,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -10894,7 +10894,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -10905,26 +10905,26 @@
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="133"/>
       <c r="J7" s="133"/>
@@ -10932,18 +10932,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="133"/>
       <c r="J8" s="133"/>
@@ -10951,18 +10951,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -10970,11 +10970,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
@@ -10987,11 +10987,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -11004,11 +11004,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -11021,11 +11021,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -11038,11 +11038,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -11050,18 +11050,18 @@
       <c r="G14" s="133"/>
       <c r="H14" s="133"/>
       <c r="I14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -11069,28 +11069,28 @@
       <c r="G15" s="133"/>
       <c r="H15" s="133"/>
       <c r="I15" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -11114,16 +11114,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="133" t="s">
         <v>7</v>
-      </c>
-      <c r="B18" s="133" t="s">
-        <v>9</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
@@ -11133,16 +11133,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133"/>
       <c r="F19" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G19" s="133"/>
       <c r="H19" s="133"/>
@@ -11152,16 +11152,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -11180,10 +11180,10 @@
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
@@ -11193,13 +11193,13 @@
         <v>185</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="133"/>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133"/>
@@ -11223,7 +11223,7 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
@@ -11239,7 +11239,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
       <c r="H24" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I24" s="133"/>
       <c r="J24" s="133"/>
@@ -11256,7 +11256,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
       <c r="H25" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I25" s="133"/>
       <c r="J25" s="133"/>
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -11285,7 +11285,7 @@
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27" s="133"/>
       <c r="E27" s="133"/>
@@ -11293,7 +11293,7 @@
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
@@ -11309,7 +11309,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
       <c r="H28" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I28" s="133"/>
       <c r="J28" s="133"/>
@@ -11320,11 +11320,11 @@
         <v>192</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
@@ -11339,13 +11339,13 @@
         <v>206</v>
       </c>
       <c r="B30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" s="133"/>
       <c r="F30" s="133"/>
@@ -11357,13 +11357,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
       <c r="D31" s="133"/>
       <c r="E31" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" s="133"/>
       <c r="G31" s="133"/>
@@ -11382,10 +11382,10 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I32" s="133"/>
       <c r="J32" s="133"/>
@@ -11401,10 +11401,10 @@
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H33" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I33" s="133"/>
       <c r="J33" s="133"/>
@@ -11420,10 +11420,10 @@
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H34" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I34" s="133"/>
       <c r="J34" s="133"/>
@@ -11439,10 +11439,10 @@
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
       <c r="G35" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H35" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
@@ -11458,10 +11458,10 @@
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
       <c r="G36" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H36" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
@@ -11477,10 +11477,10 @@
       <c r="E37" s="133"/>
       <c r="F37" s="133"/>
       <c r="G37" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H37" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
@@ -11497,7 +11497,7 @@
       <c r="F38" s="133"/>
       <c r="G38" s="133"/>
       <c r="H38" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
@@ -11508,24 +11508,24 @@
         <v>200</v>
       </c>
       <c r="B39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" s="133"/>
       <c r="D39" s="133"/>
       <c r="E39" s="133"/>
       <c r="F39" s="133"/>
       <c r="G39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I39" s="133"/>
       <c r="J39" s="133"/>
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q56SMS9QUEWXsuv0s3y8tqGCRPLgXJA3lP7by7lCyxfR5GlQCvY1Rvf2vpFvnXta2cqsHhdtMAQAm0Uh929mdw==" saltValue="TkVPA51ewhEUZpGoB3vtig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6ScX2o0p2Peb9X+5Kya9pXQV+jFHLsglR7rj7p23IHZoSSy3Ear2z8/wy1x8nI2mGqpLTA6/xWzg1nfRL1cahQ==" saltValue="9cHfh7cqcWznJrOM8aWCRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11564,7 +11564,7 @@
         <v>226</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>227</v>
@@ -11573,48 +11573,48 @@
         <v>228</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -11622,28 +11622,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -11651,28 +11651,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
@@ -11680,28 +11680,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -11709,28 +11709,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -11738,95 +11738,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
       <c r="H10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -11835,19 +11835,19 @@
       <c r="H11" s="133"/>
       <c r="I11" s="133"/>
       <c r="J11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -11857,16 +11857,16 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -11876,16 +11876,16 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -11895,11 +11895,11 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6ClCWOva7fe6wLCTOLN0kQ9fZ36/EaQTOyCNX36+d138SpULqyK4fUySBXOBQ22Ue5KpKNTzkiyDad1jqa//NA==" saltValue="Z8TQriJ/Ra7Jr7zBsfL3Tw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8p31x3V1Hf5ArGt+vbd7nx2ovTJ5RAZgGuCGzCHkZYpW6IRcR7Kf09QGNkzWV0RGyJXIdKR1Al17NUfX6Bv/7A==" saltValue="oWSCd5nlSTieZtlgWPXWSA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11924,31 +11924,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="c9jhXLozb/fke8vlhoB6aoJBJwW3MibSSxENUTbj44c5dl3nJcN36b4MkntcYk9GJlVVJ1x7pGR33M6DoPqU1Q==" saltValue="z0kMBVGyWjOzXR/FZl6Lsg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AvKDoOwwVagnO1HSDRMZKsfQnD12Vcfbu3HGe+QWBKRW4jQYWc1X49XnQyxjSXlCLoIUhhAxvT7+Gq2gJNtidA==" saltValue="csgpZ9ITtmhJgLwhJvm5Bw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13023,25 +13023,25 @@
         <v>231</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -13049,10 +13049,10 @@
         <v>232</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D2" s="134">
         <v>1</v>
@@ -13073,7 +13073,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="148"/>
       <c r="C3" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="134">
         <v>1</v>
@@ -13095,7 +13095,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="148"/>
       <c r="C4" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
@@ -13116,10 +13116,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D5" s="134">
         <f>5.16</f>
@@ -13141,7 +13141,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="148"/>
       <c r="C6" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D6" s="134">
         <v>5.16</v>
@@ -13162,7 +13162,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="148"/>
       <c r="C7" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D7" s="134">
         <v>1</v>
@@ -13182,10 +13182,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D8" s="134">
         <v>1</v>
@@ -13206,7 +13206,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="148"/>
       <c r="C9" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D9" s="134">
         <v>1</v>
@@ -13227,7 +13227,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="148"/>
       <c r="C10" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D10" s="134">
         <v>1</v>
@@ -13247,10 +13247,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D11" s="134">
         <v>1</v>
@@ -13271,7 +13271,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="148"/>
       <c r="C12" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
@@ -13292,7 +13292,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="148"/>
       <c r="C13" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
@@ -13312,10 +13312,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
@@ -13336,7 +13336,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="148"/>
       <c r="C15" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D15" s="134">
         <v>1</v>
@@ -13357,7 +13357,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="148"/>
       <c r="C16" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
@@ -13377,10 +13377,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D17" s="134">
         <v>1.05</v>
@@ -13410,10 +13410,10 @@
         <v>233</v>
       </c>
       <c r="B19" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D19" s="134">
         <v>1</v>
@@ -13434,7 +13434,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="148"/>
       <c r="C20" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D20" s="134">
         <v>1</v>
@@ -13455,7 +13455,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="148"/>
       <c r="C21" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -13475,10 +13475,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D22" s="134">
         <v>1</v>
@@ -13499,7 +13499,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="148"/>
       <c r="C23" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -13520,7 +13520,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="148"/>
       <c r="C24" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
@@ -13540,10 +13540,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
@@ -13564,7 +13564,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="148"/>
       <c r="C26" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -13585,7 +13585,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="148"/>
       <c r="C27" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
@@ -13605,10 +13605,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D28" s="134">
         <v>1</v>
@@ -13629,7 +13629,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="148"/>
       <c r="C29" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -13650,7 +13650,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="148"/>
       <c r="C30" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -13670,10 +13670,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -13694,7 +13694,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="148"/>
       <c r="C32" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D32" s="134">
         <v>1</v>
@@ -13715,7 +13715,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="148"/>
       <c r="C33" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D33" s="134">
         <v>1</v>
@@ -13735,10 +13735,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D34" s="134">
         <v>1</v>
@@ -13768,10 +13768,10 @@
         <v>234</v>
       </c>
       <c r="B36" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D36" s="134">
         <v>1</v>
@@ -13792,7 +13792,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="148"/>
       <c r="C37" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D37" s="134">
         <v>1</v>
@@ -13813,7 +13813,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="148"/>
       <c r="C38" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D38" s="134">
         <v>1</v>
@@ -13833,10 +13833,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D39" s="134">
         <v>1</v>
@@ -13857,7 +13857,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="148"/>
       <c r="C40" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D40" s="134">
         <v>1</v>
@@ -13878,7 +13878,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="148"/>
       <c r="C41" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D41" s="134">
         <v>1</v>
@@ -13898,10 +13898,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D42" s="134">
         <v>1</v>
@@ -13922,7 +13922,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="148"/>
       <c r="C43" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D43" s="134">
         <v>1</v>
@@ -13943,7 +13943,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="148"/>
       <c r="C44" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D44" s="134">
         <v>1</v>
@@ -13963,10 +13963,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D45" s="134">
         <v>1</v>
@@ -13987,7 +13987,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="148"/>
       <c r="C46" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D46" s="134">
         <v>1</v>
@@ -14008,7 +14008,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="148"/>
       <c r="C47" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D47" s="134">
         <v>1</v>
@@ -14028,10 +14028,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D48" s="134">
         <v>1</v>
@@ -14052,7 +14052,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" s="148"/>
       <c r="C49" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D49" s="134">
         <v>1</v>
@@ -14073,7 +14073,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" s="148"/>
       <c r="C50" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D50" s="134">
         <v>1</v>
@@ -14093,10 +14093,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D51" s="134">
         <v>1.05</v>
@@ -14131,25 +14131,25 @@
         <v>231</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H54" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -14157,10 +14157,10 @@
         <v>236</v>
       </c>
       <c r="B55" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D55" s="134">
         <f>D2*0.9</f>
@@ -14186,7 +14186,7 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" s="148"/>
       <c r="C56" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D56" s="134">
         <f t="shared" ref="D56:H56" si="1">D3*0.9</f>
@@ -14212,7 +14212,7 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" s="148"/>
       <c r="C57" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D57" s="134">
         <f t="shared" ref="D57:H57" si="2">D4*0.9</f>
@@ -14237,10 +14237,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D58" s="134">
         <f t="shared" ref="D58:H58" si="3">D5*0.9</f>
@@ -14266,7 +14266,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" s="148"/>
       <c r="C59" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D59" s="134">
         <f t="shared" ref="D59:H59" si="4">D6*0.9</f>
@@ -14292,7 +14292,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B60" s="148"/>
       <c r="C60" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D60" s="134">
         <f t="shared" ref="D60:H60" si="5">D7*0.9</f>
@@ -14317,10 +14317,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D61" s="134">
         <f t="shared" ref="D61:H61" si="6">D8*0.9</f>
@@ -14346,7 +14346,7 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" s="148"/>
       <c r="C62" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D62" s="134">
         <f t="shared" ref="D62:H62" si="7">D9*0.9</f>
@@ -14372,7 +14372,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B63" s="148"/>
       <c r="C63" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D63" s="134">
         <f t="shared" ref="D63:H63" si="8">D10*0.9</f>
@@ -14397,10 +14397,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D64" s="134">
         <f t="shared" ref="D64:H64" si="9">D11*0.9</f>
@@ -14426,7 +14426,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B65" s="148"/>
       <c r="C65" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D65" s="134">
         <f t="shared" ref="D65:H65" si="10">D12*0.9</f>
@@ -14452,7 +14452,7 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B66" s="148"/>
       <c r="C66" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D66" s="134">
         <f t="shared" ref="D66:H66" si="11">D13*0.9</f>
@@ -14477,10 +14477,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D67" s="134">
         <f t="shared" ref="D67:H67" si="12">D14*0.9</f>
@@ -14506,7 +14506,7 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B68" s="148"/>
       <c r="C68" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D68" s="134">
         <f t="shared" ref="D68:H68" si="13">D15*0.9</f>
@@ -14532,7 +14532,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B69" s="148"/>
       <c r="C69" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D69" s="134">
         <f t="shared" ref="D69:H69" si="14">D16*0.9</f>
@@ -14557,10 +14557,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B70" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D70" s="134">
         <f t="shared" ref="D70:H70" si="15">D17*0.9</f>
@@ -14595,10 +14595,10 @@
         <v>237</v>
       </c>
       <c r="B72" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D72" s="134">
         <f>D19*0.9</f>
@@ -14624,7 +14624,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B73" s="148"/>
       <c r="C73" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D73" s="134">
         <f t="shared" ref="D73:D87" si="17">D20*0.9</f>
@@ -14650,7 +14650,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B74" s="148"/>
       <c r="C74" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D74" s="134">
         <f t="shared" si="17"/>
@@ -14675,10 +14675,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B75" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D75" s="134">
         <f t="shared" si="17"/>
@@ -14704,7 +14704,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" s="148"/>
       <c r="C76" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D76" s="134">
         <f t="shared" si="17"/>
@@ -14730,7 +14730,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="148"/>
       <c r="C77" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D77" s="134">
         <f t="shared" si="17"/>
@@ -14755,10 +14755,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D78" s="134">
         <f t="shared" si="17"/>
@@ -14784,7 +14784,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" s="148"/>
       <c r="C79" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D79" s="134">
         <f t="shared" si="17"/>
@@ -14810,7 +14810,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" s="148"/>
       <c r="C80" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D80" s="134">
         <f t="shared" si="17"/>
@@ -14835,10 +14835,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B81" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D81" s="134">
         <f t="shared" si="17"/>
@@ -14864,7 +14864,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B82" s="148"/>
       <c r="C82" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D82" s="134">
         <f t="shared" si="17"/>
@@ -14890,7 +14890,7 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B83" s="148"/>
       <c r="C83" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D83" s="134">
         <f t="shared" si="17"/>
@@ -14915,10 +14915,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D84" s="134">
         <f t="shared" si="17"/>
@@ -14944,7 +14944,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B85" s="148"/>
       <c r="C85" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D85" s="134">
         <f t="shared" si="17"/>
@@ -14970,7 +14970,7 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B86" s="148"/>
       <c r="C86" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D86" s="134">
         <f t="shared" si="17"/>
@@ -14995,10 +14995,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B87" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D87" s="134">
         <f t="shared" si="17"/>
@@ -15033,10 +15033,10 @@
         <v>238</v>
       </c>
       <c r="B89" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D89" s="134">
         <f>D36*0.9</f>
@@ -15062,7 +15062,7 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B90" s="148"/>
       <c r="C90" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D90" s="134">
         <f t="shared" ref="D90:D104" si="34">D37*0.9</f>
@@ -15088,7 +15088,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B91" s="148"/>
       <c r="C91" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D91" s="134">
         <f t="shared" si="34"/>
@@ -15113,10 +15113,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D92" s="134">
         <f t="shared" si="34"/>
@@ -15142,7 +15142,7 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B93" s="148"/>
       <c r="C93" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D93" s="134">
         <f t="shared" si="34"/>
@@ -15168,7 +15168,7 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B94" s="148"/>
       <c r="C94" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D94" s="134">
         <f t="shared" si="34"/>
@@ -15193,10 +15193,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B95" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D95" s="134">
         <f t="shared" si="34"/>
@@ -15222,7 +15222,7 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B96" s="148"/>
       <c r="C96" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D96" s="134">
         <f t="shared" si="34"/>
@@ -15248,7 +15248,7 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B97" s="148"/>
       <c r="C97" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D97" s="134">
         <f t="shared" si="34"/>
@@ -15273,10 +15273,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B98" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D98" s="134">
         <f t="shared" si="34"/>
@@ -15302,7 +15302,7 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B99" s="148"/>
       <c r="C99" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D99" s="134">
         <f t="shared" si="34"/>
@@ -15328,7 +15328,7 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B100" s="148"/>
       <c r="C100" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D100" s="134">
         <f t="shared" si="34"/>
@@ -15353,10 +15353,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B101" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D101" s="134">
         <f t="shared" si="34"/>
@@ -15382,7 +15382,7 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B102" s="148"/>
       <c r="C102" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D102" s="134">
         <f t="shared" si="34"/>
@@ -15408,7 +15408,7 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B103" s="148"/>
       <c r="C103" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D103" s="134">
         <f t="shared" si="34"/>
@@ -15433,10 +15433,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B104" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D104" s="134">
         <f t="shared" si="34"/>
@@ -15476,25 +15476,25 @@
         <v>231</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E107" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F107" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G107" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H107" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -15502,10 +15502,10 @@
         <v>240</v>
       </c>
       <c r="B108" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D108" s="134">
         <f>D2*1.05</f>
@@ -15531,7 +15531,7 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B109" s="148"/>
       <c r="C109" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D109" s="134">
         <f t="shared" ref="D109:D112" si="51">D3*1.05</f>
@@ -15557,7 +15557,7 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B110" s="148"/>
       <c r="C110" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D110" s="134">
         <f t="shared" si="51"/>
@@ -15582,10 +15582,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B111" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D111" s="134">
         <f t="shared" si="51"/>
@@ -15611,7 +15611,7 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B112" s="148"/>
       <c r="C112" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D112" s="134">
         <f t="shared" si="51"/>
@@ -15637,7 +15637,7 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B113" s="148"/>
       <c r="C113" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D113" s="134">
         <f t="shared" ref="D113:H113" si="56">D7*1.05</f>
@@ -15662,10 +15662,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B114" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D114" s="134">
         <f t="shared" ref="D114:H114" si="57">D8*1.05</f>
@@ -15691,7 +15691,7 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B115" s="148"/>
       <c r="C115" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D115" s="134">
         <f t="shared" ref="D115:H115" si="58">D9*1.05</f>
@@ -15717,7 +15717,7 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B116" s="148"/>
       <c r="C116" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D116" s="134">
         <f t="shared" ref="D116:H116" si="59">D10*1.05</f>
@@ -15742,10 +15742,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D117" s="134">
         <f t="shared" ref="D117:H117" si="60">D11*1.05</f>
@@ -15771,7 +15771,7 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B118" s="148"/>
       <c r="C118" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D118" s="134">
         <f t="shared" ref="D118:H118" si="61">D12*1.05</f>
@@ -15797,7 +15797,7 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B119" s="148"/>
       <c r="C119" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D119" s="134">
         <f t="shared" ref="D119:H119" si="62">D13*1.05</f>
@@ -15822,10 +15822,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B120" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D120" s="134">
         <f t="shared" ref="D120:H120" si="63">D14*1.05</f>
@@ -15851,7 +15851,7 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="148"/>
       <c r="C121" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D121" s="134">
         <f t="shared" ref="D121:H121" si="64">D15*1.05</f>
@@ -15877,7 +15877,7 @@
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B122" s="148"/>
       <c r="C122" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D122" s="134">
         <f t="shared" ref="D122:H122" si="65">D16*1.05</f>
@@ -15902,10 +15902,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B123" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D123" s="134">
         <f t="shared" ref="D123:H123" si="66">D17*1.05</f>
@@ -15940,10 +15940,10 @@
         <v>241</v>
       </c>
       <c r="B125" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D125" s="134">
         <f>D19*1.05</f>
@@ -15969,7 +15969,7 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B126" s="148"/>
       <c r="C126" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D126" s="134">
         <f t="shared" ref="D126:H126" si="68">D20*1.05</f>
@@ -15995,7 +15995,7 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B127" s="148"/>
       <c r="C127" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D127" s="134">
         <f t="shared" ref="D127:H127" si="69">D21*1.05</f>
@@ -16020,10 +16020,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D128" s="134">
         <f t="shared" ref="D128:H128" si="70">D22*1.05</f>
@@ -16049,7 +16049,7 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="148"/>
       <c r="C129" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D129" s="134">
         <f t="shared" ref="D129:H129" si="71">D23*1.05</f>
@@ -16075,7 +16075,7 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B130" s="148"/>
       <c r="C130" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D130" s="134">
         <f t="shared" ref="D130:H130" si="72">D24*1.05</f>
@@ -16100,10 +16100,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B131" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D131" s="134">
         <f t="shared" ref="D131:H131" si="73">D25*1.05</f>
@@ -16129,7 +16129,7 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B132" s="148"/>
       <c r="C132" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D132" s="134">
         <f t="shared" ref="D132:H132" si="74">D26*1.05</f>
@@ -16155,7 +16155,7 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="148"/>
       <c r="C133" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D133" s="134">
         <f t="shared" ref="D133:H133" si="75">D27*1.05</f>
@@ -16180,10 +16180,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B134" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D134" s="134">
         <f t="shared" ref="D134:H134" si="76">D28*1.05</f>
@@ -16209,7 +16209,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B135" s="148"/>
       <c r="C135" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D135" s="134">
         <f t="shared" ref="D135:H135" si="77">D29*1.05</f>
@@ -16235,7 +16235,7 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B136" s="148"/>
       <c r="C136" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D136" s="134">
         <f t="shared" ref="D136:H136" si="78">D30*1.05</f>
@@ -16260,10 +16260,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B137" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D137" s="134">
         <f t="shared" ref="D137:H137" si="79">D31*1.05</f>
@@ -16289,7 +16289,7 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B138" s="148"/>
       <c r="C138" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D138" s="134">
         <f t="shared" ref="D138:H138" si="80">D32*1.05</f>
@@ -16315,7 +16315,7 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B139" s="148"/>
       <c r="C139" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D139" s="134">
         <f t="shared" ref="D139:H139" si="81">D33*1.05</f>
@@ -16340,10 +16340,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B140" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D140" s="134">
         <f t="shared" ref="D140:H140" si="82">D34*1.05</f>
@@ -16378,10 +16378,10 @@
         <v>242</v>
       </c>
       <c r="B142" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D142" s="134">
         <f>D36*1.05</f>
@@ -16407,7 +16407,7 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B143" s="148"/>
       <c r="C143" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D143" s="134">
         <f t="shared" ref="D143:H143" si="84">D37*1.05</f>
@@ -16433,7 +16433,7 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="148"/>
       <c r="C144" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D144" s="134">
         <f t="shared" ref="D144:H144" si="85">D38*1.05</f>
@@ -16458,10 +16458,10 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D145" s="134">
         <f t="shared" ref="D145:H145" si="86">D39*1.05</f>
@@ -16487,7 +16487,7 @@
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B146" s="148"/>
       <c r="C146" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D146" s="134">
         <f t="shared" ref="D146:H146" si="87">D40*1.05</f>
@@ -16513,7 +16513,7 @@
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" s="148"/>
       <c r="C147" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D147" s="134">
         <f t="shared" ref="D147:H147" si="88">D41*1.05</f>
@@ -16538,10 +16538,10 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D148" s="134">
         <f t="shared" ref="D148:H148" si="89">D42*1.05</f>
@@ -16567,7 +16567,7 @@
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B149" s="148"/>
       <c r="C149" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D149" s="134">
         <f t="shared" ref="D149:H149" si="90">D43*1.05</f>
@@ -16593,7 +16593,7 @@
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B150" s="148"/>
       <c r="C150" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D150" s="134">
         <f t="shared" ref="D150:H150" si="91">D44*1.05</f>
@@ -16618,10 +16618,10 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D151" s="134">
         <f t="shared" ref="D151:H151" si="92">D45*1.05</f>
@@ -16647,7 +16647,7 @@
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="148"/>
       <c r="C152" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D152" s="134">
         <f t="shared" ref="D152:H152" si="93">D46*1.05</f>
@@ -16673,7 +16673,7 @@
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B153" s="148"/>
       <c r="C153" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D153" s="134">
         <f t="shared" ref="D153:H153" si="94">D47*1.05</f>
@@ -16698,10 +16698,10 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D154" s="134">
         <f t="shared" ref="D154:H154" si="95">D48*1.05</f>
@@ -16727,7 +16727,7 @@
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B155" s="148"/>
       <c r="C155" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D155" s="134">
         <f t="shared" ref="D155:H155" si="96">D49*1.05</f>
@@ -16753,7 +16753,7 @@
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="148"/>
       <c r="C156" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D156" s="134">
         <f t="shared" ref="D156:H156" si="97">D50*1.05</f>
@@ -16778,10 +16778,10 @@
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D157" s="134">
         <f t="shared" ref="D157:H157" si="98">D51*1.05</f>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6B2qheYIRGmYVj08C4aJFHvE10gEPJAMIO2aKj8KOeOz3IVaJNcMh4yz2jSj6DmDJvLOscceeLgXfuOy9cLNGw==" saltValue="tQZwrEDHiaSoynflSDoTcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y5xNzIFhSfYUHuCYuMYA/1UNfEsvySBg0vC8Z+3tbPqx/Ff694FLScFPDMl/KGxJh0hScG0/YnfNLh6o+izm8Q==" saltValue="Cfv1v8gBQ7fOl8VjQgl9TA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -16890,16 +16890,16 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16914,7 +16914,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -16931,7 +16931,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -16948,7 +16948,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -16965,7 +16965,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -17051,7 +17051,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -17069,7 +17069,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -17107,7 +17107,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -17125,7 +17125,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" s="135">
         <v>1</v>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" s="135">
         <v>1</v>
@@ -17161,7 +17161,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" s="135">
         <v>1</v>
@@ -17179,7 +17179,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" s="135">
         <v>1</v>
@@ -17196,7 +17196,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -17213,7 +17213,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
@@ -17230,7 +17230,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C25" s="135">
         <v>1</v>
@@ -17266,16 +17266,16 @@
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="101"/>
       <c r="C29" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17290,7 +17290,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C31" s="139">
         <f>C4*0.7</f>
@@ -17311,7 +17311,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C32" s="139">
         <f t="shared" ref="C32:F32" si="1">C5*0.7</f>
@@ -17332,7 +17332,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C33" s="139">
         <f t="shared" ref="C33:F33" si="2">C6*0.7</f>
@@ -17353,7 +17353,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C34" s="139">
         <f t="shared" ref="C34:F34" si="3">C7*0.7</f>
@@ -17501,7 +17501,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C45" s="139">
         <f>C18*0.7</f>
@@ -17522,7 +17522,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C46" s="139">
         <f t="shared" ref="C46:F46" si="9">C19*0.7</f>
@@ -17543,7 +17543,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C47" s="139">
         <f t="shared" ref="C47:F47" si="10">C20*0.7</f>
@@ -17564,7 +17564,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C48" s="139">
         <f t="shared" ref="C48:F48" si="11">C21*0.7</f>
@@ -17585,7 +17585,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C49" s="139">
         <f t="shared" ref="C49:F49" si="12">C22*0.7</f>
@@ -17606,7 +17606,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C50" s="139">
         <f t="shared" ref="C50:F50" si="13">C23*0.7</f>
@@ -17627,7 +17627,7 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C51" s="139">
         <f t="shared" ref="C51:F51" si="14">C24*0.7</f>
@@ -17648,7 +17648,7 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C52" s="139">
         <f t="shared" ref="C52:F52" si="15">C25*0.7</f>
@@ -17685,16 +17685,16 @@
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="101"/>
       <c r="C56" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17709,7 +17709,7 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C58" s="139">
         <f>C4*1.3</f>
@@ -17730,7 +17730,7 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C59" s="139">
         <f t="shared" ref="C59:F59" si="17">C5*1.3</f>
@@ -17751,7 +17751,7 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C60" s="139">
         <f t="shared" ref="C60:F60" si="18">C6*1.3</f>
@@ -17772,7 +17772,7 @@
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C61" s="139">
         <f t="shared" ref="C61:F61" si="19">C7*1.3</f>
@@ -17920,7 +17920,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C72" s="139">
         <f>C18*1.3</f>
@@ -17941,7 +17941,7 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C73" s="139">
         <f t="shared" ref="C73:F73" si="25">C19*1.3</f>
@@ -17962,7 +17962,7 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C74" s="139">
         <f t="shared" ref="C74:F74" si="26">C20*1.3</f>
@@ -17983,7 +17983,7 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C75" s="139">
         <f t="shared" ref="C75:F75" si="27">C21*1.3</f>
@@ -18004,7 +18004,7 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C76" s="139">
         <f t="shared" ref="C76:F76" si="28">C22*1.3</f>
@@ -18025,7 +18025,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C77" s="139">
         <f t="shared" ref="C77:F77" si="29">C23*1.3</f>
@@ -18046,7 +18046,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C78" s="139">
         <f t="shared" ref="C78:F78" si="30">C24*1.3</f>
@@ -18067,7 +18067,7 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C79" s="139">
         <f t="shared" ref="C79:F79" si="31">C25*1.3</f>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OtiBQnouPOnJxik3yCIUV0uNRFpCw262chAY+tS0vUeu1TRdyVZ7p84Fq1eG2QK02FJKA7TtLo/4GCN7CRBJfQ==" saltValue="njQZmDJp8u62Alh6ABEueg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MfdcZSCp7z4bTwjJi2Rci/B+5jOm7S4TcN6j5yxXCo2aVjc+K5OJzEOnNi8xKHbQhYfMFmlMD9rR/I5CJSDKSQ==" saltValue="6UFdXHcrKQVASx/N3RBEkw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -18134,19 +18134,19 @@
         <v>266</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G2" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H2" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
@@ -18160,10 +18160,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -18275,10 +18275,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -18390,10 +18390,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -18505,10 +18505,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -18620,10 +18620,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -18735,10 +18735,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -18864,19 +18864,19 @@
         <v>270</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G29" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H29" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I29" s="120"/>
       <c r="J29" s="120"/>
@@ -18890,10 +18890,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -19005,10 +19005,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -19120,10 +19120,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -19235,10 +19235,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -19350,10 +19350,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -19465,10 +19465,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -19589,7 +19589,7 @@
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B56" s="94" t="s">
         <v>265</v>
@@ -19598,16 +19598,16 @@
         <v>272</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G56" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H56" s="120"/>
       <c r="M56" s="120"/>
@@ -19618,7 +19618,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>273</v>
@@ -19665,7 +19665,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>273</v>
@@ -19712,7 +19712,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>273</v>
@@ -19768,7 +19768,7 @@
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B65" s="94" t="s">
         <v>265</v>
@@ -19777,19 +19777,19 @@
         <v>276</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E65" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F65" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G65" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H65" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
@@ -19803,10 +19803,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D66" s="135">
         <v>1</v>
@@ -19834,7 +19834,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D67" s="136">
         <v>1.35</v>
@@ -19862,7 +19862,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D68" s="136">
         <v>1.35</v>
@@ -19890,7 +19890,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D69" s="136">
         <v>5.4</v>
@@ -19918,10 +19918,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D70" s="135">
         <v>1</v>
@@ -19949,7 +19949,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D71" s="136">
         <v>1.35</v>
@@ -19977,7 +19977,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D72" s="136">
         <v>1.35</v>
@@ -20005,7 +20005,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D73" s="136">
         <v>5.4</v>
@@ -20033,10 +20033,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D74" s="135">
         <v>1</v>
@@ -20064,7 +20064,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D75" s="136">
         <v>1.35</v>
@@ -20092,7 +20092,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D76" s="136">
         <v>1.35</v>
@@ -20120,7 +20120,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D77" s="136">
         <v>5.4</v>
@@ -20148,10 +20148,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D78" s="135">
         <v>1</v>
@@ -20179,7 +20179,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D79" s="136">
         <v>1</v>
@@ -20207,7 +20207,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D80" s="136">
         <v>1</v>
@@ -20235,7 +20235,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D81" s="136">
         <v>1</v>
@@ -20263,10 +20263,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D82" s="135">
         <v>1</v>
@@ -20294,7 +20294,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D83" s="136">
         <v>1</v>
@@ -20322,7 +20322,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D84" s="136">
         <v>1</v>
@@ -20350,7 +20350,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D85" s="136">
         <v>1</v>
@@ -20378,10 +20378,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D86" s="135">
         <v>1</v>
@@ -20409,7 +20409,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D87" s="136">
         <v>1</v>
@@ -20437,7 +20437,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D88" s="136">
         <v>1</v>
@@ -20465,7 +20465,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D89" s="136">
         <v>1</v>
@@ -20493,10 +20493,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D90" s="135">
         <v>1</v>
@@ -20524,7 +20524,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D91" s="136">
         <v>1</v>
@@ -20552,7 +20552,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D92" s="136">
         <v>1</v>
@@ -20580,7 +20580,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D93" s="136">
         <v>1</v>
@@ -20608,10 +20608,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D94" s="135">
         <v>1</v>
@@ -20639,7 +20639,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D95" s="136">
         <v>1</v>
@@ -20667,7 +20667,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D96" s="136">
         <v>1</v>
@@ -20695,7 +20695,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D97" s="136">
         <v>1</v>
@@ -20723,10 +20723,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D98" s="135">
         <v>1</v>
@@ -20754,7 +20754,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D99" s="136">
         <v>1</v>
@@ -20782,7 +20782,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D100" s="136">
         <v>1</v>
@@ -20810,7 +20810,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D101" s="136">
         <v>1</v>
@@ -20843,28 +20843,28 @@
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B104" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C104" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D104" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E104" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F104" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G104" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H104" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I104" s="120"/>
       <c r="J104" s="120"/>
@@ -20879,7 +20879,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D105" s="135">
         <v>1</v>
@@ -20907,7 +20907,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D106" s="136">
         <v>1.26</v>
@@ -20935,7 +20935,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D107" s="136">
         <v>1.68</v>
@@ -20963,7 +20963,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D108" s="136">
         <v>2.65</v>
@@ -21018,28 +21018,28 @@
         <v>266</v>
       </c>
       <c r="D112" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E112" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F112" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G112" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H112" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="40"/>
       <c r="B113" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C113" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="139">
         <f>D3*0.8</f>
@@ -21139,10 +21139,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C117" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="139">
         <f t="shared" ref="D117:H117" si="4">D7*0.8</f>
@@ -21242,10 +21242,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C121" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="139">
         <f t="shared" ref="D121:H121" si="8">D11*0.8</f>
@@ -21345,10 +21345,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B125" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="139">
         <f t="shared" ref="D125:H125" si="12">D15*0.8</f>
@@ -21448,10 +21448,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="139">
         <f t="shared" ref="D129:H129" si="16">D19*0.8</f>
@@ -21551,10 +21551,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="139">
         <f t="shared" ref="D133:H133" si="20">D23*0.8</f>
@@ -21675,28 +21675,28 @@
         <v>270</v>
       </c>
       <c r="D139" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E139" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F139" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G139" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H139" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="40"/>
       <c r="B140" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C140" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D140" s="139">
         <f>D30*0.7</f>
@@ -21796,10 +21796,10 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C144" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="139">
         <f t="shared" ref="D144:H144" si="28">D34*0.7</f>
@@ -21899,10 +21899,10 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C148" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D148" s="139">
         <f t="shared" ref="D148:H148" si="32">D38*0.7</f>
@@ -22002,10 +22002,10 @@
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C152" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="139">
         <f t="shared" ref="D152:H152" si="36">D42*0.7</f>
@@ -22105,10 +22105,10 @@
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C156" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="139">
         <f t="shared" ref="D156:H156" si="40">D46*0.7</f>
@@ -22208,10 +22208,10 @@
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C160" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D160" s="139">
         <f t="shared" ref="D160:H160" si="44">D50*0.7</f>
@@ -22327,7 +22327,7 @@
     </row>
     <row r="166" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B166" s="94" t="s">
         <v>265</v>
@@ -22336,23 +22336,23 @@
         <v>272</v>
       </c>
       <c r="D166" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E166" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F166" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G166" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H166" s="120"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="40"/>
       <c r="B167" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C167" s="43" t="s">
         <v>273</v>
@@ -22399,7 +22399,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B169" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C169" s="43" t="s">
         <v>273</v>
@@ -22446,7 +22446,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B171" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C171" s="43" t="s">
         <v>273</v>
@@ -22509,7 +22509,7 @@
     </row>
     <row r="175" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B175" s="94" t="s">
         <v>265</v>
@@ -22518,28 +22518,28 @@
         <v>276</v>
       </c>
       <c r="D175" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E175" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F175" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G175" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H175" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="125"/>
       <c r="B176" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C176" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D176" s="139">
         <f>D66*0.7</f>
@@ -22563,7 +22563,7 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C177" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D177" s="139">
         <f t="shared" ref="D177:G177" si="55">D67*0.7</f>
@@ -22587,7 +22587,7 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C178" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D178" s="139">
         <f t="shared" ref="D178:G178" si="56">D68*0.7</f>
@@ -22611,7 +22611,7 @@
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C179" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D179" s="139">
         <f t="shared" ref="D179:G179" si="57">D69*0.7</f>
@@ -22635,10 +22635,10 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C180" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D180" s="139">
         <f t="shared" ref="D180:G180" si="58">D70*0.7</f>
@@ -22662,7 +22662,7 @@
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C181" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D181" s="139">
         <f t="shared" ref="D181:G181" si="59">D71*0.7</f>
@@ -22686,7 +22686,7 @@
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C182" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D182" s="139">
         <f t="shared" ref="D182:G182" si="60">D72*0.7</f>
@@ -22710,7 +22710,7 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C183" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D183" s="139">
         <f t="shared" ref="D183:G183" si="61">D73*0.7</f>
@@ -22734,10 +22734,10 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C184" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D184" s="139">
         <f t="shared" ref="D184:G184" si="62">D74*0.7</f>
@@ -22761,7 +22761,7 @@
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C185" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D185" s="139">
         <f t="shared" ref="D185:G185" si="63">D75*0.7</f>
@@ -22785,7 +22785,7 @@
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C186" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D186" s="139">
         <f t="shared" ref="D186:G186" si="64">D76*0.7</f>
@@ -22809,7 +22809,7 @@
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C187" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D187" s="139">
         <f t="shared" ref="D187:G187" si="65">D77*0.7</f>
@@ -22833,10 +22833,10 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C188" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D188" s="139">
         <f t="shared" ref="D188:G188" si="66">D78*0.7</f>
@@ -22860,7 +22860,7 @@
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C189" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D189" s="139">
         <f t="shared" ref="D189:G189" si="67">D79*0.7</f>
@@ -22884,7 +22884,7 @@
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C190" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D190" s="139">
         <f t="shared" ref="D190:G190" si="68">D80*0.7</f>
@@ -22908,7 +22908,7 @@
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C191" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D191" s="139">
         <f t="shared" ref="D191:G191" si="69">D81*0.7</f>
@@ -22932,10 +22932,10 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C192" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D192" s="139">
         <f t="shared" ref="D192:G192" si="70">D82*0.7</f>
@@ -22959,7 +22959,7 @@
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C193" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D193" s="139">
         <f t="shared" ref="D193:G193" si="71">D83*0.7</f>
@@ -22983,7 +22983,7 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C194" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D194" s="139">
         <f t="shared" ref="D194:G194" si="72">D84*0.7</f>
@@ -23007,7 +23007,7 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C195" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D195" s="139">
         <f t="shared" ref="D195:G195" si="73">D85*0.7</f>
@@ -23031,10 +23031,10 @@
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B196" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C196" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D196" s="139">
         <f t="shared" ref="D196:G196" si="74">D86*0.7</f>
@@ -23058,7 +23058,7 @@
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C197" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D197" s="139">
         <f t="shared" ref="D197:G197" si="75">D87*0.7</f>
@@ -23082,7 +23082,7 @@
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C198" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D198" s="139">
         <f t="shared" ref="D198:G198" si="76">D88*0.7</f>
@@ -23106,7 +23106,7 @@
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C199" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D199" s="139">
         <f t="shared" ref="D199:G199" si="77">D89*0.7</f>
@@ -23130,10 +23130,10 @@
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B200" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C200" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D200" s="139">
         <f t="shared" ref="D200:G200" si="78">D90*0.7</f>
@@ -23157,7 +23157,7 @@
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C201" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D201" s="139">
         <f t="shared" ref="D201:G201" si="79">D91*0.7</f>
@@ -23181,7 +23181,7 @@
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C202" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D202" s="139">
         <f t="shared" ref="D202:G202" si="80">D92*0.7</f>
@@ -23205,7 +23205,7 @@
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C203" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D203" s="139">
         <f t="shared" ref="D203:G203" si="81">D93*0.7</f>
@@ -23229,10 +23229,10 @@
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B204" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C204" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D204" s="139">
         <f t="shared" ref="D204:G204" si="82">D94*0.7</f>
@@ -23256,7 +23256,7 @@
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C205" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D205" s="139">
         <f t="shared" ref="D205:G205" si="83">D95*0.7</f>
@@ -23280,7 +23280,7 @@
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C206" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D206" s="139">
         <f t="shared" ref="D206:G206" si="84">D96*0.7</f>
@@ -23304,7 +23304,7 @@
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C207" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D207" s="139">
         <f t="shared" ref="D207:G207" si="85">D97*0.7</f>
@@ -23328,10 +23328,10 @@
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B208" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C208" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D208" s="139">
         <f t="shared" ref="D208:G208" si="86">D98*0.7</f>
@@ -23355,7 +23355,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C209" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D209" s="139">
         <f t="shared" ref="D209:G209" si="87">D99*0.7</f>
@@ -23379,7 +23379,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C210" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D210" s="139">
         <f t="shared" ref="D210:G210" si="88">D100*0.7</f>
@@ -23403,7 +23403,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C211" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D211" s="139">
         <f t="shared" ref="D211:G211" si="89">D101*0.7</f>
@@ -23439,35 +23439,35 @@
     </row>
     <row r="214" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A214" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B214" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C214" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D214" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E214" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F214" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G214" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H214" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="40"/>
       <c r="B215" s="36"/>
       <c r="C215" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D215" s="139">
         <f>D105*0.7</f>
@@ -23491,7 +23491,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C216" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D216" s="139">
         <f t="shared" ref="D216:G216" si="91">D106*0.7</f>
@@ -23515,7 +23515,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C217" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D217" s="139">
         <f t="shared" ref="D217:G217" si="92">D107*0.7</f>
@@ -23539,7 +23539,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C218" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D218" s="139">
         <f t="shared" ref="D218:G218" si="93">D108*0.7</f>
@@ -23591,29 +23591,29 @@
         <v>266</v>
       </c>
       <c r="D222" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E222" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F222" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G222" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H222" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I222" s="120"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="40"/>
       <c r="B223" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C223" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D223" s="139">
         <f>D3*1.2</f>
@@ -23717,10 +23717,10 @@
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B227" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D227" s="139">
         <f t="shared" ref="D227:H227" si="98">D7*1.2</f>
@@ -23824,10 +23824,10 @@
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B231" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C231" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D231" s="139">
         <f t="shared" ref="D231:H231" si="102">D11*1.2</f>
@@ -23931,10 +23931,10 @@
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B235" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C235" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D235" s="139">
         <f t="shared" ref="D235:H235" si="106">D15*1.2</f>
@@ -24038,10 +24038,10 @@
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B239" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C239" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D239" s="139">
         <f t="shared" ref="D239:H239" si="110">D19*1.2</f>
@@ -24145,10 +24145,10 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B243" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C243" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D243" s="139">
         <f t="shared" ref="D243:H243" si="114">D23*1.2</f>
@@ -24274,29 +24274,29 @@
         <v>270</v>
       </c>
       <c r="D249" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E249" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F249" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G249" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H249" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I249" s="120"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="40"/>
       <c r="B250" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C250" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D250" s="139">
         <f>D30*1.2</f>
@@ -24400,10 +24400,10 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B254" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C254" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D254" s="139">
         <f t="shared" ref="D254:H254" si="122">D34*1.2</f>
@@ -24507,10 +24507,10 @@
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B258" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C258" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D258" s="139">
         <f t="shared" ref="D258:H258" si="126">D38*1.2</f>
@@ -24614,10 +24614,10 @@
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B262" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C262" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D262" s="139">
         <f t="shared" ref="D262:H262" si="130">D42*1.2</f>
@@ -24721,10 +24721,10 @@
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B266" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C266" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D266" s="139">
         <f t="shared" ref="D266:H266" si="134">D46*1.2</f>
@@ -24828,10 +24828,10 @@
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B270" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C270" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D270" s="139">
         <f t="shared" ref="D270:H270" si="138">D50*1.2</f>
@@ -24952,7 +24952,7 @@
     </row>
     <row r="276" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A276" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B276" s="94" t="s">
         <v>265</v>
@@ -24961,16 +24961,16 @@
         <v>272</v>
       </c>
       <c r="D276" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E276" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F276" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G276" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H276" s="120"/>
       <c r="I276" s="36"/>
@@ -24978,7 +24978,7 @@
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="40"/>
       <c r="B277" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C277" s="43" t="s">
         <v>273</v>
@@ -25025,7 +25025,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B279" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C279" s="43" t="s">
         <v>273</v>
@@ -25072,7 +25072,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B281" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C281" s="43" t="s">
         <v>273</v>
@@ -25136,7 +25136,7 @@
     </row>
     <row r="285" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A285" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B285" s="94" t="s">
         <v>265</v>
@@ -25145,29 +25145,29 @@
         <v>276</v>
       </c>
       <c r="D285" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E285" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F285" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G285" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H285" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I285" s="120"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="125"/>
       <c r="B286" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C286" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D286" s="139">
         <f>D66*1.2</f>
@@ -25192,7 +25192,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C287" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D287" s="139">
         <f t="shared" ref="D287:G287" si="149">D67*1.2</f>
@@ -25217,7 +25217,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C288" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D288" s="139">
         <f t="shared" ref="D288:G288" si="150">D68*1.2</f>
@@ -25242,7 +25242,7 @@
     </row>
     <row r="289" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C289" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D289" s="139">
         <f t="shared" ref="D289:G289" si="151">D69*1.2</f>
@@ -25267,10 +25267,10 @@
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B290" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C290" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D290" s="139">
         <f t="shared" ref="D290:G290" si="152">D70*1.2</f>
@@ -25295,7 +25295,7 @@
     </row>
     <row r="291" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C291" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D291" s="139">
         <f t="shared" ref="D291:G291" si="153">D71*1.2</f>
@@ -25320,7 +25320,7 @@
     </row>
     <row r="292" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C292" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D292" s="139">
         <f t="shared" ref="D292:G292" si="154">D72*1.2</f>
@@ -25345,7 +25345,7 @@
     </row>
     <row r="293" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C293" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D293" s="139">
         <f t="shared" ref="D293:G293" si="155">D73*1.2</f>
@@ -25370,10 +25370,10 @@
     </row>
     <row r="294" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B294" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C294" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D294" s="139">
         <f t="shared" ref="D294:G294" si="156">D74*1.2</f>
@@ -25398,7 +25398,7 @@
     </row>
     <row r="295" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C295" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D295" s="139">
         <f t="shared" ref="D295:G295" si="157">D75*1.2</f>
@@ -25423,7 +25423,7 @@
     </row>
     <row r="296" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C296" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D296" s="139">
         <f t="shared" ref="D296:G296" si="158">D76*1.2</f>
@@ -25448,7 +25448,7 @@
     </row>
     <row r="297" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C297" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D297" s="139">
         <f t="shared" ref="D297:G297" si="159">D77*1.2</f>
@@ -25473,10 +25473,10 @@
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B298" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C298" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D298" s="139">
         <f t="shared" ref="D298:G298" si="160">D78*1.2</f>
@@ -25501,7 +25501,7 @@
     </row>
     <row r="299" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C299" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D299" s="139">
         <f t="shared" ref="D299:G299" si="161">D79*1.2</f>
@@ -25526,7 +25526,7 @@
     </row>
     <row r="300" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C300" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D300" s="139">
         <f t="shared" ref="D300:G300" si="162">D80*1.2</f>
@@ -25551,7 +25551,7 @@
     </row>
     <row r="301" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C301" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D301" s="139">
         <f t="shared" ref="D301:G301" si="163">D81*1.2</f>
@@ -25576,10 +25576,10 @@
     </row>
     <row r="302" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B302" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C302" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D302" s="139">
         <f t="shared" ref="D302:G302" si="164">D82*1.2</f>
@@ -25604,7 +25604,7 @@
     </row>
     <row r="303" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C303" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D303" s="139">
         <f t="shared" ref="D303:G303" si="165">D83*1.2</f>
@@ -25629,7 +25629,7 @@
     </row>
     <row r="304" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C304" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D304" s="139">
         <f t="shared" ref="D304:G304" si="166">D84*1.2</f>
@@ -25654,7 +25654,7 @@
     </row>
     <row r="305" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C305" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D305" s="139">
         <f t="shared" ref="D305:G305" si="167">D85*1.2</f>
@@ -25679,10 +25679,10 @@
     </row>
     <row r="306" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B306" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C306" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D306" s="139">
         <f t="shared" ref="D306:G306" si="168">D86*1.2</f>
@@ -25707,7 +25707,7 @@
     </row>
     <row r="307" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C307" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D307" s="139">
         <f t="shared" ref="D307:G307" si="169">D87*1.2</f>
@@ -25732,7 +25732,7 @@
     </row>
     <row r="308" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C308" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D308" s="139">
         <f t="shared" ref="D308:G308" si="170">D88*1.2</f>
@@ -25757,7 +25757,7 @@
     </row>
     <row r="309" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C309" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D309" s="139">
         <f t="shared" ref="D309:G309" si="171">D89*1.2</f>
@@ -25782,10 +25782,10 @@
     </row>
     <row r="310" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B310" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C310" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D310" s="139">
         <f t="shared" ref="D310:G310" si="172">D90*1.2</f>
@@ -25810,7 +25810,7 @@
     </row>
     <row r="311" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C311" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D311" s="139">
         <f t="shared" ref="D311:G311" si="173">D91*1.2</f>
@@ -25835,7 +25835,7 @@
     </row>
     <row r="312" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C312" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D312" s="139">
         <f t="shared" ref="D312:G312" si="174">D92*1.2</f>
@@ -25860,7 +25860,7 @@
     </row>
     <row r="313" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C313" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D313" s="139">
         <f t="shared" ref="D313:G313" si="175">D93*1.2</f>
@@ -25885,10 +25885,10 @@
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B314" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C314" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D314" s="139">
         <f t="shared" ref="D314:G314" si="176">D94*1.2</f>
@@ -25913,7 +25913,7 @@
     </row>
     <row r="315" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C315" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D315" s="139">
         <f t="shared" ref="D315:G315" si="177">D95*1.2</f>
@@ -25938,7 +25938,7 @@
     </row>
     <row r="316" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C316" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D316" s="139">
         <f t="shared" ref="D316:G316" si="178">D96*1.2</f>
@@ -25963,7 +25963,7 @@
     </row>
     <row r="317" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C317" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D317" s="139">
         <f t="shared" ref="D317:G317" si="179">D97*1.2</f>
@@ -25988,10 +25988,10 @@
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B318" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C318" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D318" s="139">
         <f t="shared" ref="D318:G318" si="180">D98*1.2</f>
@@ -26016,7 +26016,7 @@
     </row>
     <row r="319" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C319" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D319" s="139">
         <f t="shared" ref="D319:G319" si="181">D99*1.2</f>
@@ -26041,7 +26041,7 @@
     </row>
     <row r="320" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C320" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D320" s="139">
         <f t="shared" ref="D320:G320" si="182">D100*1.2</f>
@@ -26066,7 +26066,7 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C321" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D321" s="139">
         <f t="shared" ref="D321:G321" si="183">D101*1.2</f>
@@ -26104,28 +26104,28 @@
     </row>
     <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B324" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C324" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D324" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E324" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F324" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G324" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H324" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I324" s="120"/>
     </row>
@@ -26133,7 +26133,7 @@
       <c r="A325" s="40"/>
       <c r="B325" s="36"/>
       <c r="C325" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D325" s="139">
         <f>D105*1.2</f>
@@ -26158,7 +26158,7 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C326" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D326" s="139">
         <f t="shared" ref="D326:G326" si="185">D106*1.2</f>
@@ -26183,7 +26183,7 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C327" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D327" s="139">
         <f t="shared" ref="D327:G327" si="186">D107*1.2</f>
@@ -26208,7 +26208,7 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C328" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D328" s="139">
         <f t="shared" ref="D328:G328" si="187">D108*1.2</f>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gIFZ+em/eFCCy5CUXMePlMxkHDGS2wqG7XU6Xe7U8ByOFJnpB5SBDF+f9LVumJF8qZQryUvt0wuM5b5g1gMwZQ==" saltValue="7ic2W6cqzGx998cftAn62Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+liIjeLiFQ4/+IiCGVadjE0EnbGmU7jDKIZOHcwxFhoNx6Cveo6hHrNGrs6LgNLnVlRSXNecVrwLDP1Y3sZNGw==" saltValue="fqOuU/LHmbFVixgW2tzofw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26275,19 +26275,19 @@
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26295,7 +26295,7 @@
         <v>280</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -26505,7 +26505,7 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B17" s="113" t="s">
         <v>285</v>
@@ -26534,21 +26534,21 @@
     </row>
     <row r="20" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="136">
         <v>1.52</v>
@@ -26585,19 +26585,19 @@
       </c>
       <c r="B25" s="119"/>
       <c r="C25" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -26605,7 +26605,7 @@
         <v>289</v>
       </c>
       <c r="C26" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D26" s="136">
         <f t="shared" ref="D26:G27" si="0">D3*0.9</f>
@@ -26868,7 +26868,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B40" s="113" t="s">
         <v>299</v>
@@ -26909,16 +26909,16 @@
       <c r="A43" s="104"/>
       <c r="B43" s="104"/>
       <c r="C43" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F43" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G43" s="104"/>
     </row>
@@ -26965,19 +26965,19 @@
       </c>
       <c r="B48" s="119"/>
       <c r="C48" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -26985,7 +26985,7 @@
         <v>302</v>
       </c>
       <c r="C49" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D49" s="136">
         <f t="shared" ref="D49:G50" si="9">D3*1.05</f>
@@ -27248,7 +27248,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B63" s="113" t="s">
         <v>312</v>
@@ -27289,16 +27289,16 @@
       <c r="A66" s="104"/>
       <c r="B66" s="104"/>
       <c r="C66" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D66" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E66" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F66" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G66" s="104"/>
     </row>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Puj8skYGtJw7EJXl8Juh5ho0WHmaoPKsh5rJx3Wcb6s/a+8fuF5Of62EF1bwcolkTZ66GxfQ1Vz+bWRJZj0NWw==" saltValue="cGDQgCTLiC2UghquiuR4bg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oYAGe/BgvF+7NHhcWE6gMrvQMEDjpBwxFjvGGGRLoBY74Rc7ZMqrN9ZrpBieuUDQm4tr2b4iMCGkNxOQ4cAFQA==" saltValue="fc8LziOyINirH/ARD6sF9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27356,25 +27356,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F1" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="90" t="s">
         <v>317</v>
@@ -27412,7 +27412,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="90" t="s">
         <v>317</v>
@@ -27450,7 +27450,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="90" t="s">
         <v>317</v>
@@ -27488,7 +27488,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B8" s="90" t="s">
         <v>317</v>
@@ -27607,25 +27607,25 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F16" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="90" t="s">
         <v>317</v>
@@ -27671,7 +27671,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="90" t="s">
         <v>317</v>
@@ -27717,7 +27717,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" s="90" t="s">
         <v>317</v>
@@ -27763,7 +27763,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B23" s="90" t="s">
         <v>317</v>
@@ -27906,25 +27906,25 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B31" s="40"/>
       <c r="C31" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F31" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B32" s="90" t="s">
         <v>317</v>
@@ -27970,7 +27970,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="90" t="s">
         <v>317</v>
@@ -28016,7 +28016,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" s="90" t="s">
         <v>317</v>
@@ -28062,7 +28062,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B38" s="90" t="s">
         <v>317</v>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DWbQ2pmOHxCQa0bQj4xrxAhhvDN37/HWQ9yjAQ7yOnoZJ/91XIri//ZRXhtuQe4mPWgWCm9GUkvI1HLVi4vgDg==" saltValue="5kbpg0PbZ1skcWy595Y6Xg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WTOmoTZOjpOdwuCQGxf6kJJeLlujHplRnV+xqP0zEGOehV2bv9Rizb7/wTCDmm0cPKFMZeFPG7sp872OYItkEg==" saltValue="QTn8ChFGQHztA1Oa9Kosrw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28231,43 +28231,43 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I1" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J1" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K1" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L1" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M1" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N1" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O1" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -28277,7 +28277,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="136">
         <v>0.53</v>
@@ -28321,7 +28321,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="136">
         <v>1</v>
@@ -28365,7 +28365,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -28409,7 +28409,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -28453,7 +28453,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -28497,7 +28497,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -28541,7 +28541,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -28585,7 +28585,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C10" s="136">
         <v>1</v>
@@ -28855,7 +28855,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="136">
         <v>1</v>
@@ -28899,7 +28899,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="136">
         <v>1</v>
@@ -28943,7 +28943,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="136">
         <v>1</v>
@@ -29038,43 +29038,43 @@
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F24" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G24" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H24" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I24" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J24" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K24" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L24" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M24" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N24" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O24" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -29084,7 +29084,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" s="136">
         <f>C3*0.9</f>
@@ -29141,7 +29141,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="136">
         <f t="shared" ref="C27:O27" si="1">C4*0.9</f>
@@ -29198,7 +29198,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" s="136">
         <f t="shared" ref="C28:O28" si="2">C5*0.9</f>
@@ -29255,7 +29255,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" s="136">
         <f t="shared" ref="C29:O29" si="3">C6*0.9</f>
@@ -29312,7 +29312,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C30" s="136">
         <f t="shared" ref="C30:O30" si="4">C7*0.9</f>
@@ -29369,7 +29369,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" s="136">
         <f t="shared" ref="C31:O31" si="5">C8*0.9</f>
@@ -29426,7 +29426,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" s="136">
         <f t="shared" ref="C32:O32" si="6">C9*0.9</f>
@@ -29483,7 +29483,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B33" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C33" s="136">
         <f t="shared" ref="C33:O33" si="7">C10*0.9</f>
@@ -29831,7 +29831,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B41" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="136">
         <f>C18*0.9</f>
@@ -29888,7 +29888,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B42" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" s="136">
         <f t="shared" ref="C42:O42" si="13">C19*0.9</f>
@@ -29945,7 +29945,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B43" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C43" s="136">
         <f t="shared" ref="C43:O43" si="14">C20*0.9</f>
@@ -30066,43 +30066,43 @@
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D47" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E47" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F47" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G47" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H47" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I47" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J47" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K47" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L47" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M47" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N47" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O47" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -30112,7 +30112,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B49" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C49" s="136">
         <f>C3*1.05</f>
@@ -30169,7 +30169,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B50" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C50" s="136">
         <f t="shared" ref="C50:O50" si="17">C4*1.05</f>
@@ -30226,7 +30226,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B51" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C51" s="136">
         <f t="shared" ref="C51:O51" si="18">C5*1.05</f>
@@ -30283,7 +30283,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B52" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52" s="136">
         <f t="shared" ref="C52:O52" si="19">C6*1.05</f>
@@ -30340,7 +30340,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B53" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" s="136">
         <f t="shared" ref="C53:O53" si="20">C7*1.05</f>
@@ -30397,7 +30397,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B54" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C54" s="136">
         <f t="shared" ref="C54:O54" si="21">C8*1.05</f>
@@ -30454,7 +30454,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B55" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C55" s="136">
         <f t="shared" ref="C55:O55" si="22">C9*1.05</f>
@@ -30511,7 +30511,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B56" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C56" s="136">
         <f t="shared" ref="C56:O56" si="23">C10*1.05</f>
@@ -30859,7 +30859,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B64" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C64" s="136">
         <f>C18*1.05</f>
@@ -30916,7 +30916,7 @@
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C65" s="136">
         <f t="shared" ref="C65:O65" si="29">C19*1.05</f>
@@ -30973,7 +30973,7 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C66" s="136">
         <f t="shared" ref="C66:O66" si="30">C20*1.05</f>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="smM7r9QXT8p9+PBHHmouR2OJpgjWjgr9GPAcBNuvFTVDXU2LJmBT2UglrG1EfralaS1taqyKnm+SBw7OxTlYiA==" saltValue="6ut7AMyd+0oj+PIE7J34zA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vrtoxccu3CcEwPtfFcaYg60xksmS5uSWauLtFbhHmX9upI9VB/k3vUDEszlIHtoR8Lsk+Nmrs3b5JXNn6BCF1g==" saltValue="nmyzGHcyNXn/rcojil3NZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31118,19 +31118,19 @@
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -31140,7 +31140,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -31171,7 +31171,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -31198,19 +31198,19 @@
       <c r="A8" s="40"/>
       <c r="B8" s="119"/>
       <c r="C8" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -31220,7 +31220,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="136">
         <f>C3*0.9</f>
@@ -31256,7 +31256,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="136">
         <f>C5*0.9</f>
@@ -31288,19 +31288,19 @@
       <c r="A15" s="40"/>
       <c r="B15" s="119"/>
       <c r="C15" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -31310,7 +31310,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="136">
         <f>C3*1.05</f>
@@ -31346,7 +31346,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="136">
         <f>C5*1.05</f>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cNJ6OHS+92zNoIDI1DoQ0+S4z2gfltFKNaLkYmHv6CKftcpi3nztZeCEFLFcFCoIe2FOc3A05kPRVduqtOgNkQ==" saltValue="qvpY8gd7vi/p6Ae9QEPmdw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CgYQccO8ZLRWiaQNSVErUPdv9i7P3k+K3jyZFrDTVqE4QPzXDVsJn80ye1kgLgTKnDr/WMRdJHZgiMyC4oecYQ==" saltValue="uK/TZjfZg2QkuZ6K2Kv4Rw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -31405,28 +31405,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -31434,7 +31434,7 @@
         <v>193</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>334</v>
@@ -31764,7 +31764,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>209</v>
@@ -31856,10 +31856,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>334</v>
@@ -31904,10 +31904,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>334</v>
@@ -31950,10 +31950,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C25" s="52" t="s">
         <v>334</v>
@@ -31999,7 +31999,7 @@
         <v>197</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C27" s="52" t="s">
         <v>334</v>
@@ -32065,7 +32065,7 @@
         <v>198</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" s="52" t="s">
         <v>334</v>
@@ -32131,7 +32131,7 @@
         <v>196</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C33" s="52" t="s">
         <v>334</v>
@@ -32197,7 +32197,7 @@
         <v>195</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C36" s="52" t="s">
         <v>334</v>
@@ -32263,7 +32263,7 @@
         <v>194</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C39" s="52" t="s">
         <v>334</v>
@@ -32329,7 +32329,7 @@
         <v>200</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C42" s="52" t="s">
         <v>334</v>
@@ -32392,7 +32392,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C45" s="52" t="s">
         <v>334</v>
@@ -32458,7 +32458,7 @@
         <v>191</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>334</v>
@@ -32504,7 +32504,7 @@
         <v>199</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C50" s="52" t="s">
         <v>334</v>
@@ -32550,7 +32550,7 @@
         <v>184</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C52" s="52" t="s">
         <v>334</v>
@@ -32600,28 +32600,28 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B56" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C56" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F56" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -32629,7 +32629,7 @@
         <v>193</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C57" s="52" t="s">
         <v>334</v>
@@ -33034,7 +33034,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B72" s="52" t="s">
         <v>209</v>
@@ -33143,10 +33143,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C76" s="52" t="s">
         <v>334</v>
@@ -33199,10 +33199,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C78" s="52" t="s">
         <v>334</v>
@@ -33255,10 +33255,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C80" s="52" t="s">
         <v>334</v>
@@ -33314,7 +33314,7 @@
         <v>197</v>
       </c>
       <c r="B82" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C82" s="52" t="s">
         <v>334</v>
@@ -33395,7 +33395,7 @@
         <v>198</v>
       </c>
       <c r="B85" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C85" s="52" t="s">
         <v>334</v>
@@ -33476,7 +33476,7 @@
         <v>196</v>
       </c>
       <c r="B88" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C88" s="52" t="s">
         <v>334</v>
@@ -33557,7 +33557,7 @@
         <v>195</v>
       </c>
       <c r="B91" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C91" s="52" t="s">
         <v>334</v>
@@ -33638,7 +33638,7 @@
         <v>194</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C94" s="52" t="s">
         <v>334</v>
@@ -33719,7 +33719,7 @@
         <v>200</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C97" s="52" t="s">
         <v>334</v>
@@ -33797,7 +33797,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B100" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C100" s="52" t="s">
         <v>334</v>
@@ -33878,7 +33878,7 @@
         <v>191</v>
       </c>
       <c r="B103" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C103" s="52" t="s">
         <v>334</v>
@@ -33934,7 +33934,7 @@
         <v>199</v>
       </c>
       <c r="B105" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C105" s="52" t="s">
         <v>334</v>
@@ -33990,7 +33990,7 @@
         <v>184</v>
       </c>
       <c r="B107" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C107" s="52" t="s">
         <v>334</v>
@@ -34050,28 +34050,28 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B111" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C111" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E111" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F111" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G111" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -34079,7 +34079,7 @@
         <v>193</v>
       </c>
       <c r="B112" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C112" s="52" t="s">
         <v>334</v>
@@ -34484,7 +34484,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B127" s="52" t="s">
         <v>209</v>
@@ -34593,10 +34593,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B131" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C131" s="52" t="s">
         <v>334</v>
@@ -34649,10 +34649,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B133" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C133" s="52" t="s">
         <v>334</v>
@@ -34705,10 +34705,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B135" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C135" s="52" t="s">
         <v>334</v>
@@ -34764,7 +34764,7 @@
         <v>197</v>
       </c>
       <c r="B137" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C137" s="52" t="s">
         <v>334</v>
@@ -34845,7 +34845,7 @@
         <v>198</v>
       </c>
       <c r="B140" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C140" s="52" t="s">
         <v>334</v>
@@ -34926,7 +34926,7 @@
         <v>196</v>
       </c>
       <c r="B143" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C143" s="52" t="s">
         <v>334</v>
@@ -35007,7 +35007,7 @@
         <v>195</v>
       </c>
       <c r="B146" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C146" s="52" t="s">
         <v>334</v>
@@ -35088,7 +35088,7 @@
         <v>194</v>
       </c>
       <c r="B149" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C149" s="52" t="s">
         <v>334</v>
@@ -35169,7 +35169,7 @@
         <v>200</v>
       </c>
       <c r="B152" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C152" s="52" t="s">
         <v>334</v>
@@ -35247,7 +35247,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B155" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C155" s="52" t="s">
         <v>334</v>
@@ -35328,7 +35328,7 @@
         <v>191</v>
       </c>
       <c r="B158" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C158" s="52" t="s">
         <v>334</v>
@@ -35384,7 +35384,7 @@
         <v>199</v>
       </c>
       <c r="B160" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C160" s="52" t="s">
         <v>334</v>
@@ -35440,7 +35440,7 @@
         <v>184</v>
       </c>
       <c r="B162" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C162" s="52" t="s">
         <v>334</v>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OUXXnd7rTEbHKVeJiWeF7CzeikLEHVY1tFuwUz342Ph5Bp+hLaIXHfi9yJZ2GjXVs5eWtJ3dqanrbo5OReqFWA==" saltValue="GFMhvQbGULkB37za7jhcBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pRwUI31JisK4HxlVh3Hrr9uAYEz+8y6G8jd73t9PVs04AGJG98hXyejr8MlhD+9agS5CF3KN21XceotH2GRjgA==" saltValue="copiQaSTuMsN0GGywhg3pQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35523,32 +35523,32 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>334</v>
@@ -35590,7 +35590,7 @@
         <v>188</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>334</v>
@@ -35633,7 +35633,7 @@
         <v>187</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>334</v>
@@ -35678,31 +35678,31 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C10" s="119"/>
       <c r="D10" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>334</v>
@@ -35750,7 +35750,7 @@
         <v>188</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>334</v>
@@ -35799,7 +35799,7 @@
         <v>187</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>334</v>
@@ -35850,31 +35850,31 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C19" s="119"/>
       <c r="D19" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>334</v>
@@ -35922,7 +35922,7 @@
         <v>188</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>334</v>
@@ -35971,7 +35971,7 @@
         <v>187</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>334</v>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0SN9xPvKKQnKrz5HfmX4S2NmqvnlfS3MwnBWzeCQwRFqHKxSdSe8KYiF3G7yp7hKZ9FC24/b2onPwEGuWHrf9Q==" saltValue="vNlx7EKW0cUDCAIoezXQJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pfFRfdwjB6bjTz0yoBb1VGW2kvmV+6yDhtUtQ+waiQSm+r2YPlTMBOFixFXMU1YpDq4mNGHMHYQ/Wot7YfiTrQ==" saltValue="jnr2CRFiW+fFAV4jS7vWPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36055,13 +36055,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -36070,7 +36070,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -36078,7 +36078,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -36086,7 +36086,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -36094,7 +36094,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -36102,7 +36102,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -36110,7 +36110,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -36118,7 +36118,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -36126,7 +36126,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -36134,7 +36134,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -36154,28 +36154,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -36192,7 +36192,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -36209,7 +36209,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -36226,7 +36226,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -36243,7 +36243,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -36260,7 +36260,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -36277,7 +36277,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -36294,7 +36294,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -36311,7 +36311,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -36328,7 +36328,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -36360,13 +36360,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -36376,7 +36376,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -36384,7 +36384,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -36392,7 +36392,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -36400,7 +36400,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -36416,7 +36416,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -36424,7 +36424,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -36432,7 +36432,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -36440,7 +36440,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -36448,7 +36448,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NSJZSERwAjPxh4d3BGoXJ+N1RhccncorrX+rU/0fG5RFBkmdEEmjj+SImBRPkAQs6lAc6T09kKrSe3xRN0EKJQ==" saltValue="qudlD5bFrPJuDULcQIg2og==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XROM5QSA2pI4Gh5L/kS38514UxysB5uw36wDxTwS/xS7w2M6Zzy64K6WnTO59iQxKzcLo+dZ2p7ylX3i0DZJuw==" saltValue="lu/SoftMsFDAEPDFpIFKQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36486,30 +36486,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -36535,7 +36535,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -36561,7 +36561,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -36582,7 +36582,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -36618,10 +36618,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -36646,7 +36646,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -36671,7 +36671,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -36691,7 +36691,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -36725,51 +36725,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>129</v>
-      </c>
       <c r="L13" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -36813,7 +36813,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="a7X90zXTBRlpmnPnbeHulTJvK/GYbtu4Ioopu1toeRYtuneVdlfFJOXEVgfgSl/dLZltOCYPNKPEFYXmTRVRhw==" saltValue="scOgquZjoNbTWEV90oKI3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/F8mgc8mAc3YzlZJeipJlG3Axw8xkiSkQowCVN/JqcqqGZJNvkLwGndB7u7vfjcNFaWleEyJjUL87wYmbP4pNQ==" saltValue="gOpthsRxE0tXJ27BE3ihfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -36913,30 +36913,30 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -36956,7 +36956,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -36976,7 +36976,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -36996,7 +36996,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K9xdeHaI9tMZOe41iVxbNuvSsSaYsvOPiYg3rNQb/e8SDq7H07s7pANt1gPAKJ4IjLX3nKSqZuF7dcjC1RbBwg==" saltValue="ge928HZ9kq9RDURDrI6UYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ap0i/iqgHZ4+NdukDP85O4dzugB7guFsaKjdHXsVDaDzmOJAYzDB0WDrDTe/dA03fEt1Kzz7fN8Hrb8fQq1oZw==" saltValue="de8lEe/Zhl+ujW9EQn8KwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37045,10 +37045,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -37080,10 +37080,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -37100,10 +37100,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -37120,10 +37120,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -37137,7 +37137,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -37151,7 +37151,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -37165,10 +37165,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -37182,7 +37182,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -37196,10 +37196,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -37213,7 +37213,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EdhquvZAuchDXFT2NtPm7gnMa3Cv7BYUlhCkh4lHQF98rAvElX3FKt6Dl98f1oAL51xLlmG8ibHWwIAglfIopw==" saltValue="ynoR4eHSVhJWqaE+M3s4ng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PF3IdywuAQk7mK54EIsvugmYJk+hObZdYE6FcZAYXoueWe3coJE58XCTLfvgJYJbGw9OaTxemAFRgmHBIrJAew==" saltValue="ju4AaCunvOrRH9KojaO2nw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37249,15 +37249,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B2" s="147">
         <v>10</v>
@@ -37265,7 +37265,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3" s="147">
         <v>10</v>
@@ -37273,7 +37273,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B4" s="147">
         <v>50</v>
@@ -37281,7 +37281,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="146" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B5" s="147">
         <v>100</v>
@@ -37289,7 +37289,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="146" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B6" s="147">
         <v>5</v>
@@ -37297,14 +37297,14 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="146" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B7" s="147">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XmdroT3fFcRMVtc3HnZpf6RxamQefea9QIJeVtzdPlemUxOBZqh9DC4RijQB3K8EC+BZ37VL1qGTBpWSL/GMZA==" saltValue="HdJJ60bpEHDcQ5bANyM2jg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1W2rtiJJ8UIN0xT0D0a9DRTOe0OlB2wcP/NP/oI1ID0VrLpVF3dc0gSzGQolPgCg2fuhF4auLYxSOlWLwf7z0w==" saltValue="LY0NY0FGYze9+E1R+eS6Yg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37330,27 +37330,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>155</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -37362,7 +37362,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -37376,7 +37376,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -37390,7 +37390,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -37404,7 +37404,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -37418,7 +37418,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -37426,10 +37426,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -37443,7 +37443,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -37455,7 +37455,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -37467,7 +37467,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -37479,7 +37479,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -37491,24 +37491,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37518,11 +37518,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37532,11 +37532,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37546,11 +37546,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37560,11 +37560,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37574,14 +37574,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HMqk95CHCyWK7NmnHL8YnjGXrgTl5ExcpVBCmnVzRgGYFxeTFdkJKbuBFjJEwhZCaK4bnRktDrW2Y4caArQBdw==" saltValue="aCirRQm4wcil7jgZnn+X2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yb0hVt2uyxPEEec7GTjpcal6OQ4eYDch6RZyfWZ8bIiFMuVOci1SYvRNjLe1UJ/dA87tBCnqBnvxIF0WQDAm2A==" saltValue="0XK2dcgNPZ2EQJyqwJn0Fg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37608,44 +37608,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="D1" s="61" t="s">
         <v>163</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>162</v>
-      </c>
       <c r="C2" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Lt99Wul8zgTWtfDA1+dPoFcSCXnuQwcGb+YrI8iGhHzUHmojuk/2HVTTsAFgL+r/p2CloRczSIBFEVyGh54cOw==" saltValue="mI0KnePqrjXL4KM9BJvXOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xkjkUd53EyAs7Y6919rSDyif0ibNjNb8PXYY6npO6jZ10g3sDkdCGnEwgaiNZ6SV2utriLNeX86v5EOhvODzvA==" saltValue="MGx/XsSmBIHVaZekQBqYww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_region2_input.xlsx
+++ b/inputs/fr/demo_region2_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A37E217-9E9B-441D-BD43-86B44A91E7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8352BD2C-7C93-4A6C-A7AE-9B5611F8BEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="8970" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
     <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
-    <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId10"/>
+    <sheet name="Coûts et couvertures des prgms" sheetId="56" r:id="rId10"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId11"/>
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId12"/>
     <sheet name="Incidence des conditions" sheetId="7" r:id="rId13"/>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7I6Pu9mHt52CzFHhm3djgCVW1Db2D52/yi7bXToRECilntHvU8z9aLduv1CAFFFjH9hfJIQnfAvGkmd8ikgpfw==" saltValue="w1Lol9b0Oh3qgi3h5tam4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iG05DnJ3xx3y71ilVGgrer9uf4cPZBgwvXHsNzrtOJtIlah0MYJ4EJyeYAua+bZL/PAX7otA+uviZtkqIJkODg==" saltValue="hLFN4jEFNOQL19mBJR6adg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fHzjFYBMdkQ1K/PyLKi5OEYKV+/eQh5Gf8oYD0Qq9gw9icv0e289vgJZbLu9qnCZL9Y6dLAwxkDPhEYI2JESUg==" saltValue="xgx/n/bpsudGFAW36QAxTA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gtVF6dm7DpYRj4bgfb+jeiYjSQWe7yzIIvNXBYo12gs473MfFHtBlm82dhJXNJn7HbfNCa/qG0KyH35OXNORZA==" saltValue="AvmLPoSu542KCAYQnfj1JA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="s1zE9UKp9T+Dg4a9iIRvwnrvxCV0vq9UWYVr4PyjVxPAq+8AJLIq2mFPqBL/CzhtTUZRGoJ9H+byYO1dqBgVsQ==" saltValue="C0/PeoX1+hUBxhkLuXNYyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6lG038JnLxEMFHg6hKkhMSQLBs+OW7UoOBLfabtC6Zh2+xI1iMqZ8nddQE3IBMFiqYF+XHzHfY8hfMFD2alkIg==" saltValue="ar3SAMIyTGUGswF6HMR+dA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EOP//l6qzN7BibTPlRbr9teJ2jB6NOn3cWKbkAYpcN5LkfH6KLepK1ep2c55smFztXR4UzTtAdIawNWUnESgvw==" saltValue="lMJ6ABWrmzRWz3eqbeIE9A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TsYcbZm0y53r9U3HLNXFXbHCg6kKdojrO2KabAPPynxaYY0pwX6m2fSRWAGrPzKp5lZjR4g2MRD+mmB7xnUSig==" saltValue="cqa+fnVATBsEA0Bl9yrSBw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="V+bHwQHOqpmQQks5iDtxKxFhMH8rksXLUtwGMC59hbVO4c89xjIcRejl+M01WIO5E5Hgsh1VX8nTse4seuViAg==" saltValue="iMEMsNIo64W0C4/7p6nDVg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IOD8DBR5+6B6YVWOlvnGtxMEUADRVlqtLv+nHLv9UOEaXD55xzajNZ6rFwQ/uL5xiSKz67Ivfo9LU+ncCOQ0Ig==" saltValue="d+EBsjzIFrepZfXlrw8igA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gDqElTsHrC9Duc5Q3gOhr6yJmR79bpd1/uFBJh3lToRg+1lE6Ve4hY2V6cW+AWhfMCNtNwbSKFC1kHs8wmZIxA==" saltValue="JsJQqsvs9eQCWAMwplO/XQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9iXEE7qya8YSVYmhri63XdZckjsikpHjdSBe5BeZ5Bk8w3uvDt1Gypvj1GlqY8J5cAyTN76fl/PA8ENkUgxjVg==" saltValue="2LIzJ4PL0z58FwuiMSxCLw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k24yKoi/HdoUgU6XEbRqBHKptrE/H5QZHiChwFSVbz7eZtXmVi6rvRmjIjeu4acaJXCj9yOd+yoJLPL50kTlWQ==" saltValue="67QsUd+py2fDX/gM7qsEvA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pRAQe6BhHux1mLVALBZGTm8JW1yjKUtCoxcJe5OwTPJR+O8zecd6sPVQ7GaSTr2VOA0MxCztD6FhPF0p1E494g==" saltValue="gdKEZBvXJprcilQTU9dLSg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4uTvcUKmJsGIQzHTL5JfqE8L3PRpyd7aXL01oK+1+cpiDp5xXaQmQ1RDQiBMRltKCYWVnZs07Ubb/Svg7TrNbA==" saltValue="w7qWGOjlpd1hJy4bEwEy2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jl+N5BTDZHz8eLIrb7znmb494rDklHbgF+IMM1qVY60sqlAO8ZVNGOPiJQ1nRcRRywu/oi6hfYENJH6UFxXYaA==" saltValue="+ReMrPV2Mdqc2w0kYCFIFw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GtAW0Na8dobiIleKoV4fNhHJLwzSf69Wi5RH+mvbh3CB2o+uPnA5+1EE6tsaT+8YXRLgrf5ULerJF9GGU8c56A==" saltValue="iaN+QSE1K+OdR5ChGHyT/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bnh7WPaSwS2vIE4dW/8Q2UbSF6KrNSsOtbxnuwtyxoU9enNUTy8RnRvYiCfCz9roxBv7ZJkiQdgBOUi/aOv7aQ==" saltValue="YUZypEHKBFkRh3Em95of1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6ScX2o0p2Peb9X+5Kya9pXQV+jFHLsglR7rj7p23IHZoSSy3Ear2z8/wy1x8nI2mGqpLTA6/xWzg1nfRL1cahQ==" saltValue="9cHfh7cqcWznJrOM8aWCRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MNpaGV6+z3gLQRvk2tS+r6pukSWnZnGpR7xK4IBvhrEDOde+OmD45E8SxyBpP7o2RFxuz0bGcvkug6i+qKuh6w==" saltValue="HezwTmiAMIDCXPnO5o1VQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8p31x3V1Hf5ArGt+vbd7nx2ovTJ5RAZgGuCGzCHkZYpW6IRcR7Kf09QGNkzWV0RGyJXIdKR1Al17NUfX6Bv/7A==" saltValue="oWSCd5nlSTieZtlgWPXWSA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vXWHNSAsk75gnMThOv+d4R7lUFGg42+9GaikS7hNnTSSP4n2pTHo+b4J0bNTygwVHYXyKB+DblgoZYM7GzvDiQ==" saltValue="JSjeVB9kgY2GxzZFkZVHnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AvKDoOwwVagnO1HSDRMZKsfQnD12Vcfbu3HGe+QWBKRW4jQYWc1X49XnQyxjSXlCLoIUhhAxvT7+Gq2gJNtidA==" saltValue="csgpZ9ITtmhJgLwhJvm5Bw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jMBWbhzCe36W4jlvRD5j2TOt5t6D+dne1bk8TJMuE6woY9a8vngbyRIZQJaDD84AKzeEWl+LQKB8i1ipzFK9TA==" saltValue="HFWlEAZjdEa/XtF59JpVag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="y5xNzIFhSfYUHuCYuMYA/1UNfEsvySBg0vC8Z+3tbPqx/Ff694FLScFPDMl/KGxJh0hScG0/YnfNLh6o+izm8Q==" saltValue="Cfv1v8gBQ7fOl8VjQgl9TA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+J9BtzxqH3N90FnW3lsG4JVAV/nkdVUPqjlEVzaOmRUqZwBO8dL0/Fg9Nhtv50/dqQitnMh303Nj5mTamnDjpA==" saltValue="VUsv3Pyw3qwfEEJAQvtnhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MfdcZSCp7z4bTwjJi2Rci/B+5jOm7S4TcN6j5yxXCo2aVjc+K5OJzEOnNi8xKHbQhYfMFmlMD9rR/I5CJSDKSQ==" saltValue="6UFdXHcrKQVASx/N3RBEkw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aWR11ObldY9Ucbplprs0r4nIfDKY7MOgC5TetGXdcKfXaDV/yZnXvHIXdplcNhYhujFliEeiv1cuDkQDztLnow==" saltValue="E+cnaYVaAuP7UnF4JQ4YpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -25134,7 +25134,7 @@
       <c r="H284" s="100"/>
       <c r="I284" s="100"/>
     </row>
-    <row r="285" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A285" s="121" t="s">
         <v>128</v>
       </c>
@@ -26102,7 +26102,7 @@
       <c r="H323" s="100"/>
       <c r="I323" s="100"/>
     </row>
-    <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
         <v>87</v>
       </c>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+liIjeLiFQ4/+IiCGVadjE0EnbGmU7jDKIZOHcwxFhoNx6Cveo6hHrNGrs6LgNLnVlRSXNecVrwLDP1Y3sZNGw==" saltValue="fqOuU/LHmbFVixgW2tzofw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="04rheFmNjCmbRZxf218JXYRECFd1urG3DYb3EK347fjoYfsFZmYUmXQiV3kLYUsZ1ScEq/0ue0efeKmAD/MMlw==" saltValue="78ojLlGMz+ffrfJMM5AkeA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oYAGe/BgvF+7NHhcWE6gMrvQMEDjpBwxFjvGGGRLoBY74Rc7ZMqrN9ZrpBieuUDQm4tr2b4iMCGkNxOQ4cAFQA==" saltValue="fc8LziOyINirH/ARD6sF9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="N3PpECYECw/SHDIxxegbZNXw5ZkMS0LhuROBeBQH2KMfTDm05+GIyCVXfaNck2wpRcShOjTJEeTpuU2H5vcmqw==" saltValue="ZdOWwJT69iXBXS+50rp95w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WTOmoTZOjpOdwuCQGxf6kJJeLlujHplRnV+xqP0zEGOehV2bv9Rizb7/wTCDmm0cPKFMZeFPG7sp872OYItkEg==" saltValue="QTn8ChFGQHztA1Oa9Kosrw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cjtX5J5gfoH2umxVFNg3x4PD5cVnQ6N5F2CWSaFng/Biu7loSMHWoa3FKXG59SrNL4Amej/qZ/fE3eAK+o2tsg==" saltValue="6CEl+9TDLSMisinEMg8Vtw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vrtoxccu3CcEwPtfFcaYg60xksmS5uSWauLtFbhHmX9upI9VB/k3vUDEszlIHtoR8Lsk+Nmrs3b5JXNn6BCF1g==" saltValue="nmyzGHcyNXn/rcojil3NZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ks8HSv5KAJs6RTpU9IVLQTr/67CD84qEDO7BuSV8qqu628XoxBFP6fWo79nWaCT91YK77ora3bxeSu8+wLrZfA==" saltValue="bztE5fLJiZeeJF1UDSk1+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CgYQccO8ZLRWiaQNSVErUPdv9i7P3k+K3jyZFrDTVqE4QPzXDVsJn80ye1kgLgTKnDr/WMRdJHZgiMyC4oecYQ==" saltValue="uK/TZjfZg2QkuZ6K2Kv4Rw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="z56tPUdewi1k+G1b9zzh5Ilsc8UhvlPUSyAx0vZ8GuPpXeQBxJI7tuUUAeNf6go7rEXV5BwUVQof8seviuhY+w==" saltValue="WCAl6slz5BGLRChFeTRHDg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pRwUI31JisK4HxlVh3Hrr9uAYEz+8y6G8jd73t9PVs04AGJG98hXyejr8MlhD+9agS5CF3KN21XceotH2GRjgA==" saltValue="copiQaSTuMsN0GGywhg3pQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DcGdD1eR1bMkQfzNQ2dk1eN0r8P/jrAyiLk5PfySQmfneLlhHwJcNaMEd9cn1yferiyJb1FRS6bJDIF3g+WJNg==" saltValue="eblETPInBVEfZMK/j4S8Rg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pfFRfdwjB6bjTz0yoBb1VGW2kvmV+6yDhtUtQ+waiQSm+r2YPlTMBOFixFXMU1YpDq4mNGHMHYQ/Wot7YfiTrQ==" saltValue="jnr2CRFiW+fFAV4jS7vWPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wPbggm73ON4aem/Y8eglvZJxltBCZakicbaEN8DgAbVF+nCmaJZPbdMsZA4XtgdhKOayFkzBoeI6pZkKQ+DJ7A==" saltValue="e2DaNkbstBPadMOgVNbf3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XROM5QSA2pI4Gh5L/kS38514UxysB5uw36wDxTwS/xS7w2M6Zzy64K6WnTO59iQxKzcLo+dZ2p7ylX3i0DZJuw==" saltValue="lu/SoftMsFDAEPDFpIFKQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y0dlrsQBOfSV2yNY/eTrDpjB5KHPaDQ8tW2UJyawm6UxDQ94lLFrgkacmYHiJk06YCAddwXSRlythpndJG70zQ==" saltValue="bSwUG3WChD9XDLngYl9b+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/F8mgc8mAc3YzlZJeipJlG3Axw8xkiSkQowCVN/JqcqqGZJNvkLwGndB7u7vfjcNFaWleEyJjUL87wYmbP4pNQ==" saltValue="gOpthsRxE0tXJ27BE3ihfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IckSGF+WUCWPTQgu4IhXNF64d/MbbcEe2/oaA0Ji0cgnExE2WnQLfJ2zAFT2R6bP0nJCdhbAImyPBatgu96+/Q==" saltValue="rFPjvGrqPODuBs6WvC5q3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ap0i/iqgHZ4+NdukDP85O4dzugB7guFsaKjdHXsVDaDzmOJAYzDB0WDrDTe/dA03fEt1Kzz7fN8Hrb8fQq1oZw==" saltValue="de8lEe/Zhl+ujW9EQn8KwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lssJmn17qDvq3EgPD3ziWx9F2s3YvnALF/LL2NAvGyI2/M8zQla32jxIYv1R03YOGQA1U7R/1l5ac/STH7MsLQ==" saltValue="zXulVJAaRr5Szz60h1yjMg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PF3IdywuAQk7mK54EIsvugmYJk+hObZdYE6FcZAYXoueWe3coJE58XCTLfvgJYJbGw9OaTxemAFRgmHBIrJAew==" saltValue="ju4AaCunvOrRH9KojaO2nw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QZ6MqxNI4PGnGaOEFr+8H3BV1EjXXz9daptT8dKdLt2FCPgC/5u6Kd+C15IvWtFUn2d8CxF3Hc7iPQpVfDo3Cw==" saltValue="zW3ZFDJqxiRzJQygQ28HGw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1W2rtiJJ8UIN0xT0D0a9DRTOe0OlB2wcP/NP/oI1ID0VrLpVF3dc0gSzGQolPgCg2fuhF4auLYxSOlWLwf7z0w==" saltValue="LY0NY0FGYze9+E1R+eS6Yg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qng53ndnI767ZyB2AqSJYJVAeH2gbS8YStEq2pUQ8VqPLx5cB8Z24X02buSac/1sFH4PIF/hxtScVvjV7ifEzg==" saltValue="P7Q9IIE3SNXMfAlxDBJHnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yb0hVt2uyxPEEec7GTjpcal6OQ4eYDch6RZyfWZ8bIiFMuVOci1SYvRNjLe1UJ/dA87tBCnqBnvxIF0WQDAm2A==" saltValue="0XK2dcgNPZ2EQJyqwJn0Fg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="C3QG54mvFgwYGEmjnYkQ3I1TL1tSLnZ+qI71oBgOucVS2fVyaPd9nL/2TfjosANBLL78EnB5tUAgliTdjS8jwg==" saltValue="y/teSPWIEUl/qQOanLNTbA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xkjkUd53EyAs7Y6919rSDyif0ibNjNb8PXYY6npO6jZ10g3sDkdCGnEwgaiNZ6SV2utriLNeX86v5EOhvODzvA==" saltValue="MGx/XsSmBIHVaZekQBqYww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kQBnlv6PUq5Xmj7lYCpKxKZ2q76uUkgg/IzY+gf9HAgZzFtD3szjjw2+k5/AI7qlD/+t7TA/smK4brmApD++Sw==" saltValue="+GaosAUXnBcQ/H33bD32Zg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_region2_input.xlsx
+++ b/inputs/fr/demo_region2_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CE0A9B-A2C9-4659-B3BC-8B6D766628C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{426FE22C-3B13-468F-A6EC-2782B395E0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="24" windowWidth="23004" windowHeight="12336" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -1198,9 +1198,6 @@
     <t>Linéaire (coût marginal constant) [par défaut].</t>
   </si>
   <si>
-    <t>Courbe avec coût marginal croissant</t>
-  </si>
-  <si>
     <t>Coût à l'unité (US$)</t>
   </si>
   <si>
@@ -1229,6 +1226,9 @@
   </si>
   <si>
     <t>Groupe général de la population</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal croissant</t>
   </si>
   <si>
     <t>Courbe avec coût marginal décroissant</t>
@@ -5156,14 +5156,14 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hbnclbhOfvoGFEakOo7xuW6bpYH+Ztru3UIsF1e1ZeL0HpLIT9ucF7i2/12FocaznOREcgCxV4xjkdBUfW8HjQ==" saltValue="9EmgOuRjvP3u3pUg2+L4Lw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oZAPAnn568BZFqI9yqdnZjIZfCLsKt/XH/kqm4mg3ONfFvHqIwUst/GzjFvOI6gIuoPP5RkZWTs1vrOKE6gaBw==" saltValue="4sPscLNBNevRZFxe1WEW8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5638,8 +5638,8 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G39"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5648,13 +5648,13 @@
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
     <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>160</v>
       </c>
@@ -5666,16 +5666,16 @@
         <v>166</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>167</v>
       </c>
       <c r="F1" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="53" t="s">
         <v>204</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6324,7 +6324,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="J3C6GcqymEdKOv4KGymp+qyQEDv3EQWWEOJWl/pGCNWJxRxiHG6mFypvjFOTps6Hk/fRagABD9fFHpsu+0lz1g==" saltValue="gQgw5fp4sMJHo4U5x0sXbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="B8aN3k1Zo7EzAiz6YmVxe78SkdkEV08U/MycxDPgcFOCquRqxZZwXMgZLWFwEYRLu/UqrWch6t4N0Ejm2LvklQ==" saltValue="BPJ6VTz2BE/gn5f9IS3tXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6602,10 +6602,10 @@
         <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>207</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OBGbj27uIvIAnhwHI/1DMKpaHftrxLDsyYnm+AmxfL2lSBgzgSRC9iMPj0rJ2oM+5uBV5gDxYWSciU4isLOz+g==" saltValue="TsGG7lnLRiTmTFVge7uoHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="o56IJ25dmC1SjyhA2e5p8sXK3/s5MmuUP1rZa4CUo2HcmlzuLVTc6yLI8bljvO+vOD0kmxiZnKzuPddI8zWMzA==" saltValue="HTG8O3JTpyznA1eH5F0NAw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="srccqlixdWe5cAKQQH4DA8mXJLfpMkAxvP9jIbDb+5Cc/s6+HKbhS2UjL7qzSNeo0KCAY+CXhrNBcDK3IhWdCw==" saltValue="9IZxQxRCtopLaH6xGpQ+UQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UMRoN/0B5Vk0Kpl4mkEWw3pQMlCtRetjo4rC59B915f3uNNoMFi4L0Kp3ccBAF5i13TOxLHvNBWNgCCZIsvxNg==" saltValue="GeseFSommpRlM5jHildXUA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gtQo1puAgp5xsSOcBAAlbJXwJt8aYipILa2OcNXAawKCcsYjgV6qbTSCx+6NA6GqQDEqjgIKOFNJ3zU34UKlWA==" saltValue="Cvk8Ea2MU5tTKqLiqqF+CA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xKnyE/Fdt3ni5gdW9nNZF2WaTSkoGJZRe88E8A2yHOoedgMyjEnDLsE0J+nTTA3ZL9qrdatHseZ/1WohetByLw==" saltValue="QWuGJsBvuusciqy+jyvWvw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6966,7 +6966,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>160</v>
@@ -7340,7 +7340,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>173</v>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Yo1oElzyH6DQRLQ4p+NavC63Z92UTwPMem7rK7rRF4DEzZG94XKHCSXnvIkd4H81Wh8tEkIcfvkpCvcoM+EkMQ==" saltValue="mA0rRLNEsI0bCaDh+2aU8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="U4EH3H5H3vnQ2tGQLHxPvxZ4TenPOPjseiUFmyXOhZhW9YdmKexpMEzAKMyTvIv6ZdVyxuU6QW0bk0U1xQbtaw==" saltValue="Elcz6OIjwDm7yR2vf2IXpg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8721,7 +8721,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jivFF8SCPUvkSQRsT6QJxlqU81BQfXx3NnVZBVbbR3dtRvFTTwNAjthiMYrUKesj0aSfxzUt5/k25tBHmDBA1g==" saltValue="C6+W/LymmDXwZgQZRtOfRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Tr61CGD0Qyvut7bjYsjafDgiMCdjeUrJLrTuzQVXeQ8BUHn6uZod0kUiZWmR4/klp72SeNMFPtI/6Y74bnHPug==" saltValue="QTSvh+nrT672W0MGN6TnOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8753,7 +8753,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
     <col min="3" max="4" width="11.44140625" style="35"/>
     <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="S88hsyPxtZ+VTmXd2BX3o8GrRNE4iXey5GnADO64V0kNxkf5UqkFF8kIJ8ObqSpHqocClimvaj72DGHi506vSw==" saltValue="J/UW+uxmjaJpmD1wpJfjzg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="S4PJ3dhWyeYZMG9/z3NmY3vCCvcmgmifdYkBOa4szblhK7MobXhNKY3/GHaK7ZTkUtReAL/u/U1djq+a1F57WQ==" saltValue="xdENe/lebdhpAoXbpQuFFg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8963,20 +8963,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>160</v>
@@ -9466,7 +9466,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="133">
         <v>0</v>
@@ -10072,7 +10072,7 @@
       <c r="N26" s="129"/>
       <c r="O26" s="129"/>
     </row>
-    <row r="27" spans="1:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
         <v>75</v>
       </c>
@@ -10315,7 +10315,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>173</v>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tYAkDkwMofkHRWYV6Td8kIBjrueoLi2Y2o4XsBw60GCMaSv1ScSoZxdAo3mFQ0RvvjpqLuWxEOLogzIlJQoLdQ==" saltValue="o8/T4JhXLS+U4XYfFNz8RQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZhEi/RsLDTcFGQCOqh9SO4ZHwo69I9r3r/3bWQ+jj/KvdbLZlXdA2UW5fZ24jy39lZAy5eYHqo56JuLdH0bJQA==" saltValue="8QvNX17aqvXZs5OrtdM7ZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10774,19 +10774,19 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11336,7 +11336,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="133" t="s">
         <v>7</v>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lCf0Ohmf2kNiscuwUSyrH7slVFzZNREeZ9gRzM4rOpNGqybM8dEeQ+4eO36KTA9kPTmMA8f0UTu/pxB17iIViw==" saltValue="xh/9zcmiVyP9HSLZo9sotg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/9N0D6JnXdqEQ1zpKZPIRNwOzjFB5BABCFwhQunbEUF7KGJrAJmnhIEI/LNl/5LKkdO35RJczYXjDugYokP8Hw==" saltValue="QiBGvGAo5MSCngqRSWB7Ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11541,19 +11541,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xhJfCmN66UWMb7YH5ALRMZ0XpPrlFNIFwbTTydge/O52O9TQbH59eyMThrkcXH1vCI/XeQykW8+pu3kzt9ilSw==" saltValue="VHoRu5DGHkwG5GF9lnGoSA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tgsBhfISOofAfuvGorNo7jPla/ZoL3U52M8gMd1NOC2oz22CK/jiypM3ThvsQRHgXvpnWiOpkFhOIM/f2cmGFQ==" saltValue="/I5PqcIDy4dt8ngdj/U+3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tc6IN3EEnmsKpWCVzzLzz5Ec/u8oTXfgLlsCfZxjeHfgYV3IKoPxuYv5jKi3j47eUx9pz5LXdHcBmlPsLVKxTA==" saltValue="eaG+LvLmLxJfZyqrCOb7Vg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kfqATHL9Cgd/DdZPt6P/bwW42vNE2nQoc31rj0PD1IMEg+Cqckv+iIuqM2pbUhYQpb4oX9TH9LTDdLPnSBsjmQ==" saltValue="U5Z6ZhBKlCJYLek57dpdKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13010,12 +13010,12 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.88671875" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Gu9r4Y95hn38BcL69UHzPmi567sk3vvBpp0o9djD8gYvxS/doXf3eM5YRwM8BBUYXImoKmFkeTkxE3E3P9nWxQ==" saltValue="MrUGT+Jv+amof5JaEs6VEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mXZucuml1kXGcVnKJ44af4S5F5WtG0leQPpQdLqRrco1RSmlZZTyITwHPxNSrd/vhEkkvOy349/eIL98Bi3qVw==" saltValue="JoYLQY16Ooez6AYwVuWDyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -16876,7 +16876,7 @@
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
     <col min="7" max="16384" width="16.109375" style="35"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PbqbK2Za5pPCWR9QHAuA5aI1aRKXuUlawhmJCgSVMXmD014jSlgI/Ai8yIQgjrzgGlz22HWxXmeBdoVqF860rw==" saltValue="mAbyGqsKnxFq8KVHc8pQ0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YGkF4BpAWz3K87U6awguY/mNKvauheb9g0v3JCl9RKenONaMxw54MoU+P9Bj5HLVqCfoZmK1w6xmL2t2bwJk9g==" saltValue="DEbNFmVj3FhQMkPaAtaxVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -18107,15 +18107,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.88671875" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.88671875" style="35"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
@@ -18590,7 +18590,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>269</v>
       </c>
@@ -18949,7 +18949,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -18977,7 +18977,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D33" s="136">
         <v>1</v>
@@ -19064,7 +19064,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D36" s="136">
         <v>1</v>
@@ -19092,7 +19092,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D37" s="136">
         <v>1</v>
@@ -19179,7 +19179,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D40" s="136">
         <v>1</v>
@@ -19207,7 +19207,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D41" s="136">
         <v>1</v>
@@ -19294,7 +19294,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D44" s="136">
         <v>1</v>
@@ -19322,7 +19322,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D45" s="136">
         <v>1</v>
@@ -19409,7 +19409,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D48" s="136">
         <v>1</v>
@@ -19437,7 +19437,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D49" s="136">
         <v>1</v>
@@ -19524,7 +19524,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52" s="136">
         <v>1</v>
@@ -19552,7 +19552,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D53" s="136">
         <v>1</v>
@@ -21746,7 +21746,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C142" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D142" s="139">
         <f t="shared" ref="D142:H142" si="26">D32*0.7</f>
@@ -21771,7 +21771,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C143" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D143" s="139">
         <f t="shared" ref="D143:H143" si="27">D33*0.7</f>
@@ -21849,7 +21849,7 @@
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C146" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D146" s="139">
         <f t="shared" ref="D146:H146" si="30">D36*0.7</f>
@@ -21874,7 +21874,7 @@
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C147" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D147" s="139">
         <f t="shared" ref="D147:H147" si="31">D37*0.7</f>
@@ -21952,7 +21952,7 @@
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C150" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D150" s="139">
         <f t="shared" ref="D150:H150" si="34">D40*0.7</f>
@@ -21977,7 +21977,7 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C151" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D151" s="139">
         <f t="shared" ref="D151:H151" si="35">D41*0.7</f>
@@ -22055,7 +22055,7 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C154" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D154" s="139">
         <f t="shared" ref="D154:H154" si="38">D44*0.7</f>
@@ -22080,7 +22080,7 @@
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C155" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D155" s="139">
         <f t="shared" ref="D155:H155" si="39">D45*0.7</f>
@@ -22158,7 +22158,7 @@
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C158" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D158" s="139">
         <f t="shared" ref="D158:H158" si="42">D48*0.7</f>
@@ -22183,7 +22183,7 @@
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C159" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D159" s="139">
         <f t="shared" ref="D159:H159" si="43">D49*0.7</f>
@@ -22261,7 +22261,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C162" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D162" s="139">
         <f t="shared" ref="D162:H162" si="46">D52*0.7</f>
@@ -22286,7 +22286,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C163" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D163" s="139">
         <f t="shared" ref="D163:H163" si="47">D53*0.7</f>
@@ -24348,7 +24348,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C252" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D252" s="139">
         <f t="shared" ref="D252:H252" si="120">D32*1.2</f>
@@ -24374,7 +24374,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C253" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D253" s="139">
         <f t="shared" ref="D253:H253" si="121">D33*1.2</f>
@@ -24455,7 +24455,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C256" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D256" s="139">
         <f t="shared" ref="D256:H256" si="124">D36*1.2</f>
@@ -24481,7 +24481,7 @@
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C257" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D257" s="139">
         <f t="shared" ref="D257:H257" si="125">D37*1.2</f>
@@ -24562,7 +24562,7 @@
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C260" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D260" s="139">
         <f t="shared" ref="D260:H260" si="128">D40*1.2</f>
@@ -24588,7 +24588,7 @@
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C261" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D261" s="139">
         <f t="shared" ref="D261:H261" si="129">D41*1.2</f>
@@ -24669,7 +24669,7 @@
     </row>
     <row r="264" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C264" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D264" s="139">
         <f t="shared" ref="D264:H264" si="132">D44*1.2</f>
@@ -24695,7 +24695,7 @@
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C265" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D265" s="139">
         <f t="shared" ref="D265:H265" si="133">D45*1.2</f>
@@ -24776,7 +24776,7 @@
     </row>
     <row r="268" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C268" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D268" s="139">
         <f t="shared" ref="D268:H268" si="136">D48*1.2</f>
@@ -24802,7 +24802,7 @@
     </row>
     <row r="269" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C269" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D269" s="139">
         <f t="shared" ref="D269:H269" si="137">D49*1.2</f>
@@ -24883,7 +24883,7 @@
     </row>
     <row r="272" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C272" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D272" s="139">
         <f t="shared" ref="D272:H272" si="140">D52*1.2</f>
@@ -24909,7 +24909,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C273" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D273" s="139">
         <f t="shared" ref="D273:H273" si="141">D53*1.2</f>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LG9I0hJ3nAho/qO3er6TBeqO45HIYlt5geDupqdnAoshyDsrt3GkpbXX7cvjETDJc9Auq5P9QNkZeJQ0YrRcUg==" saltValue="CdrySatA57y1M85bzGuW3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nvnTQpW8KB7usV06wfCPlf50rQckD4YGntdDG3lh6xgnY0g3TZqIidEN6ix6QrvTfTl7OwGavEKiCkrJAZUVIg==" saltValue="1TkwMIcJdTXpCZT3ndpZDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26252,16 +26252,16 @@
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26378,7 +26378,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="StFc8Db7Nju/AdH4ac7+tkzQGFM5bvv/F5WomY9zOG3RUBD+EZOD2Fb5N4XarNlJREZ4kDqoS0ZbzFUzCh4mBQ==" saltValue="jxm+fXTIt7xfcUfNS5+l2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sQE6WGoEK2mB2N3vOPQWPmc9TmGqHidIg+RCOlJRF9oTCaw09g5kyy7tpc8kvaln6jCfTTQVA8dTGRXP/MswZA==" saltValue="f+8QH38PCdP1ntxXjBg+Zw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27347,9 +27347,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
-    <col min="7" max="7" width="17.109375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
     <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MokQU5TG+hZeCOJc3LWWwytU+TbtbvXXDCE3UtlblE7qFH46wz1s5x9YlWIKGHQ4jTOLq42VcjXrrvWA+rPUSA==" saltValue="GWRhvMZuSS+wTIXq+XeF4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hew3JCZcK48sY+286kX7JUyESZZzfVmXDBVzLDTAqwJRwe2SJP/wUFLxtyLkSMWJ3ZV9i+izMCx9Rkb5W8QXSw==" saltValue="l1mX6oZqoD45UVM7HdYVag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28219,12 +28219,12 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.88671875" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28715,7 +28715,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>189</v>
       </c>
@@ -28805,7 +28805,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="136">
         <v>1</v>
@@ -29034,7 +29034,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="103" t="s">
@@ -29768,7 +29768,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C38" s="136">
         <f t="shared" si="11"/>
@@ -30062,7 +30062,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="103" t="s">
@@ -30796,7 +30796,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B61" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C61" s="136">
         <f t="shared" si="27"/>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pJSY0HSWRE1qlZodHLo2MY+ZPg9lCGTiB4Q23W4pEhs3nIgFrcYiJI/5hgXaraUih6OFz33TE2D/KIXXxl7GcQ==" saltValue="c3diOCSbcNBv3qvDKDVYgg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VY5PUlqTm/qoR+5Ostu8mfgp0kaMv005zAni0cSxQvUEjX3zkV2fAKrghpXlwM1juouC4zHGB4am9TkAVeRIeQ==" saltValue="E3xXa9m+zZ3DGzaqoBHEnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31106,12 +31106,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="35" customWidth="1"/>
     <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="56cc7AXEFQNgPdT/FwcCGWBHyg+V6ELumiC7TWd/Qunx3rgnKLyWe42xalrjhFbpuD05SbuCjj0rCZX2H9DCHw==" saltValue="dTWYpFcfVUpbdpVVk7/75g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5TklPzgAT5IcMkdCAJn+T0es2yCH5sz6mxCi0WcrYUD+2jbWA+9fzsl5QmxaVwObQS5t/vqaBiZMRDINDvMgVg==" saltValue="vUZL8KRfXmT7TyBZdKwURA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -31390,17 +31390,17 @@
       <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="35"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
     <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -31500,7 +31500,7 @@
         <v>192</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>334</v>
@@ -31543,7 +31543,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>334</v>
@@ -31589,7 +31589,7 @@
         <v>185</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>334</v>
@@ -31632,7 +31632,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>334</v>
@@ -31675,10 +31675,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="52" t="s">
         <v>334</v>
@@ -31721,7 +31721,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>334</v>
@@ -31767,7 +31767,7 @@
         <v>170</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>334</v>
@@ -31811,7 +31811,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>334</v>
@@ -32710,7 +32710,7 @@
         <v>192</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C60" s="52" t="s">
         <v>334</v>
@@ -32763,7 +32763,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C62" s="52" t="s">
         <v>334</v>
@@ -32819,7 +32819,7 @@
         <v>185</v>
       </c>
       <c r="B64" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C64" s="52" t="s">
         <v>334</v>
@@ -32872,7 +32872,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C66" s="52" t="s">
         <v>334</v>
@@ -32925,10 +32925,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C68" s="52" t="s">
         <v>334</v>
@@ -32981,7 +32981,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C70" s="52" t="s">
         <v>334</v>
@@ -33037,7 +33037,7 @@
         <v>170</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C72" s="52" t="s">
         <v>334</v>
@@ -33090,7 +33090,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C74" s="52" t="s">
         <v>334</v>
@@ -34160,7 +34160,7 @@
         <v>192</v>
       </c>
       <c r="B115" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C115" s="52" t="s">
         <v>334</v>
@@ -34213,7 +34213,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C117" s="52" t="s">
         <v>334</v>
@@ -34269,7 +34269,7 @@
         <v>185</v>
       </c>
       <c r="B119" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C119" s="52" t="s">
         <v>334</v>
@@ -34322,7 +34322,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C121" s="52" t="s">
         <v>334</v>
@@ -34375,10 +34375,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B123" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C123" s="52" t="s">
         <v>334</v>
@@ -34431,7 +34431,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C125" s="52" t="s">
         <v>334</v>
@@ -34487,7 +34487,7 @@
         <v>170</v>
       </c>
       <c r="B127" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C127" s="52" t="s">
         <v>334</v>
@@ -34540,7 +34540,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C129" s="52" t="s">
         <v>334</v>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OOHdI4wpMzfTW8/lV8zVgFVRnzKH+tj2wP3Q+NYRJjl0Zl16YWz4FFsYLq/JoTVuTnv4+rRfSE+3ErEdyv8EnQ==" saltValue="2B4iTnzPDhDfsObE6fitjw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="L4T1oY/fTpMBt1WSZdQxeCL8HLTdq404SoHOQm5/HYHyB9rFZGiP60zYtL0ylwh++gYeUxJQoX4eEFW1M2BdtA==" saltValue="ZZGxXHMPE4R/JHRKe3Uhqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35512,13 +35512,13 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.109375" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wV/s4R/eGk/z3rgffjK5ZK8VQZY7o9mBIcVhBcsckhcEDOkJH96ceJEbcgvr+7ZmxImA+SnUM18m8HwrIpzRmA==" saltValue="fB0uzxv7y0tTCA8wA/GZ6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jMEpCV6A8OSxqy6bPkw76IVgMC9XQaykJOEMTSiurCQLoORVndZ77sgygCsU04qI0tGMD3s+BhYDLVZQDSWljQ==" saltValue="MrAL8sMAFrBUR6XxLcFT4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36038,7 +36038,7 @@
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x4iCI2Yccdt1lBrBQURqSC/eDHTe8Zxy612nGEluznW1M/hhR1VA89HmI0Fa2lBygC9+shKbAaH1AcMJm6IIyQ==" saltValue="YZLXQZIFT6txsDWz5eO9Sg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UKnkwVfCvKNq9iWXYamfMXNsV0CRohIfjKOGnIe7/mv0JFJDteFQ7CcbjjqFmmB3yhDami9jO95MXsTfaGExbA==" saltValue="mRxhbM3faDE/c/X/fhZ1qg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="18ac6RebkbE5LgfMmReUlI6LiKiDpJ4hghrws4/ImDSAjl578Kgfksy+OcRGP5oXwCmwd7wPM/WcB6Lsybz+sQ==" saltValue="cuMyYGBUlyH7c8WFd1oQCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cQn6qAFrCEEEITbvmnywGUfbRUMb81w0wypey0ubuwalmrKTkxXqO/+Vhez/C0tQA281mkUZPg4WHsxsEFRteg==" saltValue="hh45Im9R5MrqtwMkPjbi7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FzKGwhZsA8Mki44Rtgb3O8ozK0hEheiOFoOdJrOy5FUpRZWX5lH7n3FhBZ1NGPTH5xGmkbZNVuGraI4gZFlLkw==" saltValue="zVC+iy/DyXdvGOjoO5+bJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sx+Od1u4doWPo/a/vDZNH2+PwHXAlTKek4IpfpSQih5YQqDfr8CyftIskSNXcWWSe/+cGcfQPxO7f4th4c74+A==" saltValue="IBg72fydc3VtgfGSDK9HOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dBgczdrFuHecXqSjad3Xh1ItG1UDxmcwpnVFlODXqKQG1Ncv7eO/pAactpLpvk/FSqGRDR07B4ikKHI/OceZlQ==" saltValue="MiaBsyi9F877QaDx0SAMhw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Bxfp/kd74hyfxr3bui19PsK8r+CYMLh88zJsDD1xue88lY9WLzOaosKdGm0fsNnioc3TO5eeZQGbibCFKmN6/A==" saltValue="Vfd4CKG4/+a1KUsYa2G9TA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37244,7 +37244,7 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Bmo1K2Pnka6o0K/A/BUl2lcNo9H9EoAPEpUTml2sbl7snYBAUQbXVEG/9KRhrZIzYKCltl3D9j/V5wJBgzEV7Q==" saltValue="MDKA4YlTZ7MvHktBDgAxlg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mjC8GUKxyxkWlZDw29EyWL+WWN78SYyM+bIYM7UzNynJiHTL7/gyiv83OYFfVbsr3HZqKlOoldX9Ee2/kkD2OA==" saltValue="EEOdqPdozBwOGWSO/TDTHg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="spB7DP8nLGuR38yBuXPUv48qStxMKPZfF3LSlaTlNAVS7dZFzgtJ5WAA9XaZPgwSZi2m+xX4r9FTwNPi4ZFt+Q==" saltValue="1Ej4hvbdVeiOp4HZEGphFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eMtLFdB2W+vhhnLcUkXt5xtCuRBXULAiFhW6QcIStaEsDjAvfUoEjh9gJm0N/ij7kW7b8rAGcJm1LQGN1zktjQ==" saltValue="gAsyAcZDKh5RhZZhbUs8Jw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37600,7 +37600,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AUzYAUi75b7GbttaY68WX4ImELZfPg++ircmmSY3H9oTqZQfHWtYr02JMmvgB1e77F4CVZaTNQygZFCplVXi3w==" saltValue="Jz5kTFHKzpJrVIaOoRbHfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rBPt80XaaNRbHf3AAU7H4VrjukKa1blME+1kWSFdmBuWWJ652oLqNnP3Oyb2kRKNNpcSaYlNzbJ7tN34RFzMJA==" saltValue="GBuHD4TuIERaNaihRdfIaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_region2_input.xlsx
+++ b/inputs/fr/demo_region2_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{426FE22C-3B13-468F-A6EC-2782B395E0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44CE4A70-A44C-445D-B190-24BE0BB6E38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36" yWindow="24" windowWidth="23004" windowHeight="12336" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oZAPAnn568BZFqI9yqdnZjIZfCLsKt/XH/kqm4mg3ONfFvHqIwUst/GzjFvOI6gIuoPP5RkZWTs1vrOKE6gaBw==" saltValue="4sPscLNBNevRZFxe1WEW8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bQzXmqTXoswBQ4Y0nnDtDXlj3pkw8pllO5YKQPAIqDNItb5aKOt81qPbAJJ/GEE3mUU+ho7XQZgNCAx8WQWxTQ==" saltValue="PHqkSGnLa/qOLplrGaEshA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="B8aN3k1Zo7EzAiz6YmVxe78SkdkEV08U/MycxDPgcFOCquRqxZZwXMgZLWFwEYRLu/UqrWch6t4N0Ejm2LvklQ==" saltValue="BPJ6VTz2BE/gn5f9IS3tXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UNJxrt/7iyzqjTkZtSDADKCMUs/gFEoErm0oMTghnHUExxDU0Hy/Cmh30WpUmHRdLKsq3FZ+wwUWn2JbBaIykA==" saltValue="FyEvjbV7u5bravq93JoQbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="o56IJ25dmC1SjyhA2e5p8sXK3/s5MmuUP1rZa4CUo2HcmlzuLVTc6yLI8bljvO+vOD0kmxiZnKzuPddI8zWMzA==" saltValue="HTG8O3JTpyznA1eH5F0NAw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uvY6egoGJIkff6h1T+SGR4FvYjxKuYTh/jBWdIxiaKCfTXV0mKvhjtjh2IFKdkUGaoy6QUtHzIbs92LrJLzZHg==" saltValue="dL0GjEC96aGtf8DluEYy6A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UMRoN/0B5Vk0Kpl4mkEWw3pQMlCtRetjo4rC59B915f3uNNoMFi4L0Kp3ccBAF5i13TOxLHvNBWNgCCZIsvxNg==" saltValue="GeseFSommpRlM5jHildXUA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ED7nADSogKiRsb6GQmXLPIvns2vSIqhQTGMe54u/fNgMXvC3vuJMPoUgXMW+4K9anN5BC7VQP6A81UvC2Pli5A==" saltValue="0/ud5ajUp9NZFMT0oJOgJA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xKnyE/Fdt3ni5gdW9nNZF2WaTSkoGJZRe88E8A2yHOoedgMyjEnDLsE0J+nTTA3ZL9qrdatHseZ/1WohetByLw==" saltValue="QWuGJsBvuusciqy+jyvWvw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NBuI7w9PkzFG8LZem5cealyaghYKY/L4Pcm+jh1ZmqcIey1aY7teUB8J2kPs4iHa1pvDDJ6meptjgFrBWAn98A==" saltValue="CRq7sksNLkD8EtYpVfCHeA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U4EH3H5H3vnQ2tGQLHxPvxZ4TenPOPjseiUFmyXOhZhW9YdmKexpMEzAKMyTvIv6ZdVyxuU6QW0bk0U1xQbtaw==" saltValue="Elcz6OIjwDm7yR2vf2IXpg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1fkHm34zbvuJLUMKXj/rzcpSrkcFBIO0xY4qFkYQdh7cMfyndr/ZIarwDwsuA/3IoKGV+z1yu10MXis9AFyadw==" saltValue="WW5FxwTf+mQFiyMnzR15IQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Tr61CGD0Qyvut7bjYsjafDgiMCdjeUrJLrTuzQVXeQ8BUHn6uZod0kUiZWmR4/klp72SeNMFPtI/6Y74bnHPug==" saltValue="QTSvh+nrT672W0MGN6TnOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LVQGGbNrO7uZXf3Ma9Iul4UM/JmeKb59/1KWfms2VL4SHUnCU9sCQPS19jh+pmNqHDegZpgDZh844ddkwGfRHw==" saltValue="Pm1FRRHyQJ5I0JAEIHqdQg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="S4PJ3dhWyeYZMG9/z3NmY3vCCvcmgmifdYkBOa4szblhK7MobXhNKY3/GHaK7ZTkUtReAL/u/U1djq+a1F57WQ==" saltValue="xdENe/lebdhpAoXbpQuFFg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ENqp5A3nevUW5ghX3BESeJMP/B0IOBVtZfjcMmbErBU3F4cabzLyew2fL+FYlRyhws6xn8UyOVbW6vtNYa4VxA==" saltValue="BKxR0zLt8ouAcwQmeCsGmg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZhEi/RsLDTcFGQCOqh9SO4ZHwo69I9r3r/3bWQ+jj/KvdbLZlXdA2UW5fZ24jy39lZAy5eYHqo56JuLdH0bJQA==" saltValue="8QvNX17aqvXZs5OrtdM7ZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gTqOstRC9Ie7JMUCv1QZIyr7SD0U8p9yJhnmnDIVxtyjcUtN+9j+Q3QxNGKJ1m8VT3xg4rQmzgzbR4yxvluByQ==" saltValue="9jD5q1XapFtmbxw8LyDl7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/9N0D6JnXdqEQ1zpKZPIRNwOzjFB5BABCFwhQunbEUF7KGJrAJmnhIEI/LNl/5LKkdO35RJczYXjDugYokP8Hw==" saltValue="QiBGvGAo5MSCngqRSWB7Ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xX7uED0bPAaKuRlaZi7D7hKFbjbq2AX1/di/HdRHjQYpY/w+pVmH4UxKBv9npZjcgF3rmCFRmxNwHrcNd3RA0Q==" saltValue="HthDxT1PSM/WFB6cL3LNfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tgsBhfISOofAfuvGorNo7jPla/ZoL3U52M8gMd1NOC2oz22CK/jiypM3ThvsQRHgXvpnWiOpkFhOIM/f2cmGFQ==" saltValue="/I5PqcIDy4dt8ngdj/U+3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Kk6ig1AjPMrrHjZhbvybIDU7nZp6O+M8SH70TsSDO06JA2AtUyxlzgvRQhiymD/S4SAzamP1ZVeDRNcX13cfBg==" saltValue="6dnQWttl7m7RcRLFX0m6CQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kfqATHL9Cgd/DdZPt6P/bwW42vNE2nQoc31rj0PD1IMEg+Cqckv+iIuqM2pbUhYQpb4oX9TH9LTDdLPnSBsjmQ==" saltValue="U5Z6ZhBKlCJYLek57dpdKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2QtEgpY0mnJoCnXtyy2hlPBI7lVAUTOxR+8c4PqI311ZnFDPbZ54WQ7G1GNIT1WV5cN8JGmG3JkQ7/VJT58CuA==" saltValue="d3bmpiHKmk95kTJng+BENw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mXZucuml1kXGcVnKJ44af4S5F5WtG0leQPpQdLqRrco1RSmlZZTyITwHPxNSrd/vhEkkvOy349/eIL98Bi3qVw==" saltValue="JoYLQY16Ooez6AYwVuWDyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pi+QQ2waBcKqnRQJ8VzgoNCBooBrAoCv2dT3HJp9oWkFJn0QoAb3JUBpirohsPhtCYryx5Agvg9Srd1rEEHC8Q==" saltValue="72putP38ZDX19dqXrBwaBA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YGkF4BpAWz3K87U6awguY/mNKvauheb9g0v3JCl9RKenONaMxw54MoU+P9Bj5HLVqCfoZmK1w6xmL2t2bwJk9g==" saltValue="DEbNFmVj3FhQMkPaAtaxVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Tkjz1YZUTX0Ym9ffAD8By0KP5Be1Pyf+rwkh+6Wy1U93n/OJ0iSz/0y/gtuLT6C7zcH4K15zYzkqIHNEEHrT8g==" saltValue="bMg7Vyh3pmfM15diCqWihg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nvnTQpW8KB7usV06wfCPlf50rQckD4YGntdDG3lh6xgnY0g3TZqIidEN6ix6QrvTfTl7OwGavEKiCkrJAZUVIg==" saltValue="1TkwMIcJdTXpCZT3ndpZDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xtWWzmlhGZoVE0AOBka+aQ9UIFvYyXYxjUgj7NhBsrYgQk4vN0JMZUTp8yb7ql9dAqWXw7UNWE2o+wCe9CROWw==" saltValue="KfcmBSxGpmTuV/d2kGPZvw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sQE6WGoEK2mB2N3vOPQWPmc9TmGqHidIg+RCOlJRF9oTCaw09g5kyy7tpc8kvaln6jCfTTQVA8dTGRXP/MswZA==" saltValue="f+8QH38PCdP1ntxXjBg+Zw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yw1byQYg8wMh1ykeUpuzePJS3RNgkNsgXCpRc+eWdW5sd9OgoqXxSHPvCjqKEyKo5ejC+KDmKst1sjQuls2gDw==" saltValue="03qjf3Y/+D4Dd2ABMmwOPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hew3JCZcK48sY+286kX7JUyESZZzfVmXDBVzLDTAqwJRwe2SJP/wUFLxtyLkSMWJ3ZV9i+izMCx9Rkb5W8QXSw==" saltValue="l1mX6oZqoD45UVM7HdYVag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KTAv2gXwtYymnXWEn9yx8uLJk6h+JKgEBwglRuo+tJo5dpj7g06lT2TYHKlJQyz6WLbpf+bA0/HlTXKIOCrH5A==" saltValue="9CkP+Fvcj/FTM7snugvM/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VY5PUlqTm/qoR+5Ostu8mfgp0kaMv005zAni0cSxQvUEjX3zkV2fAKrghpXlwM1juouC4zHGB4am9TkAVeRIeQ==" saltValue="E3xXa9m+zZ3DGzaqoBHEnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="90m4MtSNs7jto/4dzuKbF/k8PYL4hENTke3Cts3MKinBIdM21ddK7Gu3+/gk4l8+maY88VlB5Myx9s0TeGabLA==" saltValue="LyWI8Qcq9rp3p9ixjHgS9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5TklPzgAT5IcMkdCAJn+T0es2yCH5sz6mxCi0WcrYUD+2jbWA+9fzsl5QmxaVwObQS5t/vqaBiZMRDINDvMgVg==" saltValue="vUZL8KRfXmT7TyBZdKwURA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ta1qN0HrVpmKmsAJ2zGAhgRUxAcOcydp6m4R/KAbDbRsB1gQOdo4TxY8+rEHcUzTsVTd/H5c642iNvGSw4CvxA==" saltValue="yuXFvELJgQdrsMZLXuJFfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="L4T1oY/fTpMBt1WSZdQxeCL8HLTdq404SoHOQm5/HYHyB9rFZGiP60zYtL0ylwh++gYeUxJQoX4eEFW1M2BdtA==" saltValue="ZZGxXHMPE4R/JHRKe3Uhqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aZurqOqXz8VAiegUSpXf4WKCLNgwQ2FapifrrcGSkBlKgD5Lttl+sTghjsw8OL8wNxQ6O1DpqT2S6f6/HeEgzw==" saltValue="DhcuSAbxYt+Jc6SyhDfcbA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jMEpCV6A8OSxqy6bPkw76IVgMC9XQaykJOEMTSiurCQLoORVndZ77sgygCsU04qI0tGMD3s+BhYDLVZQDSWljQ==" saltValue="MrAL8sMAFrBUR6XxLcFT4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xhynblB02WG2MqwVV4zjJRDjLOnLVKxhHOt5rsdDPAB/n+vUQx4+hEHMRcJLkvL7lNOmTtMJYZShNdcVbAcSyg==" saltValue="BZ6RIDGleRO2Y0mPvqWVLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UKnkwVfCvKNq9iWXYamfMXNsV0CRohIfjKOGnIe7/mv0JFJDteFQ7CcbjjqFmmB3yhDami9jO95MXsTfaGExbA==" saltValue="mRxhbM3faDE/c/X/fhZ1qg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nMpf2wgzX7Vy0QLC+elXEOO2LMUscHEc9ymeoxliQHLZgBuVdMSneh2HE1EwwEF15jM0sE6tUZ996VuDP6ksrg==" saltValue="FPiub0C8EAArXv0KUzAM4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cQn6qAFrCEEEITbvmnywGUfbRUMb81w0wypey0ubuwalmrKTkxXqO/+Vhez/C0tQA281mkUZPg4WHsxsEFRteg==" saltValue="hh45Im9R5MrqtwMkPjbi7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GHX0CqaebC4jgzQUHMs2x1zQW0RHbRyXZYwu2YaFhi801rB2YE0pzekFVtnuJM56e1Z6lWS4zqDtKFv5pfh8NQ==" saltValue="r0RmunSHiIc9ommZhJI00A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sx+Od1u4doWPo/a/vDZNH2+PwHXAlTKek4IpfpSQih5YQqDfr8CyftIskSNXcWWSe/+cGcfQPxO7f4th4c74+A==" saltValue="IBg72fydc3VtgfGSDK9HOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0XHkjAsllfasHmIWcHsk9lcyYEf3oEy5dacbxNpke0ikZmXuFaocFOql2lPD/w6Xqxj1JF8IL/O4uD5x34nPYQ==" saltValue="k8UwOwH6NojaH5WG+J0vGA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Bxfp/kd74hyfxr3bui19PsK8r+CYMLh88zJsDD1xue88lY9WLzOaosKdGm0fsNnioc3TO5eeZQGbibCFKmN6/A==" saltValue="Vfd4CKG4/+a1KUsYa2G9TA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vVv8Oy/CBCTTHZXA5XTOC4VoeSYeVADg1mfm9L3lkiElbxjknrGPKa9vm+dpXP+wkfjmr7PHzHsqtCq8CAK1TA==" saltValue="/MgItDr/U1fEHkz3I0LkLw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mjC8GUKxyxkWlZDw29EyWL+WWN78SYyM+bIYM7UzNynJiHTL7/gyiv83OYFfVbsr3HZqKlOoldX9Ee2/kkD2OA==" saltValue="EEOdqPdozBwOGWSO/TDTHg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CDZAXP/JIeVvfo2LvlZjI47pGxHzS1NXRJN3C7h8MwThHPKF/cOllbEYJMWlEdKdyoJP5tsjazcNQisqHtLmfQ==" saltValue="0BxIxfKdN3En1zozsAsPEw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eMtLFdB2W+vhhnLcUkXt5xtCuRBXULAiFhW6QcIStaEsDjAvfUoEjh9gJm0N/ij7kW7b8rAGcJm1LQGN1zktjQ==" saltValue="gAsyAcZDKh5RhZZhbUs8Jw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wVuv8KMjm34xaTb2uMSZFAUxL6m4tJBTLovzv0uoFZPowwSmCSng3kOVxi+s78h0y21s4XEiPAk+DJ6VQ9FBzw==" saltValue="HrfOdyMOOqSm3II302hs8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rBPt80XaaNRbHf3AAU7H4VrjukKa1blME+1kWSFdmBuWWJ652oLqNnP3Oyb2kRKNNpcSaYlNzbJ7tN34RFzMJA==" saltValue="GBuHD4TuIERaNaihRdfIaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/SVqNu1VakVlMIJJ+mjjcgsDI/bIjzqLRKEWANHR+56+J6ZcOvBSXzDl3+J4WarJMHllRNcWCUjlKgnlj8c1qQ==" saltValue="Y4aaZMSxeew35wigXSUYNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_region2_input.xlsx
+++ b/inputs/fr/demo_region2_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DC36B8-DCAE-4128-AFF1-109C26ED05EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83369B33-72EE-4C70-8FBB-F134E3ABFD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Causes du décès" sheetId="4" r:id="rId3"/>
     <sheet name="Dist. de l'état nutritionnel" sheetId="5" r:id="rId4"/>
     <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
-    <sheet name="Tendances temporelles" sheetId="51" r:id="rId6"/>
+    <sheet name="Tendances temporelles" sheetId="51" state="hidden" r:id="rId6"/>
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
     <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
@@ -590,7 +590,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="337">
   <si>
     <t>Condition</t>
   </si>
@@ -2901,9 +2901,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -2911,11 +2908,14 @@
     <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -5091,18 +5091,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="27.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5113,14 +5113,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -5129,7 +5129,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -5138,7 +5138,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -5207,7 +5207,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -5250,7 +5250,7 @@
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="113">
+      <c r="C20" s="112">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>0</v>
       </c>
@@ -5338,17 +5338,17 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="114">
+      <c r="C33" s="113">
         <f>SUM(C29:C32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -5452,7 +5452,7 @@
       <c r="B48" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="113">
+      <c r="C48" s="112">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
         <v>0.495</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5576,19 +5576,19 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="40" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="28"/>
+    <col min="7" max="7" width="22.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>157</v>
       </c>
@@ -6520,15 +6520,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="47.77734375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -6669,13 +6669,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" style="28" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="30.21875" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -6768,7 +6768,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6883,19 +6883,19 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>211</v>
       </c>
@@ -6942,54 +6942,54 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="116">
-        <v>0</v>
-      </c>
-      <c r="D2" s="116">
+      <c r="C2" s="115">
+        <v>0</v>
+      </c>
+      <c r="D2" s="115">
         <f>food_insecure</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="E2" s="116">
+      <c r="E2" s="115">
         <f>food_insecure</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="F2" s="116">
+      <c r="F2" s="115">
         <f>food_insecure</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="G2" s="116">
+      <c r="G2" s="115">
         <f>food_insecure</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="H2" s="117">
-        <v>0</v>
-      </c>
-      <c r="I2" s="117">
-        <v>0</v>
-      </c>
-      <c r="J2" s="117">
-        <v>0</v>
-      </c>
-      <c r="K2" s="117">
-        <v>0</v>
-      </c>
-      <c r="L2" s="117">
-        <v>0</v>
-      </c>
-      <c r="M2" s="117">
-        <v>0</v>
-      </c>
-      <c r="N2" s="117">
-        <v>0</v>
-      </c>
-      <c r="O2" s="117">
+      <c r="H2" s="116">
+        <v>0</v>
+      </c>
+      <c r="I2" s="116">
+        <v>0</v>
+      </c>
+      <c r="J2" s="116">
+        <v>0</v>
+      </c>
+      <c r="K2" s="116">
+        <v>0</v>
+      </c>
+      <c r="L2" s="116">
+        <v>0</v>
+      </c>
+      <c r="M2" s="116">
+        <v>0</v>
+      </c>
+      <c r="N2" s="116">
+        <v>0</v>
+      </c>
+      <c r="O2" s="116">
         <v>0</v>
       </c>
     </row>
@@ -6997,43 +6997,43 @@
       <c r="B3" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="116">
-        <v>1</v>
-      </c>
-      <c r="D3" s="116">
-        <v>0</v>
-      </c>
-      <c r="E3" s="116">
-        <v>0</v>
-      </c>
-      <c r="F3" s="116">
-        <v>0</v>
-      </c>
-      <c r="G3" s="116">
-        <v>0</v>
-      </c>
-      <c r="H3" s="117">
-        <v>0</v>
-      </c>
-      <c r="I3" s="117">
-        <v>0</v>
-      </c>
-      <c r="J3" s="117">
-        <v>0</v>
-      </c>
-      <c r="K3" s="117">
-        <v>0</v>
-      </c>
-      <c r="L3" s="117">
-        <v>0</v>
-      </c>
-      <c r="M3" s="117">
-        <v>0</v>
-      </c>
-      <c r="N3" s="117">
-        <v>0</v>
-      </c>
-      <c r="O3" s="117">
+      <c r="C3" s="115">
+        <v>1</v>
+      </c>
+      <c r="D3" s="115">
+        <v>0</v>
+      </c>
+      <c r="E3" s="115">
+        <v>0</v>
+      </c>
+      <c r="F3" s="115">
+        <v>0</v>
+      </c>
+      <c r="G3" s="115">
+        <v>0</v>
+      </c>
+      <c r="H3" s="116">
+        <v>0</v>
+      </c>
+      <c r="I3" s="116">
+        <v>0</v>
+      </c>
+      <c r="J3" s="116">
+        <v>0</v>
+      </c>
+      <c r="K3" s="116">
+        <v>0</v>
+      </c>
+      <c r="L3" s="116">
+        <v>0</v>
+      </c>
+      <c r="M3" s="116">
+        <v>0</v>
+      </c>
+      <c r="N3" s="116">
+        <v>0</v>
+      </c>
+      <c r="O3" s="116">
         <v>0</v>
       </c>
     </row>
@@ -7041,43 +7041,43 @@
       <c r="B4" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="116">
-        <v>1</v>
-      </c>
-      <c r="D4" s="116">
-        <v>0</v>
-      </c>
-      <c r="E4" s="116">
-        <v>0</v>
-      </c>
-      <c r="F4" s="116">
-        <v>0</v>
-      </c>
-      <c r="G4" s="116">
-        <v>0</v>
-      </c>
-      <c r="H4" s="117">
-        <v>0</v>
-      </c>
-      <c r="I4" s="117">
-        <v>0</v>
-      </c>
-      <c r="J4" s="117">
-        <v>0</v>
-      </c>
-      <c r="K4" s="117">
-        <v>0</v>
-      </c>
-      <c r="L4" s="117">
-        <v>0</v>
-      </c>
-      <c r="M4" s="117">
-        <v>0</v>
-      </c>
-      <c r="N4" s="117">
-        <v>0</v>
-      </c>
-      <c r="O4" s="117">
+      <c r="C4" s="115">
+        <v>1</v>
+      </c>
+      <c r="D4" s="115">
+        <v>0</v>
+      </c>
+      <c r="E4" s="115">
+        <v>0</v>
+      </c>
+      <c r="F4" s="115">
+        <v>0</v>
+      </c>
+      <c r="G4" s="115">
+        <v>0</v>
+      </c>
+      <c r="H4" s="116">
+        <v>0</v>
+      </c>
+      <c r="I4" s="116">
+        <v>0</v>
+      </c>
+      <c r="J4" s="116">
+        <v>0</v>
+      </c>
+      <c r="K4" s="116">
+        <v>0</v>
+      </c>
+      <c r="L4" s="116">
+        <v>0</v>
+      </c>
+      <c r="M4" s="116">
+        <v>0</v>
+      </c>
+      <c r="N4" s="116">
+        <v>0</v>
+      </c>
+      <c r="O4" s="116">
         <v>0</v>
       </c>
     </row>
@@ -7085,45 +7085,45 @@
       <c r="B5" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="116">
-        <v>0</v>
-      </c>
-      <c r="D5" s="116">
-        <v>0</v>
-      </c>
-      <c r="E5" s="116">
+      <c r="C5" s="115">
+        <v>0</v>
+      </c>
+      <c r="D5" s="115">
+        <v>0</v>
+      </c>
+      <c r="E5" s="115">
         <f>food_insecure</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="F5" s="116">
+      <c r="F5" s="115">
         <f>food_insecure</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="G5" s="116">
-        <v>0</v>
-      </c>
-      <c r="H5" s="117">
-        <v>0</v>
-      </c>
-      <c r="I5" s="117">
-        <v>0</v>
-      </c>
-      <c r="J5" s="117">
-        <v>0</v>
-      </c>
-      <c r="K5" s="117">
-        <v>0</v>
-      </c>
-      <c r="L5" s="117">
-        <v>0</v>
-      </c>
-      <c r="M5" s="117">
-        <v>0</v>
-      </c>
-      <c r="N5" s="117">
-        <v>0</v>
-      </c>
-      <c r="O5" s="117">
+      <c r="G5" s="115">
+        <v>0</v>
+      </c>
+      <c r="H5" s="116">
+        <v>0</v>
+      </c>
+      <c r="I5" s="116">
+        <v>0</v>
+      </c>
+      <c r="J5" s="116">
+        <v>0</v>
+      </c>
+      <c r="K5" s="116">
+        <v>0</v>
+      </c>
+      <c r="L5" s="116">
+        <v>0</v>
+      </c>
+      <c r="M5" s="116">
+        <v>0</v>
+      </c>
+      <c r="N5" s="116">
+        <v>0</v>
+      </c>
+      <c r="O5" s="116">
         <v>0</v>
       </c>
     </row>
@@ -7131,46 +7131,46 @@
       <c r="B6" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="116">
-        <v>0</v>
-      </c>
-      <c r="D6" s="116">
-        <v>0</v>
-      </c>
-      <c r="E6" s="116">
+      <c r="C6" s="115">
+        <v>0</v>
+      </c>
+      <c r="D6" s="115">
+        <v>0</v>
+      </c>
+      <c r="E6" s="115">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="F6" s="116">
+      <c r="F6" s="115">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="G6" s="116">
+      <c r="G6" s="115">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H6" s="117">
-        <v>0</v>
-      </c>
-      <c r="I6" s="117">
-        <v>0</v>
-      </c>
-      <c r="J6" s="117">
-        <v>0</v>
-      </c>
-      <c r="K6" s="117">
-        <v>0</v>
-      </c>
-      <c r="L6" s="117">
-        <v>0</v>
-      </c>
-      <c r="M6" s="117">
-        <v>0</v>
-      </c>
-      <c r="N6" s="117">
-        <v>0</v>
-      </c>
-      <c r="O6" s="117">
+      <c r="H6" s="116">
+        <v>0</v>
+      </c>
+      <c r="I6" s="116">
+        <v>0</v>
+      </c>
+      <c r="J6" s="116">
+        <v>0</v>
+      </c>
+      <c r="K6" s="116">
+        <v>0</v>
+      </c>
+      <c r="L6" s="116">
+        <v>0</v>
+      </c>
+      <c r="M6" s="116">
+        <v>0</v>
+      </c>
+      <c r="N6" s="116">
+        <v>0</v>
+      </c>
+      <c r="O6" s="116">
         <v>0</v>
       </c>
     </row>
@@ -7178,48 +7178,48 @@
       <c r="B7" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="116">
+      <c r="C7" s="115">
         <f>diarrhoea_1mo*frac_diarrhea_severe</f>
         <v>0.33200000000000002</v>
       </c>
-      <c r="D7" s="116">
+      <c r="D7" s="115">
         <f>diarrhoea_1_5mo*frac_diarrhea_severe</f>
         <v>0.33200000000000002</v>
       </c>
-      <c r="E7" s="116">
+      <c r="E7" s="115">
         <f>diarrhoea_6_11mo*frac_diarrhea_severe</f>
         <v>1.1279999999999999</v>
       </c>
-      <c r="F7" s="116">
+      <c r="F7" s="115">
         <f>diarrhoea_12_23mo*frac_diarrhea_severe</f>
         <v>1.0860000000000001</v>
       </c>
-      <c r="G7" s="116">
+      <c r="G7" s="115">
         <f>diarrhoea_24_59mo*frac_diarrhea_severe</f>
         <v>0.38200000000000001</v>
       </c>
-      <c r="H7" s="117">
-        <v>0</v>
-      </c>
-      <c r="I7" s="117">
-        <v>0</v>
-      </c>
-      <c r="J7" s="117">
-        <v>0</v>
-      </c>
-      <c r="K7" s="117">
-        <v>0</v>
-      </c>
-      <c r="L7" s="117">
-        <v>0</v>
-      </c>
-      <c r="M7" s="117">
-        <v>0</v>
-      </c>
-      <c r="N7" s="117">
-        <v>0</v>
-      </c>
-      <c r="O7" s="117">
+      <c r="H7" s="116">
+        <v>0</v>
+      </c>
+      <c r="I7" s="116">
+        <v>0</v>
+      </c>
+      <c r="J7" s="116">
+        <v>0</v>
+      </c>
+      <c r="K7" s="116">
+        <v>0</v>
+      </c>
+      <c r="L7" s="116">
+        <v>0</v>
+      </c>
+      <c r="M7" s="116">
+        <v>0</v>
+      </c>
+      <c r="N7" s="116">
+        <v>0</v>
+      </c>
+      <c r="O7" s="116">
         <v>0</v>
       </c>
     </row>
@@ -7227,45 +7227,45 @@
       <c r="B8" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="116">
-        <v>0</v>
-      </c>
-      <c r="D8" s="116">
-        <v>0</v>
-      </c>
-      <c r="E8" s="116">
+      <c r="C8" s="115">
+        <v>0</v>
+      </c>
+      <c r="D8" s="115">
+        <v>0</v>
+      </c>
+      <c r="E8" s="115">
         <f>food_insecure</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="F8" s="116">
+      <c r="F8" s="115">
         <f>food_insecure</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="G8" s="116">
-        <v>0</v>
-      </c>
-      <c r="H8" s="117">
-        <v>0</v>
-      </c>
-      <c r="I8" s="117">
-        <v>0</v>
-      </c>
-      <c r="J8" s="117">
-        <v>0</v>
-      </c>
-      <c r="K8" s="117">
-        <v>0</v>
-      </c>
-      <c r="L8" s="117">
-        <v>0</v>
-      </c>
-      <c r="M8" s="117">
-        <v>0</v>
-      </c>
-      <c r="N8" s="117">
-        <v>0</v>
-      </c>
-      <c r="O8" s="117">
+      <c r="G8" s="115">
+        <v>0</v>
+      </c>
+      <c r="H8" s="116">
+        <v>0</v>
+      </c>
+      <c r="I8" s="116">
+        <v>0</v>
+      </c>
+      <c r="J8" s="116">
+        <v>0</v>
+      </c>
+      <c r="K8" s="116">
+        <v>0</v>
+      </c>
+      <c r="L8" s="116">
+        <v>0</v>
+      </c>
+      <c r="M8" s="116">
+        <v>0</v>
+      </c>
+      <c r="N8" s="116">
+        <v>0</v>
+      </c>
+      <c r="O8" s="116">
         <v>0</v>
       </c>
     </row>
@@ -7273,45 +7273,45 @@
       <c r="B9" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="116">
-        <v>0</v>
-      </c>
-      <c r="D9" s="116">
-        <v>0</v>
-      </c>
-      <c r="E9" s="116">
+      <c r="C9" s="115">
+        <v>0</v>
+      </c>
+      <c r="D9" s="115">
+        <v>0</v>
+      </c>
+      <c r="E9" s="115">
         <f>food_insecure</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="F9" s="116">
+      <c r="F9" s="115">
         <f>food_insecure</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="G9" s="116">
-        <v>0</v>
-      </c>
-      <c r="H9" s="117">
-        <v>0</v>
-      </c>
-      <c r="I9" s="117">
-        <v>0</v>
-      </c>
-      <c r="J9" s="117">
-        <v>0</v>
-      </c>
-      <c r="K9" s="117">
-        <v>0</v>
-      </c>
-      <c r="L9" s="117">
-        <v>0</v>
-      </c>
-      <c r="M9" s="117">
-        <v>0</v>
-      </c>
-      <c r="N9" s="117">
-        <v>0</v>
-      </c>
-      <c r="O9" s="117">
+      <c r="G9" s="115">
+        <v>0</v>
+      </c>
+      <c r="H9" s="116">
+        <v>0</v>
+      </c>
+      <c r="I9" s="116">
+        <v>0</v>
+      </c>
+      <c r="J9" s="116">
+        <v>0</v>
+      </c>
+      <c r="K9" s="116">
+        <v>0</v>
+      </c>
+      <c r="L9" s="116">
+        <v>0</v>
+      </c>
+      <c r="M9" s="116">
+        <v>0</v>
+      </c>
+      <c r="N9" s="116">
+        <v>0</v>
+      </c>
+      <c r="O9" s="116">
         <v>0</v>
       </c>
     </row>
@@ -7319,47 +7319,47 @@
       <c r="B10" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="116">
-        <v>0</v>
-      </c>
-      <c r="D10" s="116">
+      <c r="C10" s="115">
+        <v>0</v>
+      </c>
+      <c r="D10" s="115">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0.37</v>
       </c>
-      <c r="E10" s="116">
+      <c r="E10" s="115">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0.37</v>
       </c>
-      <c r="F10" s="116">
+      <c r="F10" s="115">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0.37</v>
       </c>
-      <c r="G10" s="116">
+      <c r="G10" s="115">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0.37</v>
       </c>
-      <c r="H10" s="117">
-        <v>0</v>
-      </c>
-      <c r="I10" s="117">
-        <v>0</v>
-      </c>
-      <c r="J10" s="117">
-        <v>0</v>
-      </c>
-      <c r="K10" s="117">
-        <v>0</v>
-      </c>
-      <c r="L10" s="117">
-        <v>0</v>
-      </c>
-      <c r="M10" s="117">
-        <v>0</v>
-      </c>
-      <c r="N10" s="117">
-        <v>0</v>
-      </c>
-      <c r="O10" s="117">
+      <c r="H10" s="116">
+        <v>0</v>
+      </c>
+      <c r="I10" s="116">
+        <v>0</v>
+      </c>
+      <c r="J10" s="116">
+        <v>0</v>
+      </c>
+      <c r="K10" s="116">
+        <v>0</v>
+      </c>
+      <c r="L10" s="116">
+        <v>0</v>
+      </c>
+      <c r="M10" s="116">
+        <v>0</v>
+      </c>
+      <c r="N10" s="116">
+        <v>0</v>
+      </c>
+      <c r="O10" s="116">
         <v>0</v>
       </c>
     </row>
@@ -7367,43 +7367,43 @@
       <c r="B11" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C11" s="116">
-        <v>0</v>
-      </c>
-      <c r="D11" s="116">
-        <v>0</v>
-      </c>
-      <c r="E11" s="116">
-        <v>1</v>
-      </c>
-      <c r="F11" s="116">
-        <v>1</v>
-      </c>
-      <c r="G11" s="116">
-        <v>1</v>
-      </c>
-      <c r="H11" s="117">
-        <v>0</v>
-      </c>
-      <c r="I11" s="117">
-        <v>0</v>
-      </c>
-      <c r="J11" s="117">
-        <v>0</v>
-      </c>
-      <c r="K11" s="117">
-        <v>0</v>
-      </c>
-      <c r="L11" s="117">
-        <v>0</v>
-      </c>
-      <c r="M11" s="117">
-        <v>0</v>
-      </c>
-      <c r="N11" s="117">
-        <v>0</v>
-      </c>
-      <c r="O11" s="117">
+      <c r="C11" s="115">
+        <v>0</v>
+      </c>
+      <c r="D11" s="115">
+        <v>0</v>
+      </c>
+      <c r="E11" s="115">
+        <v>1</v>
+      </c>
+      <c r="F11" s="115">
+        <v>1</v>
+      </c>
+      <c r="G11" s="115">
+        <v>1</v>
+      </c>
+      <c r="H11" s="116">
+        <v>0</v>
+      </c>
+      <c r="I11" s="116">
+        <v>0</v>
+      </c>
+      <c r="J11" s="116">
+        <v>0</v>
+      </c>
+      <c r="K11" s="116">
+        <v>0</v>
+      </c>
+      <c r="L11" s="116">
+        <v>0</v>
+      </c>
+      <c r="M11" s="116">
+        <v>0</v>
+      </c>
+      <c r="N11" s="116">
+        <v>0</v>
+      </c>
+      <c r="O11" s="116">
         <v>0</v>
       </c>
     </row>
@@ -7411,48 +7411,48 @@
       <c r="B12" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="116">
+      <c r="C12" s="115">
         <f>diarrhoea_1mo*frac_diarrhea_severe</f>
         <v>0.33200000000000002</v>
       </c>
-      <c r="D12" s="116">
+      <c r="D12" s="115">
         <f>diarrhoea_1_5mo*frac_diarrhea_severe</f>
         <v>0.33200000000000002</v>
       </c>
-      <c r="E12" s="116">
+      <c r="E12" s="115">
         <f>diarrhoea_6_11mo*frac_diarrhea_severe</f>
         <v>1.1279999999999999</v>
       </c>
-      <c r="F12" s="116">
+      <c r="F12" s="115">
         <f>diarrhoea_12_23mo*frac_diarrhea_severe</f>
         <v>1.0860000000000001</v>
       </c>
-      <c r="G12" s="116">
+      <c r="G12" s="115">
         <f>diarrhoea_24_59mo*frac_diarrhea_severe</f>
         <v>0.38200000000000001</v>
       </c>
-      <c r="H12" s="117">
-        <v>0</v>
-      </c>
-      <c r="I12" s="117">
-        <v>0</v>
-      </c>
-      <c r="J12" s="117">
-        <v>0</v>
-      </c>
-      <c r="K12" s="117">
-        <v>0</v>
-      </c>
-      <c r="L12" s="117">
-        <v>0</v>
-      </c>
-      <c r="M12" s="117">
-        <v>0</v>
-      </c>
-      <c r="N12" s="117">
-        <v>0</v>
-      </c>
-      <c r="O12" s="117">
+      <c r="H12" s="116">
+        <v>0</v>
+      </c>
+      <c r="I12" s="116">
+        <v>0</v>
+      </c>
+      <c r="J12" s="116">
+        <v>0</v>
+      </c>
+      <c r="K12" s="116">
+        <v>0</v>
+      </c>
+      <c r="L12" s="116">
+        <v>0</v>
+      </c>
+      <c r="M12" s="116">
+        <v>0</v>
+      </c>
+      <c r="N12" s="116">
+        <v>0</v>
+      </c>
+      <c r="O12" s="116">
         <v>0</v>
       </c>
     </row>
@@ -7460,240 +7460,240 @@
       <c r="B13" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="116">
-        <v>0</v>
-      </c>
-      <c r="D13" s="116">
-        <v>0</v>
-      </c>
-      <c r="E13" s="116">
-        <v>1</v>
-      </c>
-      <c r="F13" s="116">
-        <v>1</v>
-      </c>
-      <c r="G13" s="116">
-        <v>1</v>
-      </c>
-      <c r="H13" s="117">
-        <v>0</v>
-      </c>
-      <c r="I13" s="117">
-        <v>0</v>
-      </c>
-      <c r="J13" s="117">
-        <v>0</v>
-      </c>
-      <c r="K13" s="117">
-        <v>0</v>
-      </c>
-      <c r="L13" s="117">
-        <v>0</v>
-      </c>
-      <c r="M13" s="117">
-        <v>0</v>
-      </c>
-      <c r="N13" s="117">
-        <v>0</v>
-      </c>
-      <c r="O13" s="117">
+      <c r="C13" s="115">
+        <v>0</v>
+      </c>
+      <c r="D13" s="115">
+        <v>0</v>
+      </c>
+      <c r="E13" s="115">
+        <v>1</v>
+      </c>
+      <c r="F13" s="115">
+        <v>1</v>
+      </c>
+      <c r="G13" s="115">
+        <v>1</v>
+      </c>
+      <c r="H13" s="116">
+        <v>0</v>
+      </c>
+      <c r="I13" s="116">
+        <v>0</v>
+      </c>
+      <c r="J13" s="116">
+        <v>0</v>
+      </c>
+      <c r="K13" s="116">
+        <v>0</v>
+      </c>
+      <c r="L13" s="116">
+        <v>0</v>
+      </c>
+      <c r="M13" s="116">
+        <v>0</v>
+      </c>
+      <c r="N13" s="116">
+        <v>0</v>
+      </c>
+      <c r="O13" s="116">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="117">
-        <v>0</v>
-      </c>
-      <c r="D15" s="117">
-        <v>0</v>
-      </c>
-      <c r="E15" s="117">
-        <v>0</v>
-      </c>
-      <c r="F15" s="117">
-        <v>0</v>
-      </c>
-      <c r="G15" s="117">
-        <v>0</v>
-      </c>
-      <c r="H15" s="116">
+      <c r="C15" s="116">
+        <v>0</v>
+      </c>
+      <c r="D15" s="116">
+        <v>0</v>
+      </c>
+      <c r="E15" s="116">
+        <v>0</v>
+      </c>
+      <c r="F15" s="116">
+        <v>0</v>
+      </c>
+      <c r="G15" s="116">
+        <v>0</v>
+      </c>
+      <c r="H15" s="115">
         <f>food_insecure</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="I15" s="116">
+      <c r="I15" s="115">
         <f>food_insecure</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="J15" s="116">
+      <c r="J15" s="115">
         <f>food_insecure</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="K15" s="116">
+      <c r="K15" s="115">
         <f>food_insecure</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="L15" s="117">
-        <v>0</v>
-      </c>
-      <c r="M15" s="117">
-        <v>0</v>
-      </c>
-      <c r="N15" s="117">
-        <v>0</v>
-      </c>
-      <c r="O15" s="117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="116">
+        <v>0</v>
+      </c>
+      <c r="M15" s="116">
+        <v>0</v>
+      </c>
+      <c r="N15" s="116">
+        <v>0</v>
+      </c>
+      <c r="O15" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="117">
-        <v>0</v>
-      </c>
-      <c r="D16" s="117">
-        <v>0</v>
-      </c>
-      <c r="E16" s="117">
-        <v>0</v>
-      </c>
-      <c r="F16" s="117">
-        <v>0</v>
-      </c>
-      <c r="G16" s="117">
-        <v>0</v>
-      </c>
-      <c r="H16" s="116">
-        <v>1</v>
-      </c>
-      <c r="I16" s="116">
-        <v>1</v>
-      </c>
-      <c r="J16" s="116">
-        <v>1</v>
-      </c>
-      <c r="K16" s="116">
-        <v>1</v>
-      </c>
-      <c r="L16" s="117">
-        <v>0</v>
-      </c>
-      <c r="M16" s="117">
-        <v>0</v>
-      </c>
-      <c r="N16" s="117">
-        <v>0</v>
-      </c>
-      <c r="O16" s="117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="116">
+        <v>0</v>
+      </c>
+      <c r="D16" s="116">
+        <v>0</v>
+      </c>
+      <c r="E16" s="116">
+        <v>0</v>
+      </c>
+      <c r="F16" s="116">
+        <v>0</v>
+      </c>
+      <c r="G16" s="116">
+        <v>0</v>
+      </c>
+      <c r="H16" s="115">
+        <v>1</v>
+      </c>
+      <c r="I16" s="115">
+        <v>1</v>
+      </c>
+      <c r="J16" s="115">
+        <v>1</v>
+      </c>
+      <c r="K16" s="115">
+        <v>1</v>
+      </c>
+      <c r="L16" s="116">
+        <v>0</v>
+      </c>
+      <c r="M16" s="116">
+        <v>0</v>
+      </c>
+      <c r="N16" s="116">
+        <v>0</v>
+      </c>
+      <c r="O16" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C17" s="117">
-        <v>0</v>
-      </c>
-      <c r="D17" s="117">
-        <v>0</v>
-      </c>
-      <c r="E17" s="117">
-        <v>0</v>
-      </c>
-      <c r="F17" s="117">
-        <v>0</v>
-      </c>
-      <c r="G17" s="117">
-        <v>0</v>
-      </c>
-      <c r="H17" s="116">
+      <c r="C17" s="116">
+        <v>0</v>
+      </c>
+      <c r="D17" s="116">
+        <v>0</v>
+      </c>
+      <c r="E17" s="116">
+        <v>0</v>
+      </c>
+      <c r="F17" s="116">
+        <v>0</v>
+      </c>
+      <c r="G17" s="116">
+        <v>0</v>
+      </c>
+      <c r="H17" s="115">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="I17" s="116">
+      <c r="I17" s="115">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="J17" s="116">
+      <c r="J17" s="115">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="K17" s="116">
+      <c r="K17" s="115">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="L17" s="117">
-        <v>0</v>
-      </c>
-      <c r="M17" s="117">
-        <v>0</v>
-      </c>
-      <c r="N17" s="117">
-        <v>0</v>
-      </c>
-      <c r="O17" s="117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="116">
+        <v>0</v>
+      </c>
+      <c r="M17" s="116">
+        <v>0</v>
+      </c>
+      <c r="N17" s="116">
+        <v>0</v>
+      </c>
+      <c r="O17" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="117">
-        <v>0</v>
-      </c>
-      <c r="D18" s="117">
-        <v>0</v>
-      </c>
-      <c r="E18" s="117">
-        <v>0</v>
-      </c>
-      <c r="F18" s="117">
-        <v>0</v>
-      </c>
-      <c r="G18" s="117">
-        <v>0</v>
-      </c>
-      <c r="H18" s="116">
+      <c r="C18" s="116">
+        <v>0</v>
+      </c>
+      <c r="D18" s="116">
+        <v>0</v>
+      </c>
+      <c r="E18" s="116">
+        <v>0</v>
+      </c>
+      <c r="F18" s="116">
+        <v>0</v>
+      </c>
+      <c r="G18" s="116">
+        <v>0</v>
+      </c>
+      <c r="H18" s="115">
         <f>frac_PW_health_facility</f>
         <v>0.51</v>
       </c>
-      <c r="I18" s="116">
+      <c r="I18" s="115">
         <f>frac_PW_health_facility</f>
         <v>0.51</v>
       </c>
-      <c r="J18" s="116">
+      <c r="J18" s="115">
         <f>frac_PW_health_facility</f>
         <v>0.51</v>
       </c>
-      <c r="K18" s="116">
+      <c r="K18" s="115">
         <f>frac_PW_health_facility</f>
         <v>0.51</v>
       </c>
-      <c r="L18" s="117">
-        <v>0</v>
-      </c>
-      <c r="M18" s="117">
-        <v>0</v>
-      </c>
-      <c r="N18" s="117">
-        <v>0</v>
-      </c>
-      <c r="O18" s="117">
+      <c r="L18" s="116">
+        <v>0</v>
+      </c>
+      <c r="M18" s="116">
+        <v>0</v>
+      </c>
+      <c r="N18" s="116">
+        <v>0</v>
+      </c>
+      <c r="O18" s="116">
         <v>0</v>
       </c>
     </row>
@@ -7701,47 +7701,47 @@
       <c r="B19" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="117">
-        <v>0</v>
-      </c>
-      <c r="D19" s="117">
-        <v>0</v>
-      </c>
-      <c r="E19" s="117">
-        <v>0</v>
-      </c>
-      <c r="F19" s="117">
-        <v>0</v>
-      </c>
-      <c r="G19" s="117">
-        <v>0</v>
-      </c>
-      <c r="H19" s="116">
+      <c r="C19" s="116">
+        <v>0</v>
+      </c>
+      <c r="D19" s="116">
+        <v>0</v>
+      </c>
+      <c r="E19" s="116">
+        <v>0</v>
+      </c>
+      <c r="F19" s="116">
+        <v>0</v>
+      </c>
+      <c r="G19" s="116">
+        <v>0</v>
+      </c>
+      <c r="H19" s="115">
         <f>frac_malaria_risk</f>
         <v>1</v>
       </c>
-      <c r="I19" s="116">
+      <c r="I19" s="115">
         <f>frac_malaria_risk</f>
         <v>1</v>
       </c>
-      <c r="J19" s="116">
+      <c r="J19" s="115">
         <f>frac_malaria_risk</f>
         <v>1</v>
       </c>
-      <c r="K19" s="116">
+      <c r="K19" s="115">
         <f>frac_malaria_risk</f>
         <v>1</v>
       </c>
-      <c r="L19" s="117">
-        <v>0</v>
-      </c>
-      <c r="M19" s="117">
-        <v>0</v>
-      </c>
-      <c r="N19" s="117">
-        <v>0</v>
-      </c>
-      <c r="O19" s="117">
+      <c r="L19" s="116">
+        <v>0</v>
+      </c>
+      <c r="M19" s="116">
+        <v>0</v>
+      </c>
+      <c r="N19" s="116">
+        <v>0</v>
+      </c>
+      <c r="O19" s="116">
         <v>0</v>
       </c>
     </row>
@@ -7749,43 +7749,43 @@
       <c r="B20" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="117">
-        <v>0</v>
-      </c>
-      <c r="D20" s="117">
-        <v>0</v>
-      </c>
-      <c r="E20" s="117">
-        <v>0</v>
-      </c>
-      <c r="F20" s="117">
-        <v>0</v>
-      </c>
-      <c r="G20" s="117">
-        <v>0</v>
-      </c>
-      <c r="H20" s="116">
-        <v>1</v>
-      </c>
-      <c r="I20" s="116">
-        <v>1</v>
-      </c>
-      <c r="J20" s="116">
-        <v>1</v>
-      </c>
-      <c r="K20" s="116">
-        <v>1</v>
-      </c>
-      <c r="L20" s="117">
-        <v>0</v>
-      </c>
-      <c r="M20" s="117">
-        <v>0</v>
-      </c>
-      <c r="N20" s="117">
-        <v>0</v>
-      </c>
-      <c r="O20" s="117">
+      <c r="C20" s="116">
+        <v>0</v>
+      </c>
+      <c r="D20" s="116">
+        <v>0</v>
+      </c>
+      <c r="E20" s="116">
+        <v>0</v>
+      </c>
+      <c r="F20" s="116">
+        <v>0</v>
+      </c>
+      <c r="G20" s="116">
+        <v>0</v>
+      </c>
+      <c r="H20" s="115">
+        <v>1</v>
+      </c>
+      <c r="I20" s="115">
+        <v>1</v>
+      </c>
+      <c r="J20" s="115">
+        <v>1</v>
+      </c>
+      <c r="K20" s="115">
+        <v>1</v>
+      </c>
+      <c r="L20" s="116">
+        <v>0</v>
+      </c>
+      <c r="M20" s="116">
+        <v>0</v>
+      </c>
+      <c r="N20" s="116">
+        <v>0</v>
+      </c>
+      <c r="O20" s="116">
         <v>0</v>
       </c>
     </row>
@@ -7793,43 +7793,43 @@
       <c r="B21" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="117">
-        <v>0</v>
-      </c>
-      <c r="D21" s="117">
-        <v>0</v>
-      </c>
-      <c r="E21" s="117">
-        <v>0</v>
-      </c>
-      <c r="F21" s="117">
-        <v>0</v>
-      </c>
-      <c r="G21" s="117">
-        <v>0</v>
-      </c>
-      <c r="H21" s="116">
-        <v>1</v>
-      </c>
-      <c r="I21" s="116">
-        <v>1</v>
-      </c>
-      <c r="J21" s="116">
-        <v>1</v>
-      </c>
-      <c r="K21" s="116">
-        <v>1</v>
-      </c>
-      <c r="L21" s="117">
-        <v>0</v>
-      </c>
-      <c r="M21" s="117">
-        <v>0</v>
-      </c>
-      <c r="N21" s="117">
-        <v>0</v>
-      </c>
-      <c r="O21" s="117">
+      <c r="C21" s="116">
+        <v>0</v>
+      </c>
+      <c r="D21" s="116">
+        <v>0</v>
+      </c>
+      <c r="E21" s="116">
+        <v>0</v>
+      </c>
+      <c r="F21" s="116">
+        <v>0</v>
+      </c>
+      <c r="G21" s="116">
+        <v>0</v>
+      </c>
+      <c r="H21" s="115">
+        <v>1</v>
+      </c>
+      <c r="I21" s="115">
+        <v>1</v>
+      </c>
+      <c r="J21" s="115">
+        <v>1</v>
+      </c>
+      <c r="K21" s="115">
+        <v>1</v>
+      </c>
+      <c r="L21" s="116">
+        <v>0</v>
+      </c>
+      <c r="M21" s="116">
+        <v>0</v>
+      </c>
+      <c r="N21" s="116">
+        <v>0</v>
+      </c>
+      <c r="O21" s="116">
         <v>0</v>
       </c>
     </row>
@@ -7837,100 +7837,100 @@
       <c r="B22" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="117">
-        <v>0</v>
-      </c>
-      <c r="D22" s="117">
-        <v>0</v>
-      </c>
-      <c r="E22" s="117">
-        <v>0</v>
-      </c>
-      <c r="F22" s="117">
-        <v>0</v>
-      </c>
-      <c r="G22" s="117">
-        <v>0</v>
-      </c>
-      <c r="H22" s="116">
+      <c r="C22" s="116">
+        <v>0</v>
+      </c>
+      <c r="D22" s="116">
+        <v>0</v>
+      </c>
+      <c r="E22" s="116">
+        <v>0</v>
+      </c>
+      <c r="F22" s="116">
+        <v>0</v>
+      </c>
+      <c r="G22" s="116">
+        <v>0</v>
+      </c>
+      <c r="H22" s="115">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="I22" s="116">
+      <c r="I22" s="115">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="J22" s="116">
+      <c r="J22" s="115">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="K22" s="116">
+      <c r="K22" s="115">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="L22" s="117">
-        <v>0</v>
-      </c>
-      <c r="M22" s="117">
-        <v>0</v>
-      </c>
-      <c r="N22" s="117">
-        <v>0</v>
-      </c>
-      <c r="O22" s="117">
+      <c r="L22" s="116">
+        <v>0</v>
+      </c>
+      <c r="M22" s="116">
+        <v>0</v>
+      </c>
+      <c r="N22" s="116">
+        <v>0</v>
+      </c>
+      <c r="O22" s="116">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B24" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="117">
-        <v>0</v>
-      </c>
-      <c r="D24" s="117">
-        <v>0</v>
-      </c>
-      <c r="E24" s="117">
-        <v>0</v>
-      </c>
-      <c r="F24" s="117">
-        <v>0</v>
-      </c>
-      <c r="G24" s="117">
-        <v>0</v>
-      </c>
-      <c r="H24" s="117">
-        <v>0</v>
-      </c>
-      <c r="I24" s="117">
-        <v>0</v>
-      </c>
-      <c r="J24" s="117">
-        <v>0</v>
-      </c>
-      <c r="K24" s="117">
-        <v>0</v>
-      </c>
-      <c r="L24" s="116">
+      <c r="C24" s="116">
+        <v>0</v>
+      </c>
+      <c r="D24" s="116">
+        <v>0</v>
+      </c>
+      <c r="E24" s="116">
+        <v>0</v>
+      </c>
+      <c r="F24" s="116">
+        <v>0</v>
+      </c>
+      <c r="G24" s="116">
+        <v>0</v>
+      </c>
+      <c r="H24" s="116">
+        <v>0</v>
+      </c>
+      <c r="I24" s="116">
+        <v>0</v>
+      </c>
+      <c r="J24" s="116">
+        <v>0</v>
+      </c>
+      <c r="K24" s="116">
+        <v>0</v>
+      </c>
+      <c r="L24" s="115">
         <f>famplan_unmet_need</f>
         <v>0.221</v>
       </c>
-      <c r="M24" s="116">
+      <c r="M24" s="115">
         <f>famplan_unmet_need</f>
         <v>0.221</v>
       </c>
-      <c r="N24" s="116">
+      <c r="N24" s="115">
         <f>famplan_unmet_need</f>
         <v>0.221</v>
       </c>
-      <c r="O24" s="116">
+      <c r="O24" s="115">
         <f>famplan_unmet_need</f>
         <v>0.221</v>
       </c>
@@ -7939,46 +7939,46 @@
       <c r="B25" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="117">
-        <v>0</v>
-      </c>
-      <c r="D25" s="117">
-        <v>0</v>
-      </c>
-      <c r="E25" s="117">
-        <v>0</v>
-      </c>
-      <c r="F25" s="117">
-        <v>0</v>
-      </c>
-      <c r="G25" s="117">
-        <v>0</v>
-      </c>
-      <c r="H25" s="117">
-        <v>0</v>
-      </c>
-      <c r="I25" s="117">
-        <v>0</v>
-      </c>
-      <c r="J25" s="117">
-        <v>0</v>
-      </c>
-      <c r="K25" s="117">
-        <v>0</v>
-      </c>
-      <c r="L25" s="116">
+      <c r="C25" s="116">
+        <v>0</v>
+      </c>
+      <c r="D25" s="116">
+        <v>0</v>
+      </c>
+      <c r="E25" s="116">
+        <v>0</v>
+      </c>
+      <c r="F25" s="116">
+        <v>0</v>
+      </c>
+      <c r="G25" s="116">
+        <v>0</v>
+      </c>
+      <c r="H25" s="116">
+        <v>0</v>
+      </c>
+      <c r="I25" s="116">
+        <v>0</v>
+      </c>
+      <c r="J25" s="116">
+        <v>0</v>
+      </c>
+      <c r="K25" s="116">
+        <v>0</v>
+      </c>
+      <c r="L25" s="115">
         <f>(1-food_insecure)*(0.49)*(1-school_attendance) + food_insecure*(0.7)*(1-school_attendance)</f>
         <v>0.42289939999999993</v>
       </c>
-      <c r="M25" s="116">
+      <c r="M25" s="115">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.54921999999999993</v>
       </c>
-      <c r="N25" s="116">
+      <c r="N25" s="115">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.54921999999999993</v>
       </c>
-      <c r="O25" s="116">
+      <c r="O25" s="115">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.54921999999999993</v>
       </c>
@@ -7987,46 +7987,46 @@
       <c r="B26" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="117">
-        <v>0</v>
-      </c>
-      <c r="D26" s="117">
-        <v>0</v>
-      </c>
-      <c r="E26" s="117">
-        <v>0</v>
-      </c>
-      <c r="F26" s="117">
-        <v>0</v>
-      </c>
-      <c r="G26" s="117">
-        <v>0</v>
-      </c>
-      <c r="H26" s="117">
-        <v>0</v>
-      </c>
-      <c r="I26" s="117">
-        <v>0</v>
-      </c>
-      <c r="J26" s="117">
-        <v>0</v>
-      </c>
-      <c r="K26" s="117">
-        <v>0</v>
-      </c>
-      <c r="L26" s="116">
+      <c r="C26" s="116">
+        <v>0</v>
+      </c>
+      <c r="D26" s="116">
+        <v>0</v>
+      </c>
+      <c r="E26" s="116">
+        <v>0</v>
+      </c>
+      <c r="F26" s="116">
+        <v>0</v>
+      </c>
+      <c r="G26" s="116">
+        <v>0</v>
+      </c>
+      <c r="H26" s="116">
+        <v>0</v>
+      </c>
+      <c r="I26" s="116">
+        <v>0</v>
+      </c>
+      <c r="J26" s="116">
+        <v>0</v>
+      </c>
+      <c r="K26" s="116">
+        <v>0</v>
+      </c>
+      <c r="L26" s="115">
         <f>(1-food_insecure)*(0.21)*(1-school_attendance) + food_insecure*(0.3)*(1-school_attendance)</f>
         <v>0.18124259999999998</v>
       </c>
-      <c r="M26" s="116">
+      <c r="M26" s="115">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.23537999999999998</v>
       </c>
-      <c r="N26" s="116">
+      <c r="N26" s="115">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.23537999999999998</v>
       </c>
-      <c r="O26" s="116">
+      <c r="O26" s="115">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.23537999999999998</v>
       </c>
@@ -8035,46 +8035,46 @@
       <c r="B27" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="117">
-        <v>0</v>
-      </c>
-      <c r="D27" s="117">
-        <v>0</v>
-      </c>
-      <c r="E27" s="117">
-        <v>0</v>
-      </c>
-      <c r="F27" s="117">
-        <v>0</v>
-      </c>
-      <c r="G27" s="117">
-        <v>0</v>
-      </c>
-      <c r="H27" s="117">
-        <v>0</v>
-      </c>
-      <c r="I27" s="117">
-        <v>0</v>
-      </c>
-      <c r="J27" s="117">
-        <v>0</v>
-      </c>
-      <c r="K27" s="117">
-        <v>0</v>
-      </c>
-      <c r="L27" s="116">
+      <c r="C27" s="116">
+        <v>0</v>
+      </c>
+      <c r="D27" s="116">
+        <v>0</v>
+      </c>
+      <c r="E27" s="116">
+        <v>0</v>
+      </c>
+      <c r="F27" s="116">
+        <v>0</v>
+      </c>
+      <c r="G27" s="116">
+        <v>0</v>
+      </c>
+      <c r="H27" s="116">
+        <v>0</v>
+      </c>
+      <c r="I27" s="116">
+        <v>0</v>
+      </c>
+      <c r="J27" s="116">
+        <v>0</v>
+      </c>
+      <c r="K27" s="116">
+        <v>0</v>
+      </c>
+      <c r="L27" s="115">
         <f>(1-food_insecure)*(0.3)*(1-school_attendance)</f>
         <v>0.16585799999999998</v>
       </c>
-      <c r="M27" s="116">
+      <c r="M27" s="115">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.21539999999999998</v>
       </c>
-      <c r="N27" s="116">
+      <c r="N27" s="115">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.21539999999999998</v>
       </c>
-      <c r="O27" s="116">
+      <c r="O27" s="115">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.21539999999999998</v>
       </c>
@@ -8083,44 +8083,44 @@
       <c r="B28" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="117">
-        <v>0</v>
-      </c>
-      <c r="D28" s="117">
-        <v>0</v>
-      </c>
-      <c r="E28" s="117">
-        <v>0</v>
-      </c>
-      <c r="F28" s="117">
-        <v>0</v>
-      </c>
-      <c r="G28" s="117">
-        <v>0</v>
-      </c>
-      <c r="H28" s="117">
-        <v>0</v>
-      </c>
-      <c r="I28" s="117">
-        <v>0</v>
-      </c>
-      <c r="J28" s="117">
-        <v>0</v>
-      </c>
-      <c r="K28" s="117">
-        <v>0</v>
-      </c>
-      <c r="L28" s="116">
+      <c r="C28" s="116">
+        <v>0</v>
+      </c>
+      <c r="D28" s="116">
+        <v>0</v>
+      </c>
+      <c r="E28" s="116">
+        <v>0</v>
+      </c>
+      <c r="F28" s="116">
+        <v>0</v>
+      </c>
+      <c r="G28" s="116">
+        <v>0</v>
+      </c>
+      <c r="H28" s="116">
+        <v>0</v>
+      </c>
+      <c r="I28" s="116">
+        <v>0</v>
+      </c>
+      <c r="J28" s="116">
+        <v>0</v>
+      </c>
+      <c r="K28" s="116">
+        <v>0</v>
+      </c>
+      <c r="L28" s="115">
         <f>(1-food_insecure)*1*school_attendance + food_insecure*1*school_attendance</f>
         <v>0.23</v>
       </c>
-      <c r="M28" s="116">
-        <v>0</v>
-      </c>
-      <c r="N28" s="116">
-        <v>0</v>
-      </c>
-      <c r="O28" s="116">
+      <c r="M28" s="115">
+        <v>0</v>
+      </c>
+      <c r="N28" s="115">
+        <v>0</v>
+      </c>
+      <c r="O28" s="115">
         <v>0</v>
       </c>
     </row>
@@ -8134,60 +8134,60 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="116">
-        <v>0</v>
-      </c>
-      <c r="D30" s="116">
-        <v>0</v>
-      </c>
-      <c r="E30" s="116">
+      <c r="C30" s="115">
+        <v>0</v>
+      </c>
+      <c r="D30" s="115">
+        <v>0</v>
+      </c>
+      <c r="E30" s="115">
         <f t="shared" ref="E30:O30" si="0">frac_maize</f>
         <v>0.8</v>
       </c>
-      <c r="F30" s="116">
+      <c r="F30" s="115">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="G30" s="116">
+      <c r="G30" s="115">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="H30" s="116">
+      <c r="H30" s="115">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="I30" s="116">
+      <c r="I30" s="115">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="J30" s="116">
+      <c r="J30" s="115">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="K30" s="116">
+      <c r="K30" s="115">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="L30" s="116">
+      <c r="L30" s="115">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="M30" s="116">
+      <c r="M30" s="115">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="N30" s="116">
+      <c r="N30" s="115">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="O30" s="116">
+      <c r="O30" s="115">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
@@ -8196,53 +8196,53 @@
       <c r="B31" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="116">
-        <v>0</v>
-      </c>
-      <c r="D31" s="116">
-        <v>0</v>
-      </c>
-      <c r="E31" s="116">
+      <c r="C31" s="115">
+        <v>0</v>
+      </c>
+      <c r="D31" s="115">
+        <v>0</v>
+      </c>
+      <c r="E31" s="115">
         <f t="shared" ref="E31:O31" si="1">frac_rice</f>
         <v>0.1</v>
       </c>
-      <c r="F31" s="116">
+      <c r="F31" s="115">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="G31" s="116">
+      <c r="G31" s="115">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="H31" s="116">
+      <c r="H31" s="115">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I31" s="116">
+      <c r="I31" s="115">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="J31" s="116">
+      <c r="J31" s="115">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="K31" s="116">
+      <c r="K31" s="115">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="L31" s="116">
+      <c r="L31" s="115">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="M31" s="116">
+      <c r="M31" s="115">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="N31" s="116">
+      <c r="N31" s="115">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="O31" s="116">
+      <c r="O31" s="115">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
@@ -8251,53 +8251,53 @@
       <c r="B32" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="116">
-        <v>0</v>
-      </c>
-      <c r="D32" s="116">
-        <v>0</v>
-      </c>
-      <c r="E32" s="116">
+      <c r="C32" s="115">
+        <v>0</v>
+      </c>
+      <c r="D32" s="115">
+        <v>0</v>
+      </c>
+      <c r="E32" s="115">
         <f>frac_wheat</f>
         <v>0.1</v>
       </c>
-      <c r="F32" s="116">
+      <c r="F32" s="115">
         <f t="shared" ref="F32:O32" si="2">frac_wheat</f>
         <v>0.1</v>
       </c>
-      <c r="G32" s="116">
+      <c r="G32" s="115">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="H32" s="116">
+      <c r="H32" s="115">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="I32" s="116">
+      <c r="I32" s="115">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="J32" s="116">
+      <c r="J32" s="115">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="K32" s="116">
+      <c r="K32" s="115">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="L32" s="116">
+      <c r="L32" s="115">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="M32" s="116">
+      <c r="M32" s="115">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="N32" s="116">
+      <c r="N32" s="115">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="O32" s="116">
+      <c r="O32" s="115">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
@@ -8306,43 +8306,43 @@
       <c r="B33" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C33" s="116">
-        <v>0</v>
-      </c>
-      <c r="D33" s="116">
-        <v>0</v>
-      </c>
-      <c r="E33" s="116">
-        <v>1</v>
-      </c>
-      <c r="F33" s="116">
-        <v>1</v>
-      </c>
-      <c r="G33" s="116">
-        <v>1</v>
-      </c>
-      <c r="H33" s="116">
-        <v>1</v>
-      </c>
-      <c r="I33" s="116">
-        <v>1</v>
-      </c>
-      <c r="J33" s="116">
-        <v>1</v>
-      </c>
-      <c r="K33" s="116">
-        <v>1</v>
-      </c>
-      <c r="L33" s="116">
-        <v>1</v>
-      </c>
-      <c r="M33" s="116">
-        <v>1</v>
-      </c>
-      <c r="N33" s="116">
-        <v>1</v>
-      </c>
-      <c r="O33" s="116">
+      <c r="C33" s="115">
+        <v>0</v>
+      </c>
+      <c r="D33" s="115">
+        <v>0</v>
+      </c>
+      <c r="E33" s="115">
+        <v>1</v>
+      </c>
+      <c r="F33" s="115">
+        <v>1</v>
+      </c>
+      <c r="G33" s="115">
+        <v>1</v>
+      </c>
+      <c r="H33" s="115">
+        <v>1</v>
+      </c>
+      <c r="I33" s="115">
+        <v>1</v>
+      </c>
+      <c r="J33" s="115">
+        <v>1</v>
+      </c>
+      <c r="K33" s="115">
+        <v>1</v>
+      </c>
+      <c r="L33" s="115">
+        <v>1</v>
+      </c>
+      <c r="M33" s="115">
+        <v>1</v>
+      </c>
+      <c r="N33" s="115">
+        <v>1</v>
+      </c>
+      <c r="O33" s="115">
         <v>1</v>
       </c>
     </row>
@@ -8350,55 +8350,55 @@
       <c r="B34" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C34" s="116">
+      <c r="C34" s="115">
         <f t="shared" ref="C34:O34" si="3">frac_malaria_risk</f>
         <v>1</v>
       </c>
-      <c r="D34" s="116">
+      <c r="D34" s="115">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E34" s="116">
+      <c r="E34" s="115">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F34" s="116">
+      <c r="F34" s="115">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G34" s="116">
+      <c r="G34" s="115">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H34" s="116">
+      <c r="H34" s="115">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I34" s="116">
+      <c r="I34" s="115">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J34" s="116">
+      <c r="J34" s="115">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K34" s="116">
+      <c r="K34" s="115">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L34" s="116">
+      <c r="L34" s="115">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M34" s="116">
+      <c r="M34" s="115">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N34" s="116">
+      <c r="N34" s="115">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O34" s="116">
+      <c r="O34" s="115">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -8407,43 +8407,43 @@
       <c r="B35" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="116">
-        <v>1</v>
-      </c>
-      <c r="D35" s="116">
-        <v>1</v>
-      </c>
-      <c r="E35" s="116">
-        <v>1</v>
-      </c>
-      <c r="F35" s="116">
-        <v>1</v>
-      </c>
-      <c r="G35" s="116">
-        <v>1</v>
-      </c>
-      <c r="H35" s="116">
-        <v>1</v>
-      </c>
-      <c r="I35" s="116">
-        <v>1</v>
-      </c>
-      <c r="J35" s="116">
-        <v>1</v>
-      </c>
-      <c r="K35" s="116">
-        <v>1</v>
-      </c>
-      <c r="L35" s="116">
-        <v>1</v>
-      </c>
-      <c r="M35" s="116">
-        <v>1</v>
-      </c>
-      <c r="N35" s="116">
-        <v>1</v>
-      </c>
-      <c r="O35" s="116">
+      <c r="C35" s="115">
+        <v>1</v>
+      </c>
+      <c r="D35" s="115">
+        <v>1</v>
+      </c>
+      <c r="E35" s="115">
+        <v>1</v>
+      </c>
+      <c r="F35" s="115">
+        <v>1</v>
+      </c>
+      <c r="G35" s="115">
+        <v>1</v>
+      </c>
+      <c r="H35" s="115">
+        <v>1</v>
+      </c>
+      <c r="I35" s="115">
+        <v>1</v>
+      </c>
+      <c r="J35" s="115">
+        <v>1</v>
+      </c>
+      <c r="K35" s="115">
+        <v>1</v>
+      </c>
+      <c r="L35" s="115">
+        <v>1</v>
+      </c>
+      <c r="M35" s="115">
+        <v>1</v>
+      </c>
+      <c r="N35" s="115">
+        <v>1</v>
+      </c>
+      <c r="O35" s="115">
         <v>1</v>
       </c>
     </row>
@@ -8451,43 +8451,43 @@
       <c r="B36" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C36" s="116">
-        <v>1</v>
-      </c>
-      <c r="D36" s="116">
-        <v>1</v>
-      </c>
-      <c r="E36" s="116">
-        <v>1</v>
-      </c>
-      <c r="F36" s="116">
-        <v>1</v>
-      </c>
-      <c r="G36" s="116">
-        <v>1</v>
-      </c>
-      <c r="H36" s="116">
-        <v>1</v>
-      </c>
-      <c r="I36" s="116">
-        <v>1</v>
-      </c>
-      <c r="J36" s="116">
-        <v>1</v>
-      </c>
-      <c r="K36" s="116">
-        <v>1</v>
-      </c>
-      <c r="L36" s="116">
-        <v>1</v>
-      </c>
-      <c r="M36" s="116">
-        <v>1</v>
-      </c>
-      <c r="N36" s="116">
-        <v>1</v>
-      </c>
-      <c r="O36" s="116">
+      <c r="C36" s="115">
+        <v>1</v>
+      </c>
+      <c r="D36" s="115">
+        <v>1</v>
+      </c>
+      <c r="E36" s="115">
+        <v>1</v>
+      </c>
+      <c r="F36" s="115">
+        <v>1</v>
+      </c>
+      <c r="G36" s="115">
+        <v>1</v>
+      </c>
+      <c r="H36" s="115">
+        <v>1</v>
+      </c>
+      <c r="I36" s="115">
+        <v>1</v>
+      </c>
+      <c r="J36" s="115">
+        <v>1</v>
+      </c>
+      <c r="K36" s="115">
+        <v>1</v>
+      </c>
+      <c r="L36" s="115">
+        <v>1</v>
+      </c>
+      <c r="M36" s="115">
+        <v>1</v>
+      </c>
+      <c r="N36" s="115">
+        <v>1</v>
+      </c>
+      <c r="O36" s="115">
         <v>1</v>
       </c>
     </row>
@@ -8495,43 +8495,43 @@
       <c r="B37" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C37" s="116">
-        <v>1</v>
-      </c>
-      <c r="D37" s="116">
-        <v>1</v>
-      </c>
-      <c r="E37" s="116">
-        <v>1</v>
-      </c>
-      <c r="F37" s="116">
-        <v>1</v>
-      </c>
-      <c r="G37" s="116">
-        <v>1</v>
-      </c>
-      <c r="H37" s="116">
-        <v>1</v>
-      </c>
-      <c r="I37" s="116">
-        <v>1</v>
-      </c>
-      <c r="J37" s="116">
-        <v>1</v>
-      </c>
-      <c r="K37" s="116">
-        <v>1</v>
-      </c>
-      <c r="L37" s="116">
-        <v>1</v>
-      </c>
-      <c r="M37" s="116">
-        <v>1</v>
-      </c>
-      <c r="N37" s="116">
-        <v>1</v>
-      </c>
-      <c r="O37" s="116">
+      <c r="C37" s="115">
+        <v>1</v>
+      </c>
+      <c r="D37" s="115">
+        <v>1</v>
+      </c>
+      <c r="E37" s="115">
+        <v>1</v>
+      </c>
+      <c r="F37" s="115">
+        <v>1</v>
+      </c>
+      <c r="G37" s="115">
+        <v>1</v>
+      </c>
+      <c r="H37" s="115">
+        <v>1</v>
+      </c>
+      <c r="I37" s="115">
+        <v>1</v>
+      </c>
+      <c r="J37" s="115">
+        <v>1</v>
+      </c>
+      <c r="K37" s="115">
+        <v>1</v>
+      </c>
+      <c r="L37" s="115">
+        <v>1</v>
+      </c>
+      <c r="M37" s="115">
+        <v>1</v>
+      </c>
+      <c r="N37" s="115">
+        <v>1</v>
+      </c>
+      <c r="O37" s="115">
         <v>1</v>
       </c>
     </row>
@@ -8539,43 +8539,43 @@
       <c r="B38" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C38" s="116">
-        <v>1</v>
-      </c>
-      <c r="D38" s="116">
-        <v>1</v>
-      </c>
-      <c r="E38" s="116">
-        <v>1</v>
-      </c>
-      <c r="F38" s="116">
-        <v>1</v>
-      </c>
-      <c r="G38" s="116">
-        <v>1</v>
-      </c>
-      <c r="H38" s="116">
-        <v>1</v>
-      </c>
-      <c r="I38" s="116">
-        <v>1</v>
-      </c>
-      <c r="J38" s="116">
-        <v>1</v>
-      </c>
-      <c r="K38" s="116">
-        <v>1</v>
-      </c>
-      <c r="L38" s="116">
-        <v>1</v>
-      </c>
-      <c r="M38" s="116">
-        <v>1</v>
-      </c>
-      <c r="N38" s="116">
-        <v>1</v>
-      </c>
-      <c r="O38" s="116">
+      <c r="C38" s="115">
+        <v>1</v>
+      </c>
+      <c r="D38" s="115">
+        <v>1</v>
+      </c>
+      <c r="E38" s="115">
+        <v>1</v>
+      </c>
+      <c r="F38" s="115">
+        <v>1</v>
+      </c>
+      <c r="G38" s="115">
+        <v>1</v>
+      </c>
+      <c r="H38" s="115">
+        <v>1</v>
+      </c>
+      <c r="I38" s="115">
+        <v>1</v>
+      </c>
+      <c r="J38" s="115">
+        <v>1</v>
+      </c>
+      <c r="K38" s="115">
+        <v>1</v>
+      </c>
+      <c r="L38" s="115">
+        <v>1</v>
+      </c>
+      <c r="M38" s="115">
+        <v>1</v>
+      </c>
+      <c r="N38" s="115">
+        <v>1</v>
+      </c>
+      <c r="O38" s="115">
         <v>1</v>
       </c>
     </row>
@@ -8583,43 +8583,43 @@
       <c r="B39" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C39" s="116">
-        <v>1</v>
-      </c>
-      <c r="D39" s="116">
-        <v>1</v>
-      </c>
-      <c r="E39" s="116">
-        <v>1</v>
-      </c>
-      <c r="F39" s="116">
-        <v>1</v>
-      </c>
-      <c r="G39" s="116">
-        <v>1</v>
-      </c>
-      <c r="H39" s="116">
-        <v>1</v>
-      </c>
-      <c r="I39" s="116">
-        <v>1</v>
-      </c>
-      <c r="J39" s="116">
-        <v>1</v>
-      </c>
-      <c r="K39" s="116">
-        <v>1</v>
-      </c>
-      <c r="L39" s="116">
-        <v>1</v>
-      </c>
-      <c r="M39" s="116">
-        <v>1</v>
-      </c>
-      <c r="N39" s="116">
-        <v>1</v>
-      </c>
-      <c r="O39" s="116">
+      <c r="C39" s="115">
+        <v>1</v>
+      </c>
+      <c r="D39" s="115">
+        <v>1</v>
+      </c>
+      <c r="E39" s="115">
+        <v>1</v>
+      </c>
+      <c r="F39" s="115">
+        <v>1</v>
+      </c>
+      <c r="G39" s="115">
+        <v>1</v>
+      </c>
+      <c r="H39" s="115">
+        <v>1</v>
+      </c>
+      <c r="I39" s="115">
+        <v>1</v>
+      </c>
+      <c r="J39" s="115">
+        <v>1</v>
+      </c>
+      <c r="K39" s="115">
+        <v>1</v>
+      </c>
+      <c r="L39" s="115">
+        <v>1</v>
+      </c>
+      <c r="M39" s="115">
+        <v>1</v>
+      </c>
+      <c r="N39" s="115">
+        <v>1</v>
+      </c>
+      <c r="O39" s="115">
         <v>1</v>
       </c>
     </row>
@@ -8642,7 +8642,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -8681,16 +8681,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7265625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="28" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="28"/>
-    <col min="5" max="5" width="17.453125" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="33.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="28" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="28"/>
+    <col min="5" max="5" width="17.44140625" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>216</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>217</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>218</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>219</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>220</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>3</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>221</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>222</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>223</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>224</v>
       </c>
@@ -8888,20 +8888,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.26953125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.81640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.1796875" style="43"/>
+    <col min="6" max="7" width="13.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.21875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>211</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>86</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
         <v>171</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>157</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
         <v>158</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
         <v>159</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="40" t="s">
         <v>184</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
         <v>185</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="40" t="s">
         <v>189</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="40" t="s">
         <v>191</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="40" t="s">
         <v>192</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
         <v>205</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
         <v>161</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
         <v>193</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="40" t="s">
         <v>199</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="40" t="s">
         <v>200</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="40"/>
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
@@ -9627,7 +9627,7 @@
       <c r="N17" s="97"/>
       <c r="O17" s="97"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>100</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="40" t="s">
         <v>169</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="71" t="s">
         <v>180</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="71" t="s">
         <v>181</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="72" t="s">
         <v>182</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="40" t="s">
         <v>187</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="40" t="s">
         <v>188</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="40" t="s">
         <v>190</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="40"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
@@ -9999,7 +9999,7 @@
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
     </row>
-    <row r="27" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>75</v>
       </c>
@@ -10047,7 +10047,7 @@
       </c>
       <c r="P27" s="73"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="46" t="s">
         <v>176</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="46" t="s">
         <v>177</v>
@@ -10136,7 +10136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="46" t="s">
         <v>178</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="46" t="s">
         <v>179</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="40"/>
       <c r="C32" s="98"/>
       <c r="D32" s="98"/>
@@ -10240,7 +10240,7 @@
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>210</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="40" t="s">
         <v>174</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="40" t="s">
         <v>175</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="40" t="s">
         <v>183</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="40" t="s">
         <v>186</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="40" t="s">
         <v>194</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="40" t="s">
         <v>195</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="40" t="s">
         <v>196</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="40" t="s">
         <v>197</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="40" t="s">
         <v>198</v>
       </c>
@@ -10700,22 +10700,21 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="58.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -11467,22 +11466,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="16.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>230</v>
       </c>
@@ -11841,14 +11839,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="8" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="8.44140625" style="8" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>76</v>
       </c>
@@ -12936,15 +12934,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.1796875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="48.21875" style="28" customWidth="1"/>
     <col min="2" max="2" width="15" style="28" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="12.7265625" style="28"/>
+    <col min="3" max="3" width="14.77734375" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>231</v>
       </c>
@@ -12970,11 +12968,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -12997,7 +12995,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="112"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="28" t="s">
         <v>154</v>
       </c>
@@ -13019,7 +13017,7 @@
       <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="112"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="28" t="s">
         <v>155</v>
       </c>
@@ -13041,7 +13039,7 @@
       <c r="J4" s="74"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -13065,7 +13063,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="112"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="28" t="s">
         <v>154</v>
       </c>
@@ -13086,7 +13084,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="112"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="28" t="s">
         <v>155</v>
       </c>
@@ -13107,7 +13105,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -13130,7 +13128,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="112"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="28" t="s">
         <v>154</v>
       </c>
@@ -13151,7 +13149,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="112"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="28" t="s">
         <v>155</v>
       </c>
@@ -13172,7 +13170,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -13195,7 +13193,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="112"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="28" t="s">
         <v>154</v>
       </c>
@@ -13216,7 +13214,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="112"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="28" t="s">
         <v>155</v>
       </c>
@@ -13237,7 +13235,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -13260,7 +13258,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="112"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="28" t="s">
         <v>154</v>
       </c>
@@ -13281,7 +13279,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="112"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="28" t="s">
         <v>155</v>
       </c>
@@ -13301,7 +13299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="75" t="s">
         <v>156</v>
       </c>
@@ -13331,11 +13329,11 @@
       <c r="G18" s="99"/>
       <c r="H18" s="99"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -13358,7 +13356,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="112"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="28" t="s">
         <v>154</v>
       </c>
@@ -13379,7 +13377,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="112"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="28" t="s">
         <v>155</v>
       </c>
@@ -13400,7 +13398,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -13423,7 +13421,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="112"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="28" t="s">
         <v>154</v>
       </c>
@@ -13444,7 +13442,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="112"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="28" t="s">
         <v>155</v>
       </c>
@@ -13465,7 +13463,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="112" t="s">
+      <c r="B25" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -13488,7 +13486,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="112"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="28" t="s">
         <v>154</v>
       </c>
@@ -13509,7 +13507,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="112"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="28" t="s">
         <v>155</v>
       </c>
@@ -13530,7 +13528,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="112" t="s">
+      <c r="B28" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -13553,7 +13551,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="112"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="28" t="s">
         <v>154</v>
       </c>
@@ -13574,7 +13572,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="112"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="28" t="s">
         <v>155</v>
       </c>
@@ -13595,7 +13593,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="112" t="s">
+      <c r="B31" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -13618,7 +13616,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="112"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="28" t="s">
         <v>154</v>
       </c>
@@ -13639,7 +13637,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="112"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="28" t="s">
         <v>155</v>
       </c>
@@ -13659,7 +13657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="75" t="s">
         <v>156</v>
       </c>
@@ -13689,11 +13687,11 @@
       <c r="G35" s="99"/>
       <c r="H35" s="99"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="112" t="s">
+      <c r="B36" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -13716,7 +13714,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="112"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="28" t="s">
         <v>154</v>
       </c>
@@ -13737,7 +13735,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="112"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="28" t="s">
         <v>155</v>
       </c>
@@ -13758,7 +13756,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="112" t="s">
+      <c r="B39" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -13781,7 +13779,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="112"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="28" t="s">
         <v>154</v>
       </c>
@@ -13802,7 +13800,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="112"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="28" t="s">
         <v>155</v>
       </c>
@@ -13823,7 +13821,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="112" t="s">
+      <c r="B42" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -13846,7 +13844,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="112"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="28" t="s">
         <v>154</v>
       </c>
@@ -13867,7 +13865,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="112"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="28" t="s">
         <v>155</v>
       </c>
@@ -13888,7 +13886,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="112" t="s">
+      <c r="B45" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="28" t="s">
@@ -13911,7 +13909,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="112"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="28" t="s">
         <v>154</v>
       </c>
@@ -13932,7 +13930,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="112"/>
+      <c r="B47" s="117"/>
       <c r="C47" s="28" t="s">
         <v>155</v>
       </c>
@@ -13953,7 +13951,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="112" t="s">
+      <c r="B48" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="28" t="s">
@@ -13976,7 +13974,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="112"/>
+      <c r="B49" s="117"/>
       <c r="C49" s="28" t="s">
         <v>154</v>
       </c>
@@ -13997,7 +13995,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="112"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="28" t="s">
         <v>155</v>
       </c>
@@ -14017,7 +14015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="75" t="s">
         <v>156</v>
       </c>
@@ -14040,7 +14038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="105" t="s">
         <v>235</v>
       </c>
@@ -14052,7 +14050,7 @@
       <c r="G53" s="105"/>
       <c r="H53" s="105"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>231</v>
       </c>
@@ -14078,11 +14076,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="112" t="s">
+      <c r="B55" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="28" t="s">
@@ -14110,7 +14108,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="112"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="28" t="s">
         <v>154</v>
       </c>
@@ -14136,7 +14134,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="112"/>
+      <c r="B57" s="117"/>
       <c r="C57" s="28" t="s">
         <v>155</v>
       </c>
@@ -14162,7 +14160,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="112" t="s">
+      <c r="B58" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="28" t="s">
@@ -14190,7 +14188,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="112"/>
+      <c r="B59" s="117"/>
       <c r="C59" s="28" t="s">
         <v>154</v>
       </c>
@@ -14216,7 +14214,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="112"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="28" t="s">
         <v>155</v>
       </c>
@@ -14242,7 +14240,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="112" t="s">
+      <c r="B61" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="28" t="s">
@@ -14270,7 +14268,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="112"/>
+      <c r="B62" s="117"/>
       <c r="C62" s="28" t="s">
         <v>154</v>
       </c>
@@ -14296,7 +14294,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="112"/>
+      <c r="B63" s="117"/>
       <c r="C63" s="28" t="s">
         <v>155</v>
       </c>
@@ -14322,7 +14320,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="112" t="s">
+      <c r="B64" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -14350,7 +14348,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="112"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="28" t="s">
         <v>154</v>
       </c>
@@ -14376,7 +14374,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="112"/>
+      <c r="B66" s="117"/>
       <c r="C66" s="28" t="s">
         <v>155</v>
       </c>
@@ -14402,7 +14400,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="112" t="s">
+      <c r="B67" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -14430,7 +14428,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="112"/>
+      <c r="B68" s="117"/>
       <c r="C68" s="28" t="s">
         <v>154</v>
       </c>
@@ -14456,7 +14454,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="112"/>
+      <c r="B69" s="117"/>
       <c r="C69" s="28" t="s">
         <v>155</v>
       </c>
@@ -14481,7 +14479,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="75" t="s">
         <v>156</v>
       </c>
@@ -14516,11 +14514,11 @@
       <c r="G71" s="99"/>
       <c r="H71" s="99"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="112" t="s">
+      <c r="B72" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="28" t="s">
@@ -14548,7 +14546,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="112"/>
+      <c r="B73" s="117"/>
       <c r="C73" s="28" t="s">
         <v>154</v>
       </c>
@@ -14574,7 +14572,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="112"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="28" t="s">
         <v>155</v>
       </c>
@@ -14600,7 +14598,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="112" t="s">
+      <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="28" t="s">
@@ -14628,7 +14626,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="112"/>
+      <c r="B76" s="117"/>
       <c r="C76" s="28" t="s">
         <v>154</v>
       </c>
@@ -14654,7 +14652,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="112"/>
+      <c r="B77" s="117"/>
       <c r="C77" s="28" t="s">
         <v>155</v>
       </c>
@@ -14680,7 +14678,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="112" t="s">
+      <c r="B78" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="28" t="s">
@@ -14708,7 +14706,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="112"/>
+      <c r="B79" s="117"/>
       <c r="C79" s="28" t="s">
         <v>154</v>
       </c>
@@ -14734,7 +14732,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="112"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="28" t="s">
         <v>155</v>
       </c>
@@ -14760,7 +14758,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="112" t="s">
+      <c r="B81" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -14788,7 +14786,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="112"/>
+      <c r="B82" s="117"/>
       <c r="C82" s="28" t="s">
         <v>154</v>
       </c>
@@ -14814,7 +14812,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="112"/>
+      <c r="B83" s="117"/>
       <c r="C83" s="28" t="s">
         <v>155</v>
       </c>
@@ -14840,7 +14838,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="112" t="s">
+      <c r="B84" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="28" t="s">
@@ -14868,7 +14866,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="112"/>
+      <c r="B85" s="117"/>
       <c r="C85" s="28" t="s">
         <v>154</v>
       </c>
@@ -14894,7 +14892,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="112"/>
+      <c r="B86" s="117"/>
       <c r="C86" s="28" t="s">
         <v>155</v>
       </c>
@@ -14919,7 +14917,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="75" t="s">
         <v>156</v>
       </c>
@@ -14954,11 +14952,11 @@
       <c r="G88" s="99"/>
       <c r="H88" s="99"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="B89" s="112" t="s">
+      <c r="B89" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="28" t="s">
@@ -14986,7 +14984,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="112"/>
+      <c r="B90" s="117"/>
       <c r="C90" s="28" t="s">
         <v>154</v>
       </c>
@@ -15012,7 +15010,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="112"/>
+      <c r="B91" s="117"/>
       <c r="C91" s="28" t="s">
         <v>155</v>
       </c>
@@ -15038,7 +15036,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="112" t="s">
+      <c r="B92" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C92" s="28" t="s">
@@ -15066,7 +15064,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="112"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="28" t="s">
         <v>154</v>
       </c>
@@ -15092,7 +15090,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="112"/>
+      <c r="B94" s="117"/>
       <c r="C94" s="28" t="s">
         <v>155</v>
       </c>
@@ -15118,7 +15116,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="112" t="s">
+      <c r="B95" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="28" t="s">
@@ -15146,7 +15144,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="112"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="28" t="s">
         <v>154</v>
       </c>
@@ -15172,7 +15170,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="112"/>
+      <c r="B97" s="117"/>
       <c r="C97" s="28" t="s">
         <v>155</v>
       </c>
@@ -15198,7 +15196,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="112" t="s">
+      <c r="B98" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="28" t="s">
@@ -15226,7 +15224,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="112"/>
+      <c r="B99" s="117"/>
       <c r="C99" s="28" t="s">
         <v>154</v>
       </c>
@@ -15252,7 +15250,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="112"/>
+      <c r="B100" s="117"/>
       <c r="C100" s="28" t="s">
         <v>155</v>
       </c>
@@ -15278,7 +15276,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="112" t="s">
+      <c r="B101" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="28" t="s">
@@ -15306,7 +15304,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="112"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="28" t="s">
         <v>154</v>
       </c>
@@ -15332,7 +15330,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="112"/>
+      <c r="B103" s="117"/>
       <c r="C103" s="28" t="s">
         <v>155</v>
       </c>
@@ -15357,7 +15355,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="75" t="s">
         <v>156</v>
       </c>
@@ -15385,7 +15383,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="105" t="s">
         <v>239</v>
       </c>
@@ -15397,7 +15395,7 @@
       <c r="G106" s="105"/>
       <c r="H106" s="105"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>231</v>
       </c>
@@ -15423,11 +15421,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="112" t="s">
+      <c r="B108" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="28" t="s">
@@ -15455,7 +15453,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="112"/>
+      <c r="B109" s="117"/>
       <c r="C109" s="28" t="s">
         <v>154</v>
       </c>
@@ -15481,7 +15479,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="112"/>
+      <c r="B110" s="117"/>
       <c r="C110" s="28" t="s">
         <v>155</v>
       </c>
@@ -15507,7 +15505,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="112" t="s">
+      <c r="B111" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="28" t="s">
@@ -15535,7 +15533,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="112"/>
+      <c r="B112" s="117"/>
       <c r="C112" s="28" t="s">
         <v>154</v>
       </c>
@@ -15561,7 +15559,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="112"/>
+      <c r="B113" s="117"/>
       <c r="C113" s="28" t="s">
         <v>155</v>
       </c>
@@ -15587,7 +15585,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="112" t="s">
+      <c r="B114" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C114" s="28" t="s">
@@ -15615,7 +15613,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="112"/>
+      <c r="B115" s="117"/>
       <c r="C115" s="28" t="s">
         <v>154</v>
       </c>
@@ -15641,7 +15639,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="112"/>
+      <c r="B116" s="117"/>
       <c r="C116" s="28" t="s">
         <v>155</v>
       </c>
@@ -15667,7 +15665,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="112" t="s">
+      <c r="B117" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="28" t="s">
@@ -15695,7 +15693,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="112"/>
+      <c r="B118" s="117"/>
       <c r="C118" s="28" t="s">
         <v>154</v>
       </c>
@@ -15721,7 +15719,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="112"/>
+      <c r="B119" s="117"/>
       <c r="C119" s="28" t="s">
         <v>155</v>
       </c>
@@ -15747,7 +15745,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="112" t="s">
+      <c r="B120" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C120" s="28" t="s">
@@ -15775,7 +15773,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="112"/>
+      <c r="B121" s="117"/>
       <c r="C121" s="28" t="s">
         <v>154</v>
       </c>
@@ -15801,7 +15799,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="112"/>
+      <c r="B122" s="117"/>
       <c r="C122" s="28" t="s">
         <v>155</v>
       </c>
@@ -15826,7 +15824,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="75" t="s">
         <v>156</v>
       </c>
@@ -15861,11 +15859,11 @@
       <c r="G124" s="99"/>
       <c r="H124" s="99"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="112" t="s">
+      <c r="B125" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C125" s="28" t="s">
@@ -15893,7 +15891,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="112"/>
+      <c r="B126" s="117"/>
       <c r="C126" s="28" t="s">
         <v>154</v>
       </c>
@@ -15919,7 +15917,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="112"/>
+      <c r="B127" s="117"/>
       <c r="C127" s="28" t="s">
         <v>155</v>
       </c>
@@ -15945,7 +15943,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="112" t="s">
+      <c r="B128" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C128" s="28" t="s">
@@ -15973,7 +15971,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="112"/>
+      <c r="B129" s="117"/>
       <c r="C129" s="28" t="s">
         <v>154</v>
       </c>
@@ -15999,7 +15997,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="112"/>
+      <c r="B130" s="117"/>
       <c r="C130" s="28" t="s">
         <v>155</v>
       </c>
@@ -16025,7 +16023,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="112" t="s">
+      <c r="B131" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C131" s="28" t="s">
@@ -16053,7 +16051,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="112"/>
+      <c r="B132" s="117"/>
       <c r="C132" s="28" t="s">
         <v>154</v>
       </c>
@@ -16079,7 +16077,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="112"/>
+      <c r="B133" s="117"/>
       <c r="C133" s="28" t="s">
         <v>155</v>
       </c>
@@ -16105,7 +16103,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="112" t="s">
+      <c r="B134" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="28" t="s">
@@ -16133,7 +16131,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="112"/>
+      <c r="B135" s="117"/>
       <c r="C135" s="28" t="s">
         <v>154</v>
       </c>
@@ -16159,7 +16157,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="112"/>
+      <c r="B136" s="117"/>
       <c r="C136" s="28" t="s">
         <v>155</v>
       </c>
@@ -16185,7 +16183,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="112" t="s">
+      <c r="B137" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C137" s="28" t="s">
@@ -16213,7 +16211,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="112"/>
+      <c r="B138" s="117"/>
       <c r="C138" s="28" t="s">
         <v>154</v>
       </c>
@@ -16239,7 +16237,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="112"/>
+      <c r="B139" s="117"/>
       <c r="C139" s="28" t="s">
         <v>155</v>
       </c>
@@ -16264,7 +16262,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="75" t="s">
         <v>156</v>
       </c>
@@ -16299,11 +16297,11 @@
       <c r="G141" s="99"/>
       <c r="H141" s="99"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="112" t="s">
+      <c r="B142" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C142" s="28" t="s">
@@ -16331,7 +16329,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="112"/>
+      <c r="B143" s="117"/>
       <c r="C143" s="28" t="s">
         <v>154</v>
       </c>
@@ -16357,7 +16355,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="112"/>
+      <c r="B144" s="117"/>
       <c r="C144" s="28" t="s">
         <v>155</v>
       </c>
@@ -16383,7 +16381,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="112" t="s">
+      <c r="B145" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C145" s="28" t="s">
@@ -16411,7 +16409,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="112"/>
+      <c r="B146" s="117"/>
       <c r="C146" s="28" t="s">
         <v>154</v>
       </c>
@@ -16437,7 +16435,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="112"/>
+      <c r="B147" s="117"/>
       <c r="C147" s="28" t="s">
         <v>155</v>
       </c>
@@ -16463,7 +16461,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="112" t="s">
+      <c r="B148" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="28" t="s">
@@ -16491,7 +16489,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="112"/>
+      <c r="B149" s="117"/>
       <c r="C149" s="28" t="s">
         <v>154</v>
       </c>
@@ -16517,7 +16515,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="112"/>
+      <c r="B150" s="117"/>
       <c r="C150" s="28" t="s">
         <v>155</v>
       </c>
@@ -16543,7 +16541,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="112" t="s">
+      <c r="B151" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C151" s="28" t="s">
@@ -16571,7 +16569,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="112"/>
+      <c r="B152" s="117"/>
       <c r="C152" s="28" t="s">
         <v>154</v>
       </c>
@@ -16597,7 +16595,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="112"/>
+      <c r="B153" s="117"/>
       <c r="C153" s="28" t="s">
         <v>155</v>
       </c>
@@ -16623,7 +16621,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="112" t="s">
+      <c r="B154" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C154" s="28" t="s">
@@ -16651,7 +16649,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="112"/>
+      <c r="B155" s="117"/>
       <c r="C155" s="28" t="s">
         <v>154</v>
       </c>
@@ -16677,7 +16675,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="112"/>
+      <c r="B156" s="117"/>
       <c r="C156" s="28" t="s">
         <v>155</v>
       </c>
@@ -16702,7 +16700,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="75" t="s">
         <v>156</v>
       </c>
@@ -16733,6 +16731,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="nNsCUAKVVG1zkRvbSvGPcPaVUA98KocM1Sp7FJzdUekLIXQkECuPILGIVSTY6PghPNb3GKJ4WHVzIJgsJk8sZA==" saltValue="la+psoPk25L+fa0E/0jtJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16742,42 +16776,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16798,22 +16796,22 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="34.1796875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="28" customWidth="1"/>
     <col min="5" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="16.1796875" style="28"/>
+    <col min="7" max="16384" width="16.21875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="78" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="78" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="79"/>
       <c r="C2" s="80" t="s">
         <v>54</v>
@@ -16828,7 +16826,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>244</v>
       </c>
@@ -16912,7 +16910,7 @@
       <c r="E8" s="74"/>
       <c r="F8" s="74"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>249</v>
       </c>
@@ -16935,7 +16933,7 @@
       <c r="E10" s="74"/>
       <c r="F10" s="74"/>
     </row>
-    <row r="11" spans="1:6" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>245</v>
       </c>
@@ -16944,7 +16942,7 @@
       <c r="E11" s="87"/>
       <c r="F11" s="87"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>246</v>
       </c>
@@ -17004,7 +17002,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="46"/>
       <c r="C16" s="88"/>
@@ -17012,7 +17010,7 @@
       <c r="E16" s="74"/>
       <c r="F16" s="74"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>248</v>
       </c>
@@ -17161,7 +17159,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="46"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="105" t="s">
         <v>235</v>
       </c>
@@ -17171,12 +17169,12 @@
       <c r="E27" s="108"/>
       <c r="F27" s="108"/>
     </row>
-    <row r="28" spans="1:6" s="78" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="78" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="77" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="79"/>
       <c r="C29" s="80" t="s">
         <v>54</v>
@@ -17191,7 +17189,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>250</v>
       </c>
@@ -17291,7 +17289,7 @@
       <c r="E35" s="74"/>
       <c r="F35" s="74"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>262</v>
       </c>
@@ -17312,7 +17310,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="77" t="s">
         <v>245</v>
       </c>
@@ -17322,7 +17320,7 @@
       <c r="E38" s="87"/>
       <c r="F38" s="87"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>251</v>
       </c>
@@ -17394,7 +17392,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="46"/>
       <c r="C43" s="88"/>
@@ -17402,7 +17400,7 @@
       <c r="E43" s="74"/>
       <c r="F43" s="74"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>252</v>
       </c>
@@ -17580,7 +17578,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="105" t="s">
         <v>239</v>
       </c>
@@ -17590,12 +17588,12 @@
       <c r="E54" s="108"/>
       <c r="F54" s="108"/>
     </row>
-    <row r="55" spans="1:6" s="78" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="78" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="77" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="79"/>
       <c r="C56" s="80" t="s">
         <v>54</v>
@@ -17610,7 +17608,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>253</v>
       </c>
@@ -17710,7 +17708,7 @@
       <c r="E62" s="74"/>
       <c r="F62" s="74"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>263</v>
       </c>
@@ -17731,7 +17729,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="77" t="s">
         <v>245</v>
       </c>
@@ -17741,7 +17739,7 @@
       <c r="E65" s="87"/>
       <c r="F65" s="87"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>254</v>
       </c>
@@ -17813,7 +17811,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
       <c r="B70" s="46"/>
       <c r="C70" s="88"/>
@@ -17821,7 +17819,7 @@
       <c r="E70" s="74"/>
       <c r="F70" s="74"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>255</v>
       </c>
@@ -18020,23 +18018,23 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" style="28" customWidth="1"/>
-    <col min="4" max="8" width="14.7265625" style="28" customWidth="1"/>
-    <col min="9" max="12" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="27.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="28" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="28" customWidth="1"/>
+    <col min="9" max="12" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="78" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="91" t="s">
         <v>226</v>
       </c>
@@ -18070,7 +18068,7 @@
       <c r="O2" s="92"/>
       <c r="P2" s="92"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="28" t="s">
         <v>87</v>
@@ -18503,7 +18501,7 @@
       <c r="O17" s="91"/>
       <c r="P17" s="91"/>
     </row>
-    <row r="18" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="32" t="s">
         <v>269</v>
       </c>
@@ -18761,12 +18759,12 @@
       <c r="O26" s="91"/>
       <c r="P26" s="91"/>
     </row>
-    <row r="28" spans="1:16" s="78" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="77" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="91" t="s">
         <v>279</v>
       </c>
@@ -18800,7 +18798,7 @@
       <c r="O29" s="92"/>
       <c r="P29" s="92"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="28" t="s">
         <v>87</v>
@@ -19495,12 +19493,12 @@
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
     </row>
-    <row r="55" spans="1:16" s="78" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="77" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="91" t="s">
         <v>121</v>
       </c>
@@ -19528,7 +19526,7 @@
       <c r="O56" s="92"/>
       <c r="P56" s="92"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="28" t="s">
         <v>101</v>
@@ -19674,12 +19672,12 @@
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
     </row>
-    <row r="64" spans="1:16" s="78" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="77" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="91" t="s">
         <v>128</v>
       </c>
@@ -19713,7 +19711,7 @@
       <c r="O65" s="92"/>
       <c r="P65" s="92"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="95"/>
       <c r="B66" s="28" t="s">
         <v>78</v>
@@ -20749,12 +20747,12 @@
       <c r="O101" s="91"/>
       <c r="P101" s="91"/>
     </row>
-    <row r="103" spans="1:16" s="78" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="77" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="91" t="s">
         <v>87</v>
       </c>
@@ -20788,7 +20786,7 @@
       <c r="O104" s="92"/>
       <c r="P104" s="92"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="C105" s="32" t="s">
         <v>129</v>
@@ -20901,13 +20899,13 @@
       <c r="O108" s="91"/>
       <c r="P108" s="91"/>
     </row>
-    <row r="110" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="105" t="s">
         <v>235</v>
       </c>
       <c r="H110" s="105"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="77" t="s">
         <v>264</v>
       </c>
@@ -20919,7 +20917,7 @@
       <c r="G111" s="78"/>
       <c r="H111" s="78"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="91" t="s">
         <v>226</v>
       </c>
@@ -20945,7 +20943,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
       <c r="B113" s="28" t="s">
         <v>87</v>
@@ -21564,7 +21562,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="77" t="s">
         <v>278</v>
       </c>
@@ -21576,7 +21574,7 @@
       <c r="G138" s="78"/>
       <c r="H138" s="78"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="91" t="s">
         <v>279</v>
       </c>
@@ -21602,7 +21600,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
       <c r="B140" s="28" t="s">
         <v>87</v>
@@ -22225,7 +22223,7 @@
       <c r="C164" s="32"/>
       <c r="D164" s="32"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="77" t="s">
         <v>271</v>
       </c>
@@ -22237,7 +22235,7 @@
       <c r="G165" s="78"/>
       <c r="H165" s="78"/>
     </row>
-    <row r="166" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="91" t="s">
         <v>121</v>
       </c>
@@ -22261,7 +22259,7 @@
       </c>
       <c r="H166" s="92"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="30"/>
       <c r="B167" s="28" t="s">
         <v>101</v>
@@ -22407,7 +22405,7 @@
       <c r="C173" s="32"/>
       <c r="D173" s="32"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="77" t="s">
         <v>275</v>
       </c>
@@ -22419,7 +22417,7 @@
       <c r="G174" s="78"/>
       <c r="H174" s="78"/>
     </row>
-    <row r="175" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="91" t="s">
         <v>128</v>
       </c>
@@ -22445,7 +22443,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="95"/>
       <c r="B176" s="28" t="s">
         <v>78</v>
@@ -23337,7 +23335,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="77" t="s">
         <v>277</v>
       </c>
@@ -23349,7 +23347,7 @@
       <c r="G213" s="78"/>
       <c r="H213" s="78"/>
     </row>
-    <row r="214" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A214" s="91" t="s">
         <v>87</v>
       </c>
@@ -23375,7 +23373,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="30"/>
       <c r="C215" s="32" t="s">
         <v>129</v>
@@ -23472,13 +23470,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="105" t="s">
         <v>239</v>
       </c>
       <c r="H220" s="105"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="77" t="s">
         <v>264</v>
       </c>
@@ -23491,7 +23489,7 @@
       <c r="H221" s="78"/>
       <c r="I221" s="78"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="91" t="s">
         <v>226</v>
       </c>
@@ -23518,7 +23516,7 @@
       </c>
       <c r="I222" s="92"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="30"/>
       <c r="B223" s="28" t="s">
         <v>87</v>
@@ -24161,7 +24159,7 @@
       </c>
       <c r="I246" s="91"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="77" t="s">
         <v>278</v>
       </c>
@@ -24174,7 +24172,7 @@
       <c r="H248" s="78"/>
       <c r="I248" s="78"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="91" t="s">
         <v>279</v>
       </c>
@@ -24201,7 +24199,7 @@
       </c>
       <c r="I249" s="92"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="30"/>
       <c r="B250" s="28" t="s">
         <v>87</v>
@@ -24848,7 +24846,7 @@
       <c r="C274" s="32"/>
       <c r="D274" s="32"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="77" t="s">
         <v>271</v>
       </c>
@@ -24861,7 +24859,7 @@
       <c r="H275" s="78"/>
       <c r="I275" s="78"/>
     </row>
-    <row r="276" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A276" s="91" t="s">
         <v>121</v>
       </c>
@@ -24885,7 +24883,7 @@
       </c>
       <c r="H276" s="92"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="30"/>
       <c r="B277" s="28" t="s">
         <v>101</v>
@@ -25031,7 +25029,7 @@
       <c r="C283" s="32"/>
       <c r="D283" s="32"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="77" t="s">
         <v>275</v>
       </c>
@@ -25044,7 +25042,7 @@
       <c r="H284" s="78"/>
       <c r="I284" s="78"/>
     </row>
-    <row r="285" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="91" t="s">
         <v>128</v>
       </c>
@@ -25071,7 +25069,7 @@
       </c>
       <c r="I285" s="92"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="95"/>
       <c r="B286" s="28" t="s">
         <v>78</v>
@@ -25999,7 +25997,7 @@
       </c>
       <c r="I321" s="91"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="77" t="s">
         <v>277</v>
       </c>
@@ -26012,7 +26010,7 @@
       <c r="H323" s="78"/>
       <c r="I323" s="78"/>
     </row>
-    <row r="324" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A324" s="91" t="s">
         <v>87</v>
       </c>
@@ -26039,7 +26037,7 @@
       </c>
       <c r="I324" s="92"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="30"/>
       <c r="C325" s="32" t="s">
         <v>129</v>
@@ -26161,24 +26159,24 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="28" customWidth="1"/>
     <col min="6" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="7" max="7" width="13.77734375" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
         <v>0</v>
       </c>
@@ -26219,7 +26217,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="71" t="s">
         <v>281</v>
@@ -26240,7 +26238,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>282</v>
       </c>
@@ -26333,12 +26331,12 @@
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
     </row>
-    <row r="11" spans="1:7" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
       <c r="B12" s="46" t="s">
         <v>184</v>
@@ -26359,16 +26357,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
       <c r="B13" s="46"/>
     </row>
-    <row r="14" spans="1:7" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="77" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="95" t="s">
         <v>279</v>
       </c>
@@ -26391,7 +26389,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="71" t="s">
         <v>287</v>
@@ -26412,7 +26410,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="95" t="s">
         <v>121</v>
       </c>
@@ -26436,12 +26434,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="78" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="77" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="82" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="82" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="44" t="s">
         <v>69</v>
       </c>
@@ -26472,12 +26470,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="105" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="105" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="77" t="s">
         <v>233</v>
       </c>
@@ -26488,7 +26486,7 @@
       <c r="F24" s="78"/>
       <c r="G24" s="78"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="95" t="s">
         <v>0</v>
       </c>
@@ -26533,7 +26531,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="71" t="s">
         <v>290</v>
@@ -26559,7 +26557,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="82" t="s">
         <v>291</v>
       </c>
@@ -26672,7 +26670,7 @@
       <c r="F33" s="71"/>
       <c r="G33" s="71"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="77" t="s">
         <v>295</v>
       </c>
@@ -26683,7 +26681,7 @@
       <c r="F34" s="78"/>
       <c r="G34" s="78"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="82"/>
       <c r="B35" s="46" t="s">
         <v>296</v>
@@ -26706,11 +26704,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="82"/>
       <c r="B36" s="46"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="77" t="s">
         <v>283</v>
       </c>
@@ -26721,7 +26719,7 @@
       <c r="F37" s="78"/>
       <c r="G37" s="78"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="95" t="s">
         <v>279</v>
       </c>
@@ -26749,7 +26747,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="71" t="s">
         <v>298</v>
@@ -26775,7 +26773,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="95" t="s">
         <v>121</v>
       </c>
@@ -26803,7 +26801,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="77" t="s">
         <v>300</v>
       </c>
@@ -26814,7 +26812,7 @@
       <c r="F42" s="78"/>
       <c r="G42" s="78"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="82"/>
       <c r="B43" s="82"/>
       <c r="C43" s="44" t="s">
@@ -26852,12 +26850,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="105" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="105" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="77" t="s">
         <v>233</v>
       </c>
@@ -26868,7 +26866,7 @@
       <c r="F47" s="78"/>
       <c r="G47" s="78"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="95" t="s">
         <v>0</v>
       </c>
@@ -26913,7 +26911,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="71" t="s">
         <v>303</v>
@@ -26939,7 +26937,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="82" t="s">
         <v>304</v>
       </c>
@@ -27052,7 +27050,7 @@
       <c r="F56" s="71"/>
       <c r="G56" s="71"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="77" t="s">
         <v>308</v>
       </c>
@@ -27063,7 +27061,7 @@
       <c r="F57" s="78"/>
       <c r="G57" s="78"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="82"/>
       <c r="B58" s="46" t="s">
         <v>309</v>
@@ -27086,11 +27084,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="82"/>
       <c r="B59" s="46"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="77" t="s">
         <v>283</v>
       </c>
@@ -27101,7 +27099,7 @@
       <c r="F60" s="78"/>
       <c r="G60" s="78"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="95" t="s">
         <v>279</v>
       </c>
@@ -27129,7 +27127,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="71" t="s">
         <v>311</v>
@@ -27155,7 +27153,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="95" t="s">
         <v>121</v>
       </c>
@@ -27183,7 +27181,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="77" t="s">
         <v>313</v>
       </c>
@@ -27194,7 +27192,7 @@
       <c r="F65" s="78"/>
       <c r="G65" s="78"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="82"/>
       <c r="B66" s="82"/>
       <c r="C66" s="44" t="s">
@@ -27254,16 +27252,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.26953125" style="28" customWidth="1"/>
-    <col min="2" max="6" width="16.1796875" style="28"/>
-    <col min="7" max="7" width="17.26953125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="16.1796875" style="28"/>
+    <col min="1" max="1" width="52.21875" style="28" customWidth="1"/>
+    <col min="2" max="6" width="16.21875" style="28"/>
+    <col min="7" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="16.21875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -27509,12 +27507,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="105" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="105" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="105" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>160</v>
       </c>
@@ -27808,12 +27806,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="105" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="105" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="105" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>160</v>
       </c>
@@ -28128,15 +28126,15 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="28" customWidth="1"/>
-    <col min="16" max="16384" width="12.7265625" style="28"/>
+    <col min="16" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="81" t="s">
@@ -28179,7 +28177,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>319</v>
       </c>
@@ -28624,7 +28622,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>189</v>
       </c>
@@ -28756,7 +28754,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>320</v>
       </c>
@@ -28938,12 +28936,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="105" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="105" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="81" t="s">
@@ -28986,7 +28984,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>321</v>
       </c>
@@ -29732,7 +29730,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>323</v>
       </c>
@@ -29966,12 +29964,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="105" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="105" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="81" t="s">
@@ -30014,7 +30012,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>322</v>
       </c>
@@ -30760,7 +30758,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>324</v>
       </c>
@@ -31015,15 +31013,15 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" style="28" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="21.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="28" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="42"/>
       <c r="C1" s="30" t="s">
@@ -31042,7 +31040,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>325</v>
       </c>
@@ -31067,7 +31065,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>326</v>
       </c>
@@ -31098,12 +31096,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="105" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="105" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="42"/>
       <c r="C8" s="30" t="s">
@@ -31122,7 +31120,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>327</v>
       </c>
@@ -31152,7 +31150,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>328</v>
       </c>
@@ -31188,12 +31186,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="105" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="105" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="42"/>
       <c r="C15" s="30" t="s">
@@ -31212,7 +31210,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>329</v>
       </c>
@@ -31242,7 +31240,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>330</v>
       </c>
@@ -31299,20 +31297,20 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="40" customWidth="1"/>
     <col min="4" max="4" width="15" style="28" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="28"/>
-    <col min="8" max="8" width="17.54296875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="12.7265625" style="28"/>
+    <col min="5" max="5" width="13.77734375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="28"/>
+    <col min="8" max="8" width="17.5546875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -32495,14 +32493,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="109" t="s">
         <v>331</v>
       </c>
       <c r="B55" s="110"/>
       <c r="C55" s="110"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>160</v>
       </c>
@@ -33945,14 +33943,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="109" t="s">
         <v>332</v>
       </c>
       <c r="B110" s="110"/>
       <c r="C110" s="110"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>160</v>
       </c>
@@ -35416,16 +35414,16 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="28" customWidth="1"/>
-    <col min="4" max="7" width="17.26953125" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="2" max="2" width="27.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="28" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -35573,12 +35571,12 @@
       </c>
       <c r="H7" s="32"/>
     </row>
-    <row r="9" spans="1:8" s="105" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="105" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>160</v>
       </c>
@@ -35743,12 +35741,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="105" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="105" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>160</v>
       </c>
@@ -35933,14 +35931,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -35951,7 +35949,7 @@
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -36034,7 +36032,7 @@
       <c r="B11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="114">
+      <c r="C11" s="113">
         <f>SUM(C3:C10)</f>
         <v>1</v>
       </c>
@@ -36050,7 +36048,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>86</v>
       </c>
@@ -36228,19 +36226,19 @@
       <c r="B23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="114">
+      <c r="C23" s="113">
         <f>SUM(C14:C22)</f>
         <v>1</v>
       </c>
-      <c r="D23" s="114">
+      <c r="D23" s="113">
         <f t="shared" ref="D23:F23" si="0">SUM(D14:D22)</f>
         <v>1</v>
       </c>
-      <c r="E23" s="114">
+      <c r="E23" s="113">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F23" s="114">
+      <c r="F23" s="113">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36256,7 +36254,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -36348,7 +36346,7 @@
       <c r="B35" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="114">
+      <c r="C35" s="113">
         <f>SUM(C26:C34)</f>
         <v>1</v>
       </c>
@@ -36372,13 +36370,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -36409,23 +36407,23 @@
       <c r="B2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="115">
+      <c r="C2" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="D2" s="115">
+      <c r="D2" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="E2" s="115">
+      <c r="E2" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.44982829694488635</v>
       </c>
-      <c r="F2" s="115">
+      <c r="F2" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.24457139941017503</v>
       </c>
-      <c r="G2" s="115">
+      <c r="G2" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.23269074767298425</v>
       </c>
@@ -36434,23 +36432,23 @@
       <c r="B3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="115">
+      <c r="C3" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="D3" s="115">
+      <c r="D3" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="E3" s="115">
+      <c r="E3" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v>0.35908666207150708</v>
       </c>
-      <c r="F3" s="115">
+      <c r="F3" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v>0.37651189492768178</v>
       </c>
-      <c r="G3" s="115">
+      <c r="G3" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v>0.37372365733745416</v>
       </c>
@@ -36518,23 +36516,23 @@
       <c r="B8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="115">
+      <c r="C8" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="D8" s="115">
+      <c r="D8" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="E8" s="115">
+      <c r="E8" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.68355843805440353</v>
       </c>
-      <c r="F8" s="115">
+      <c r="F8" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.73228840888273117</v>
       </c>
-      <c r="G8" s="115">
+      <c r="G8" s="114">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.81212055177975573</v>
       </c>
@@ -36543,23 +36541,23 @@
       <c r="B9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="115">
+      <c r="C9" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="D9" s="115">
+      <c r="D9" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="E9" s="115">
+      <c r="E9" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v>0.2466938696379041</v>
       </c>
-      <c r="F9" s="115">
+      <c r="F9" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v>0.21506846670192739</v>
       </c>
-      <c r="G9" s="115">
+      <c r="G9" s="114">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v>0.15821429221536368</v>
       </c>
@@ -36710,55 +36708,55 @@
       <c r="B15" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="115">
+      <c r="C15" s="114">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D15" s="115">
+      <c r="D15" s="114">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E15" s="115">
+      <c r="E15" s="114">
         <f t="shared" si="0"/>
         <v>0.32801999999999998</v>
       </c>
-      <c r="F15" s="115">
+      <c r="F15" s="114">
         <f t="shared" si="0"/>
         <v>0.30639</v>
       </c>
-      <c r="G15" s="115">
+      <c r="G15" s="114">
         <f t="shared" si="0"/>
         <v>0.20314000000000002</v>
       </c>
-      <c r="H15" s="115">
+      <c r="H15" s="114">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="I15" s="115">
+      <c r="I15" s="114">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="J15" s="115">
+      <c r="J15" s="114">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="K15" s="115">
+      <c r="K15" s="114">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
-      <c r="L15" s="115">
+      <c r="L15" s="114">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="M15" s="115">
+      <c r="M15" s="114">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="N15" s="115">
+      <c r="N15" s="114">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="O15" s="115">
+      <c r="O15" s="114">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
@@ -36796,13 +36794,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -36893,23 +36891,23 @@
       <c r="B5" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="115">
+      <c r="C5" s="114">
         <f>1-SUM(C2:C4)</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="D5" s="115">
+      <c r="D5" s="114">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
         <v>2.4399366085578356E-2</v>
       </c>
-      <c r="E5" s="115">
+      <c r="E5" s="114">
         <f t="shared" si="0"/>
         <v>1.8961838681699872E-2</v>
       </c>
-      <c r="F5" s="115">
+      <c r="F5" s="114">
         <f t="shared" si="0"/>
         <v>0.27800000000000002</v>
       </c>
-      <c r="G5" s="115">
+      <c r="G5" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36932,13 +36930,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>133</v>
       </c>
@@ -37136,13 +37134,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -37212,18 +37210,18 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="28" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="19.21875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>151</v>
       </c>
@@ -37240,7 +37238,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>157</v>
       </c>
@@ -37258,8 +37256,8 @@
       <c r="B3" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="63" t="b">
-        <v>1</v>
+      <c r="C3" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="45" t="str">
@@ -37271,8 +37269,8 @@
       <c r="B4" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="63" t="b">
-        <v>1</v>
+      <c r="C4" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="45" t="str">
@@ -37284,8 +37282,8 @@
       <c r="B5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="63" t="b">
-        <v>1</v>
+      <c r="C5" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="45" t="str">
@@ -37297,8 +37295,8 @@
       <c r="B6" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="63" t="b">
-        <v>1</v>
+      <c r="C6" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="45" t="str">
@@ -37314,7 +37312,7 @@
       <c r="D7" s="33"/>
       <c r="E7" s="63"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>158</v>
       </c>
@@ -37322,9 +37320,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="63"/>
-      <c r="D9" s="63" t="b">
-        <v>0</v>
-      </c>
+      <c r="D9" s="63"/>
       <c r="E9" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37335,7 +37331,9 @@
         <v>109</v>
       </c>
       <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="D10" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E10" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37346,7 +37344,9 @@
         <v>96</v>
       </c>
       <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
+      <c r="D11" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37357,7 +37357,9 @@
         <v>97</v>
       </c>
       <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="D12" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E12" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37368,7 +37370,9 @@
         <v>98</v>
       </c>
       <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="D13" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37380,11 +37384,9 @@
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E14" s="63"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>159</v>
       </c>
@@ -37392,9 +37394,7 @@
         <v>100</v>
       </c>
       <c r="C16" s="63"/>
-      <c r="D16" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="D16" s="63"/>
       <c r="E16" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37431,9 +37431,7 @@
         <v>97</v>
       </c>
       <c r="C19" s="63"/>
-      <c r="D19" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="D19" s="63"/>
       <c r="E19" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37444,9 +37442,7 @@
         <v>98</v>
       </c>
       <c r="C20" s="63"/>
-      <c r="D20" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="D20" s="63"/>
       <c r="E20" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37478,15 +37474,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
@@ -37500,7 +37496,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>160</v>
       </c>
@@ -37512,7 +37508,7 @@
       </c>
       <c r="D2" s="63"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>164</v>
       </c>

--- a/inputs/fr/demo_region2_input.xlsx
+++ b/inputs/fr/demo_region2_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83369B33-72EE-4C70-8FBB-F134E3ABFD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10474BCC-4CD7-4751-8649-E2CFD661DF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -5091,7 +5091,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -6516,7 +6516,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -16731,12 +16731,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="nNsCUAKVVG1zkRvbSvGPcPaVUA98KocM1Sp7FJzdUekLIXQkECuPILGIVSTY6PghPNb3GKJ4WHVzIJgsJk8sZA==" saltValue="la+psoPk25L+fa0E/0jtJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16746,36 +16770,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -31293,8 +31293,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31353,13 +31353,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="103">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="103">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="103">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -31373,13 +31373,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="103">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="103">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="103">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31706,7 +31706,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="103">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="103">
         <v>0.62</v>
@@ -31749,7 +31749,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="103">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="103">
         <v>0.62</v>
@@ -31769,13 +31769,13 @@
         <v>334</v>
       </c>
       <c r="D21" s="103">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="103">
         <v>0</v>
       </c>
       <c r="F21" s="103">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="103">
         <v>0</v>
@@ -31795,7 +31795,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="103">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="103">
         <v>0</v>
@@ -31815,13 +31815,13 @@
         <v>334</v>
       </c>
       <c r="D23" s="103">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="103">
         <v>0</v>
       </c>
       <c r="F23" s="103">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="103">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="103">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="103">
         <v>0</v>
@@ -31861,13 +31861,13 @@
         <v>334</v>
       </c>
       <c r="D25" s="103">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="103">
         <v>0</v>
       </c>
       <c r="F25" s="103">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="103">
         <v>0</v>
@@ -31887,7 +31887,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="103">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="103">
         <v>0</v>
@@ -31913,7 +31913,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="103">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="103">
         <v>1</v>
@@ -31933,7 +31933,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="103">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="103">
         <v>0</v>
@@ -31953,7 +31953,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="103">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="103">
         <v>0</v>
@@ -31979,7 +31979,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="103">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="103">
         <v>1</v>
@@ -31999,7 +31999,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="103">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="103">
         <v>0</v>
@@ -32019,7 +32019,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="103">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="103">
         <v>0</v>
@@ -32045,7 +32045,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="103">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="103">
         <v>1</v>
@@ -32065,7 +32065,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="103">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="103">
         <v>0</v>
@@ -32085,7 +32085,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="103">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="103">
         <v>0</v>
@@ -32111,7 +32111,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="103">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="103">
         <v>1</v>
@@ -32131,7 +32131,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="103">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="103">
         <v>0</v>
@@ -32151,7 +32151,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="103">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="103">
         <v>0</v>
@@ -32177,7 +32177,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="103">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="103">
         <v>1</v>
@@ -32197,7 +32197,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="103">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="103">
         <v>0</v>
@@ -32217,7 +32217,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="103">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="103">
         <v>0</v>
@@ -32243,7 +32243,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="103">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="103">
         <v>0.3</v>
@@ -32263,7 +32263,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="103">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="103">
         <v>0.5</v>
@@ -32283,7 +32283,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="103">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="103">
         <v>0.65</v>
@@ -32306,7 +32306,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="103">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="103">
         <v>0.3</v>
@@ -32326,7 +32326,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="103">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="103">
         <v>0.49</v>
@@ -32346,7 +32346,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="103">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="103">
         <v>0.52</v>
@@ -32372,7 +32372,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="103">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="103">
         <v>0.88</v>
@@ -32386,19 +32386,19 @@
         <v>335</v>
       </c>
       <c r="D49" s="103">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="103">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="103">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="103">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="103">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32412,19 +32412,19 @@
         <v>334</v>
       </c>
       <c r="D50" s="103">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="103">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="103">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="103">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="103">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -32438,7 +32438,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="103">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="103">
         <v>0.86</v>
@@ -32464,7 +32464,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="103">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="103">
         <v>0</v>
@@ -32484,7 +32484,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="103">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="103">
         <v>0</v>
@@ -32546,15 +32546,15 @@
       </c>
       <c r="F57" s="103">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="103">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="103">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -32571,15 +32571,15 @@
       </c>
       <c r="F58" s="103">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="103">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="103">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -32979,7 +32979,7 @@
       </c>
       <c r="F73" s="103">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="103">
         <f t="shared" si="5"/>
@@ -33032,7 +33032,7 @@
       </c>
       <c r="F75" s="103">
         <f t="shared" si="7"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="103">
         <f t="shared" si="7"/>
@@ -33055,7 +33055,7 @@
       </c>
       <c r="D76" s="103">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="103">
         <f t="shared" si="8"/>
@@ -33063,7 +33063,7 @@
       </c>
       <c r="F76" s="103">
         <f t="shared" si="8"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="103">
         <f t="shared" si="8"/>
@@ -33088,7 +33088,7 @@
       </c>
       <c r="F77" s="103">
         <f t="shared" si="9"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="103">
         <f t="shared" si="9"/>
@@ -33111,7 +33111,7 @@
       </c>
       <c r="D78" s="103">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="103">
         <f t="shared" si="10"/>
@@ -33119,7 +33119,7 @@
       </c>
       <c r="F78" s="103">
         <f t="shared" si="10"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="103">
         <f t="shared" si="10"/>
@@ -33144,7 +33144,7 @@
       </c>
       <c r="F79" s="103">
         <f t="shared" si="11"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="103">
         <f t="shared" si="11"/>
@@ -33167,7 +33167,7 @@
       </c>
       <c r="D80" s="103">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="103">
         <f t="shared" si="12"/>
@@ -33175,7 +33175,7 @@
       </c>
       <c r="F80" s="103">
         <f t="shared" si="12"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="103">
         <f t="shared" si="12"/>
@@ -33200,7 +33200,7 @@
       </c>
       <c r="F81" s="103">
         <f t="shared" si="13"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="103">
         <f t="shared" si="13"/>
@@ -33231,7 +33231,7 @@
       </c>
       <c r="F82" s="103">
         <f t="shared" si="14"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="103">
         <f t="shared" si="14"/>
@@ -33256,7 +33256,7 @@
       </c>
       <c r="F83" s="103">
         <f t="shared" si="15"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="103">
         <f t="shared" si="15"/>
@@ -33281,7 +33281,7 @@
       </c>
       <c r="F84" s="103">
         <f t="shared" si="16"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="103">
         <f t="shared" si="16"/>
@@ -33312,7 +33312,7 @@
       </c>
       <c r="F85" s="103">
         <f t="shared" si="17"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="103">
         <f t="shared" si="17"/>
@@ -33337,7 +33337,7 @@
       </c>
       <c r="F86" s="103">
         <f t="shared" si="18"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="103">
         <f t="shared" si="18"/>
@@ -33362,7 +33362,7 @@
       </c>
       <c r="F87" s="103">
         <f t="shared" si="19"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="103">
         <f t="shared" si="19"/>
@@ -33393,7 +33393,7 @@
       </c>
       <c r="F88" s="103">
         <f t="shared" si="20"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="103">
         <f t="shared" si="20"/>
@@ -33418,7 +33418,7 @@
       </c>
       <c r="F89" s="103">
         <f t="shared" si="21"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="103">
         <f t="shared" si="21"/>
@@ -33443,7 +33443,7 @@
       </c>
       <c r="F90" s="103">
         <f t="shared" si="22"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="103">
         <f t="shared" si="22"/>
@@ -33474,7 +33474,7 @@
       </c>
       <c r="F91" s="103">
         <f t="shared" si="23"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="103">
         <f t="shared" si="23"/>
@@ -33499,7 +33499,7 @@
       </c>
       <c r="F92" s="103">
         <f t="shared" si="24"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="103">
         <f t="shared" si="24"/>
@@ -33524,7 +33524,7 @@
       </c>
       <c r="F93" s="103">
         <f t="shared" si="25"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="103">
         <f t="shared" si="25"/>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="F94" s="103">
         <f t="shared" si="26"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="103">
         <f t="shared" si="26"/>
@@ -33580,7 +33580,7 @@
       </c>
       <c r="F95" s="103">
         <f t="shared" si="27"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="103">
         <f t="shared" si="27"/>
@@ -33605,7 +33605,7 @@
       </c>
       <c r="F96" s="103">
         <f t="shared" si="28"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="103">
         <f t="shared" si="28"/>
@@ -33636,7 +33636,7 @@
       </c>
       <c r="F97" s="103">
         <f t="shared" si="29"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="103">
         <f t="shared" si="29"/>
@@ -33661,7 +33661,7 @@
       </c>
       <c r="F98" s="103">
         <f t="shared" si="30"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="103">
         <f t="shared" si="30"/>
@@ -33686,7 +33686,7 @@
       </c>
       <c r="F99" s="103">
         <f t="shared" si="31"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="103">
         <f t="shared" si="31"/>
@@ -33714,7 +33714,7 @@
       </c>
       <c r="F100" s="103">
         <f t="shared" si="32"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="103">
         <f t="shared" si="32"/>
@@ -33739,7 +33739,7 @@
       </c>
       <c r="F101" s="103">
         <f t="shared" si="33"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="103">
         <f t="shared" si="33"/>
@@ -33764,7 +33764,7 @@
       </c>
       <c r="F102" s="103">
         <f t="shared" si="34"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="103">
         <f t="shared" si="34"/>
@@ -33795,7 +33795,7 @@
       </c>
       <c r="F103" s="103">
         <f t="shared" si="35"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="103">
         <f t="shared" si="35"/>
@@ -33812,23 +33812,23 @@
       </c>
       <c r="D104" s="103">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="103">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="103">
         <f t="shared" si="36"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="103">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="103">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -33843,23 +33843,23 @@
       </c>
       <c r="D105" s="103">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="103">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="103">
         <f t="shared" si="37"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="103">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="103">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -33876,7 +33876,7 @@
       </c>
       <c r="F106" s="103">
         <f t="shared" si="38"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="103">
         <f t="shared" si="38"/>
@@ -33907,7 +33907,7 @@
       </c>
       <c r="F107" s="103">
         <f t="shared" si="39"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="103">
         <f t="shared" si="39"/>
@@ -33932,7 +33932,7 @@
       </c>
       <c r="F108" s="103">
         <f t="shared" si="40"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="103">
         <f t="shared" si="40"/>
@@ -33996,15 +33996,15 @@
       </c>
       <c r="F112" s="103">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="103">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="103">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -34021,15 +34021,15 @@
       </c>
       <c r="F113" s="103">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="103">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="103">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -34429,7 +34429,7 @@
       </c>
       <c r="F128" s="103">
         <f t="shared" si="46"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="103">
         <f t="shared" si="46"/>
@@ -34482,7 +34482,7 @@
       </c>
       <c r="F130" s="103">
         <f t="shared" si="48"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="103">
         <f t="shared" si="48"/>
@@ -34505,7 +34505,7 @@
       </c>
       <c r="D131" s="103">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="103">
         <f t="shared" si="49"/>
@@ -34513,7 +34513,7 @@
       </c>
       <c r="F131" s="103">
         <f t="shared" si="49"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="103">
         <f t="shared" si="49"/>
@@ -34538,7 +34538,7 @@
       </c>
       <c r="F132" s="103">
         <f t="shared" si="50"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="103">
         <f t="shared" si="50"/>
@@ -34561,7 +34561,7 @@
       </c>
       <c r="D133" s="103">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="103">
         <f t="shared" si="51"/>
@@ -34569,7 +34569,7 @@
       </c>
       <c r="F133" s="103">
         <f t="shared" si="51"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="103">
         <f t="shared" si="51"/>
@@ -34594,7 +34594,7 @@
       </c>
       <c r="F134" s="103">
         <f t="shared" si="52"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="103">
         <f t="shared" si="52"/>
@@ -34617,7 +34617,7 @@
       </c>
       <c r="D135" s="103">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="103">
         <f t="shared" si="53"/>
@@ -34625,7 +34625,7 @@
       </c>
       <c r="F135" s="103">
         <f t="shared" si="53"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="103">
         <f t="shared" si="53"/>
@@ -34650,7 +34650,7 @@
       </c>
       <c r="F136" s="103">
         <f t="shared" si="54"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="103">
         <f t="shared" si="54"/>
@@ -34681,7 +34681,7 @@
       </c>
       <c r="F137" s="103">
         <f t="shared" si="55"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="103">
         <f t="shared" si="55"/>
@@ -34706,7 +34706,7 @@
       </c>
       <c r="F138" s="103">
         <f t="shared" si="56"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="103">
         <f t="shared" si="56"/>
@@ -34731,7 +34731,7 @@
       </c>
       <c r="F139" s="103">
         <f t="shared" si="57"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="103">
         <f t="shared" si="57"/>
@@ -34762,7 +34762,7 @@
       </c>
       <c r="F140" s="103">
         <f t="shared" si="58"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="103">
         <f t="shared" si="58"/>
@@ -34787,7 +34787,7 @@
       </c>
       <c r="F141" s="103">
         <f t="shared" si="59"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="103">
         <f t="shared" si="59"/>
@@ -34812,7 +34812,7 @@
       </c>
       <c r="F142" s="103">
         <f t="shared" si="60"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="103">
         <f t="shared" si="60"/>
@@ -34843,7 +34843,7 @@
       </c>
       <c r="F143" s="103">
         <f t="shared" si="61"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="103">
         <f t="shared" si="61"/>
@@ -34868,7 +34868,7 @@
       </c>
       <c r="F144" s="103">
         <f t="shared" si="62"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="103">
         <f t="shared" si="62"/>
@@ -34893,7 +34893,7 @@
       </c>
       <c r="F145" s="103">
         <f t="shared" si="63"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="103">
         <f t="shared" si="63"/>
@@ -34924,7 +34924,7 @@
       </c>
       <c r="F146" s="103">
         <f t="shared" si="64"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="103">
         <f t="shared" si="64"/>
@@ -34949,7 +34949,7 @@
       </c>
       <c r="F147" s="103">
         <f t="shared" si="65"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="103">
         <f t="shared" si="65"/>
@@ -34974,7 +34974,7 @@
       </c>
       <c r="F148" s="103">
         <f t="shared" si="66"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="103">
         <f t="shared" si="66"/>
@@ -35005,7 +35005,7 @@
       </c>
       <c r="F149" s="103">
         <f t="shared" si="67"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="103">
         <f t="shared" si="67"/>
@@ -35030,7 +35030,7 @@
       </c>
       <c r="F150" s="103">
         <f t="shared" si="68"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="103">
         <f t="shared" si="68"/>
@@ -35055,7 +35055,7 @@
       </c>
       <c r="F151" s="103">
         <f t="shared" si="69"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="103">
         <f t="shared" si="69"/>
@@ -35086,7 +35086,7 @@
       </c>
       <c r="F152" s="103">
         <f t="shared" si="70"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="103">
         <f t="shared" si="70"/>
@@ -35111,7 +35111,7 @@
       </c>
       <c r="F153" s="103">
         <f t="shared" si="71"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="103">
         <f t="shared" si="71"/>
@@ -35136,7 +35136,7 @@
       </c>
       <c r="F154" s="103">
         <f t="shared" si="72"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="103">
         <f t="shared" si="72"/>
@@ -35164,7 +35164,7 @@
       </c>
       <c r="F155" s="103">
         <f t="shared" si="73"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="103">
         <f t="shared" si="73"/>
@@ -35189,7 +35189,7 @@
       </c>
       <c r="F156" s="103">
         <f t="shared" si="74"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="103">
         <f t="shared" si="74"/>
@@ -35214,7 +35214,7 @@
       </c>
       <c r="F157" s="103">
         <f t="shared" si="75"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="103">
         <f t="shared" si="75"/>
@@ -35245,7 +35245,7 @@
       </c>
       <c r="F158" s="103">
         <f t="shared" si="76"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="103">
         <f t="shared" si="76"/>
@@ -35262,23 +35262,23 @@
       </c>
       <c r="D159" s="103">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="103">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="103">
         <f t="shared" si="77"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="103">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="103">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -35293,23 +35293,23 @@
       </c>
       <c r="D160" s="103">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="103">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="103">
         <f t="shared" si="78"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="103">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="103">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -35326,7 +35326,7 @@
       </c>
       <c r="F161" s="103">
         <f t="shared" si="79"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="103">
         <f t="shared" si="79"/>
@@ -35357,7 +35357,7 @@
       </c>
       <c r="F162" s="103">
         <f t="shared" si="80"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="103">
         <f t="shared" si="80"/>
@@ -35382,7 +35382,7 @@
       </c>
       <c r="F163" s="103">
         <f t="shared" si="81"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="103">
         <f t="shared" si="81"/>

--- a/inputs/fr/demo_region2_input.xlsx
+++ b/inputs/fr/demo_region2_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7349EEB2-3626-4F52-BF05-99D520A0A172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A859EB5F-33B0-4C47-A6F4-146208D0FDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28230" yWindow="720" windowWidth="21600" windowHeight="11175" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14775" yWindow="-16860" windowWidth="21600" windowHeight="12525" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -889,7 +889,7 @@
     <t>Enfant 12-23 mois</t>
   </si>
   <si>
-    <t>24-59 mois</t>
+    <t>Enfant 24-59 mois</t>
   </si>
   <si>
     <t>Femmes enceintes</t>
@@ -1087,7 +1087,7 @@
     <t>Mode de livraison</t>
   </si>
   <si>
-    <t>Gestion de la MM</t>
+    <t>Gestion de la MAM</t>
   </si>
   <si>
     <t>Couverture à saturation de la population cible</t>
@@ -1210,7 +1210,7 @@
     <t>Petite quantité de supplémentation en nutriments à base de lipides</t>
   </si>
   <si>
-    <t>Dépendance incompatible</t>
+    <t>Dépendance d'exclusion</t>
   </si>
   <si>
     <t>Dépendance de seuil</t>
@@ -1608,7 +1608,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1778,6 +1778,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2640,7 +2646,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2911,6 +2917,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="725" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5556,7 +5565,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UIyLid5P7J/zIxexWY+NRxeccRHiSbkBRotFPyf7KXJBjoUzttiH4sFwn2UkUBghaWE5heLSAAKgw7XVq7iD6Q==" saltValue="pCPLrB+KYWuvTOSOsqupDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BMMNaNwdMc48h13FBTC6PmJoBQ79TZyAaoCQoyIPY217B9GatXOhaGflRW08gwBzXt0/G6z1bBZaECQ7IQN6Cg==" saltValue="GwTm78JLyBO0LBU4h5/qJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6485,7 +6494,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mp+Dm4EgUdrjy7wSWCHPIk2B6F3xVsKHej0UZDg/CSxdUSVjik3LbNrN3eBAb4pqKs+EsJbloQdnbZpqnK2YiQ==" saltValue="TEMZlnXDbvfpPWw1L++J2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="v3oiSNdpyDK9unsnGfaWDhaa5+cnezA/cHWZbJs0hwicM3FR1bg16IFg316Wa4SRQ4uxC3t9i3WDLQx+KreR2w==" saltValue="0zVBTjVQChR9YnBnW3ypzg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6537,7 +6546,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>180</v>
       </c>
@@ -6546,7 +6555,7 @@
       </c>
       <c r="C2" s="62"/>
     </row>
-    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>181</v>
       </c>
@@ -6555,7 +6564,7 @@
       </c>
       <c r="C3" s="62"/>
     </row>
-    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
         <v>192</v>
       </c>
@@ -6564,7 +6573,7 @@
       </c>
       <c r="C4" s="62"/>
     </row>
-    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
         <v>189</v>
       </c>
@@ -6573,83 +6582,83 @@
       </c>
       <c r="C5" s="62"/>
     </row>
-    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
     </row>
-    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="66"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
     </row>
-    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="66"/>
       <c r="B8" s="67"/>
       <c r="C8" s="67"/>
     </row>
-    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="66"/>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
     </row>
-    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="66"/>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
     </row>
-    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="68"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
     </row>
-    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
     </row>
-    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="68"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
     </row>
-    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="68"/>
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
     </row>
-    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="68"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
     </row>
-    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="68"/>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
     </row>
-    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="68"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
     </row>
-    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="68"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
     </row>
-    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="66"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
     </row>
-    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="66"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0eDm7I7Ur21M9BVuLI3zPxBvsQcW6ym5vcSbpNOalpPCoK9+A9gmWMTBuYhIZfzHwjtSMVL7BR5cu2KofiqRYQ==" saltValue="npZ9otLt6InES7rSL/M0Mg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EgBzf+v1uaX3/FqAOL7LpL1EVzGimT6djGzwnn99aNBw1Z03FuAwF1V59VJbLb7dJle0F5Rr2w75tM477PR4dw==" saltValue="+SHtiTJkVvyuqzB9DzI6bg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6678,78 +6687,78 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
     </row>
-    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
     </row>
-    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
     </row>
-    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
     </row>
-    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
     </row>
-    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
     </row>
-    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
     </row>
-    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
     </row>
-    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
     </row>
-    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U1sj2xcRQbuT/VKv6WnxE8pcofpoOxb1J64kMpxmpl9Uf4B/JBGzSDVIU8/wD2YMP2d/qHD9QoJr2hC2N62InA==" saltValue="h4+yjIlRTMJqZu3a6NP3wA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rFm+6EHZNiBDOFull9sKch2+fOnK/aOcdcXe5xCj2jrFVzLyil+WVif34wc1gddMU+146DVH4PnKKcUhQJmGpQ==" saltValue="fhq13+uTICESrjztLNCzpg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6864,7 +6873,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AnUI9wa54SridYqlK2h6u/XprJhzQGZJBwmzltrysbaJJZJq5Z3kAdjspGISGtA2UfwiMQDURwco70FmI7ktDw==" saltValue="eUvrpXA4NmU5BLfvbDx+Pg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NVHRkGh1TVCEd0WI07j69Xl0oWRZ90HWXlLulZ8Xv5q6/13iFXGU5W3Zh8YU2dslqPR5aNyNF2We6kvhVEQz7Q==" saltValue="AbfJyEImtyODWTFjYmh4Jw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8625,7 +8634,7 @@
       <c r="B40" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tYh4WLQCDc3eAbfnuVu84AyC1nokLvbhKxi7ceeviaCfYPHpqu18Cffxd4CDWZecNqoNmN0bKKqlu42i0tAo6Q==" saltValue="iub95Sj0gx5CS0AVCB+LaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="abcbK/U9cZrj4ud/Vt8gusmXzYp659K6CFKuLS1Fbg5QYMJU0XuMaKM5Qp+LRecsOWpmY2FG7ozBVmkvcJGwwg==" saltValue="gU9l73aXfPiyCAW5y7n0Ag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8665,7 +8674,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9yKSV8IVDINS1b9YZtM/gBMFRgA5Eo4d6C4HL349a5dWnCRdYvzlMO49bEk5+6uV1/xB0b6boTpuhj1fNxlp/w==" saltValue="K413YpQAu+1Jvzdl4aLfVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="je3jyrclFVkWzEzLByH6NumMuwkrix17Mq31T5sGEjc47VOLluTqAAKlU7qlVUzpGKsFp4x6fYQ6OQfegKZN4w==" saltValue="Z93qZKa99oBiUJ/TKjssmA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8870,7 +8879,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qYfbvFptOayie50YXlFcjVRcqyFrInqJOEyTzC98KvpAq4drs7VzMDzfpJHhDzR3s0WS49jiRRs8BB1+7feuww==" saltValue="Xqm/gSa3ud9z4kJodD4DRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0tsJzYD0rfT/kViRL0mxy7x252li48vgCY4+fIo/KFWpK9nvPCxzN3d8KEVrahTP0Y0pqYHBDeoxZN0bsn1+IQ==" saltValue="cZ3rr9bFVcnk29rMAXyB2g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10684,7 +10693,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fAej8Gad52hDJu21RCgCWAyx4F6Bx47e1jQG1jpFcVX2fdVEy74PyKMp7oPPUvP3byQD4GHtFiBuPnoF5cENPQ==" saltValue="uXzj/ZUHZlb2RhL4pG4nUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/vNORxC/CcEkoaJJVnNfkt60fKELvFgk9M5LCRN4U4O+t1Wlci5vdqmZpxvvTQbLFELN+a4ITfdZCkdVHfHiRQ==" saltValue="L8ZcouiOjpazrQTNcnogOA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10750,7 +10759,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>168</v>
       </c>
@@ -10767,7 +10776,7 @@
       <c r="J2" s="101"/>
       <c r="K2" s="101"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>169</v>
       </c>
@@ -10784,7 +10793,7 @@
       <c r="J3" s="101"/>
       <c r="K3" s="101"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>170</v>
       </c>
@@ -10801,7 +10810,7 @@
       <c r="J4" s="101"/>
       <c r="K4" s="101"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>171</v>
       </c>
@@ -10818,7 +10827,7 @@
       <c r="J5" s="101"/>
       <c r="K5" s="101"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>172</v>
       </c>
@@ -10837,7 +10846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>173</v>
       </c>
@@ -10856,7 +10865,7 @@
       <c r="J7" s="101"/>
       <c r="K7" s="101"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>174</v>
       </c>
@@ -10875,7 +10884,7 @@
       <c r="J8" s="101"/>
       <c r="K8" s="101"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>175</v>
       </c>
@@ -10894,7 +10903,7 @@
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>176</v>
       </c>
@@ -10911,7 +10920,7 @@
       <c r="J10" s="101"/>
       <c r="K10" s="101"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>177</v>
       </c>
@@ -10928,7 +10937,7 @@
       <c r="J11" s="101"/>
       <c r="K11" s="101"/>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>178</v>
       </c>
@@ -10945,7 +10954,7 @@
       <c r="J12" s="101"/>
       <c r="K12" s="101"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>179</v>
       </c>
@@ -10962,7 +10971,7 @@
       <c r="J13" s="101"/>
       <c r="K13" s="101"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="72" t="s">
         <v>180</v>
       </c>
@@ -10981,7 +10990,7 @@
       <c r="J14" s="101"/>
       <c r="K14" s="101"/>
     </row>
-    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="72" t="s">
         <v>181</v>
       </c>
@@ -11000,7 +11009,7 @@
       <c r="J15" s="101"/>
       <c r="K15" s="101"/>
     </row>
-    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>182</v>
       </c>
@@ -11021,7 +11030,7 @@
       <c r="J16" s="101"/>
       <c r="K16" s="101"/>
     </row>
-    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>183</v>
       </c>
@@ -11038,7 +11047,7 @@
       <c r="J17" s="101"/>
       <c r="K17" s="101"/>
     </row>
-    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>157</v>
       </c>
@@ -11057,7 +11066,7 @@
       <c r="J18" s="101"/>
       <c r="K18" s="101"/>
     </row>
-    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>158</v>
       </c>
@@ -11076,7 +11085,7 @@
       <c r="J19" s="101"/>
       <c r="K19" s="101"/>
     </row>
-    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>159</v>
       </c>
@@ -11095,7 +11104,7 @@
       <c r="J20" s="101"/>
       <c r="K20" s="101"/>
     </row>
-    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>184</v>
       </c>
@@ -11114,7 +11123,7 @@
       <c r="J21" s="101"/>
       <c r="K21" s="101"/>
     </row>
-    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>185</v>
       </c>
@@ -11135,7 +11144,7 @@
       <c r="J22" s="101"/>
       <c r="K22" s="101"/>
     </row>
-    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>186</v>
       </c>
@@ -11154,7 +11163,7 @@
       <c r="J23" s="101"/>
       <c r="K23" s="101"/>
     </row>
-    <row r="24" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>187</v>
       </c>
@@ -11171,7 +11180,7 @@
       <c r="J24" s="101"/>
       <c r="K24" s="101"/>
     </row>
-    <row r="25" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>188</v>
       </c>
@@ -11188,7 +11197,7 @@
       <c r="J25" s="101"/>
       <c r="K25" s="101"/>
     </row>
-    <row r="26" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>189</v>
       </c>
@@ -11205,7 +11214,7 @@
       <c r="J26" s="101"/>
       <c r="K26" s="101"/>
     </row>
-    <row r="27" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>190</v>
       </c>
@@ -11224,7 +11233,7 @@
       <c r="J27" s="101"/>
       <c r="K27" s="101"/>
     </row>
-    <row r="28" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>191</v>
       </c>
@@ -11241,7 +11250,7 @@
       <c r="J28" s="101"/>
       <c r="K28" s="101"/>
     </row>
-    <row r="29" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>192</v>
       </c>
@@ -11260,7 +11269,7 @@
       <c r="J29" s="101"/>
       <c r="K29" s="101"/>
     </row>
-    <row r="30" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>205</v>
       </c>
@@ -11281,7 +11290,7 @@
       <c r="J30" s="101"/>
       <c r="K30" s="101"/>
     </row>
-    <row r="31" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>161</v>
       </c>
@@ -11298,7 +11307,7 @@
       <c r="J31" s="101"/>
       <c r="K31" s="101"/>
     </row>
-    <row r="32" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
         <v>193</v>
       </c>
@@ -11317,7 +11326,7 @@
       <c r="J32" s="101"/>
       <c r="K32" s="101"/>
     </row>
-    <row r="33" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
         <v>194</v>
       </c>
@@ -11336,7 +11345,7 @@
       <c r="J33" s="101"/>
       <c r="K33" s="101"/>
     </row>
-    <row r="34" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="s">
         <v>195</v>
       </c>
@@ -11355,7 +11364,7 @@
       <c r="J34" s="101"/>
       <c r="K34" s="101"/>
     </row>
-    <row r="35" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
         <v>196</v>
       </c>
@@ -11374,7 +11383,7 @@
       <c r="J35" s="101"/>
       <c r="K35" s="101"/>
     </row>
-    <row r="36" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
         <v>197</v>
       </c>
@@ -11393,7 +11402,7 @@
       <c r="J36" s="101"/>
       <c r="K36" s="101"/>
     </row>
-    <row r="37" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
         <v>198</v>
       </c>
@@ -11412,7 +11421,7 @@
       <c r="J37" s="101"/>
       <c r="K37" s="101"/>
     </row>
-    <row r="38" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
         <v>199</v>
       </c>
@@ -11429,7 +11438,7 @@
       <c r="J38" s="101"/>
       <c r="K38" s="101"/>
     </row>
-    <row r="39" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
         <v>200</v>
       </c>
@@ -11451,7 +11460,7 @@
       <c r="K39" s="101"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="diib4z9WjFWtjbEWhNDeufXhLKPFCCcl5F9REuMlzh9Sh/GsSPi0jwpZt2HdtkZkuNKdY9yoF+1D1mLENZvaUg==" saltValue="z6uujLmMKELUvkGu+onkzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ddMZyfmNgszQM3++m4UiMqN6x+72Qtq7eNEXk6GVij3+m3BZ9cc38L+o/ZI3CDKF66pp4KikkGyRLIrjjpFObQ==" saltValue="9Rsu0r+54HvMXCAWtQ2yvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11517,7 +11526,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>109</v>
       </c>
@@ -11546,7 +11555,7 @@
       <c r="J2" s="101"/>
       <c r="K2" s="101"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>96</v>
       </c>
@@ -11575,7 +11584,7 @@
       <c r="J3" s="101"/>
       <c r="K3" s="101"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>97</v>
       </c>
@@ -11604,7 +11613,7 @@
       <c r="J4" s="101"/>
       <c r="K4" s="101"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>98</v>
       </c>
@@ -11633,7 +11642,7 @@
       <c r="J5" s="101"/>
       <c r="K5" s="101"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>99</v>
       </c>
@@ -11662,7 +11671,7 @@
       <c r="J6" s="101"/>
       <c r="K6" s="101"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>122</v>
       </c>
@@ -11683,7 +11692,7 @@
       <c r="J7" s="101"/>
       <c r="K7" s="101"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>123</v>
       </c>
@@ -11704,7 +11713,7 @@
       <c r="J8" s="101"/>
       <c r="K8" s="101"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>124</v>
       </c>
@@ -11725,7 +11734,7 @@
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>125</v>
       </c>
@@ -11746,7 +11755,7 @@
       <c r="J10" s="101"/>
       <c r="K10" s="101"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>70</v>
       </c>
@@ -11767,7 +11776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>71</v>
       </c>
@@ -11786,7 +11795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>72</v>
       </c>
@@ -11805,7 +11814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>73</v>
       </c>
@@ -11825,7 +11834,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jk4n7Z4n+gxFisqWoi9QjFEznzVXhTGYHoP0TzdOudRbpFcgZ27ELHfBhLABUrCKQUOmHZmpC8j9B9wAR23Ojg==" saltValue="0/ygh+3N5W7QjEBV9IQBKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8RygWsi0pZGbq8blrCPlKHJgh04PJ6Ll2PE2LGhRARJFEjJ2ERdvHsFiZKVQax3L+0S9gy6I9ZWeuuNU55KjIQ==" saltValue="I1AAACFvdn99lDWYLwJQLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12914,7 +12923,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hWQau3jxcs1xWUcCcB7smrcTSdCKG4yBWYsLfHtov/vfHbhOD4L71SUJ2F6Szu1ZzFsjol/VAhYJjHG79jfsAg==" saltValue="DlEKfIeNROFd4BnFx03o5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7yPh8542LAHRXM1YRWjjoyYUEQJXK47XCdol7EwKCFBgzhTTKG2WG4HX8auy2ybnPEXtsOCTbOMbi+QY5W1Y8Q==" saltValue="xJw1cvoqYgjA2sQbTpH9+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12974,7 +12983,7 @@
       <c r="A2" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -12996,8 +13005,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="117"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="118"/>
       <c r="C3" s="27" t="s">
         <v>154</v>
       </c>
@@ -13018,8 +13027,8 @@
       </c>
       <c r="J3" s="75"/>
     </row>
-    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="117"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="118"/>
       <c r="C4" s="27" t="s">
         <v>155</v>
       </c>
@@ -13040,8 +13049,8 @@
       </c>
       <c r="J4" s="75"/>
     </row>
-    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="117" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -13064,8 +13073,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="117"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="118"/>
       <c r="C6" s="27" t="s">
         <v>154</v>
       </c>
@@ -13085,8 +13094,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="117"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="118"/>
       <c r="C7" s="27" t="s">
         <v>155</v>
       </c>
@@ -13106,8 +13115,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="117" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -13129,8 +13138,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="117"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="118"/>
       <c r="C9" s="27" t="s">
         <v>154</v>
       </c>
@@ -13150,8 +13159,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="117"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="118"/>
       <c r="C10" s="27" t="s">
         <v>155</v>
       </c>
@@ -13171,8 +13180,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="117" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -13194,8 +13203,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="117"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="118"/>
       <c r="C12" s="27" t="s">
         <v>154</v>
       </c>
@@ -13215,8 +13224,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="117"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="118"/>
       <c r="C13" s="27" t="s">
         <v>155</v>
       </c>
@@ -13236,8 +13245,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="117" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -13259,8 +13268,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="117"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="118"/>
       <c r="C15" s="27" t="s">
         <v>154</v>
       </c>
@@ -13280,8 +13289,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="117"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="118"/>
       <c r="C16" s="27" t="s">
         <v>155</v>
       </c>
@@ -13324,7 +13333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="100"/>
       <c r="E18" s="100"/>
       <c r="F18" s="100"/>
@@ -13335,7 +13344,7 @@
       <c r="A19" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -13357,8 +13366,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="117"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="118"/>
       <c r="C20" s="27" t="s">
         <v>154</v>
       </c>
@@ -13378,8 +13387,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="117"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="118"/>
       <c r="C21" s="27" t="s">
         <v>155</v>
       </c>
@@ -13399,8 +13408,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="117" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -13422,8 +13431,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="117"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="118"/>
       <c r="C23" s="27" t="s">
         <v>154</v>
       </c>
@@ -13443,8 +13452,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="117"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="118"/>
       <c r="C24" s="27" t="s">
         <v>155</v>
       </c>
@@ -13464,8 +13473,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="117" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="27" t="s">
@@ -13487,8 +13496,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="117"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="118"/>
       <c r="C26" s="27" t="s">
         <v>154</v>
       </c>
@@ -13508,8 +13517,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="117"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="118"/>
       <c r="C27" s="27" t="s">
         <v>155</v>
       </c>
@@ -13529,8 +13538,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="117" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -13552,8 +13561,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="117"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="118"/>
       <c r="C29" s="27" t="s">
         <v>154</v>
       </c>
@@ -13573,8 +13582,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="117"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="118"/>
       <c r="C30" s="27" t="s">
         <v>155</v>
       </c>
@@ -13594,8 +13603,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="117" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="27" t="s">
@@ -13617,8 +13626,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B32" s="117"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="118"/>
       <c r="C32" s="27" t="s">
         <v>154</v>
       </c>
@@ -13638,8 +13647,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="117"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="118"/>
       <c r="C33" s="27" t="s">
         <v>155</v>
       </c>
@@ -13682,7 +13691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="100"/>
       <c r="E35" s="100"/>
       <c r="F35" s="100"/>
@@ -13693,7 +13702,7 @@
       <c r="A36" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="117" t="s">
+      <c r="B36" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="27" t="s">
@@ -13715,8 +13724,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B37" s="117"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="118"/>
       <c r="C37" s="27" t="s">
         <v>154</v>
       </c>
@@ -13736,8 +13745,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B38" s="117"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="118"/>
       <c r="C38" s="27" t="s">
         <v>155</v>
       </c>
@@ -13757,8 +13766,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="117" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -13780,8 +13789,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B40" s="117"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="118"/>
       <c r="C40" s="27" t="s">
         <v>154</v>
       </c>
@@ -13801,8 +13810,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B41" s="117"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="118"/>
       <c r="C41" s="27" t="s">
         <v>155</v>
       </c>
@@ -13822,8 +13831,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B42" s="117" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="27" t="s">
@@ -13845,8 +13854,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B43" s="117"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="118"/>
       <c r="C43" s="27" t="s">
         <v>154</v>
       </c>
@@ -13866,8 +13875,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B44" s="117"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="118"/>
       <c r="C44" s="27" t="s">
         <v>155</v>
       </c>
@@ -13887,8 +13896,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B45" s="117" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="27" t="s">
@@ -13910,8 +13919,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B46" s="117"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="118"/>
       <c r="C46" s="27" t="s">
         <v>154</v>
       </c>
@@ -13931,8 +13940,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="117"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="118"/>
       <c r="C47" s="27" t="s">
         <v>155</v>
       </c>
@@ -13952,8 +13961,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B48" s="117" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="27" t="s">
@@ -13975,8 +13984,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="117"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="118"/>
       <c r="C49" s="27" t="s">
         <v>154</v>
       </c>
@@ -13996,8 +14005,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B50" s="117"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="118"/>
       <c r="C50" s="27" t="s">
         <v>155</v>
       </c>
@@ -14082,7 +14091,7 @@
       <c r="A55" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="117" t="s">
+      <c r="B55" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="27" t="s">
@@ -14109,8 +14118,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B56" s="117"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="118"/>
       <c r="C56" s="27" t="s">
         <v>154</v>
       </c>
@@ -14135,8 +14144,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B57" s="117"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="118"/>
       <c r="C57" s="27" t="s">
         <v>155</v>
       </c>
@@ -14161,8 +14170,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B58" s="117" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="27" t="s">
@@ -14189,8 +14198,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B59" s="117"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="118"/>
       <c r="C59" s="27" t="s">
         <v>154</v>
       </c>
@@ -14215,8 +14224,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B60" s="117"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="118"/>
       <c r="C60" s="27" t="s">
         <v>155</v>
       </c>
@@ -14241,8 +14250,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B61" s="117" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="27" t="s">
@@ -14269,8 +14278,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B62" s="117"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="118"/>
       <c r="C62" s="27" t="s">
         <v>154</v>
       </c>
@@ -14295,8 +14304,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B63" s="117"/>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="118"/>
       <c r="C63" s="27" t="s">
         <v>155</v>
       </c>
@@ -14321,8 +14330,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B64" s="117" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="27" t="s">
@@ -14349,8 +14358,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B65" s="117"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="118"/>
       <c r="C65" s="27" t="s">
         <v>154</v>
       </c>
@@ -14375,8 +14384,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B66" s="117"/>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="118"/>
       <c r="C66" s="27" t="s">
         <v>155</v>
       </c>
@@ -14401,8 +14410,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B67" s="117" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="27" t="s">
@@ -14429,8 +14438,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B68" s="117"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="118"/>
       <c r="C68" s="27" t="s">
         <v>154</v>
       </c>
@@ -14455,8 +14464,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B69" s="117"/>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="118"/>
       <c r="C69" s="27" t="s">
         <v>155</v>
       </c>
@@ -14509,7 +14518,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D71" s="100"/>
       <c r="E71" s="100"/>
       <c r="F71" s="100"/>
@@ -14520,7 +14529,7 @@
       <c r="A72" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="117" t="s">
+      <c r="B72" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="27" t="s">
@@ -14547,8 +14556,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B73" s="117"/>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="118"/>
       <c r="C73" s="27" t="s">
         <v>154</v>
       </c>
@@ -14573,8 +14582,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B74" s="117"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="118"/>
       <c r="C74" s="27" t="s">
         <v>155</v>
       </c>
@@ -14599,8 +14608,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B75" s="117" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="27" t="s">
@@ -14627,8 +14636,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B76" s="117"/>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="118"/>
       <c r="C76" s="27" t="s">
         <v>154</v>
       </c>
@@ -14654,7 +14663,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="117"/>
+      <c r="B77" s="118"/>
       <c r="C77" s="27" t="s">
         <v>155</v>
       </c>
@@ -14680,7 +14689,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="117" t="s">
+      <c r="B78" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="27" t="s">
@@ -14708,7 +14717,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="117"/>
+      <c r="B79" s="118"/>
       <c r="C79" s="27" t="s">
         <v>154</v>
       </c>
@@ -14734,7 +14743,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="117"/>
+      <c r="B80" s="118"/>
       <c r="C80" s="27" t="s">
         <v>155</v>
       </c>
@@ -14760,7 +14769,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="117" t="s">
+      <c r="B81" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="27" t="s">
@@ -14788,7 +14797,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="117"/>
+      <c r="B82" s="118"/>
       <c r="C82" s="27" t="s">
         <v>154</v>
       </c>
@@ -14814,7 +14823,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="117"/>
+      <c r="B83" s="118"/>
       <c r="C83" s="27" t="s">
         <v>155</v>
       </c>
@@ -14840,7 +14849,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="117" t="s">
+      <c r="B84" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="27" t="s">
@@ -14868,7 +14877,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="117"/>
+      <c r="B85" s="118"/>
       <c r="C85" s="27" t="s">
         <v>154</v>
       </c>
@@ -14894,7 +14903,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="117"/>
+      <c r="B86" s="118"/>
       <c r="C86" s="27" t="s">
         <v>155</v>
       </c>
@@ -14958,7 +14967,7 @@
       <c r="A89" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="B89" s="117" t="s">
+      <c r="B89" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="27" t="s">
@@ -14986,7 +14995,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="117"/>
+      <c r="B90" s="118"/>
       <c r="C90" s="27" t="s">
         <v>154</v>
       </c>
@@ -15012,7 +15021,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="117"/>
+      <c r="B91" s="118"/>
       <c r="C91" s="27" t="s">
         <v>155</v>
       </c>
@@ -15038,7 +15047,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="117" t="s">
+      <c r="B92" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C92" s="27" t="s">
@@ -15066,7 +15075,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="117"/>
+      <c r="B93" s="118"/>
       <c r="C93" s="27" t="s">
         <v>154</v>
       </c>
@@ -15092,7 +15101,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="117"/>
+      <c r="B94" s="118"/>
       <c r="C94" s="27" t="s">
         <v>155</v>
       </c>
@@ -15118,7 +15127,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="117" t="s">
+      <c r="B95" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="27" t="s">
@@ -15146,7 +15155,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="117"/>
+      <c r="B96" s="118"/>
       <c r="C96" s="27" t="s">
         <v>154</v>
       </c>
@@ -15172,7 +15181,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="117"/>
+      <c r="B97" s="118"/>
       <c r="C97" s="27" t="s">
         <v>155</v>
       </c>
@@ -15198,7 +15207,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="117" t="s">
+      <c r="B98" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="27" t="s">
@@ -15226,7 +15235,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="117"/>
+      <c r="B99" s="118"/>
       <c r="C99" s="27" t="s">
         <v>154</v>
       </c>
@@ -15252,7 +15261,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="117"/>
+      <c r="B100" s="118"/>
       <c r="C100" s="27" t="s">
         <v>155</v>
       </c>
@@ -15278,7 +15287,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="117" t="s">
+      <c r="B101" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="27" t="s">
@@ -15306,7 +15315,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="117"/>
+      <c r="B102" s="118"/>
       <c r="C102" s="27" t="s">
         <v>154</v>
       </c>
@@ -15332,7 +15341,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="117"/>
+      <c r="B103" s="118"/>
       <c r="C103" s="27" t="s">
         <v>155</v>
       </c>
@@ -15427,7 +15436,7 @@
       <c r="A108" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="117" t="s">
+      <c r="B108" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="27" t="s">
@@ -15455,7 +15464,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="117"/>
+      <c r="B109" s="118"/>
       <c r="C109" s="27" t="s">
         <v>154</v>
       </c>
@@ -15481,7 +15490,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="117"/>
+      <c r="B110" s="118"/>
       <c r="C110" s="27" t="s">
         <v>155</v>
       </c>
@@ -15507,7 +15516,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="117" t="s">
+      <c r="B111" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="27" t="s">
@@ -15535,7 +15544,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="117"/>
+      <c r="B112" s="118"/>
       <c r="C112" s="27" t="s">
         <v>154</v>
       </c>
@@ -15561,7 +15570,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="117"/>
+      <c r="B113" s="118"/>
       <c r="C113" s="27" t="s">
         <v>155</v>
       </c>
@@ -15587,7 +15596,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="117" t="s">
+      <c r="B114" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C114" s="27" t="s">
@@ -15615,7 +15624,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="117"/>
+      <c r="B115" s="118"/>
       <c r="C115" s="27" t="s">
         <v>154</v>
       </c>
@@ -15641,7 +15650,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="117"/>
+      <c r="B116" s="118"/>
       <c r="C116" s="27" t="s">
         <v>155</v>
       </c>
@@ -15667,7 +15676,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="117" t="s">
+      <c r="B117" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="27" t="s">
@@ -15695,7 +15704,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="117"/>
+      <c r="B118" s="118"/>
       <c r="C118" s="27" t="s">
         <v>154</v>
       </c>
@@ -15721,7 +15730,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="117"/>
+      <c r="B119" s="118"/>
       <c r="C119" s="27" t="s">
         <v>155</v>
       </c>
@@ -15747,7 +15756,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="117" t="s">
+      <c r="B120" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C120" s="27" t="s">
@@ -15775,7 +15784,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="117"/>
+      <c r="B121" s="118"/>
       <c r="C121" s="27" t="s">
         <v>154</v>
       </c>
@@ -15801,7 +15810,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="117"/>
+      <c r="B122" s="118"/>
       <c r="C122" s="27" t="s">
         <v>155</v>
       </c>
@@ -15865,7 +15874,7 @@
       <c r="A125" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="117" t="s">
+      <c r="B125" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C125" s="27" t="s">
@@ -15893,7 +15902,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="117"/>
+      <c r="B126" s="118"/>
       <c r="C126" s="27" t="s">
         <v>154</v>
       </c>
@@ -15919,7 +15928,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="117"/>
+      <c r="B127" s="118"/>
       <c r="C127" s="27" t="s">
         <v>155</v>
       </c>
@@ -15945,7 +15954,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="117" t="s">
+      <c r="B128" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C128" s="27" t="s">
@@ -15973,7 +15982,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="117"/>
+      <c r="B129" s="118"/>
       <c r="C129" s="27" t="s">
         <v>154</v>
       </c>
@@ -15999,7 +16008,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="117"/>
+      <c r="B130" s="118"/>
       <c r="C130" s="27" t="s">
         <v>155</v>
       </c>
@@ -16025,7 +16034,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="117" t="s">
+      <c r="B131" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C131" s="27" t="s">
@@ -16053,7 +16062,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="117"/>
+      <c r="B132" s="118"/>
       <c r="C132" s="27" t="s">
         <v>154</v>
       </c>
@@ -16079,7 +16088,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="117"/>
+      <c r="B133" s="118"/>
       <c r="C133" s="27" t="s">
         <v>155</v>
       </c>
@@ -16105,7 +16114,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="117" t="s">
+      <c r="B134" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="27" t="s">
@@ -16133,7 +16142,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="117"/>
+      <c r="B135" s="118"/>
       <c r="C135" s="27" t="s">
         <v>154</v>
       </c>
@@ -16159,7 +16168,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="117"/>
+      <c r="B136" s="118"/>
       <c r="C136" s="27" t="s">
         <v>155</v>
       </c>
@@ -16185,7 +16194,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="117" t="s">
+      <c r="B137" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C137" s="27" t="s">
@@ -16213,7 +16222,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="117"/>
+      <c r="B138" s="118"/>
       <c r="C138" s="27" t="s">
         <v>154</v>
       </c>
@@ -16239,7 +16248,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="117"/>
+      <c r="B139" s="118"/>
       <c r="C139" s="27" t="s">
         <v>155</v>
       </c>
@@ -16303,7 +16312,7 @@
       <c r="A142" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="117" t="s">
+      <c r="B142" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C142" s="27" t="s">
@@ -16331,7 +16340,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="117"/>
+      <c r="B143" s="118"/>
       <c r="C143" s="27" t="s">
         <v>154</v>
       </c>
@@ -16357,7 +16366,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="117"/>
+      <c r="B144" s="118"/>
       <c r="C144" s="27" t="s">
         <v>155</v>
       </c>
@@ -16383,7 +16392,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="117" t="s">
+      <c r="B145" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C145" s="27" t="s">
@@ -16411,7 +16420,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="117"/>
+      <c r="B146" s="118"/>
       <c r="C146" s="27" t="s">
         <v>154</v>
       </c>
@@ -16437,7 +16446,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="117"/>
+      <c r="B147" s="118"/>
       <c r="C147" s="27" t="s">
         <v>155</v>
       </c>
@@ -16463,7 +16472,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="117" t="s">
+      <c r="B148" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="27" t="s">
@@ -16491,7 +16500,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="117"/>
+      <c r="B149" s="118"/>
       <c r="C149" s="27" t="s">
         <v>154</v>
       </c>
@@ -16517,7 +16526,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="117"/>
+      <c r="B150" s="118"/>
       <c r="C150" s="27" t="s">
         <v>155</v>
       </c>
@@ -16543,7 +16552,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="117" t="s">
+      <c r="B151" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C151" s="27" t="s">
@@ -16571,7 +16580,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="117"/>
+      <c r="B152" s="118"/>
       <c r="C152" s="27" t="s">
         <v>154</v>
       </c>
@@ -16597,7 +16606,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="117"/>
+      <c r="B153" s="118"/>
       <c r="C153" s="27" t="s">
         <v>155</v>
       </c>
@@ -16623,7 +16632,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="117" t="s">
+      <c r="B154" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C154" s="27" t="s">
@@ -16651,7 +16660,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="117"/>
+      <c r="B155" s="118"/>
       <c r="C155" s="27" t="s">
         <v>154</v>
       </c>
@@ -16677,7 +16686,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="117"/>
+      <c r="B156" s="118"/>
       <c r="C156" s="27" t="s">
         <v>155</v>
       </c>
@@ -16731,14 +16740,38 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TFroiCXO5/5+TjnwaDUGZST87iZqXiFQCBu0rCElY+0ss88jkBczhrGM4025KXipWfvEoJwA5/VybXI0d+waZg==" saltValue="SYQOYWTrxPTLXssYSYy/tw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="C6Fmkna+CY+BTFeybAZxHxKUBH0WkOr1Oa3oZXfAxLas+xk3BvYS0JERag9lwaZIAfcXpXPfpqA0MRoQtoj3zg==" saltValue="2q/tbfPLuB7UvhmahypehQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16748,36 +16781,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -18000,7 +18009,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iuDZMDCef+qNKeKa4azgAPYmZZHWWyZ7YphQKKxJ8LLIt2QPM7vzW+/Ih4iMNywK/DfvAXTtgn1DhWYk8UP7OA==" saltValue="5asLUGKCe9dQmFMy8DyBGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VnGNoJ1Fas/xOcjt7pUv4cS/mJHdXgugLi6JHEmp7eWHc7zoGTzl46zaVD549md4Utyb2wxAeFJk1OqWII5xKg==" saltValue="yJnqD/czpSPb47ky93ZIRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26141,7 +26150,7 @@
       <c r="I328" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CISDJBd0/xH+KIqKNEPdPCTXTDD344OJa+W3fckDbf4yLeH/+WoxIViw0EiQBt0MZvTss2fJcgLfhJk0SCD88g==" saltValue="o00w3qjf0XHsMAcuR9+9Rg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9OXMbdiOKsPLiX7qcsr9+cuEgpKyZCbHUZLx0KATTMj848UiZoI758Up6YxnLO4T99SXRv+tDQskUXnRXk1y7A==" saltValue="7w7FtKu0rgL82qZWCtubLA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27233,7 +27242,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="w7p7+4H+BdWzLyckl747BTi/Xuo4G9iXk3HuroW3XAXOih7mw8dyK8M5x7X8o6zKjpR7jtrPhk7uCiO1Sw+NLg==" saltValue="ZrKajPLuRyen72kOE5eA+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6/JOHXPnRDDyl9HnYhKt6R7Cijvruno2vqodGDH0vxWZ0zqV7CSW93Co6HgG4xKmDxeqnue4JYWCSOMdJn1z7A==" saltValue="MxzXVscQ04TNNdgdvRiO9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28108,7 +28117,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4UKtXijgU7/eL7yEVq4bNRaGNGa2O7/kDmnawr6hIUV6Le4Gist/BaUzKQgYl3ECVcf0FJP2zdLDDH4ZcXJ7Hg==" saltValue="iU4MXqobtUwE7/Em2rT42A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mhKTtrS4+wR24OLqKsUMgeoOC/xcn08MZesLdrZlL9YEMjseOHAo8ladkaQNOjJGf0eg8+zhPkQnc/J+fOj5Rg==" saltValue="hB7GUI1fMGWegV1kR9sc2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4